--- a/pali-class/vocab/vocab-class7.xlsx
+++ b/pali-class/vocab/vocab-class7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="860">
   <si>
     <t>Pāli1</t>
   </si>
@@ -175,6 +175,9 @@
     <t>vinipāta</t>
   </si>
   <si>
+    <t>māna 1</t>
+  </si>
+  <si>
     <t>kāya 2</t>
   </si>
   <si>
@@ -319,9 +322,6 @@
     <t>bāla 4</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
     <t>kāya 1</t>
   </si>
   <si>
@@ -331,15 +331,9 @@
     <t>cora</t>
   </si>
   <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
     <t>attha 5</t>
   </si>
   <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
     <t>patta 1</t>
   </si>
   <si>
@@ -607,15 +601,6 @@
     <t>kassaka</t>
   </si>
   <si>
-    <t>ahosiṃ</t>
-  </si>
-  <si>
-    <t>ahu 1</t>
-  </si>
-  <si>
-    <t>ahosi</t>
-  </si>
-  <si>
     <t>uppajjati 1</t>
   </si>
   <si>
@@ -748,6 +733,9 @@
     <t>karohi</t>
   </si>
   <si>
+    <t>sakkaroti</t>
+  </si>
+  <si>
     <t>ajjhabhāsi</t>
   </si>
   <si>
@@ -781,6 +769,9 @@
     <t>ājīva</t>
   </si>
   <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
     <t>adhamma 2</t>
   </si>
   <si>
@@ -832,12 +823,6 @@
     <t>me 3</t>
   </si>
   <si>
-    <t>ahesuṃ</t>
-  </si>
-  <si>
-    <t>ahuvattha</t>
-  </si>
-  <si>
     <t>khaṇati</t>
   </si>
   <si>
@@ -862,18 +847,21 @@
     <t>soci</t>
   </si>
   <si>
+    <t>no 3</t>
+  </si>
+  <si>
     <t>na 1</t>
   </si>
   <si>
     <t>saddhiṃ</t>
   </si>
   <si>
+    <t>saha 2</t>
+  </si>
+  <si>
     <t>no 1</t>
   </si>
   <si>
-    <t>saha 2</t>
-  </si>
-  <si>
     <t>mā 1</t>
   </si>
   <si>
@@ -901,6 +889,9 @@
     <t>dassati 1</t>
   </si>
   <si>
+    <t>tumhākaṃ 2</t>
+  </si>
+  <si>
     <t>tumhe 1</t>
   </si>
   <si>
@@ -934,6 +925,9 @@
     <t>vo 4</t>
   </si>
   <si>
+    <t>nābhijānāti</t>
+  </si>
+  <si>
     <t>ottappī</t>
   </si>
   <si>
@@ -1126,12 +1120,18 @@
     <t>abhitthavati</t>
   </si>
   <si>
+    <t>nappaṭikaṅkhati</t>
+  </si>
+  <si>
     <t>ulloketi</t>
   </si>
   <si>
     <t>anuviloketi</t>
   </si>
   <si>
+    <t>passeyya 2</t>
+  </si>
+  <si>
     <t>jāneyya</t>
   </si>
   <si>
@@ -1210,9 +1210,21 @@
     <t>upekkhā</t>
   </si>
   <si>
+    <t>karuṇā</t>
+  </si>
+  <si>
+    <t>ṭīkā</t>
+  </si>
+  <si>
     <t>nibbidā</t>
   </si>
   <si>
+    <t>pavāraṇā 1</t>
+  </si>
+  <si>
+    <t>muditā</t>
+  </si>
+  <si>
     <t>mettā</t>
   </si>
   <si>
@@ -1222,9 +1234,15 @@
     <t>saddhā 1</t>
   </si>
   <si>
+    <t>sīmā 2</t>
+  </si>
+  <si>
     <t>vijjā</t>
   </si>
   <si>
+    <t>vipassanā</t>
+  </si>
+  <si>
     <t>masc</t>
   </si>
   <si>
@@ -1399,6 +1417,9 @@
     <t>state of suffering; lit. bad fall</t>
   </si>
   <si>
+    <t>pride; conceit; comparison; lit. measuring</t>
+  </si>
+  <si>
     <t>group; host; multitude; lit. collection</t>
   </si>
   <si>
@@ -1543,9 +1564,6 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
@@ -1555,15 +1573,9 @@
     <t>thief</t>
   </si>
   <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
     <t>need (for); want (for)</t>
   </si>
   <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
     <t>bowl; alms bowl</t>
   </si>
   <si>
@@ -1831,156 +1843,153 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>takes place; arises; appears</t>
+  </si>
+  <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>practices; follows a course of action; follows a method; is intent on</t>
+  </si>
+  <si>
+    <t>thinks; imagines; presumes</t>
+  </si>
+  <si>
+    <t>is disenchanted; is disinterested; is disillusioned</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>dispels; drives out; rejects; pushes away</t>
+  </si>
+  <si>
+    <t>cuts; cuts off; severs</t>
+  </si>
+  <si>
+    <t>causes; effects</t>
+  </si>
+  <si>
+    <t>they are; there are</t>
+  </si>
+  <si>
+    <t>there is</t>
+  </si>
+  <si>
+    <t>there are; they are</t>
+  </si>
+  <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>you (all) must be; may you (all) be</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
+    <t>addressed; said (to)</t>
+  </si>
+  <si>
+    <t>may you all be! you all must be!</t>
+  </si>
+  <si>
+    <t>may they be! they must be!</t>
+  </si>
+  <si>
+    <t>may it be! he must be</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>replied; assented; agreed</t>
+  </si>
+  <si>
+    <t>asked; enquired</t>
+  </si>
+  <si>
+    <t>arose; appeared</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with)</t>
+  </si>
+  <si>
+    <t>greeted; exchanged pleasantries; was friendly (with)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to)</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>went; travelled</t>
+  </si>
+  <si>
+    <t>monk; sage; hermit; holy man</t>
+  </si>
+  <si>
+    <t>householder; landowner; lit. house master</t>
+  </si>
+  <si>
+    <t>rice paddy</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>perfect peace of mind; stability; stillness; composure; collectedness of mind; lit. putting together</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>sickness; disease; lit. upset; overturn</t>
+  </si>
+  <si>
+    <t>family; relative; lit. known</t>
+  </si>
+  <si>
+    <t>does; makes; acts; performs; builds</t>
+  </si>
+  <si>
+    <t>do! make! may you preform; you must do</t>
+  </si>
+  <si>
+    <t>honours; esteems; respects; lit. makes properly</t>
+  </si>
+  <si>
+    <t>addressed; spoke (to)</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
+    <t>stood; stayed; remained</t>
+  </si>
+  <si>
+    <t>answered; explained</t>
+  </si>
+  <si>
     <t>I was</t>
   </si>
   <si>
-    <t>was</t>
-  </si>
-  <si>
-    <t>was; existed; became</t>
-  </si>
-  <si>
-    <t>takes place; arises; appears</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>thinks; imagines; presumes</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>dispels; drives out; rejects; pushes away</t>
-  </si>
-  <si>
-    <t>cuts; cuts off; severs</t>
-  </si>
-  <si>
-    <t>causes; effects</t>
-  </si>
-  <si>
-    <t>they are; there are</t>
-  </si>
-  <si>
-    <t>there is</t>
-  </si>
-  <si>
-    <t>there are; they are</t>
-  </si>
-  <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>you (all) must be; may you (all) be</t>
-  </si>
-  <si>
-    <t>I am</t>
-  </si>
-  <si>
-    <t>addressed; said (to)</t>
-  </si>
-  <si>
-    <t>may you all be! you all must be!</t>
-  </si>
-  <si>
-    <t>may they be! they must be!</t>
-  </si>
-  <si>
-    <t>may it be! he must be</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>replied; assented; agreed</t>
-  </si>
-  <si>
-    <t>asked; enquired</t>
-  </si>
-  <si>
-    <t>arose; appeared</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with)</t>
-  </si>
-  <si>
-    <t>greeted; exchanged pleasantries; was friendly (with)</t>
-  </si>
-  <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to)</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
-    <t>went; travelled</t>
-  </si>
-  <si>
-    <t>monk; sage; hermit; holy man</t>
-  </si>
-  <si>
-    <t>householder; landowner; lit. house master</t>
-  </si>
-  <si>
-    <t>rice paddy</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>perfect peace of mind; stability; stillness; composure; collectedness of mind; lit. putting together</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>sickness; disease; lit. upset; overturn</t>
-  </si>
-  <si>
-    <t>family; relative; lit. known</t>
-  </si>
-  <si>
-    <t>does; makes; acts; performs; builds</t>
-  </si>
-  <si>
-    <t>do! make! may you preform; you must do</t>
-  </si>
-  <si>
-    <t>addressed; spoke (to)</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>stood; stayed; remained</t>
-  </si>
-  <si>
-    <t>answered; explained</t>
-  </si>
-  <si>
     <t>one was; it was</t>
   </si>
   <si>
@@ -1999,6 +2008,9 @@
     <t>livelihood; way of earning a living</t>
   </si>
   <si>
+    <t>one who has thoroughly understood; being enlightened; the Buddha</t>
+  </si>
+  <si>
     <t>false teaching; against the teaching</t>
   </si>
   <si>
@@ -2047,12 +2059,6 @@
     <t>for me; to me</t>
   </si>
   <si>
-    <t>there were; they were</t>
-  </si>
-  <si>
-    <t>you all were</t>
-  </si>
-  <si>
     <t>digs; uproots; destroys</t>
   </si>
   <si>
@@ -2077,18 +2083,21 @@
     <t>grieved; was sad</t>
   </si>
   <si>
+    <t>then; now; indeed</t>
+  </si>
+  <si>
     <t>(negative particle); no; not</t>
   </si>
   <si>
     <t>together (with); with</t>
   </si>
   <si>
+    <t>with; together (with); accompanied (by)</t>
+  </si>
+  <si>
     <t>no; not</t>
   </si>
   <si>
-    <t>with; together (with); accompanied (by)</t>
-  </si>
-  <si>
     <t>do not; may one not</t>
   </si>
   <si>
@@ -2116,6 +2125,9 @@
     <t>will give (to)</t>
   </si>
   <si>
+    <t>to you; for you all</t>
+  </si>
+  <si>
     <t>you all; you (respectful plural)</t>
   </si>
   <si>
@@ -2146,6 +2158,9 @@
     <t>your</t>
   </si>
   <si>
+    <t>does not know; does not understand</t>
+  </si>
+  <si>
     <t>afraid of wrong; feeling shame; conscientious</t>
   </si>
   <si>
@@ -2338,12 +2353,18 @@
     <t>praises; applauds</t>
   </si>
   <si>
+    <t>does not anticipate; does not expect; does not await</t>
+  </si>
+  <si>
     <t>looks up at</t>
   </si>
   <si>
     <t>looks around; survey</t>
   </si>
   <si>
+    <t>seen; observed</t>
+  </si>
+  <si>
     <t>could know; would understand; could be aware; would find out</t>
   </si>
   <si>
@@ -2419,9 +2440,21 @@
     <t>mental poise; balance; equanimity; equipoise</t>
   </si>
   <si>
+    <t>compassion; sympathy; kindness (towards unfortunate beings); lit. action</t>
+  </si>
+  <si>
+    <t>sub-commentary; commentary on a commentary</t>
+  </si>
+  <si>
     <t>dis-enchantment; de-illusionment; disinterest</t>
   </si>
   <si>
+    <t>(vinaya) invitation ceremony at the end of the rains retreat</t>
+  </si>
+  <si>
+    <t>sympathy in other's welfare; heartiness; sympathetic joy; state of happy for</t>
+  </si>
+  <si>
     <t>goodwill; friendliness; benevolence</t>
   </si>
   <si>
@@ -2431,9 +2464,15 @@
     <t>faith; confidence; lit. putting heart</t>
   </si>
   <si>
+    <t>(vinaya) boundary in which legal procedures are performed; legal territory</t>
+  </si>
+  <si>
     <t>knowledge; wisdom; understanding</t>
   </si>
   <si>
+    <t>insight; penetrating internal vision; introspection; lit. distinct seeing</t>
+  </si>
+  <si>
     <t>a-masc</t>
   </si>
   <si>
@@ -2452,9 +2491,6 @@
     <t>āti-pr</t>
   </si>
   <si>
-    <t>ahosi-aor</t>
-  </si>
-  <si>
     <t>atthi-pr</t>
   </si>
   <si>
@@ -2474,6 +2510,9 @@
   </si>
   <si>
     <t>karoti-pr</t>
+  </si>
+  <si>
+    <t>oti-pr</t>
   </si>
   <si>
     <t>āsi-aor</t>
@@ -2912,7 +2951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E399"/>
+  <dimension ref="A1:E405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2940,16 +2979,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D2" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E2" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2957,16 +2996,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E3" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2974,16 +3013,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C4" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D4" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E4" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2991,16 +3030,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C5" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E5" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3008,16 +3047,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C6" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D6" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E6" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3025,16 +3064,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D7" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E7" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3042,16 +3081,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C8" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D8" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E8" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3059,16 +3098,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C9" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D9" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E9" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3076,16 +3115,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C10" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D10" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E10" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3093,16 +3132,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C11" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D11" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E11" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3110,16 +3149,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C12" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D12" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E12" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3127,16 +3166,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C13" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D13" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E13" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3144,16 +3183,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C14" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D14" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E14" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3161,16 +3200,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C15" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D15" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E15" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3178,16 +3217,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C16" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D16" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E16" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3195,16 +3234,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C17" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D17" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E17" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3212,16 +3251,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C18" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D18" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E18" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3229,16 +3268,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C19" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D19" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E19" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3246,16 +3285,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C20" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D20" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E20" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3263,16 +3302,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C21" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D21" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E21" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3280,16 +3319,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C22" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D22" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E22" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3297,16 +3336,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C23" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D23" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E23" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3314,16 +3353,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C24" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D24" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E24" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3331,16 +3370,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C25" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D25" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E25" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3348,16 +3387,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C26" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D26" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E26" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3365,16 +3404,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C27" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D27" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E27" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3382,16 +3421,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C28" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D28" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E28" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3399,16 +3438,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C29" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D29" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E29" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3416,16 +3455,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C30" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D30" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E30" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3433,16 +3472,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C31" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D31" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E31" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3450,16 +3489,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C32" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D32" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E32" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3467,16 +3506,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C33" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D33" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E33" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3484,16 +3523,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C34" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D34" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E34" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3501,16 +3540,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C35" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D35" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E35" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3518,16 +3557,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C36" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D36" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E36" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3535,16 +3574,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C37" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D37" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E37" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3552,16 +3591,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C38" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D38" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E38" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3569,16 +3608,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C39" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D39" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E39" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3586,16 +3625,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C40" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D40" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E40" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3603,16 +3642,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C41" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D41" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E41" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3620,16 +3659,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C42" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D42" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E42" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3637,16 +3676,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C43" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D43" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E43" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3654,16 +3693,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C44" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D44" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E44" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3671,16 +3710,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C45" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D45" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E45" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3688,16 +3727,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C46" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D46" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E46" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3705,16 +3744,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C47" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D47" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E47" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3722,16 +3761,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C48" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D48" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E48" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3739,16 +3778,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C49" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D49" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E49" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3756,16 +3795,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C50" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D50" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E50" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3773,16 +3812,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C51" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D51" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E51" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3790,16 +3829,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C52" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D52" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E52" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3807,16 +3846,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C53" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D53" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E53" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3824,16 +3863,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C54" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D54" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E54" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3841,16 +3880,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C55" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D55" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E55" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3858,16 +3897,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C56" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D56" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E56" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3875,16 +3914,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C57" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D57" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E57" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3892,16 +3931,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C58" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D58" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E58" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3909,16 +3948,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C59" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D59" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E59" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3926,16 +3965,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C60" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D60" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E60" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3943,16 +3982,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C61" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D61" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E61" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3960,16 +3999,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C62" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D62" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E62" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3977,16 +4016,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C63" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D63" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E63" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3994,16 +4033,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C64" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D64" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E64" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4011,16 +4050,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C65" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D65" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E65" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4028,16 +4067,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C66" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D66" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E66" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4045,16 +4084,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C67" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D67" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E67" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4062,16 +4101,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C68" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D68" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E68" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4079,16 +4118,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C69" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D69" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E69" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4096,16 +4135,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C70" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D70" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E70" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4113,16 +4152,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C71" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D71" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E71" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4130,16 +4169,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C72" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D72" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E72" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4147,16 +4186,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C73" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D73" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E73" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4164,16 +4203,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C74" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D74" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E74" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4181,16 +4220,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C75" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D75" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E75" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4198,16 +4237,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C76" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D76" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E76" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4215,16 +4254,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C77" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D77" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E77" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4232,16 +4271,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C78" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D78" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E78" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4249,16 +4288,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C79" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="D79" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E79" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4266,16 +4305,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C80" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D80" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E80" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4283,16 +4322,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C81" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D81" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E81" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4300,16 +4339,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C82" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D82" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E82" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4317,16 +4356,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C83" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D83" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E83" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4334,16 +4373,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C84" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D84" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E84" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4351,16 +4390,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C85" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D85" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E85" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4368,16 +4407,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C86" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D86" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E86" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4385,16 +4424,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C87" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D87" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E87" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4402,16 +4441,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C88" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D88" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E88" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4419,16 +4458,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C89" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D89" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E89" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4436,16 +4475,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C90" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D90" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E90" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4453,16 +4492,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C91" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D91" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E91" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4470,16 +4509,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C92" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D92" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E92" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4487,16 +4526,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C93" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D93" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E93" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4504,16 +4543,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C94" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D94" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E94" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4521,16 +4560,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C95" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D95" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E95" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4538,16 +4577,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C96" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D96" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E96" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4555,16 +4594,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C97" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D97" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E97" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4572,16 +4611,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C98" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D98" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E98" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4589,16 +4628,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C99" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D99" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E99" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4606,16 +4645,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C100" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D100" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E100" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4623,16 +4662,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C101" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D101" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E101" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4640,16 +4679,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C102" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D102" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E102" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4657,16 +4696,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C103" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D103" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E103" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4674,16 +4713,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C104" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D104" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E104" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4691,16 +4730,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C105" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="D105" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E105" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4708,16 +4747,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C106" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D106" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E106" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4725,16 +4764,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C107" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="D107" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E107" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4742,16 +4781,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C108" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D108" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E108" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4759,16 +4798,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C109" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D109" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E109" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4776,16 +4815,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C110" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="D110" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E110" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4793,16 +4832,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C111" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D111" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E111" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4810,16 +4849,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C112" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D112" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E112" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4827,16 +4866,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C113" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="D113" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E113" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4844,16 +4883,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C114" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D114" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E114" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4861,16 +4900,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C115" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D115" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E115" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4878,16 +4917,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C116" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D116" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E116" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4895,16 +4934,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C117" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D117" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E117" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4912,16 +4951,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C118" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D118" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E118" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4929,16 +4968,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C119" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D119" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E119" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4946,16 +4985,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C120" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D120" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E120" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4963,16 +5002,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C121" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D121" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E121" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4980,16 +5019,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C122" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D122" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E122" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4997,16 +5036,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C123" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D123" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E123" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5014,16 +5053,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C124" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D124" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E124" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5031,16 +5070,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C125" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D125" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E125" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5048,16 +5087,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C126" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D126" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="E126" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5065,16 +5104,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C127" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D127" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="E127" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5082,16 +5121,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C128" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D128" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="E128" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5099,16 +5138,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C129" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D129" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="E129" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5116,16 +5155,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C130" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D130" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E130" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5133,16 +5172,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C131" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D131" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="E131" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5150,16 +5189,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C132" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D132" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="E132" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5167,16 +5206,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C133" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D133" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E133" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5184,16 +5223,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C134" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D134" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E134" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5201,16 +5240,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C135" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D135" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E135" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5218,16 +5257,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C136" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="D136" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E136" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5235,16 +5274,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C137" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D137" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E137" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5252,16 +5291,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C138" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D138" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E138" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5269,16 +5308,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C139" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="D139" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E139" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5286,16 +5325,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C140" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="D140" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E140" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5303,16 +5342,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C141" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="D141" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E141" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5320,16 +5359,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C142" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D142" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E142" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5337,16 +5376,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C143" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D143" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E143" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5354,16 +5393,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C144" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D144" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E144" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5371,16 +5410,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C145" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="D145" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E145" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5388,16 +5427,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C146" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="D146" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E146" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5405,16 +5444,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C147" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D147" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E147" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5422,16 +5461,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C148" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="D148" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E148" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5439,16 +5478,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C149" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="D149" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E149" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5456,16 +5495,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C150" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D150" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E150" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5473,16 +5512,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C151" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D151" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E151" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5490,16 +5529,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C152" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="D152" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E152" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5507,16 +5546,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C153" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D153" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E153" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5524,16 +5563,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C154" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D154" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E154" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5541,16 +5580,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C155" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="D155" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E155" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5558,16 +5597,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C156" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D156" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E156" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5575,16 +5614,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C157" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="D157" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E157" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5592,16 +5631,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C158" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D158" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E158" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5609,16 +5648,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C159" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D159" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E159" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5626,16 +5665,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C160" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D160" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E160" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5643,16 +5682,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C161" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="D161" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E161" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5660,16 +5699,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C162" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="D162" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E162" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5677,16 +5716,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C163" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D163" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E163" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5694,16 +5733,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C164" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="D164" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E164" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5711,16 +5750,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C165" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D165" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E165" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5728,16 +5767,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C166" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D166" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E166" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5745,16 +5784,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C167" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D167" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="E167" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5762,16 +5801,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C168" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D168" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="E168" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5779,16 +5818,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C169" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D169" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="E169" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5796,16 +5835,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C170" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D170" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="E170" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5813,16 +5852,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C171" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D171" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="E171" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5830,16 +5869,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C172" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D172" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="E172" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5847,16 +5886,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C173" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D173" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="E173" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5864,16 +5903,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C174" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D174" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="E174" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5881,16 +5920,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C175" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="D175" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
       <c r="E175" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5898,16 +5937,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C176" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D176" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="E176" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5915,16 +5954,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C177" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D177" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="E177" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5932,16 +5971,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C178" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D178" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="E178" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5949,16 +5988,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C179" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="D179" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="E179" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5966,16 +6005,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C180" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D180" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="E180" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5983,16 +6022,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C181" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D181" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="E181" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6000,16 +6039,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C182" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D182" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="E182" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6017,16 +6056,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C183" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D183" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="E183" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6034,16 +6073,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C184" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D184" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="E184" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6051,16 +6090,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C185" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="D185" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="E185" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6068,16 +6107,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C186" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D186" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="E186" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6085,16 +6124,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C187" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D187" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E187" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6102,16 +6141,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C188" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="D188" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E188" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6119,16 +6158,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C189" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D189" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E189" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6136,16 +6175,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C190" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="D190" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E190" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6153,16 +6192,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C191" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D191" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E191" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6170,16 +6209,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C192" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D192" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="E192" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6187,16 +6226,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C193" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D193" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="E193" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6204,16 +6243,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C194" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D194" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="E194" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6221,16 +6260,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C195" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D195" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="E195" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6238,16 +6277,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C196" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D196" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="E196" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6255,16 +6294,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C197" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D197" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E197" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6272,16 +6311,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C198" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="D198" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E198" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6289,16 +6328,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C199" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="D199" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E199" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6306,16 +6345,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C200" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D200" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E200" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6323,16 +6362,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C201" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D201" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E201" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6340,16 +6379,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C202" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="D202" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="E202" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6357,16 +6396,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C203" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="D203" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="E203" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6374,16 +6413,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C204" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D204" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="E204" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6391,16 +6430,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C205" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="D205" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="E205" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6408,16 +6447,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C206" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="D206" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="E206" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6425,16 +6464,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C207" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D207" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="E207" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6442,16 +6481,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C208" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D208" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="E208" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6459,16 +6498,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C209" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="D209" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
       <c r="E209" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6476,16 +6515,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C210" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D210" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="E210" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6493,16 +6532,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C211" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D211" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="E211" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6510,16 +6549,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C212" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="D212" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="E212" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6527,16 +6566,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C213" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="D213" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="E213" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6544,16 +6583,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C214" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D214" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="E214" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6561,16 +6600,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C215" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="D215" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="E215" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6578,16 +6617,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C216" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="D216" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="E216" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6595,16 +6634,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C217" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D217" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="E217" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6612,16 +6651,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C218" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="D218" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="E218" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6629,16 +6668,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C219" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="D219" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="E219" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6646,16 +6685,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C220" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="D220" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="E220" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6663,16 +6702,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C221" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="D221" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="E221" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6680,16 +6719,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C222" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D222" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="E222" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6697,16 +6736,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C223" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="D223" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="E223" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6714,16 +6753,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C224" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D224" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="E224" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6731,16 +6770,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C225" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="D225" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="E225" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6748,16 +6787,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C226" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="D226" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="E226" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6765,16 +6804,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C227" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="D227" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="E227" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6782,16 +6821,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C228" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="D228" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="E228" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6799,16 +6838,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C229" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="D229" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="E229" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6816,16 +6855,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C230" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="D230" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="E230" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6833,16 +6872,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C231" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="D231" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="E231" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6850,16 +6889,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C232" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="D232" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="E232" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6867,16 +6906,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C233" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="D233" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="E233" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6884,16 +6923,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C234" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="D234" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
       <c r="E234" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6901,16 +6940,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C235" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="D235" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
       <c r="E235" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6918,16 +6957,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C236" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="D236" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="E236" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6935,16 +6974,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C237" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="D237" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="E237" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6952,16 +6991,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C238" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D238" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="E238" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6969,16 +7008,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C239" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="D239" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="E239" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6986,16 +7025,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C240" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D240" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="E240" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7003,16 +7042,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C241" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="D241" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="E241" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7020,16 +7059,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C242" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="D242" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="E242" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7037,16 +7076,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C243" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D243" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E243" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7054,16 +7093,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C244" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="D244" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E244" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7071,16 +7110,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C245" t="s">
-        <v>605</v>
+        <v>661</v>
       </c>
       <c r="D245" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E245" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7088,16 +7127,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C246" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="D246" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E246" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7105,16 +7144,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C247" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="D247" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E247" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7122,16 +7161,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C248" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="D248" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E248" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7139,16 +7178,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C249" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="D249" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E249" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7156,16 +7195,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C250" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="D250" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E250" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7173,16 +7212,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C251" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="D251" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E251" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7190,16 +7229,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C252" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="D252" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E252" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7207,16 +7246,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C253" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="D253" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E253" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7224,16 +7263,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C254" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="D254" t="s">
-        <v>806</v>
+        <v>835</v>
       </c>
       <c r="E254" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7241,16 +7280,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C255" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="D255" t="s">
-        <v>806</v>
+        <v>835</v>
       </c>
       <c r="E255" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7258,16 +7297,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C256" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="D256" t="s">
-        <v>806</v>
+        <v>835</v>
       </c>
       <c r="E256" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7275,16 +7314,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C257" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="D257" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="E257" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7292,16 +7331,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C258" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="D258" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="E258" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7309,16 +7348,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C259" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="D259" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="E259" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7326,16 +7365,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C260" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D260" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="E260" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7343,16 +7382,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C261" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="D261" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="E261" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7360,16 +7399,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C262" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="D262" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="E262" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7377,16 +7416,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C263" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="D263" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="E263" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7394,16 +7433,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C264" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="D264" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="E264" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7411,16 +7450,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C265" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="D265" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="E265" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7428,16 +7467,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C266" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="D266" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E266" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7445,16 +7484,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C267" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="D267" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E267" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7462,16 +7501,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C268" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="D268" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E268" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7479,16 +7518,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C269" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="D269" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="E269" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7496,16 +7535,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C270" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D270" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="E270" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7513,16 +7552,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C271" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="D271" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="E271" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7530,16 +7569,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C272" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="D272" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="E272" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7547,16 +7586,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C273" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="D273" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="E273" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7564,16 +7603,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C274" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="D274" t="s">
-        <v>814</v>
+        <v>414</v>
       </c>
       <c r="E274" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7581,16 +7620,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C275" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="D275" t="s">
-        <v>809</v>
+        <v>414</v>
       </c>
       <c r="E275" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7598,16 +7637,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C276" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="D276" t="s">
-        <v>809</v>
+        <v>414</v>
       </c>
       <c r="E276" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7615,16 +7654,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C277" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D277" t="s">
-        <v>816</v>
+        <v>414</v>
       </c>
       <c r="E277" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7632,16 +7671,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C278" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="D278" t="s">
-        <v>816</v>
+        <v>414</v>
       </c>
       <c r="E278" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7649,16 +7688,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C279" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="D279" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E279" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7666,16 +7705,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C280" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="D280" t="s">
-        <v>408</v>
+        <v>836</v>
       </c>
       <c r="E280" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7683,16 +7722,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C281" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="D281" t="s">
-        <v>408</v>
+        <v>836</v>
       </c>
       <c r="E281" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7700,16 +7739,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C282" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="D282" t="s">
-        <v>408</v>
+        <v>836</v>
       </c>
       <c r="E282" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7717,16 +7756,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C283" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="D283" t="s">
-        <v>408</v>
+        <v>836</v>
       </c>
       <c r="E283" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7734,16 +7773,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C284" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="D284" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
       <c r="E284" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7751,16 +7790,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C285" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="D285" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
       <c r="E285" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7768,16 +7807,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C286" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="D286" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="E286" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7785,16 +7824,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C287" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="D287" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="E287" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7802,16 +7841,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C288" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="D288" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="E288" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7819,16 +7858,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C289" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="D289" t="s">
-        <v>824</v>
+        <v>839</v>
       </c>
       <c r="E289" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7836,16 +7875,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C290" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="D290" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="E290" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7853,16 +7892,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C291" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="D291" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="E291" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7870,16 +7909,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C292" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="D292" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="E292" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7887,16 +7926,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C293" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="D293" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="E293" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7904,16 +7943,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C294" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="D294" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="E294" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7921,16 +7960,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C295" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="D295" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="E295" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7938,16 +7977,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C296" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="D296" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="E296" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7955,16 +7994,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C297" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="D297" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="E297" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7972,16 +8011,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C298" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="D298" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="E298" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7989,16 +8028,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C299" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="D299" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="E299" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8006,16 +8045,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C300" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="D300" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E300" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8023,16 +8062,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C301" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="D301" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="E301" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8040,16 +8079,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C302" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="D302" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="E302" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8057,16 +8096,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C303" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="D303" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
       <c r="E303" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8074,16 +8113,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C304" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="D304" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
       <c r="E304" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8091,16 +8130,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C305" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="D305" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
       <c r="E305" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8108,16 +8147,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C306" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="D306" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="E306" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8125,16 +8164,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C307" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="D307" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="E307" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8142,16 +8181,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C308" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="D308" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="E308" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8159,16 +8198,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C309" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="D309" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="E309" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8176,16 +8215,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C310" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="D310" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="E310" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8193,16 +8232,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C311" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="D311" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="E311" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8210,16 +8249,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C312" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="D312" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E312" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8227,16 +8266,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C313" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="D313" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E313" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8244,16 +8283,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C314" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="D314" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E314" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8261,16 +8300,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C315" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="D315" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E315" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8278,16 +8317,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C316" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="D316" t="s">
-        <v>806</v>
+        <v>842</v>
       </c>
       <c r="E316" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8295,16 +8334,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C317" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="D317" t="s">
-        <v>806</v>
+        <v>842</v>
       </c>
       <c r="E317" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8312,16 +8351,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C318" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="D318" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="E318" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8329,16 +8368,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C319" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="D319" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="E319" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8346,16 +8385,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C320" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="D320" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="E320" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8363,16 +8402,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C321" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="D321" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="E321" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8380,16 +8419,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C322" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="D322" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="E322" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8397,16 +8436,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C323" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="D323" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="E323" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8414,16 +8453,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C324" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D324" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
       <c r="E324" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8431,16 +8470,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C325" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="D325" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="E325" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8448,16 +8487,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C326" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="D326" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="E326" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8465,16 +8504,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C327" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="D327" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
       <c r="E327" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8482,16 +8521,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C328" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="D328" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
       <c r="E328" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8499,16 +8538,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C329" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="D329" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
       <c r="E329" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8516,16 +8555,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C330" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="D330" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
       <c r="E330" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8533,16 +8572,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C331" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="D331" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="E331" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8550,16 +8589,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C332" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="D332" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="E332" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8567,16 +8606,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C333" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="D333" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="E333" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8584,16 +8623,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C334" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D334" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="E334" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8601,16 +8640,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C335" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="D335" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="E335" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8618,16 +8657,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C336" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="D336" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="E336" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8635,16 +8674,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C337" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="D337" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E337" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8652,16 +8691,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C338" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="D338" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="E338" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8669,16 +8708,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C339" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="D339" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="E339" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8686,16 +8725,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C340" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="D340" t="s">
-        <v>809</v>
+        <v>830</v>
       </c>
       <c r="E340" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8703,16 +8742,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C341" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="D341" t="s">
-        <v>816</v>
+        <v>414</v>
       </c>
       <c r="E341" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8720,16 +8759,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C342" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="D342" t="s">
-        <v>818</v>
+        <v>414</v>
       </c>
       <c r="E342" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8737,16 +8776,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C343" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="D343" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E343" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8754,16 +8793,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C344" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="D344" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E344" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8771,16 +8810,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C345" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="D345" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E345" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8788,16 +8827,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C346" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="D346" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E346" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8805,16 +8844,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C347" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="D347" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E347" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8822,16 +8861,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C348" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="D348" t="s">
-        <v>408</v>
+        <v>846</v>
       </c>
       <c r="E348" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8839,16 +8878,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C349" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="D349" t="s">
-        <v>408</v>
+        <v>846</v>
       </c>
       <c r="E349" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8856,16 +8895,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C350" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="D350" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="E350" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8873,16 +8912,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C351" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="D351" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="E351" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8890,16 +8929,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C352" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="D352" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="E352" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -8907,16 +8946,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C353" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="D353" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="E353" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -8924,16 +8963,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C354" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="D354" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="E354" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -8941,16 +8980,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C355" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="D355" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="E355" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -8958,16 +8997,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C356" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="D356" t="s">
-        <v>827</v>
+        <v>847</v>
       </c>
       <c r="E356" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -8975,16 +9014,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C357" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="D357" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="E357" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -8992,16 +9031,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C358" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="D358" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="E358" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9009,16 +9048,16 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C359" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="D359" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="E359" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9026,16 +9065,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C360" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="D360" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="E360" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9043,16 +9082,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C361" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="D361" t="s">
-        <v>806</v>
+        <v>842</v>
       </c>
       <c r="E361" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9060,16 +9099,16 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C362" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="D362" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="E362" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9080,13 +9119,13 @@
         <v>410</v>
       </c>
       <c r="C363" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="D363" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="E363" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9094,16 +9133,16 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C364" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="D364" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E364" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9111,16 +9150,16 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C365" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="D365" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="E365" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9128,16 +9167,16 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C366" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="D366" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="E366" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9145,16 +9184,16 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C367" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="D367" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="E367" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9162,16 +9201,16 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="C368" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="D368" t="s">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="E368" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9179,16 +9218,16 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C369" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="D369" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
       <c r="E369" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9196,16 +9235,16 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C370" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="D370" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
       <c r="E370" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9213,16 +9252,16 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C371" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="D371" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
       <c r="E371" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9230,16 +9269,16 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C372" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="D372" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
       <c r="E372" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9247,16 +9286,16 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C373" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="D373" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
       <c r="E373" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9264,16 +9303,16 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C374" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="D374" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="E374" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9281,16 +9320,16 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C375" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="D375" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E375" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9298,16 +9337,16 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C376" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="D376" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E376" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9315,16 +9354,16 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C377" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="D377" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E377" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9332,16 +9371,16 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C378" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="D378" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E378" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9349,16 +9388,16 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C379" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="D379" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E379" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9366,16 +9405,16 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C380" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="D380" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E380" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9383,16 +9422,16 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C381" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="D381" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E381" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9400,16 +9439,16 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C382" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="D382" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E382" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9417,16 +9456,16 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C383" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="D383" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E383" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9434,16 +9473,16 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C384" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="D384" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E384" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9451,16 +9490,16 @@
         <v>388</v>
       </c>
       <c r="B385" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C385" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="D385" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E385" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9468,16 +9507,16 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C386" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="D386" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E386" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9485,16 +9524,16 @@
         <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C387" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="D387" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E387" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9502,16 +9541,16 @@
         <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C388" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="D388" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E388" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9519,16 +9558,16 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C389" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D389" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E389" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9536,16 +9575,16 @@
         <v>393</v>
       </c>
       <c r="B390" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C390" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="D390" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E390" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9553,16 +9592,16 @@
         <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C391" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="D391" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E391" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9570,16 +9609,16 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C392" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="D392" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E392" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9587,16 +9626,16 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C393" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="D393" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E393" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9604,16 +9643,16 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C394" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="D394" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E394" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9621,16 +9660,16 @@
         <v>398</v>
       </c>
       <c r="B395" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C395" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="D395" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E395" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9638,16 +9677,16 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C396" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="D396" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E396" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9655,16 +9694,16 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C397" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="D397" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E397" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -9672,16 +9711,16 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C398" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="D398" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E398" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -9689,16 +9728,118 @@
         <v>402</v>
       </c>
       <c r="B399" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C399" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="D399" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="E399" t="s">
-        <v>846</v>
+        <v>859</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" t="s">
+        <v>403</v>
+      </c>
+      <c r="B400" t="s">
+        <v>418</v>
+      </c>
+      <c r="C400" t="s">
+        <v>813</v>
+      </c>
+      <c r="D400" t="s">
+        <v>853</v>
+      </c>
+      <c r="E400" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" t="s">
+        <v>404</v>
+      </c>
+      <c r="B401" t="s">
+        <v>418</v>
+      </c>
+      <c r="C401" t="s">
+        <v>814</v>
+      </c>
+      <c r="D401" t="s">
+        <v>853</v>
+      </c>
+      <c r="E401" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" t="s">
+        <v>405</v>
+      </c>
+      <c r="B402" t="s">
+        <v>418</v>
+      </c>
+      <c r="C402" t="s">
+        <v>815</v>
+      </c>
+      <c r="D402" t="s">
+        <v>853</v>
+      </c>
+      <c r="E402" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>406</v>
+      </c>
+      <c r="B403" t="s">
+        <v>418</v>
+      </c>
+      <c r="C403" t="s">
+        <v>816</v>
+      </c>
+      <c r="D403" t="s">
+        <v>853</v>
+      </c>
+      <c r="E403" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>407</v>
+      </c>
+      <c r="B404" t="s">
+        <v>418</v>
+      </c>
+      <c r="C404" t="s">
+        <v>817</v>
+      </c>
+      <c r="D404" t="s">
+        <v>853</v>
+      </c>
+      <c r="E404" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" t="s">
+        <v>408</v>
+      </c>
+      <c r="B405" t="s">
+        <v>418</v>
+      </c>
+      <c r="C405" t="s">
+        <v>818</v>
+      </c>
+      <c r="D405" t="s">
+        <v>853</v>
+      </c>
+      <c r="E405" t="s">
+        <v>859</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class7.xlsx
+++ b/pali-class/vocab/vocab-class7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="890">
   <si>
     <t>Pāli1</t>
   </si>
@@ -49,12 +49,36 @@
     <t>sāvaka</t>
   </si>
   <si>
+    <t>adhigama</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
     <t>loka 2</t>
   </si>
   <si>
     <t>sagga 2</t>
   </si>
   <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 2</t>
+  </si>
+  <si>
+    <t>nakha</t>
+  </si>
+  <si>
+    <t>loma</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
     <t>vinaya 1</t>
   </si>
   <si>
@@ -82,6 +106,9 @@
     <t>āsaya 2</t>
   </si>
   <si>
+    <t>uposatha</t>
+  </si>
+  <si>
     <t>bhava 2</t>
   </si>
   <si>
@@ -166,6 +193,9 @@
     <t>paṇḍita 2</t>
   </si>
   <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
     <t>satta 1</t>
   </si>
   <si>
@@ -301,6 +331,9 @@
     <t>paribbājaka</t>
   </si>
   <si>
+    <t>rukkha</t>
+  </si>
+  <si>
     <t>buddha 1</t>
   </si>
   <si>
@@ -322,6 +355,9 @@
     <t>bāla 4</t>
   </si>
   <si>
+    <t>magga 1</t>
+  </si>
+  <si>
     <t>kāya 1</t>
   </si>
   <si>
@@ -331,9 +367,15 @@
     <t>cora</t>
   </si>
   <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
     <t>attha 5</t>
   </si>
   <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
     <t>patta 1</t>
   </si>
   <si>
@@ -367,9 +409,6 @@
     <t>thera 2</t>
   </si>
   <si>
-    <t>dhamma 3</t>
-  </si>
-  <si>
     <t>dhamma 9</t>
   </si>
   <si>
@@ -451,6 +490,9 @@
     <t>vadati 1</t>
   </si>
   <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>rakkhati 1</t>
   </si>
   <si>
@@ -754,6 +796,9 @@
     <t>āsi 1</t>
   </si>
   <si>
+    <t>taca 1</t>
+  </si>
+  <si>
     <t>kāra 2</t>
   </si>
   <si>
@@ -763,9 +808,6 @@
     <t>dava</t>
   </si>
   <si>
-    <t>taca 1</t>
-  </si>
-  <si>
     <t>ājīva</t>
   </si>
   <si>
@@ -1138,6 +1180,9 @@
     <t>āgaccheyya</t>
   </si>
   <si>
+    <t>adhigaccheyya</t>
+  </si>
+  <si>
     <t>vihareyya</t>
   </si>
   <si>
@@ -1291,12 +1336,36 @@
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>arrival (at); attainment (of); reaching (of)</t>
+  </si>
+  <si>
+    <t>method; system; (right) path</t>
+  </si>
+  <si>
+    <t>surpassing; overcoming; going beyond</t>
+  </si>
+  <si>
     <t>world; plane of existence</t>
   </si>
   <si>
     <t>heaven; state of happiness</t>
   </si>
   <si>
+    <t>distinction; attainment</t>
+  </si>
+  <si>
+    <t>tooth; tusk; fang</t>
+  </si>
+  <si>
+    <t>a nail; a claw</t>
+  </si>
+  <si>
+    <t>the hair on the body; pelt</t>
+  </si>
+  <si>
+    <t>hair of the head</t>
+  </si>
+  <si>
     <t>discipline; training; lit. leading out (from unwholesome)</t>
   </si>
   <si>
@@ -1324,6 +1393,9 @@
     <t>home (of); dwelling (of); abode (of)</t>
   </si>
   <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
     <t>being; existence; becoming</t>
   </si>
   <si>
@@ -1408,6 +1480,9 @@
     <t>sage; intelligent person; wise man</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>a living being; creature; sentient beings</t>
   </si>
   <si>
@@ -1543,6 +1618,9 @@
     <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
   </si>
   <si>
+    <t>tree</t>
+  </si>
+  <si>
     <t>the Buddha; Awakened One</t>
   </si>
   <si>
@@ -1564,6 +1642,9 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
+    <t>road; path; track</t>
+  </si>
+  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
@@ -1573,9 +1654,15 @@
     <t>thief</t>
   </si>
   <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
     <t>need (for); want (for)</t>
   </si>
   <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
     <t>bowl; alms bowl</t>
   </si>
   <si>
@@ -1609,9 +1696,6 @@
     <t>elder; senior monk; monk with 10 or more vassa; lit. lasting</t>
   </si>
   <si>
-    <t>mental phenomena; mind object</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -1693,6 +1777,9 @@
     <t>says (to); speaks (to); tells (to)</t>
   </si>
   <si>
+    <t>recites</t>
+  </si>
+  <si>
     <t>wards off; prevents; guards against</t>
   </si>
   <si>
@@ -1993,6 +2080,9 @@
     <t>one was; it was</t>
   </si>
   <si>
+    <t>skin</t>
+  </si>
+  <si>
     <t>deed; action; service</t>
   </si>
   <si>
@@ -2002,9 +2092,6 @@
     <t>pleasure; fun; play; sport</t>
   </si>
   <si>
-    <t>skin</t>
-  </si>
-  <si>
     <t>livelihood; way of earning a living</t>
   </si>
   <si>
@@ -2369,6 +2456,9 @@
   </si>
   <si>
     <t>could come; would come along; could approach; would arrive</t>
+  </si>
+  <si>
+    <t>could get; would experience; would come across; lit. could arrive at</t>
   </si>
   <si>
     <t>may live; could stay</t>
@@ -2951,7 +3041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E405"/>
+  <dimension ref="A1:E420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2979,16 +3069,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C2" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E2" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2996,16 +3086,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C3" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="D3" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E3" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3013,16 +3103,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C4" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="D4" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E4" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3030,16 +3120,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="D5" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E5" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3047,16 +3137,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C6" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="D6" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E6" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3064,16 +3154,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="D7" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E7" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3081,16 +3171,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C8" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="D8" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E8" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3098,16 +3188,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C9" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="D9" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E9" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3115,16 +3205,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C10" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="D10" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E10" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3132,16 +3222,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C11" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="D11" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E11" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3149,16 +3239,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C12" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="D12" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E12" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3166,16 +3256,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C13" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="D13" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E13" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3183,16 +3273,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C14" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="D14" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E14" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3200,16 +3290,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C15" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="D15" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E15" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3217,16 +3307,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C16" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="D16" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E16" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3234,16 +3324,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C17" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="D17" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E17" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3251,16 +3341,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C18" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="D18" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E18" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3268,16 +3358,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C19" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="D19" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E19" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3285,16 +3375,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C20" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="D20" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E20" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3302,16 +3392,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C21" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="D21" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E21" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3319,16 +3409,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C22" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="D22" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E22" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3336,16 +3426,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C23" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="D23" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E23" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3353,16 +3443,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C24" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="D24" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E24" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3370,16 +3460,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C25" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="D25" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E25" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3387,16 +3477,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C26" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="D26" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E26" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3404,16 +3494,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C27" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="D27" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E27" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3421,16 +3511,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C28" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="D28" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E28" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3438,16 +3528,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C29" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D29" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E29" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3455,16 +3545,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C30" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="D30" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E30" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3472,16 +3562,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C31" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="D31" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E31" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3489,16 +3579,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C32" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="D32" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E32" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3506,16 +3596,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C33" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D33" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E33" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3523,16 +3613,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C34" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D34" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E34" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3540,16 +3630,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C35" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D35" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E35" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3557,16 +3647,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C36" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="D36" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E36" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3574,16 +3664,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C37" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="D37" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E37" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3591,16 +3681,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C38" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="D38" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E38" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3608,16 +3698,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C39" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="D39" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E39" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3625,16 +3715,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C40" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="D40" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E40" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3642,16 +3732,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C41" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="D41" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E41" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3659,16 +3749,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C42" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="D42" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E42" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3676,16 +3766,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C43" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="D43" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E43" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3693,16 +3783,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C44" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="D44" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E44" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3710,16 +3800,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C45" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="D45" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E45" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3727,16 +3817,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C46" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="D46" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E46" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3744,16 +3834,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C47" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D47" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E47" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3761,16 +3851,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C48" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="D48" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E48" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3778,16 +3868,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C49" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="D49" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E49" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3795,16 +3885,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C50" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="D50" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E50" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3812,16 +3902,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C51" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="D51" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E51" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3829,16 +3919,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C52" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="D52" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E52" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3846,16 +3936,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C53" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="D53" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E53" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3863,16 +3953,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C54" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="D54" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E54" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3880,16 +3970,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C55" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="D55" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E55" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3897,16 +3987,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C56" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="D56" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E56" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3914,16 +4004,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C57" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="D57" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E57" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3931,16 +4021,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C58" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="D58" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E58" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3948,16 +4038,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C59" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="D59" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E59" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3965,16 +4055,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C60" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D60" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E60" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3982,16 +4072,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C61" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="D61" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E61" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3999,16 +4089,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C62" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="D62" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E62" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4016,16 +4106,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C63" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D63" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E63" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4033,16 +4123,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C64" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="D64" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E64" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4050,16 +4140,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C65" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="D65" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E65" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4067,16 +4157,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C66" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="D66" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E66" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4084,16 +4174,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C67" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="D67" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E67" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4101,16 +4191,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C68" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="D68" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E68" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4118,16 +4208,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C69" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="D69" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E69" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4135,16 +4225,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C70" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="D70" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E70" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4152,16 +4242,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C71" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="D71" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E71" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4169,16 +4259,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C72" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="D72" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E72" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4186,16 +4276,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C73" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="D73" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E73" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4203,16 +4293,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C74" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="D74" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E74" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4220,16 +4310,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C75" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="D75" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E75" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4237,16 +4327,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C76" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="D76" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E76" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4254,16 +4344,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C77" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="D77" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E77" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4271,16 +4361,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C78" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="D78" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E78" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4288,16 +4378,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C79" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="D79" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E79" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4305,16 +4395,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C80" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="D80" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E80" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4322,16 +4412,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C81" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="D81" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E81" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4339,16 +4429,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C82" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="D82" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E82" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4356,16 +4446,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C83" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="D83" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E83" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4373,16 +4463,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C84" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="D84" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E84" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4390,16 +4480,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C85" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="D85" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E85" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4407,16 +4497,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C86" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="D86" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E86" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4424,16 +4514,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C87" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="D87" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E87" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4441,16 +4531,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C88" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="D88" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E88" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4458,16 +4548,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C89" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="D89" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E89" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4475,16 +4565,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C90" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="D90" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E90" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4492,16 +4582,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C91" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="D91" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E91" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4509,16 +4599,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C92" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="D92" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E92" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4526,16 +4616,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C93" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="D93" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E93" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4543,16 +4633,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C94" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="D94" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E94" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4560,16 +4650,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C95" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="D95" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E95" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4577,16 +4667,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C96" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="D96" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E96" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4594,16 +4684,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C97" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="D97" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E97" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4611,16 +4701,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="D98" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E98" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4628,16 +4718,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C99" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="D99" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E99" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4645,16 +4735,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C100" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="D100" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E100" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4662,16 +4752,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C101" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="D101" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E101" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4679,16 +4769,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C102" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="D102" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E102" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4696,16 +4786,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C103" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="D103" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E103" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4713,16 +4803,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C104" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="D104" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E104" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4730,16 +4820,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C105" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="D105" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E105" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4747,16 +4837,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C106" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="D106" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E106" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4764,16 +4854,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C107" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="D107" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E107" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4781,16 +4871,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C108" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="D108" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E108" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4798,16 +4888,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C109" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="D109" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E109" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4815,16 +4905,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C110" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="D110" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E110" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4832,16 +4922,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C111" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="D111" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E111" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4849,16 +4939,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C112" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="D112" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E112" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4866,16 +4956,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C113" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="D113" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E113" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4883,16 +4973,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C114" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="D114" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E114" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4900,16 +4990,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C115" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="D115" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E115" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4917,16 +5007,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C116" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="D116" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E116" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4934,16 +5024,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C117" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="D117" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E117" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4951,16 +5041,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C118" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="D118" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E118" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4968,16 +5058,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C119" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="D119" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E119" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4985,16 +5075,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C120" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="D120" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E120" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5002,16 +5092,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C121" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="D121" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E121" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5019,16 +5109,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C122" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="D122" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E122" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5036,16 +5126,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C123" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="D123" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E123" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5053,16 +5143,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C124" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="D124" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E124" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5070,16 +5160,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C125" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="D125" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E125" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5087,16 +5177,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C126" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="D126" t="s">
-        <v>820</v>
+        <v>849</v>
       </c>
       <c r="E126" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5104,16 +5194,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C127" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="D127" t="s">
-        <v>820</v>
+        <v>849</v>
       </c>
       <c r="E127" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5121,16 +5211,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C128" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="D128" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E128" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5138,16 +5228,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C129" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="D129" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E129" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5155,16 +5245,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C130" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="D130" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E130" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5172,16 +5262,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C131" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D131" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E131" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5189,16 +5279,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C132" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="D132" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E132" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5206,16 +5296,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C133" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="D133" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E133" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5223,16 +5313,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C134" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="D134" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E134" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5240,16 +5330,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C135" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="D135" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E135" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5257,16 +5347,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C136" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="D136" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E136" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5274,16 +5364,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C137" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="D137" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E137" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5291,16 +5381,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="C138" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="D138" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E138" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5308,16 +5398,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C139" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="D139" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="E139" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5325,16 +5415,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C140" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="D140" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="E140" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5342,16 +5432,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C141" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="D141" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E141" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5359,16 +5449,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C142" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="D142" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E142" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5376,16 +5466,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C143" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="D143" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E143" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5393,16 +5483,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C144" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="D144" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E144" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5410,16 +5500,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C145" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="D145" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E145" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5427,16 +5517,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C146" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="D146" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E146" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5444,16 +5534,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C147" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="D147" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E147" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5461,16 +5551,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C148" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="D148" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E148" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5478,16 +5568,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C149" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="D149" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E149" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5495,16 +5585,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C150" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="D150" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E150" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5512,16 +5602,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="C151" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="D151" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E151" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5529,16 +5619,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C152" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="D152" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E152" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5546,16 +5636,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C153" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="D153" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E153" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5563,16 +5653,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C154" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="D154" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E154" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5580,16 +5670,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C155" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="D155" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E155" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5597,16 +5687,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C156" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="D156" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E156" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5614,16 +5704,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C157" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="D157" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E157" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5631,16 +5721,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C158" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="D158" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E158" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5648,16 +5738,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C159" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="D159" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E159" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5665,16 +5755,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C160" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D160" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E160" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5682,16 +5772,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C161" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="D161" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E161" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5699,16 +5789,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C162" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="D162" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E162" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5716,16 +5806,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C163" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="D163" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E163" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5733,16 +5823,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C164" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="D164" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E164" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5750,16 +5840,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="C165" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="D165" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E165" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5767,16 +5857,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C166" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="D166" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E166" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5784,16 +5874,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C167" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="D167" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="E167" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5801,16 +5891,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C168" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D168" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="E168" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5818,16 +5908,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C169" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="D169" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="E169" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5835,16 +5925,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C170" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="D170" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="E170" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5852,16 +5942,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C171" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="D171" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="E171" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5869,16 +5959,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C172" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="D172" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="E172" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5886,16 +5976,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C173" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="D173" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="E173" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5903,16 +5993,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="C174" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="D174" t="s">
-        <v>823</v>
+        <v>851</v>
       </c>
       <c r="E174" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5920,16 +6010,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C175" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="D175" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="E175" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5937,16 +6027,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="C176" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="D176" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="E176" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5954,16 +6044,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C177" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="D177" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="E177" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5971,16 +6061,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C178" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="D178" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="E178" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5988,16 +6078,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="C179" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="D179" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="E179" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6005,16 +6095,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C180" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="D180" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="E180" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6022,16 +6112,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C181" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="D181" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E181" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6039,16 +6129,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C182" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="D182" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E182" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6056,16 +6146,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C183" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="D183" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E183" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6073,16 +6163,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C184" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D184" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E184" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6090,16 +6180,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C185" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="D185" t="s">
-        <v>819</v>
+        <v>852</v>
       </c>
       <c r="E185" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6107,16 +6197,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C186" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="D186" t="s">
-        <v>819</v>
+        <v>852</v>
       </c>
       <c r="E186" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6124,16 +6214,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C187" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="D187" t="s">
-        <v>819</v>
+        <v>852</v>
       </c>
       <c r="E187" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6141,16 +6231,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="C188" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="D188" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
       <c r="E188" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6158,16 +6248,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C189" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="D189" t="s">
-        <v>819</v>
+        <v>854</v>
       </c>
       <c r="E189" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6175,16 +6265,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="C190" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D190" t="s">
-        <v>819</v>
+        <v>854</v>
       </c>
       <c r="E190" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6192,16 +6282,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C191" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="D191" t="s">
-        <v>819</v>
+        <v>854</v>
       </c>
       <c r="E191" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6209,16 +6299,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C192" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="D192" t="s">
-        <v>821</v>
+        <v>854</v>
       </c>
       <c r="E192" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6226,16 +6316,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C193" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="D193" t="s">
-        <v>821</v>
+        <v>854</v>
       </c>
       <c r="E193" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6243,16 +6333,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C194" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="D194" t="s">
-        <v>821</v>
+        <v>854</v>
       </c>
       <c r="E194" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6260,16 +6350,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C195" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="D195" t="s">
-        <v>821</v>
+        <v>854</v>
       </c>
       <c r="E195" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6277,16 +6367,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C196" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="D196" t="s">
-        <v>821</v>
+        <v>854</v>
       </c>
       <c r="E196" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6294,16 +6384,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C197" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="D197" t="s">
-        <v>821</v>
+        <v>854</v>
       </c>
       <c r="E197" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6311,16 +6401,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C198" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="D198" t="s">
-        <v>821</v>
+        <v>854</v>
       </c>
       <c r="E198" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6328,16 +6418,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C199" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="D199" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E199" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6345,16 +6435,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C200" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="D200" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E200" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6362,16 +6452,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C201" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="D201" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E201" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6379,16 +6469,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C202" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="D202" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="E202" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6396,16 +6486,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C203" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="D203" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="E203" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6413,16 +6503,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C204" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D204" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="E204" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6430,16 +6520,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C205" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="D205" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="E205" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6447,16 +6537,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C206" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D206" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
       <c r="E206" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6464,16 +6554,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="C207" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="D207" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
       <c r="E207" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6481,16 +6571,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C208" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="D208" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
       <c r="E208" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6498,16 +6588,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="C209" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="D209" t="s">
-        <v>826</v>
+        <v>851</v>
       </c>
       <c r="E209" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6515,16 +6605,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C210" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="D210" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="E210" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6532,16 +6622,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="C211" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="D211" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="E211" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6549,16 +6639,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="C212" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="D212" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="E212" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6566,16 +6656,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="C213" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="D213" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="E213" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6583,16 +6673,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C214" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="D214" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="E214" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6600,16 +6690,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="C215" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="D215" t="s">
-        <v>828</v>
+        <v>851</v>
       </c>
       <c r="E215" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6617,16 +6707,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="C216" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="D216" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
       <c r="E216" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6634,16 +6724,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="C217" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="D217" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
       <c r="E217" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6651,16 +6741,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="C218" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="D218" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
       <c r="E218" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6668,16 +6758,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="C219" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="D219" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
       <c r="E219" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6685,16 +6775,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="C220" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="D220" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
       <c r="E220" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6702,16 +6792,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C221" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="D221" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
       <c r="E221" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6719,16 +6809,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="C222" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="D222" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
       <c r="E222" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6736,16 +6826,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="C223" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="D223" t="s">
-        <v>829</v>
+        <v>856</v>
       </c>
       <c r="E223" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6753,16 +6843,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C224" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="D224" t="s">
-        <v>830</v>
+        <v>857</v>
       </c>
       <c r="E224" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6770,16 +6860,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="C225" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="D225" t="s">
-        <v>830</v>
+        <v>857</v>
       </c>
       <c r="E225" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6787,16 +6877,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="C226" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="D226" t="s">
-        <v>830</v>
+        <v>857</v>
       </c>
       <c r="E226" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6804,16 +6894,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="C227" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="D227" t="s">
-        <v>830</v>
+        <v>857</v>
       </c>
       <c r="E227" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6821,16 +6911,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C228" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="D228" t="s">
-        <v>830</v>
+        <v>857</v>
       </c>
       <c r="E228" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6838,16 +6928,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="C229" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="D229" t="s">
-        <v>830</v>
+        <v>858</v>
       </c>
       <c r="E229" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6855,16 +6945,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="C230" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="D230" t="s">
-        <v>830</v>
+        <v>858</v>
       </c>
       <c r="E230" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6872,16 +6962,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="C231" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="D231" t="s">
-        <v>830</v>
+        <v>858</v>
       </c>
       <c r="E231" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6889,16 +6979,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="C232" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="D232" t="s">
-        <v>830</v>
+        <v>858</v>
       </c>
       <c r="E232" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6906,16 +6996,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="C233" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="D233" t="s">
-        <v>830</v>
+        <v>858</v>
       </c>
       <c r="E233" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6923,16 +7013,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="C234" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="D234" t="s">
-        <v>831</v>
+        <v>858</v>
       </c>
       <c r="E234" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6940,16 +7030,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="C235" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="D235" t="s">
-        <v>831</v>
+        <v>858</v>
       </c>
       <c r="E235" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6957,16 +7047,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="C236" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="D236" t="s">
-        <v>832</v>
+        <v>858</v>
       </c>
       <c r="E236" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6974,16 +7064,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="C237" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="D237" t="s">
-        <v>833</v>
+        <v>859</v>
       </c>
       <c r="E237" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6991,16 +7081,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C238" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="D238" t="s">
-        <v>833</v>
+        <v>860</v>
       </c>
       <c r="E238" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7008,16 +7098,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C239" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="D239" t="s">
-        <v>833</v>
+        <v>860</v>
       </c>
       <c r="E239" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7025,16 +7115,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C240" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="D240" t="s">
-        <v>833</v>
+        <v>860</v>
       </c>
       <c r="E240" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7042,16 +7132,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C241" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="D241" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="E241" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7059,16 +7149,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C242" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="D242" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="E242" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7076,16 +7166,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C243" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="D243" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="E243" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7093,16 +7183,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C244" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="D244" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="E244" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7110,16 +7200,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C245" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="D245" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="E245" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7127,16 +7217,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C246" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="D246" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="E246" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7144,16 +7234,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C247" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="D247" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="E247" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7161,16 +7251,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C248" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="D248" t="s">
-        <v>819</v>
+        <v>861</v>
       </c>
       <c r="E248" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7178,16 +7268,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="C249" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="D249" t="s">
-        <v>819</v>
+        <v>861</v>
       </c>
       <c r="E249" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7195,16 +7285,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C250" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="D250" t="s">
-        <v>819</v>
+        <v>862</v>
       </c>
       <c r="E250" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7212,16 +7302,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="C251" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="D251" t="s">
-        <v>819</v>
+        <v>863</v>
       </c>
       <c r="E251" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7229,16 +7319,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="C252" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="D252" t="s">
-        <v>819</v>
+        <v>863</v>
       </c>
       <c r="E252" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7246,16 +7336,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="C253" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="D253" t="s">
-        <v>819</v>
+        <v>863</v>
       </c>
       <c r="E253" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7263,16 +7353,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="C254" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="D254" t="s">
-        <v>835</v>
+        <v>863</v>
       </c>
       <c r="E254" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7280,16 +7370,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="C255" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="D255" t="s">
-        <v>835</v>
+        <v>864</v>
       </c>
       <c r="E255" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7297,16 +7387,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="C256" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="D256" t="s">
-        <v>835</v>
+        <v>864</v>
       </c>
       <c r="E256" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7314,16 +7404,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C257" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="D257" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="E257" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7331,16 +7421,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C258" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="D258" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="E258" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7348,16 +7438,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C259" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="D259" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="E259" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7365,16 +7455,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C260" t="s">
-        <v>670</v>
+        <v>691</v>
       </c>
       <c r="D260" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="E260" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7382,16 +7472,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C261" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="D261" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="E261" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7399,16 +7489,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C262" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="D262" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="E262" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7416,16 +7506,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C263" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="D263" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="E263" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7433,16 +7523,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C264" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="D264" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="E264" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7450,16 +7540,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C265" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="D265" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="E265" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7467,16 +7557,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C266" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="D266" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E266" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7484,16 +7574,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C267" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="D267" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E267" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7501,16 +7591,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="C268" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="D268" t="s">
-        <v>821</v>
+        <v>865</v>
       </c>
       <c r="E268" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7518,16 +7608,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C269" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="D269" t="s">
-        <v>826</v>
+        <v>865</v>
       </c>
       <c r="E269" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7535,16 +7625,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="C270" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="D270" t="s">
-        <v>822</v>
+        <v>865</v>
       </c>
       <c r="E270" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7552,16 +7642,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="C271" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="D271" t="s">
-        <v>822</v>
+        <v>865</v>
       </c>
       <c r="E271" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7569,16 +7659,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C272" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="D272" t="s">
-        <v>828</v>
+        <v>865</v>
       </c>
       <c r="E272" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7586,16 +7676,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C273" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="D273" t="s">
-        <v>828</v>
+        <v>865</v>
       </c>
       <c r="E273" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7603,16 +7693,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C274" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="D274" t="s">
-        <v>414</v>
+        <v>865</v>
       </c>
       <c r="E274" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7620,16 +7710,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C275" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="D275" t="s">
-        <v>414</v>
+        <v>865</v>
       </c>
       <c r="E275" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7637,16 +7727,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C276" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="D276" t="s">
-        <v>414</v>
+        <v>865</v>
       </c>
       <c r="E276" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7654,16 +7744,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C277" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="D277" t="s">
-        <v>414</v>
+        <v>865</v>
       </c>
       <c r="E277" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7671,16 +7761,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C278" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="D278" t="s">
-        <v>414</v>
+        <v>865</v>
       </c>
       <c r="E278" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7688,16 +7778,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C279" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="D279" t="s">
-        <v>414</v>
+        <v>865</v>
       </c>
       <c r="E279" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7705,16 +7795,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C280" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="D280" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="E280" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7722,16 +7812,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C281" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="D281" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="E281" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7739,16 +7829,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C282" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="D282" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="E282" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7756,16 +7846,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="C283" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="D283" t="s">
-        <v>836</v>
+        <v>856</v>
       </c>
       <c r="E283" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7773,16 +7863,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C284" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="D284" t="s">
-        <v>836</v>
+        <v>852</v>
       </c>
       <c r="E284" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7790,16 +7880,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C285" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="D285" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="E285" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7807,16 +7897,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="C286" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="D286" t="s">
-        <v>838</v>
+        <v>858</v>
       </c>
       <c r="E286" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7824,16 +7914,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="C287" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="D287" t="s">
-        <v>838</v>
+        <v>858</v>
       </c>
       <c r="E287" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7841,16 +7931,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C288" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="D288" t="s">
-        <v>839</v>
+        <v>429</v>
       </c>
       <c r="E288" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7858,16 +7948,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C289" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="D289" t="s">
-        <v>839</v>
+        <v>429</v>
       </c>
       <c r="E289" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7875,16 +7965,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C290" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="D290" t="s">
-        <v>839</v>
+        <v>429</v>
       </c>
       <c r="E290" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7892,16 +7982,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C291" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="D291" t="s">
-        <v>839</v>
+        <v>429</v>
       </c>
       <c r="E291" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7909,16 +7999,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C292" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="D292" t="s">
-        <v>839</v>
+        <v>429</v>
       </c>
       <c r="E292" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7926,16 +8016,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C293" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="D293" t="s">
-        <v>839</v>
+        <v>429</v>
       </c>
       <c r="E293" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7943,16 +8033,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C294" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="D294" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="E294" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7960,16 +8050,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C295" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="D295" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="E295" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7977,16 +8067,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C296" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="D296" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="E296" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7994,16 +8084,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C297" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="D297" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="E297" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8011,16 +8101,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C298" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="D298" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="E298" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8028,16 +8118,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C299" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="D299" t="s">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="E299" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8045,16 +8135,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="C300" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="D300" t="s">
-        <v>824</v>
+        <v>868</v>
       </c>
       <c r="E300" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8062,16 +8152,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C301" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="D301" t="s">
-        <v>840</v>
+        <v>868</v>
       </c>
       <c r="E301" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8079,16 +8169,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C302" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="D302" t="s">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="E302" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8096,16 +8186,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C303" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="D303" t="s">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="E303" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8113,16 +8203,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C304" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="D304" t="s">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="E304" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8130,16 +8220,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C305" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="D305" t="s">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="E305" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8147,16 +8237,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C306" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="D306" t="s">
-        <v>841</v>
+        <v>869</v>
       </c>
       <c r="E306" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8164,16 +8254,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C307" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="D307" t="s">
-        <v>841</v>
+        <v>869</v>
       </c>
       <c r="E307" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8181,16 +8271,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C308" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D308" t="s">
-        <v>841</v>
+        <v>869</v>
       </c>
       <c r="E308" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8198,16 +8288,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C309" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="D309" t="s">
-        <v>841</v>
+        <v>869</v>
       </c>
       <c r="E309" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8215,16 +8305,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C310" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="D310" t="s">
-        <v>819</v>
+        <v>869</v>
       </c>
       <c r="E310" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8232,16 +8322,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C311" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="D311" t="s">
-        <v>819</v>
+        <v>869</v>
       </c>
       <c r="E311" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8249,16 +8339,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C312" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="D312" t="s">
-        <v>819</v>
+        <v>869</v>
       </c>
       <c r="E312" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8266,16 +8356,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C313" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="D313" t="s">
-        <v>819</v>
+        <v>869</v>
       </c>
       <c r="E313" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8283,16 +8373,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C314" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="D314" t="s">
-        <v>819</v>
+        <v>854</v>
       </c>
       <c r="E314" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8300,16 +8390,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="C315" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="D315" t="s">
-        <v>819</v>
+        <v>870</v>
       </c>
       <c r="E315" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8317,16 +8407,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="C316" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="D316" t="s">
-        <v>842</v>
+        <v>870</v>
       </c>
       <c r="E316" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8334,16 +8424,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="C317" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="D317" t="s">
-        <v>842</v>
+        <v>870</v>
       </c>
       <c r="E317" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8351,16 +8441,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="C318" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="D318" t="s">
-        <v>842</v>
+        <v>870</v>
       </c>
       <c r="E318" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8368,16 +8458,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="C319" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="D319" t="s">
-        <v>842</v>
+        <v>870</v>
       </c>
       <c r="E319" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8385,16 +8475,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C320" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="D320" t="s">
-        <v>842</v>
+        <v>871</v>
       </c>
       <c r="E320" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8402,16 +8492,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C321" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="D321" t="s">
-        <v>842</v>
+        <v>871</v>
       </c>
       <c r="E321" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8419,16 +8509,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C322" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="D322" t="s">
-        <v>843</v>
+        <v>871</v>
       </c>
       <c r="E322" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8436,16 +8526,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C323" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="D323" t="s">
-        <v>843</v>
+        <v>871</v>
       </c>
       <c r="E323" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8453,16 +8543,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C324" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="D324" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="E324" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8470,16 +8560,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C325" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="D325" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E325" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8487,16 +8577,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C326" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="D326" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E326" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8504,16 +8594,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C327" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="D327" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E327" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8521,16 +8611,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C328" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="D328" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E328" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8538,16 +8628,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C329" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="D329" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E329" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8555,16 +8645,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="C330" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="D330" t="s">
-        <v>844</v>
+        <v>872</v>
       </c>
       <c r="E330" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8572,16 +8662,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="C331" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="D331" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="E331" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8589,16 +8679,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="C332" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="D332" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="E332" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8606,16 +8696,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="C333" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="D333" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="E333" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8623,16 +8713,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="C334" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="D334" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="E334" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8640,16 +8730,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="C335" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="D335" t="s">
-        <v>821</v>
+        <v>872</v>
       </c>
       <c r="E335" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8657,16 +8747,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C336" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="D336" t="s">
-        <v>821</v>
+        <v>873</v>
       </c>
       <c r="E336" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8674,16 +8764,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C337" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="D337" t="s">
-        <v>821</v>
+        <v>873</v>
       </c>
       <c r="E337" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8691,16 +8781,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C338" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="D338" t="s">
-        <v>822</v>
+        <v>873</v>
       </c>
       <c r="E338" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8708,16 +8798,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C339" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="D339" t="s">
-        <v>828</v>
+        <v>874</v>
       </c>
       <c r="E339" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8725,16 +8815,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C340" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="D340" t="s">
-        <v>830</v>
+        <v>874</v>
       </c>
       <c r="E340" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8742,16 +8832,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C341" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="D341" t="s">
-        <v>414</v>
+        <v>874</v>
       </c>
       <c r="E341" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8759,16 +8849,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C342" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="D342" t="s">
-        <v>414</v>
+        <v>874</v>
       </c>
       <c r="E342" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8776,16 +8866,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C343" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="D343" t="s">
-        <v>414</v>
+        <v>874</v>
       </c>
       <c r="E343" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8793,16 +8883,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C344" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="D344" t="s">
-        <v>414</v>
+        <v>874</v>
       </c>
       <c r="E344" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8810,16 +8900,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C345" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="D345" t="s">
-        <v>414</v>
+        <v>875</v>
       </c>
       <c r="E345" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8827,16 +8917,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C346" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="D346" t="s">
-        <v>414</v>
+        <v>875</v>
       </c>
       <c r="E346" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8844,16 +8934,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C347" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="D347" t="s">
-        <v>414</v>
+        <v>875</v>
       </c>
       <c r="E347" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8861,16 +8951,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C348" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="D348" t="s">
-        <v>846</v>
+        <v>875</v>
       </c>
       <c r="E348" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8878,16 +8968,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C349" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="D349" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E349" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8895,16 +8985,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C350" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="D350" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E350" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8912,16 +9002,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C351" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="D351" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E351" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8929,16 +9019,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C352" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="D352" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="E352" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -8946,16 +9036,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="C353" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="D353" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="E353" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -8963,16 +9053,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C354" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="D354" t="s">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="E354" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -8980,16 +9070,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="C355" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="D355" t="s">
-        <v>847</v>
+        <v>429</v>
       </c>
       <c r="E355" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -8997,16 +9087,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="C356" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="D356" t="s">
-        <v>847</v>
+        <v>429</v>
       </c>
       <c r="E356" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9014,16 +9104,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="C357" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="D357" t="s">
-        <v>848</v>
+        <v>429</v>
       </c>
       <c r="E357" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9031,16 +9121,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="C358" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="D358" t="s">
-        <v>848</v>
+        <v>429</v>
       </c>
       <c r="E358" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9048,16 +9138,16 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="C359" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="D359" t="s">
-        <v>819</v>
+        <v>429</v>
       </c>
       <c r="E359" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9065,16 +9155,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="C360" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="D360" t="s">
-        <v>819</v>
+        <v>429</v>
       </c>
       <c r="E360" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9082,16 +9172,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="C361" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="D361" t="s">
-        <v>842</v>
+        <v>429</v>
       </c>
       <c r="E361" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9099,16 +9189,16 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C362" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="D362" t="s">
-        <v>821</v>
+        <v>876</v>
       </c>
       <c r="E362" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9116,16 +9206,16 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C363" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="D363" t="s">
-        <v>821</v>
+        <v>876</v>
       </c>
       <c r="E363" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9133,16 +9223,16 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C364" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="D364" t="s">
-        <v>821</v>
+        <v>876</v>
       </c>
       <c r="E364" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9150,16 +9240,16 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C365" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="D365" t="s">
-        <v>821</v>
+        <v>876</v>
       </c>
       <c r="E365" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9167,16 +9257,16 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C366" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="D366" t="s">
-        <v>822</v>
+        <v>876</v>
       </c>
       <c r="E366" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9184,16 +9274,16 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C367" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="D367" t="s">
-        <v>822</v>
+        <v>876</v>
       </c>
       <c r="E367" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9201,16 +9291,16 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C368" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="D368" t="s">
-        <v>849</v>
+        <v>870</v>
       </c>
       <c r="E368" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9218,16 +9308,16 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C369" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="D369" t="s">
-        <v>849</v>
+        <v>877</v>
       </c>
       <c r="E369" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9235,16 +9325,16 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C370" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="D370" t="s">
-        <v>849</v>
+        <v>877</v>
       </c>
       <c r="E370" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9252,16 +9342,16 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C371" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="D371" t="s">
-        <v>849</v>
+        <v>878</v>
       </c>
       <c r="E371" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9269,16 +9359,16 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C372" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="D372" t="s">
-        <v>850</v>
+        <v>878</v>
       </c>
       <c r="E372" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9286,16 +9376,16 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C373" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="D373" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E373" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9303,16 +9393,16 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C374" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="D374" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E374" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9320,16 +9410,16 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C375" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="D375" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
       <c r="E375" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9337,16 +9427,16 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C376" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="D376" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E376" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9354,16 +9444,16 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C377" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="D377" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E377" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9371,16 +9461,16 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C378" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="D378" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E378" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9388,16 +9478,16 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C379" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="D379" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E379" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9405,16 +9495,16 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C380" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="D380" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E380" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9422,16 +9512,16 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C381" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="D381" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E381" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9439,16 +9529,16 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C382" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="D382" t="s">
-        <v>853</v>
+        <v>879</v>
       </c>
       <c r="E382" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9456,16 +9546,16 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C383" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="D383" t="s">
-        <v>853</v>
+        <v>879</v>
       </c>
       <c r="E383" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9473,16 +9563,16 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C384" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="D384" t="s">
-        <v>853</v>
+        <v>879</v>
       </c>
       <c r="E384" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9490,16 +9580,16 @@
         <v>388</v>
       </c>
       <c r="B385" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C385" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="D385" t="s">
-        <v>853</v>
+        <v>879</v>
       </c>
       <c r="E385" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9507,16 +9597,16 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C386" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="D386" t="s">
-        <v>853</v>
+        <v>879</v>
       </c>
       <c r="E386" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9524,16 +9614,16 @@
         <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C387" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="D387" t="s">
-        <v>853</v>
+        <v>880</v>
       </c>
       <c r="E387" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9541,16 +9631,16 @@
         <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C388" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="D388" t="s">
-        <v>853</v>
+        <v>881</v>
       </c>
       <c r="E388" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9558,16 +9648,16 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C389" t="s">
-        <v>431</v>
+        <v>818</v>
       </c>
       <c r="D389" t="s">
-        <v>853</v>
+        <v>882</v>
       </c>
       <c r="E389" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9575,16 +9665,16 @@
         <v>393</v>
       </c>
       <c r="B390" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C390" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="D390" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="E390" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9592,16 +9682,16 @@
         <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C391" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="D391" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="E391" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9609,16 +9699,16 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C392" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="D392" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="E392" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9626,16 +9716,16 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C393" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="D393" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="E393" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9643,16 +9733,16 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C394" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="D394" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="E394" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9660,16 +9750,16 @@
         <v>398</v>
       </c>
       <c r="B395" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C395" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="D395" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="E395" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9677,16 +9767,16 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C396" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="D396" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="E396" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9694,16 +9784,16 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C397" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="D397" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="E397" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -9711,16 +9801,16 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C398" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="D398" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="E398" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -9728,16 +9818,16 @@
         <v>402</v>
       </c>
       <c r="B399" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C399" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="D399" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="E399" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -9745,16 +9835,16 @@
         <v>403</v>
       </c>
       <c r="B400" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C400" t="s">
-        <v>813</v>
+        <v>829</v>
       </c>
       <c r="D400" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="E400" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -9762,16 +9852,16 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C401" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="D401" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="E401" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -9779,16 +9869,16 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C402" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="D402" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="E402" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -9796,16 +9886,16 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C403" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="D403" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="E403" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -9813,16 +9903,16 @@
         <v>407</v>
       </c>
       <c r="B404" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C404" t="s">
-        <v>817</v>
+        <v>454</v>
       </c>
       <c r="D404" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="E404" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -9830,16 +9920,271 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
+        <v>433</v>
+      </c>
+      <c r="C405" t="s">
+        <v>833</v>
+      </c>
+      <c r="D405" t="s">
+        <v>883</v>
+      </c>
+      <c r="E405" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>409</v>
+      </c>
+      <c r="B406" t="s">
+        <v>433</v>
+      </c>
+      <c r="C406" t="s">
+        <v>834</v>
+      </c>
+      <c r="D406" t="s">
+        <v>883</v>
+      </c>
+      <c r="E406" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>410</v>
+      </c>
+      <c r="B407" t="s">
+        <v>433</v>
+      </c>
+      <c r="C407" t="s">
+        <v>835</v>
+      </c>
+      <c r="D407" t="s">
+        <v>883</v>
+      </c>
+      <c r="E407" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" t="s">
+        <v>411</v>
+      </c>
+      <c r="B408" t="s">
+        <v>433</v>
+      </c>
+      <c r="C408" t="s">
+        <v>836</v>
+      </c>
+      <c r="D408" t="s">
+        <v>883</v>
+      </c>
+      <c r="E408" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" t="s">
+        <v>412</v>
+      </c>
+      <c r="B409" t="s">
+        <v>433</v>
+      </c>
+      <c r="C409" t="s">
+        <v>837</v>
+      </c>
+      <c r="D409" t="s">
+        <v>883</v>
+      </c>
+      <c r="E409" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" t="s">
+        <v>413</v>
+      </c>
+      <c r="B410" t="s">
+        <v>433</v>
+      </c>
+      <c r="C410" t="s">
+        <v>838</v>
+      </c>
+      <c r="D410" t="s">
+        <v>883</v>
+      </c>
+      <c r="E410" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" t="s">
+        <v>414</v>
+      </c>
+      <c r="B411" t="s">
+        <v>433</v>
+      </c>
+      <c r="C411" t="s">
+        <v>839</v>
+      </c>
+      <c r="D411" t="s">
+        <v>883</v>
+      </c>
+      <c r="E411" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" t="s">
+        <v>415</v>
+      </c>
+      <c r="B412" t="s">
+        <v>433</v>
+      </c>
+      <c r="C412" t="s">
+        <v>840</v>
+      </c>
+      <c r="D412" t="s">
+        <v>883</v>
+      </c>
+      <c r="E412" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" t="s">
+        <v>416</v>
+      </c>
+      <c r="B413" t="s">
+        <v>433</v>
+      </c>
+      <c r="C413" t="s">
+        <v>841</v>
+      </c>
+      <c r="D413" t="s">
+        <v>883</v>
+      </c>
+      <c r="E413" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" t="s">
+        <v>417</v>
+      </c>
+      <c r="B414" t="s">
+        <v>433</v>
+      </c>
+      <c r="C414" t="s">
+        <v>842</v>
+      </c>
+      <c r="D414" t="s">
+        <v>883</v>
+      </c>
+      <c r="E414" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" t="s">
         <v>418</v>
       </c>
-      <c r="C405" t="s">
-        <v>818</v>
-      </c>
-      <c r="D405" t="s">
-        <v>853</v>
-      </c>
-      <c r="E405" t="s">
-        <v>859</v>
+      <c r="B415" t="s">
+        <v>433</v>
+      </c>
+      <c r="C415" t="s">
+        <v>843</v>
+      </c>
+      <c r="D415" t="s">
+        <v>883</v>
+      </c>
+      <c r="E415" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" t="s">
+        <v>419</v>
+      </c>
+      <c r="B416" t="s">
+        <v>433</v>
+      </c>
+      <c r="C416" t="s">
+        <v>844</v>
+      </c>
+      <c r="D416" t="s">
+        <v>883</v>
+      </c>
+      <c r="E416" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" t="s">
+        <v>420</v>
+      </c>
+      <c r="B417" t="s">
+        <v>433</v>
+      </c>
+      <c r="C417" t="s">
+        <v>845</v>
+      </c>
+      <c r="D417" t="s">
+        <v>883</v>
+      </c>
+      <c r="E417" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" t="s">
+        <v>421</v>
+      </c>
+      <c r="B418" t="s">
+        <v>433</v>
+      </c>
+      <c r="C418" t="s">
+        <v>846</v>
+      </c>
+      <c r="D418" t="s">
+        <v>883</v>
+      </c>
+      <c r="E418" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" t="s">
+        <v>422</v>
+      </c>
+      <c r="B419" t="s">
+        <v>433</v>
+      </c>
+      <c r="C419" t="s">
+        <v>847</v>
+      </c>
+      <c r="D419" t="s">
+        <v>883</v>
+      </c>
+      <c r="E419" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" t="s">
+        <v>423</v>
+      </c>
+      <c r="B420" t="s">
+        <v>433</v>
+      </c>
+      <c r="C420" t="s">
+        <v>848</v>
+      </c>
+      <c r="D420" t="s">
+        <v>883</v>
+      </c>
+      <c r="E420" t="s">
+        <v>889</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class7.xlsx
+++ b/pali-class/vocab/vocab-class7.xlsx
@@ -58,12 +58,6 @@
     <t>samatikkama</t>
   </si>
   <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>sagga 2</t>
-  </si>
-  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -355,9 +349,6 @@
     <t>bāla 4</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
     <t>kāya 1</t>
   </si>
   <si>
@@ -508,6 +499,9 @@
     <t>harati 2</t>
   </si>
   <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
     <t>passati 2</t>
   </si>
   <si>
@@ -580,6 +574,9 @@
     <t>ceteti 2</t>
   </si>
   <si>
+    <t>paṭisaṃvedeti</t>
+  </si>
+  <si>
     <t>vedeti 1</t>
   </si>
   <si>
@@ -598,6 +595,9 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>paṭiggaṇhāti 1</t>
+  </si>
+  <si>
     <t>paṭibhāti</t>
   </si>
   <si>
@@ -1345,12 +1345,6 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>heaven; state of happiness</t>
-  </si>
-  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -1492,7 +1486,7 @@
     <t>state of suffering; lit. bad fall</t>
   </si>
   <si>
-    <t>pride; conceit; comparison; lit. measuring</t>
+    <t>pride; conceit; comparison</t>
   </si>
   <si>
     <t>group; host; multitude; lit. collection</t>
@@ -1642,9 +1636,6 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
@@ -1711,7 +1702,7 @@
     <t>attention; mental application; lit. making in mind</t>
   </si>
   <si>
-    <t>(vinaya) offence requiring involvement of the Community from start to finish</t>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
     <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
@@ -1795,6 +1786,9 @@
     <t>takes; steals; robs</t>
   </si>
   <si>
+    <t>obtains; receives; gets</t>
+  </si>
+  <si>
     <t>understands; gets; lit. sees</t>
   </si>
   <si>
@@ -1867,6 +1861,9 @@
     <t>intends; will (to); lit. thinks</t>
   </si>
   <si>
+    <t>undergoes; feels; experiences</t>
+  </si>
+  <si>
     <t>feels; experiences; senses</t>
   </si>
   <si>
@@ -1885,6 +1882,9 @@
     <t>he must hear! may he listen!</t>
   </si>
   <si>
+    <t>takes; accepts; receives</t>
+  </si>
+  <si>
     <t>comes to mind; occurs (to); appears; becomes evident</t>
   </si>
   <si>
@@ -2449,7 +2449,7 @@
     <t>looks around; survey</t>
   </si>
   <si>
-    <t>seen; observed</t>
+    <t>could see; would see</t>
   </si>
   <si>
     <t>could know; would understand; could be aware; would find out</t>
@@ -5353,7 +5353,7 @@
         <v>568</v>
       </c>
       <c r="D136" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E136" t="s">
         <v>884</v>
@@ -5370,7 +5370,7 @@
         <v>569</v>
       </c>
       <c r="D137" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E137" t="s">
         <v>884</v>
@@ -5390,7 +5390,7 @@
         <v>849</v>
       </c>
       <c r="E138" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5404,10 +5404,10 @@
         <v>571</v>
       </c>
       <c r="D139" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E139" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5421,10 +5421,10 @@
         <v>572</v>
       </c>
       <c r="D140" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E140" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5432,13 +5432,13 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C141" t="s">
         <v>573</v>
       </c>
       <c r="D141" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E141" t="s">
         <v>885</v>
@@ -5449,13 +5449,13 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C142" t="s">
         <v>574</v>
       </c>
       <c r="D142" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E142" t="s">
         <v>885</v>
@@ -5466,13 +5466,13 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C143" t="s">
         <v>575</v>
       </c>
       <c r="D143" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E143" t="s">
         <v>885</v>
@@ -5551,7 +5551,7 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C148" t="s">
         <v>580</v>
@@ -5602,7 +5602,7 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C151" t="s">
         <v>583</v>
@@ -6044,7 +6044,7 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C177" t="s">
         <v>609</v>
@@ -6078,13 +6078,13 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C179" t="s">
         <v>611</v>
       </c>
       <c r="D179" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E179" t="s">
         <v>885</v>
@@ -6101,7 +6101,7 @@
         <v>612</v>
       </c>
       <c r="D180" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E180" t="s">
         <v>885</v>
@@ -6214,13 +6214,13 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C187" t="s">
         <v>619</v>
       </c>
       <c r="D187" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E187" t="s">
         <v>885</v>
@@ -6231,13 +6231,13 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C188" t="s">
         <v>620</v>
       </c>
       <c r="D188" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E188" t="s">
         <v>885</v>
@@ -6248,7 +6248,7 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C189" t="s">
         <v>621</v>
@@ -6265,7 +6265,7 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C190" t="s">
         <v>622</v>
@@ -9906,7 +9906,7 @@
         <v>433</v>
       </c>
       <c r="C404" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D404" t="s">
         <v>883</v>

--- a/pali-class/vocab/vocab-class7.xlsx
+++ b/pali-class/vocab/vocab-class7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="897">
   <si>
     <t>Pāli1</t>
   </si>
@@ -577,6 +577,9 @@
     <t>paṭisaṃvedeti</t>
   </si>
   <si>
+    <t>paṭiggaheti</t>
+  </si>
+  <si>
     <t>vedeti 1</t>
   </si>
   <si>
@@ -646,6 +649,9 @@
     <t>uppajjati 1</t>
   </si>
   <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -658,6 +664,9 @@
     <t>nibbindati</t>
   </si>
   <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
     <t>bhuñjati 1</t>
   </si>
   <si>
@@ -778,6 +787,9 @@
     <t>sakkaroti</t>
   </si>
   <si>
+    <t>abhisaṅkharoti</t>
+  </si>
+  <si>
     <t>ajjhabhāsi</t>
   </si>
   <si>
@@ -1408,7 +1420,7 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
-    <t>black gram; Vigna mungo</t>
+    <t>bean</t>
   </si>
   <si>
     <t>child; son</t>
@@ -1864,6 +1876,9 @@
     <t>undergoes; feels; experiences</t>
   </si>
   <si>
+    <t>takes; accepts; receives</t>
+  </si>
+  <si>
     <t>feels; experiences; senses</t>
   </si>
   <si>
@@ -1882,9 +1897,6 @@
     <t>he must hear! may he listen!</t>
   </si>
   <si>
-    <t>takes; accepts; receives</t>
-  </si>
-  <si>
     <t>comes to mind; occurs (to); appears; becomes evident</t>
   </si>
   <si>
@@ -1933,6 +1945,9 @@
     <t>takes place; arises; appears</t>
   </si>
   <si>
+    <t>is reborn in; re-arises; lit. goes towards</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -1945,6 +1960,9 @@
     <t>is disenchanted; is disinterested; is disillusioned</t>
   </si>
   <si>
+    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+  </si>
+  <si>
     <t>eats; consumes</t>
   </si>
   <si>
@@ -2041,7 +2059,7 @@
     <t>seer; sage</t>
   </si>
   <si>
-    <t>perfect peace of mind; stability; stillness; composure; collectedness of mind; lit. putting together</t>
+    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure; lit. putting together</t>
   </si>
   <si>
     <t>chief; chieftain; headman; leader</t>
@@ -2060,6 +2078,9 @@
   </si>
   <si>
     <t>honours; esteems; respects; lit. makes properly</t>
+  </si>
+  <si>
+    <t>does; performs; creates; constructs</t>
   </si>
   <si>
     <t>addressed; spoke (to)</t>
@@ -3041,7 +3062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E420"/>
+  <dimension ref="A1:E424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3069,16 +3090,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D2" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E2" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3086,16 +3107,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D3" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E3" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3103,16 +3124,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C4" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D4" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E4" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3120,16 +3141,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D5" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E5" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3137,16 +3158,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C6" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D6" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E6" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3154,16 +3175,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D7" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E7" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3171,16 +3192,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C8" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D8" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E8" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3188,16 +3209,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D9" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E9" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3205,16 +3226,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C10" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D10" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E10" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3222,16 +3243,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C11" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D11" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E11" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3239,16 +3260,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C12" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D12" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E12" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3256,16 +3277,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C13" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D13" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E13" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3273,16 +3294,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C14" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D14" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E14" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3290,16 +3311,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C15" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D15" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E15" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3307,16 +3328,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C16" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D16" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E16" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3324,16 +3345,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C17" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D17" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E17" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3341,16 +3362,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C18" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D18" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E18" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3358,16 +3379,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C19" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D19" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E19" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3375,16 +3396,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C20" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D20" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E20" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3392,16 +3413,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C21" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D21" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E21" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3409,16 +3430,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C22" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D22" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E22" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3426,16 +3447,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C23" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D23" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E23" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3443,16 +3464,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C24" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D24" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E24" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3460,16 +3481,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C25" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D25" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E25" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3477,16 +3498,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C26" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D26" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E26" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3494,16 +3515,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C27" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D27" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E27" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3511,16 +3532,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C28" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D28" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E28" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3528,16 +3549,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C29" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D29" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E29" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3545,16 +3566,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C30" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D30" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E30" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3562,16 +3583,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C31" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D31" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E31" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3579,16 +3600,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C32" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D32" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E32" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3596,16 +3617,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C33" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D33" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E33" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3613,16 +3634,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C34" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D34" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E34" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3630,16 +3651,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C35" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D35" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E35" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3647,16 +3668,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C36" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D36" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E36" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3664,16 +3685,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C37" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D37" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E37" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3681,16 +3702,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C38" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D38" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E38" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3698,16 +3719,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C39" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D39" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E39" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3715,16 +3736,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C40" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D40" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E40" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3732,16 +3753,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C41" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D41" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E41" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3749,16 +3770,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C42" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D42" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E42" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3766,16 +3787,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C43" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D43" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E43" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3783,16 +3804,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C44" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D44" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E44" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3800,16 +3821,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C45" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D45" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E45" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3817,16 +3838,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C46" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D46" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E46" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3834,16 +3855,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C47" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D47" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E47" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3851,16 +3872,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C48" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D48" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E48" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3868,16 +3889,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C49" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D49" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E49" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3885,16 +3906,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C50" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D50" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E50" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3902,16 +3923,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C51" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D51" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E51" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3919,16 +3940,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C52" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D52" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E52" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3936,16 +3957,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C53" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D53" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E53" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3953,16 +3974,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C54" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D54" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E54" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3970,16 +3991,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C55" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D55" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E55" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3987,16 +4008,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C56" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D56" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E56" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4004,16 +4025,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C57" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D57" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E57" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4021,16 +4042,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C58" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D58" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E58" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4038,16 +4059,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C59" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D59" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E59" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4055,16 +4076,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C60" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D60" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E60" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4072,16 +4093,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C61" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D61" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E61" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4089,16 +4110,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C62" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D62" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E62" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4106,16 +4127,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C63" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D63" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E63" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4123,16 +4144,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C64" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D64" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E64" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4140,16 +4161,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C65" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D65" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E65" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4157,16 +4178,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C66" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D66" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E66" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4174,16 +4195,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C67" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D67" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E67" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4191,16 +4212,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C68" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D68" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E68" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4208,16 +4229,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C69" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D69" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E69" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4225,16 +4246,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C70" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D70" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E70" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4242,16 +4263,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C71" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D71" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E71" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4259,16 +4280,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C72" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D72" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E72" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4276,16 +4297,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C73" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D73" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E73" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4293,16 +4314,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C74" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D74" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E74" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4310,16 +4331,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C75" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D75" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E75" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4327,16 +4348,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C76" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D76" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E76" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4344,16 +4365,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C77" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D77" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E77" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4361,16 +4382,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C78" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D78" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E78" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4378,16 +4399,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C79" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D79" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E79" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4395,16 +4416,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C80" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D80" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E80" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4412,16 +4433,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C81" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D81" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E81" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4429,16 +4450,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C82" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D82" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E82" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4446,16 +4467,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C83" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D83" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E83" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4463,16 +4484,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C84" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D84" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E84" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4480,16 +4501,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C85" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D85" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E85" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4497,16 +4518,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C86" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D86" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E86" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4514,16 +4535,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C87" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D87" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E87" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4531,16 +4552,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C88" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D88" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E88" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4548,16 +4569,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C89" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D89" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E89" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4565,16 +4586,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C90" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D90" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E90" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4582,16 +4603,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C91" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D91" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E91" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4599,16 +4620,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C92" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D92" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E92" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4616,16 +4637,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C93" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D93" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E93" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4633,16 +4654,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C94" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D94" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E94" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4650,16 +4671,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C95" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D95" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E95" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4667,16 +4688,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C96" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D96" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E96" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4684,16 +4705,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C97" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D97" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E97" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4701,16 +4722,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C98" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D98" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E98" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4718,16 +4739,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C99" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D99" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E99" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4735,16 +4756,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C100" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D100" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E100" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4752,16 +4773,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C101" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D101" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E101" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4769,16 +4790,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C102" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D102" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E102" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4786,16 +4807,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C103" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D103" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E103" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4803,16 +4824,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C104" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D104" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E104" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4820,16 +4841,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C105" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D105" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E105" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4837,16 +4858,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C106" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D106" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E106" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4854,16 +4875,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C107" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D107" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E107" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4871,16 +4892,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C108" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D108" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E108" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4888,16 +4909,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C109" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D109" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E109" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4905,16 +4926,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C110" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D110" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E110" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4922,16 +4943,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C111" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D111" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E111" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4939,16 +4960,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C112" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D112" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E112" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4956,16 +4977,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C113" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D113" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E113" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4973,16 +4994,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C114" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D114" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E114" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4990,16 +5011,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C115" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D115" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E115" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5007,16 +5028,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C116" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D116" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E116" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5024,16 +5045,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C117" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D117" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E117" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5041,16 +5062,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C118" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D118" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E118" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5058,16 +5079,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C119" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D119" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E119" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5075,16 +5096,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C120" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D120" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E120" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5092,16 +5113,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C121" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D121" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E121" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5109,16 +5130,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C122" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D122" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E122" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5126,16 +5147,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C123" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D123" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E123" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5143,16 +5164,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C124" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D124" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E124" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5160,16 +5181,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C125" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D125" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E125" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5177,16 +5198,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C126" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D126" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E126" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5194,16 +5215,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C127" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D127" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E127" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5211,16 +5232,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C128" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D128" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E128" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5228,16 +5249,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C129" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D129" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E129" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5245,16 +5266,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C130" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D130" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E130" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5262,16 +5283,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C131" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D131" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E131" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5279,16 +5300,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C132" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D132" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E132" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5296,16 +5317,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C133" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D133" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E133" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5313,16 +5334,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C134" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D134" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E134" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5330,16 +5351,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C135" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D135" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E135" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5347,16 +5368,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C136" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D136" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="E136" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5364,16 +5385,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C137" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D137" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="E137" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5381,16 +5402,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C138" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D138" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E138" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5398,16 +5419,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C139" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D139" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E139" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5415,16 +5436,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C140" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D140" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E140" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5432,16 +5453,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C141" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D141" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E141" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5449,16 +5470,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C142" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D142" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E142" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5466,16 +5487,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C143" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D143" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E143" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5483,16 +5504,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C144" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D144" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E144" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5500,16 +5521,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C145" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="D145" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E145" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5517,16 +5538,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C146" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D146" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E146" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5534,16 +5555,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C147" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D147" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E147" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5551,16 +5572,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C148" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D148" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E148" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5568,16 +5589,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C149" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D149" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E149" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5585,16 +5606,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C150" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D150" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E150" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5602,16 +5623,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C151" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D151" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E151" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5619,16 +5640,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C152" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D152" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E152" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5636,16 +5657,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C153" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D153" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E153" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5653,16 +5674,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C154" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D154" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E154" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5670,16 +5691,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C155" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D155" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E155" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5687,16 +5708,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C156" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D156" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E156" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5704,16 +5725,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C157" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D157" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E157" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5721,16 +5742,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C158" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D158" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E158" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5738,16 +5759,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C159" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D159" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E159" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5755,16 +5776,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C160" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D160" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E160" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5772,16 +5793,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C161" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D161" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E161" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5789,16 +5810,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C162" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D162" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E162" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5806,16 +5827,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C163" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D163" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E163" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5823,16 +5844,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C164" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="D164" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E164" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5840,16 +5861,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C165" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D165" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E165" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5857,16 +5878,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C166" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D166" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E166" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5874,16 +5895,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C167" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D167" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E167" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5891,16 +5912,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C168" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D168" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E168" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5908,16 +5929,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C169" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D169" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E169" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5925,16 +5946,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C170" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D170" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E170" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5942,16 +5963,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C171" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D171" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E171" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5959,16 +5980,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C172" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D172" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E172" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5976,16 +5997,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C173" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D173" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E173" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5993,16 +6014,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C174" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D174" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E174" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6010,16 +6031,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C175" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D175" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E175" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6027,16 +6048,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C176" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D176" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E176" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6044,16 +6065,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C177" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D177" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E177" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6061,16 +6082,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C178" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D178" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E178" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6078,16 +6099,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C179" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D179" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="E179" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6095,16 +6116,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C180" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D180" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="E180" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6112,16 +6133,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C181" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D181" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="E181" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6129,16 +6150,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C182" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D182" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="E182" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6146,16 +6167,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C183" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D183" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="E183" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6163,16 +6184,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C184" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D184" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="E184" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6180,16 +6201,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C185" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D185" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="E185" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6197,16 +6218,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C186" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D186" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="E186" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6214,16 +6235,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C187" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D187" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="E187" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6231,16 +6252,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C188" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D188" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="E188" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6248,16 +6269,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C189" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D189" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="E189" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6265,16 +6286,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C190" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D190" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="E190" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6282,16 +6303,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C191" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D191" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="E191" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6299,16 +6320,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C192" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D192" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="E192" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6316,16 +6337,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C193" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D193" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="E193" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6333,16 +6354,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C194" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D194" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="E194" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6350,16 +6371,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C195" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D195" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="E195" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6367,16 +6388,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C196" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D196" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="E196" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6384,16 +6405,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C197" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D197" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="E197" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6401,16 +6422,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C198" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D198" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="E198" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6418,16 +6439,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C199" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D199" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="E199" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6435,16 +6456,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C200" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D200" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E200" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6452,16 +6473,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C201" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D201" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E201" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6469,16 +6490,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C202" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D202" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E202" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6486,16 +6507,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C203" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D203" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E203" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6503,16 +6524,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C204" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D204" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E204" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6520,16 +6541,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C205" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D205" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E205" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6537,16 +6558,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C206" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D206" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="E206" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6554,16 +6575,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C207" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D207" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E207" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6571,16 +6592,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C208" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D208" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E208" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6588,16 +6609,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C209" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D209" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E209" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6605,16 +6626,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C210" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D210" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E210" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6622,16 +6643,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C211" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D211" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E211" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6639,16 +6660,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C212" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D212" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E212" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6656,16 +6677,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C213" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D213" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E213" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6673,16 +6694,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C214" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D214" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E214" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6690,16 +6711,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C215" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D215" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E215" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6707,16 +6728,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C216" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D216" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="E216" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6724,16 +6745,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C217" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D217" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="E217" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6741,16 +6762,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C218" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D218" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="E218" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6758,16 +6779,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C219" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D219" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="E219" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6775,16 +6796,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C220" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D220" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="E220" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6792,16 +6813,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C221" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D221" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="E221" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6809,16 +6830,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C222" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D222" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="E222" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6826,16 +6847,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C223" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D223" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="E223" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6843,16 +6864,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C224" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D224" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="E224" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6860,16 +6881,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C225" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D225" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="E225" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6877,16 +6898,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C226" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D226" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="E226" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6894,16 +6915,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C227" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D227" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="E227" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6911,16 +6932,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C228" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="D228" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="E228" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6928,16 +6949,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C229" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D229" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="E229" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6945,16 +6966,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C230" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D230" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="E230" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6962,16 +6983,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C231" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="D231" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="E231" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6979,16 +7000,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C232" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D232" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="E232" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6996,16 +7017,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C233" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D233" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="E233" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7013,16 +7034,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C234" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D234" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="E234" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7030,16 +7051,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C235" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D235" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="E235" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7047,16 +7068,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C236" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D236" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="E236" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7064,16 +7085,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C237" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D237" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="E237" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7081,16 +7102,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C238" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D238" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="E238" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7098,16 +7119,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C239" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="D239" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="E239" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7115,16 +7136,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C240" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D240" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="E240" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7132,16 +7153,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C241" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="D241" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="E241" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7149,16 +7170,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C242" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D242" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="E242" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7166,16 +7187,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C243" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D243" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="E243" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7183,16 +7204,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C244" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D244" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="E244" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7200,16 +7221,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C245" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D245" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="E245" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7217,16 +7238,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C246" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D246" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="E246" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7234,16 +7255,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C247" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="D247" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="E247" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7251,16 +7272,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C248" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D248" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="E248" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7268,16 +7289,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C249" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D249" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="E249" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7285,16 +7306,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C250" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D250" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="E250" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7302,16 +7323,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C251" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D251" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="E251" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7319,16 +7340,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C252" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="D252" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="E252" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7336,16 +7357,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C253" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D253" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="E253" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7353,16 +7374,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C254" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="D254" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="E254" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7370,16 +7391,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C255" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D255" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="E255" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7387,16 +7408,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C256" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="D256" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="E256" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7404,16 +7425,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C257" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="D257" t="s">
-        <v>849</v>
+        <v>870</v>
       </c>
       <c r="E257" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7421,16 +7442,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C258" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="D258" t="s">
-        <v>849</v>
+        <v>870</v>
       </c>
       <c r="E258" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7438,16 +7459,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C259" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="D259" t="s">
-        <v>849</v>
+        <v>871</v>
       </c>
       <c r="E259" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7455,16 +7476,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C260" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="D260" t="s">
-        <v>849</v>
+        <v>871</v>
       </c>
       <c r="E260" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7472,16 +7493,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C261" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D261" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E261" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7489,16 +7510,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C262" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D262" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E262" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7506,16 +7527,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C263" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="D263" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E263" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7523,16 +7544,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C264" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="D264" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E264" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7540,16 +7561,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C265" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="D265" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E265" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7557,16 +7578,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C266" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D266" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E266" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7574,16 +7595,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C267" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="D267" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E267" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7594,13 +7615,13 @@
         <v>428</v>
       </c>
       <c r="C268" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D268" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="E268" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7611,13 +7632,13 @@
         <v>428</v>
       </c>
       <c r="C269" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="D269" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="E269" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7628,13 +7649,13 @@
         <v>428</v>
       </c>
       <c r="C270" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D270" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="E270" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7645,13 +7666,13 @@
         <v>428</v>
       </c>
       <c r="C271" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D271" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="E271" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7659,16 +7680,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C272" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D272" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="E272" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7676,16 +7697,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C273" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D273" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="E273" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7693,16 +7714,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C274" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="D274" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="E274" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7710,16 +7731,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C275" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="D275" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="E275" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7727,16 +7748,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C276" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="D276" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="E276" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7744,16 +7765,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C277" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="D277" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="E277" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7761,16 +7782,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C278" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D278" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="E278" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7778,16 +7799,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C279" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D279" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="E279" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7795,16 +7816,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C280" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D280" t="s">
-        <v>851</v>
+        <v>872</v>
       </c>
       <c r="E280" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7812,16 +7833,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C281" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="D281" t="s">
-        <v>851</v>
+        <v>872</v>
       </c>
       <c r="E281" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7829,16 +7850,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C282" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="D282" t="s">
-        <v>851</v>
+        <v>872</v>
       </c>
       <c r="E282" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7846,16 +7867,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C283" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="D283" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="E283" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7863,16 +7884,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C284" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="D284" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="E284" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7880,16 +7901,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C285" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="D285" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="E285" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7897,16 +7918,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C286" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D286" t="s">
         <v>858</v>
       </c>
       <c r="E286" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7914,16 +7935,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C287" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="D287" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="E287" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7934,13 +7955,13 @@
         <v>429</v>
       </c>
       <c r="C288" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D288" t="s">
-        <v>429</v>
+        <v>859</v>
       </c>
       <c r="E288" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7951,13 +7972,13 @@
         <v>429</v>
       </c>
       <c r="C289" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="D289" t="s">
-        <v>429</v>
+        <v>859</v>
       </c>
       <c r="E289" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7965,16 +7986,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C290" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D290" t="s">
-        <v>429</v>
+        <v>865</v>
       </c>
       <c r="E290" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7982,16 +8003,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C291" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="D291" t="s">
-        <v>429</v>
+        <v>865</v>
       </c>
       <c r="E291" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7999,16 +8020,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C292" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D292" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E292" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8016,16 +8037,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C293" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="D293" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E293" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8033,16 +8054,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C294" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="D294" t="s">
-        <v>866</v>
+        <v>433</v>
       </c>
       <c r="E294" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8050,16 +8071,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C295" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D295" t="s">
-        <v>866</v>
+        <v>433</v>
       </c>
       <c r="E295" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8067,16 +8088,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C296" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="D296" t="s">
-        <v>866</v>
+        <v>433</v>
       </c>
       <c r="E296" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8084,16 +8105,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C297" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="D297" t="s">
-        <v>866</v>
+        <v>433</v>
       </c>
       <c r="E297" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8101,16 +8122,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C298" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D298" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="E298" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8118,16 +8139,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C299" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D299" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="E299" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8135,16 +8156,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C300" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="D300" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E300" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8152,16 +8173,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C301" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D301" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E301" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8169,16 +8190,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C302" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="D302" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="E302" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8186,16 +8207,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C303" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D303" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="E303" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8203,16 +8224,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C304" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="D304" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="E304" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8220,16 +8241,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C305" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D305" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="E305" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8237,16 +8258,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C306" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="D306" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="E306" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8254,16 +8275,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C307" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D307" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="E307" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8271,16 +8292,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C308" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="D308" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="E308" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8288,16 +8309,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C309" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="D309" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="E309" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8305,16 +8326,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C310" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D310" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="E310" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8322,16 +8343,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C311" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="D311" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="E311" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8339,16 +8360,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C312" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D312" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="E312" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8356,16 +8377,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C313" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="D313" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="E313" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8373,16 +8394,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C314" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="D314" t="s">
-        <v>854</v>
+        <v>876</v>
       </c>
       <c r="E314" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8390,16 +8411,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C315" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D315" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="E315" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8407,16 +8428,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C316" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="D316" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="E316" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8424,16 +8445,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C317" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D317" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="E317" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8441,16 +8462,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C318" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="D318" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="E318" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8458,16 +8479,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C319" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="D319" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="E319" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8475,16 +8496,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C320" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D320" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="E320" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8492,16 +8513,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C321" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="D321" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="E321" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8509,16 +8530,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C322" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="D322" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="E322" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8526,16 +8547,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C323" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D323" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="E323" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8543,16 +8564,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C324" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D324" t="s">
-        <v>849</v>
+        <v>878</v>
       </c>
       <c r="E324" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8560,16 +8581,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C325" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="D325" t="s">
-        <v>849</v>
+        <v>878</v>
       </c>
       <c r="E325" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8577,16 +8598,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C326" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="D326" t="s">
-        <v>849</v>
+        <v>878</v>
       </c>
       <c r="E326" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8594,16 +8615,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C327" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="D327" t="s">
-        <v>849</v>
+        <v>878</v>
       </c>
       <c r="E327" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8611,16 +8632,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C328" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="D328" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E328" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8628,16 +8649,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C329" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D329" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E329" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8645,16 +8666,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C330" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="D330" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="E330" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8662,16 +8683,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C331" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D331" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="E331" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8679,16 +8700,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C332" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D332" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="E332" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8696,16 +8717,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C333" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="D333" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="E333" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8713,16 +8734,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C334" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="D334" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="E334" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8730,16 +8751,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C335" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="D335" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="E335" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8747,16 +8768,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C336" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="D336" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="E336" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8764,16 +8785,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C337" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="D337" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="E337" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8781,16 +8802,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C338" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="D338" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="E338" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8798,16 +8819,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C339" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="D339" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="E339" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8815,16 +8836,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C340" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="D340" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="E340" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8832,16 +8853,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C341" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D341" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="E341" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8849,16 +8870,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C342" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="D342" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="E342" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8866,16 +8887,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C343" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="D343" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="E343" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8883,16 +8904,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C344" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="D344" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="E344" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8900,16 +8921,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C345" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D345" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="E345" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8917,16 +8938,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C346" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="D346" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="E346" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8934,16 +8955,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C347" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D347" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="E347" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8951,16 +8972,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C348" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="D348" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="E348" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8968,16 +8989,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C349" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="D349" t="s">
-        <v>851</v>
+        <v>882</v>
       </c>
       <c r="E349" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8985,16 +9006,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C350" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="D350" t="s">
-        <v>851</v>
+        <v>882</v>
       </c>
       <c r="E350" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9002,16 +9023,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C351" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D351" t="s">
-        <v>851</v>
+        <v>882</v>
       </c>
       <c r="E351" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9019,16 +9040,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C352" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="D352" t="s">
-        <v>852</v>
+        <v>882</v>
       </c>
       <c r="E352" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9036,16 +9057,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C353" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D353" t="s">
         <v>858</v>
       </c>
       <c r="E353" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9053,16 +9074,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C354" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D354" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E354" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9073,13 +9094,13 @@
         <v>429</v>
       </c>
       <c r="C355" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D355" t="s">
-        <v>429</v>
+        <v>858</v>
       </c>
       <c r="E355" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9090,13 +9111,13 @@
         <v>429</v>
       </c>
       <c r="C356" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="D356" t="s">
-        <v>429</v>
+        <v>859</v>
       </c>
       <c r="E356" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9104,16 +9125,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C357" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D357" t="s">
-        <v>429</v>
+        <v>865</v>
       </c>
       <c r="E357" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9121,16 +9142,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C358" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="D358" t="s">
-        <v>429</v>
+        <v>867</v>
       </c>
       <c r="E358" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9138,16 +9159,16 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C359" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="D359" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E359" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9155,16 +9176,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C360" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="D360" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E360" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9172,16 +9193,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C361" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="D361" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E361" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9189,16 +9210,16 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C362" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D362" t="s">
-        <v>876</v>
+        <v>433</v>
       </c>
       <c r="E362" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9206,16 +9227,16 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C363" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D363" t="s">
-        <v>876</v>
+        <v>433</v>
       </c>
       <c r="E363" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9223,16 +9244,16 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C364" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="D364" t="s">
-        <v>876</v>
+        <v>433</v>
       </c>
       <c r="E364" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9240,16 +9261,16 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C365" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="D365" t="s">
-        <v>876</v>
+        <v>433</v>
       </c>
       <c r="E365" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9257,16 +9278,16 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C366" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="D366" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="E366" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9274,16 +9295,16 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C367" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="D367" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="E367" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9291,16 +9312,16 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C368" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="D368" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="E368" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9308,16 +9329,16 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C369" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="D369" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="E369" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9325,16 +9346,16 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C370" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="D370" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="E370" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9342,16 +9363,16 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C371" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D371" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="E371" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9359,16 +9380,16 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C372" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="D372" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E372" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9376,16 +9397,16 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C373" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D373" t="s">
-        <v>849</v>
+        <v>884</v>
       </c>
       <c r="E373" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9393,16 +9414,16 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C374" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="D374" t="s">
-        <v>849</v>
+        <v>884</v>
       </c>
       <c r="E374" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9410,16 +9431,16 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C375" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D375" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
       <c r="E375" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9427,16 +9448,16 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C376" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="D376" t="s">
-        <v>851</v>
+        <v>885</v>
       </c>
       <c r="E376" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9444,16 +9465,16 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C377" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D377" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="E377" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9461,16 +9482,16 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C378" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D378" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="E378" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9478,16 +9499,16 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C379" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="D379" t="s">
-        <v>851</v>
+        <v>879</v>
       </c>
       <c r="E379" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9495,16 +9516,16 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C380" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D380" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="E380" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9512,16 +9533,16 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C381" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D381" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="E381" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9529,16 +9550,16 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C382" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="D382" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="E382" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9546,16 +9567,16 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C383" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="D383" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="E383" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9563,16 +9584,16 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C384" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D384" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="E384" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9580,16 +9601,16 @@
         <v>388</v>
       </c>
       <c r="B385" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C385" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D385" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="E385" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9597,16 +9618,16 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C386" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D386" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="E386" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9614,16 +9635,16 @@
         <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C387" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D387" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="E387" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9631,16 +9652,16 @@
         <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C388" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D388" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="E388" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9648,16 +9669,16 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C389" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D389" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="E389" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9665,16 +9686,16 @@
         <v>393</v>
       </c>
       <c r="B390" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C390" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="D390" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="E390" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9682,16 +9703,16 @@
         <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C391" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D391" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="E391" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9699,16 +9720,16 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C392" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="D392" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="E392" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9716,16 +9737,16 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C393" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D393" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="E393" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9733,16 +9754,16 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C394" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="D394" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E394" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9750,16 +9771,16 @@
         <v>398</v>
       </c>
       <c r="B395" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C395" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D395" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E395" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9767,16 +9788,16 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C396" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="D396" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E396" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9784,16 +9805,16 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C397" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="D397" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E397" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -9801,16 +9822,16 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C398" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D398" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E398" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -9818,16 +9839,16 @@
         <v>402</v>
       </c>
       <c r="B399" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C399" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D399" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E399" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -9835,16 +9856,16 @@
         <v>403</v>
       </c>
       <c r="B400" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C400" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D400" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E400" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -9852,16 +9873,16 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C401" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D401" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E401" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -9869,16 +9890,16 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C402" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="D402" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E402" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -9886,16 +9907,16 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C403" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="D403" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E403" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -9903,16 +9924,16 @@
         <v>407</v>
       </c>
       <c r="B404" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C404" t="s">
-        <v>452</v>
+        <v>836</v>
       </c>
       <c r="D404" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E404" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -9920,16 +9941,16 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C405" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D405" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E405" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -9937,16 +9958,16 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C406" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="D406" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E406" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -9954,16 +9975,16 @@
         <v>410</v>
       </c>
       <c r="B407" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C407" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="D407" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E407" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -9971,16 +9992,16 @@
         <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C408" t="s">
-        <v>836</v>
+        <v>456</v>
       </c>
       <c r="D408" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E408" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -9988,16 +10009,16 @@
         <v>412</v>
       </c>
       <c r="B409" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C409" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D409" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E409" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10005,16 +10026,16 @@
         <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C410" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="D410" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E410" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10022,16 +10043,16 @@
         <v>414</v>
       </c>
       <c r="B411" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C411" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D411" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E411" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10039,16 +10060,16 @@
         <v>415</v>
       </c>
       <c r="B412" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C412" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="D412" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E412" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10056,16 +10077,16 @@
         <v>416</v>
       </c>
       <c r="B413" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C413" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D413" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E413" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10073,16 +10094,16 @@
         <v>417</v>
       </c>
       <c r="B414" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C414" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D414" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E414" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10090,16 +10111,16 @@
         <v>418</v>
       </c>
       <c r="B415" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C415" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D415" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E415" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10107,16 +10128,16 @@
         <v>419</v>
       </c>
       <c r="B416" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C416" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="D416" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E416" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10124,16 +10145,16 @@
         <v>420</v>
       </c>
       <c r="B417" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C417" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="D417" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E417" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10141,16 +10162,16 @@
         <v>421</v>
       </c>
       <c r="B418" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C418" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D418" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E418" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10158,16 +10179,16 @@
         <v>422</v>
       </c>
       <c r="B419" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C419" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="D419" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E419" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10175,16 +10196,84 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C420" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D420" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E420" t="s">
-        <v>889</v>
+        <v>896</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" t="s">
+        <v>424</v>
+      </c>
+      <c r="B421" t="s">
+        <v>437</v>
+      </c>
+      <c r="C421" t="s">
+        <v>852</v>
+      </c>
+      <c r="D421" t="s">
+        <v>890</v>
+      </c>
+      <c r="E421" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" t="s">
+        <v>425</v>
+      </c>
+      <c r="B422" t="s">
+        <v>437</v>
+      </c>
+      <c r="C422" t="s">
+        <v>853</v>
+      </c>
+      <c r="D422" t="s">
+        <v>890</v>
+      </c>
+      <c r="E422" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" t="s">
+        <v>426</v>
+      </c>
+      <c r="B423" t="s">
+        <v>437</v>
+      </c>
+      <c r="C423" t="s">
+        <v>854</v>
+      </c>
+      <c r="D423" t="s">
+        <v>890</v>
+      </c>
+      <c r="E423" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" t="s">
+        <v>427</v>
+      </c>
+      <c r="B424" t="s">
+        <v>437</v>
+      </c>
+      <c r="C424" t="s">
+        <v>855</v>
+      </c>
+      <c r="D424" t="s">
+        <v>890</v>
+      </c>
+      <c r="E424" t="s">
+        <v>896</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class7.xlsx
+++ b/pali-class/vocab/vocab-class7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="908">
   <si>
     <t>Pāli1</t>
   </si>
@@ -604,7 +604,7 @@
     <t>paṭibhāti</t>
   </si>
   <si>
-    <t>paṭijānāti 2</t>
+    <t>paṭijānāti 3</t>
   </si>
   <si>
     <t>jināti 2</t>
@@ -706,6 +706,9 @@
     <t>āmantesi</t>
   </si>
   <si>
+    <t>pāturahosi</t>
+  </si>
+  <si>
     <t>homa 3</t>
   </si>
   <si>
@@ -991,18 +994,30 @@
     <t>āgāmī 1</t>
   </si>
   <si>
+    <t>vippaṭisārī</t>
+  </si>
+  <si>
     <t>bhogī 1</t>
   </si>
   <si>
     <t>gavesī 1</t>
   </si>
   <si>
+    <t>pītipaṭisaṃvedī</t>
+  </si>
+  <si>
+    <t>sakadāgāmī</t>
+  </si>
+  <si>
     <t>brahmacārī 2</t>
   </si>
   <si>
     <t>sukhī 2</t>
   </si>
   <si>
+    <t>sabrahmacārī</t>
+  </si>
+  <si>
     <t>medhāvī</t>
   </si>
   <si>
@@ -1564,7 +1579,7 @@
     <t>mass; heap; pile</t>
   </si>
   <si>
-    <t>personal name of the Buddha; of the Gotama family; lit. excellent bull</t>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
   </si>
   <si>
     <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
@@ -1840,7 +1855,7 @@
     <t>leads (to); is useful (for); is conducive to</t>
   </si>
   <si>
-    <t>goes; moves; walks</t>
+    <t>goes; walks; moves; wanders around</t>
   </si>
   <si>
     <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
@@ -2002,6 +2017,9 @@
     <t>addressed; said (to)</t>
   </si>
   <si>
+    <t>appeared; manifested; lit. became visible</t>
+  </si>
+  <si>
     <t>may you all be! you all must be!</t>
   </si>
   <si>
@@ -2278,18 +2296,30 @@
     <t>who returns; who comes back</t>
   </si>
   <si>
+    <t>remorseful; regretful; sorry; lit. remembering back negatively</t>
+  </si>
+  <si>
     <t>enjoying; using; experiencing; partaking in</t>
   </si>
   <si>
     <t>seeking; searching for; looking for</t>
   </si>
   <si>
+    <t>experiencing heart-felt joy; feeling delight; sensitive to rapture</t>
+  </si>
+  <si>
+    <t>who returns once; once-returner</t>
+  </si>
+  <si>
     <t>celibate person; one living the holy life</t>
   </si>
   <si>
     <t>who is happy; at ease; comfortable</t>
   </si>
   <si>
+    <t>fellow monk; spiritual companion</t>
+  </si>
+  <si>
     <t>intelligent man; wise man; lit. who has wisdom</t>
   </si>
   <si>
@@ -2606,6 +2636,9 @@
   </si>
   <si>
     <t>esi-aor</t>
+  </si>
+  <si>
+    <t>hosi-aor</t>
   </si>
   <si>
     <t>hoti-pr</t>
@@ -3062,7 +3095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E424"/>
+  <dimension ref="A1:E429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3090,16 +3123,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D2" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E2" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3107,16 +3140,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C3" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D3" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E3" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3124,16 +3157,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C4" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D4" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E4" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3141,16 +3174,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C5" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D5" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E5" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3158,16 +3191,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D6" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E6" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3175,16 +3208,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D7" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E7" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3192,16 +3225,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D8" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E8" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3209,16 +3242,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C9" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D9" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E9" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3226,16 +3259,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C10" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D10" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E10" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3243,16 +3276,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C11" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D11" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E11" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3260,16 +3293,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C12" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D12" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E12" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3277,16 +3310,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C13" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D13" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E13" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3294,16 +3327,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C14" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D14" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E14" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3311,16 +3344,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C15" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D15" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E15" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3328,16 +3361,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C16" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D16" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E16" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3345,16 +3378,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C17" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D17" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E17" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3362,16 +3395,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C18" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D18" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E18" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3379,16 +3412,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C19" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D19" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E19" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3396,16 +3429,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C20" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D20" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E20" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3413,16 +3446,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C21" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D21" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E21" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3430,16 +3463,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C22" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D22" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E22" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3447,16 +3480,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C23" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D23" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E23" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3464,16 +3497,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C24" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D24" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E24" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3481,16 +3514,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C25" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D25" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E25" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3498,16 +3531,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C26" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D26" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E26" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3515,16 +3548,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C27" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D27" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E27" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3532,16 +3565,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C28" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D28" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E28" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3549,16 +3582,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C29" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D29" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E29" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3566,16 +3599,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C30" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D30" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E30" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3583,16 +3616,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C31" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D31" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E31" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3600,16 +3633,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C32" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D32" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E32" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3617,16 +3650,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C33" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D33" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E33" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3634,16 +3667,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C34" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D34" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E34" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3651,16 +3684,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C35" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D35" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E35" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3668,16 +3701,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C36" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D36" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E36" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3685,16 +3718,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C37" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D37" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E37" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3702,16 +3735,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C38" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D38" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E38" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3719,16 +3752,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C39" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D39" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E39" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3736,16 +3769,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C40" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D40" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E40" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3753,16 +3786,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C41" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D41" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E41" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3770,16 +3803,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C42" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D42" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E42" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3787,16 +3820,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C43" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D43" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E43" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3804,16 +3837,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C44" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D44" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E44" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3821,16 +3854,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C45" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D45" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E45" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3838,16 +3871,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C46" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D46" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E46" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3855,16 +3888,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C47" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D47" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E47" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3872,16 +3905,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C48" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D48" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E48" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3889,16 +3922,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C49" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D49" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E49" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3906,16 +3939,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C50" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D50" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E50" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3923,16 +3956,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C51" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D51" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E51" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3940,16 +3973,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C52" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D52" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E52" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3957,16 +3990,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C53" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D53" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E53" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3974,16 +4007,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C54" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D54" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E54" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3991,16 +4024,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C55" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D55" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E55" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4008,16 +4041,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C56" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D56" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E56" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4025,16 +4058,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C57" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D57" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E57" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4042,16 +4075,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C58" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E58" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4059,16 +4092,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C59" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="D59" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E59" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4076,16 +4109,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C60" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D60" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E60" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4093,16 +4126,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C61" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D61" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E61" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4110,16 +4143,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C62" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D62" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E62" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4127,16 +4160,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C63" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D63" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E63" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4144,16 +4177,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C64" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="D64" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E64" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4161,16 +4194,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C65" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D65" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E65" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4178,16 +4211,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C66" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D66" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E66" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4195,16 +4228,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C67" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D67" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E67" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4212,16 +4245,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C68" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="D68" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E68" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4229,16 +4262,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C69" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D69" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E69" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4246,16 +4279,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C70" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D70" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E70" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4263,16 +4296,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C71" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D71" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E71" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4280,16 +4313,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C72" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D72" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E72" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4297,16 +4330,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C73" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D73" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E73" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4314,16 +4347,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C74" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D74" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E74" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4331,16 +4364,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C75" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D75" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E75" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4348,16 +4381,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C76" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D76" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E76" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4365,16 +4398,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C77" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="D77" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E77" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4382,16 +4415,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C78" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D78" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E78" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4399,16 +4432,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C79" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D79" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E79" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4416,16 +4449,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C80" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D80" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E80" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4433,16 +4466,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C81" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D81" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E81" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4450,16 +4483,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C82" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D82" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E82" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4467,16 +4500,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C83" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D83" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E83" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4484,16 +4517,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C84" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D84" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E84" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4501,16 +4534,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C85" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D85" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E85" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4518,16 +4551,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C86" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D86" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E86" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4535,16 +4568,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C87" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D87" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E87" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4552,16 +4585,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C88" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D88" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E88" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4569,16 +4602,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C89" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D89" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E89" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4586,16 +4619,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C90" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D90" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E90" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4603,16 +4636,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C91" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D91" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E91" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4620,16 +4653,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C92" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D92" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E92" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4637,16 +4670,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C93" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D93" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E93" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4654,16 +4687,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C94" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D94" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E94" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4671,16 +4704,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C95" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="D95" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E95" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4688,16 +4721,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C96" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="D96" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E96" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4705,16 +4738,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C97" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D97" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E97" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4722,16 +4755,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C98" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D98" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E98" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4739,16 +4772,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C99" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D99" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E99" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4756,16 +4789,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C100" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D100" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E100" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4773,16 +4806,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C101" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D101" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E101" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4790,16 +4823,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C102" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D102" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E102" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4807,16 +4840,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C103" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D103" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E103" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4824,16 +4857,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C104" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D104" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E104" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4841,16 +4874,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C105" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D105" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E105" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4858,16 +4891,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C106" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D106" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E106" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4875,16 +4908,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C107" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D107" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E107" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4892,16 +4925,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C108" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D108" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E108" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4909,16 +4942,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C109" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D109" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E109" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4926,16 +4959,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C110" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D110" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E110" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4943,16 +4976,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C111" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D111" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E111" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4960,16 +4993,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C112" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D112" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E112" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4977,16 +5010,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C113" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D113" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E113" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4994,16 +5027,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C114" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="D114" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E114" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5011,16 +5044,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C115" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D115" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E115" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5028,16 +5061,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C116" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D116" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E116" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5045,16 +5078,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C117" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D117" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E117" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5062,16 +5095,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C118" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D118" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E118" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5079,16 +5112,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C119" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D119" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E119" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5096,16 +5129,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C120" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D120" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E120" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5113,16 +5146,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C121" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D121" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E121" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5130,16 +5163,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C122" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D122" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E122" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5147,16 +5180,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C123" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="D123" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E123" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5164,16 +5197,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C124" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D124" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E124" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5181,16 +5214,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C125" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D125" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E125" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5198,16 +5231,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C126" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D126" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E126" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5215,16 +5248,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C127" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="D127" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E127" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5232,16 +5265,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C128" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="D128" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E128" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5249,16 +5282,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C129" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="D129" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E129" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5266,16 +5299,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C130" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D130" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E130" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5283,16 +5316,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C131" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D131" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E131" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5300,16 +5333,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C132" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D132" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E132" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5317,16 +5350,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C133" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D133" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E133" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5334,16 +5367,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C134" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D134" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E134" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5351,16 +5384,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C135" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="D135" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E135" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5368,16 +5401,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C136" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D136" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="E136" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5385,16 +5418,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C137" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D137" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="E137" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5402,16 +5435,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C138" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D138" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E138" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5419,16 +5452,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C139" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="D139" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E139" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5436,16 +5469,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C140" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D140" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E140" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5453,16 +5486,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C141" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D141" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E141" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5470,16 +5503,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C142" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D142" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E142" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5487,16 +5520,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C143" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D143" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E143" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5504,16 +5537,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C144" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D144" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E144" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5521,16 +5554,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C145" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="D145" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E145" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5538,16 +5571,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C146" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D146" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E146" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5555,16 +5588,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C147" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="D147" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E147" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5572,16 +5605,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C148" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="D148" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E148" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5589,16 +5622,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C149" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D149" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E149" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5606,16 +5639,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C150" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D150" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E150" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5623,16 +5656,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C151" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="D151" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E151" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5640,16 +5673,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C152" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D152" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E152" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5657,16 +5690,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C153" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="D153" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E153" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5674,16 +5707,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C154" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="D154" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E154" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5691,16 +5724,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C155" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D155" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E155" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5708,16 +5741,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C156" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="D156" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E156" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5725,16 +5758,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C157" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D157" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E157" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5742,16 +5775,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C158" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="D158" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E158" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5759,16 +5792,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C159" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="D159" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E159" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5776,16 +5809,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C160" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="D160" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E160" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5793,16 +5826,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C161" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="D161" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E161" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5810,16 +5843,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C162" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="D162" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E162" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5827,16 +5860,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C163" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D163" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E163" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5844,16 +5877,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C164" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D164" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E164" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5861,16 +5894,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C165" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="D165" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E165" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5878,16 +5911,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C166" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D166" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E166" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5895,16 +5928,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C167" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="D167" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E167" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5912,16 +5945,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C168" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="D168" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E168" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5929,16 +5962,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C169" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="D169" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E169" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5946,16 +5979,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C170" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D170" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E170" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5963,16 +5996,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C171" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="D171" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E171" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5980,16 +6013,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C172" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="D172" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E172" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5997,16 +6030,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C173" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D173" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E173" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6014,16 +6047,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C174" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D174" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E174" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6031,16 +6064,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C175" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D175" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E175" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6048,16 +6081,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C176" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="D176" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E176" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6065,16 +6098,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C177" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="D177" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E177" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6082,16 +6115,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C178" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="D178" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E178" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6099,16 +6132,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C179" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="D179" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="E179" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6116,16 +6149,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C180" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="D180" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="E180" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6133,16 +6166,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C181" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="D181" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="E181" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6150,16 +6183,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C182" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="D182" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="E182" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6167,16 +6200,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C183" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="D183" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="E183" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6184,16 +6217,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C184" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D184" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="E184" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6201,16 +6234,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C185" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="D185" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="E185" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6218,16 +6251,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C186" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D186" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="E186" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6235,16 +6268,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C187" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="D187" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="E187" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6252,16 +6285,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C188" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="D188" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="E188" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6269,16 +6302,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C189" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D189" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="E189" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6286,16 +6319,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C190" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="D190" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="E190" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6303,16 +6336,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C191" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D191" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="E191" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6320,16 +6353,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C192" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="D192" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="E192" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6337,16 +6370,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C193" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="D193" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="E193" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6354,16 +6387,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C194" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D194" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="E194" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6371,16 +6404,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C195" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="D195" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="E195" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6388,16 +6421,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C196" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="D196" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="E196" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6405,16 +6438,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C197" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="D197" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="E197" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6422,16 +6455,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C198" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="D198" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="E198" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6439,16 +6472,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C199" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="D199" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="E199" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6456,16 +6489,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C200" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="D200" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E200" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6473,16 +6506,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C201" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D201" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E201" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6490,16 +6523,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C202" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="D202" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E202" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6507,16 +6540,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C203" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="D203" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E203" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6524,16 +6557,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C204" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D204" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E204" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6541,16 +6574,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C205" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="D205" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E205" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6558,16 +6591,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C206" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="D206" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E206" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6575,16 +6608,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C207" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="D207" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E207" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6592,16 +6625,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C208" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="D208" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E208" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6609,16 +6642,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C209" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="D209" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E209" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6626,16 +6659,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C210" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="D210" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E210" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6643,16 +6676,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C211" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="D211" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E211" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6660,16 +6693,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C212" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="D212" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E212" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6677,16 +6710,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C213" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="D213" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E213" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6694,16 +6727,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C214" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="D214" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E214" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6711,16 +6744,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C215" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="D215" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E215" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6728,16 +6761,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C216" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="D216" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E216" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6745,16 +6778,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C217" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="D217" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E217" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6762,16 +6795,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C218" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="D218" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E218" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6779,16 +6812,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C219" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="D219" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="E219" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6796,16 +6829,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C220" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="D220" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="E220" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6813,16 +6846,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C221" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="D221" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="E221" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6830,16 +6863,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C222" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="D222" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="E222" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6847,16 +6880,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C223" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="D223" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="E223" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6864,16 +6897,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C224" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="D224" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="E224" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6881,16 +6914,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C225" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="D225" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="E225" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6898,16 +6931,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C226" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="D226" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="E226" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6915,16 +6948,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C227" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="D227" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="E227" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6932,16 +6965,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C228" t="s">
         <v>662</v>
       </c>
       <c r="D228" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="E228" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6949,16 +6982,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C229" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="D229" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="E229" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6966,16 +6999,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C230" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="D230" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="E230" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6983,16 +7016,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C231" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="D231" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="E231" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7000,16 +7033,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C232" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="D232" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="E232" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7017,16 +7050,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C233" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="D233" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="E233" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7034,16 +7067,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C234" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="D234" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="E234" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7051,16 +7084,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C235" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D235" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="E235" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7068,16 +7101,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C236" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="D236" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="E236" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7085,16 +7118,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C237" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="D237" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="E237" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7102,16 +7135,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C238" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="D238" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="E238" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7119,16 +7152,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C239" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="D239" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="E239" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7136,16 +7169,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C240" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="D240" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="E240" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7153,16 +7186,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C241" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="D241" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="E241" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7170,16 +7203,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C242" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="D242" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="E242" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7187,16 +7220,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C243" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="D243" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="E243" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7204,16 +7237,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C244" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="D244" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="E244" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7221,16 +7254,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C245" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="D245" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="E245" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7238,16 +7271,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C246" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="D246" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="E246" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7255,16 +7288,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C247" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="D247" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="E247" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7272,16 +7305,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C248" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="D248" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="E248" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7289,16 +7322,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C249" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="D249" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="E249" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7306,16 +7339,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C250" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="D250" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="E250" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7323,16 +7356,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C251" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="D251" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="E251" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7340,16 +7373,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C252" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="D252" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
       <c r="E252" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7357,16 +7390,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C253" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="D253" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="E253" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7374,16 +7407,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C254" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="D254" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
       <c r="E254" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7391,16 +7424,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C255" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="D255" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="E255" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7408,16 +7441,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C256" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="D256" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="E256" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7425,16 +7458,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C257" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="D257" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="E257" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7442,16 +7475,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C258" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="D258" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="E258" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7459,16 +7492,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C259" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="D259" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="E259" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7476,16 +7509,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C260" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="D260" t="s">
-        <v>871</v>
+        <v>882</v>
       </c>
       <c r="E260" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7493,16 +7526,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C261" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="D261" t="s">
-        <v>856</v>
+        <v>882</v>
       </c>
       <c r="E261" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7510,16 +7543,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C262" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="D262" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E262" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7527,16 +7560,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C263" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="D263" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E263" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7544,16 +7577,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C264" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="D264" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E264" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7561,16 +7594,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C265" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="D265" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E265" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7578,16 +7611,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C266" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="D266" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E266" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7595,16 +7628,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C267" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="D267" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E267" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7612,16 +7645,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C268" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="D268" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E268" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7629,16 +7662,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C269" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="D269" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E269" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7646,16 +7679,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C270" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="D270" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E270" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7663,16 +7696,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C271" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="D271" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E271" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7680,16 +7713,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C272" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="D272" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E272" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7697,16 +7730,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C273" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="D273" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="E273" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7714,16 +7747,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C274" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="D274" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="E274" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7731,16 +7764,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C275" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="D275" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="E275" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7748,16 +7781,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C276" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="D276" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="E276" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7765,16 +7798,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C277" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="D277" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="E277" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7782,16 +7815,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C278" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="D278" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="E278" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7799,16 +7832,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C279" t="s">
         <v>712</v>
       </c>
       <c r="D279" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="E279" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7816,16 +7849,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C280" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="D280" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="E280" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7833,16 +7866,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C281" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="D281" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="E281" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7850,16 +7883,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C282" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="D282" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="E282" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7867,16 +7900,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C283" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="D283" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="E283" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7884,16 +7917,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C284" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="D284" t="s">
-        <v>858</v>
+        <v>883</v>
       </c>
       <c r="E284" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7901,16 +7934,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C285" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="D285" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E285" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7918,16 +7951,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C286" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="D286" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="E286" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7935,16 +7968,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C287" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="D287" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="E287" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7952,16 +7985,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C288" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="D288" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="E288" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7969,16 +8002,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C289" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="D289" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="E289" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7986,16 +8019,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C290" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="D290" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E290" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8003,16 +8036,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C291" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="D291" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="E291" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8020,16 +8053,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C292" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="D292" t="s">
-        <v>433</v>
+        <v>876</v>
       </c>
       <c r="E292" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8037,16 +8070,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C293" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D293" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E293" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8054,16 +8087,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C294" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="D294" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E294" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8071,16 +8104,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C295" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="D295" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E295" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8088,16 +8121,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C296" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="D296" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E296" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8105,16 +8138,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C297" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="D297" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E297" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8122,16 +8155,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C298" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="D298" t="s">
-        <v>873</v>
+        <v>438</v>
       </c>
       <c r="E298" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8139,16 +8172,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C299" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="D299" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="E299" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8156,16 +8189,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C300" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="D300" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="E300" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8173,16 +8206,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C301" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="D301" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="E301" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8190,16 +8223,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C302" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="D302" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="E302" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8207,16 +8240,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C303" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="D303" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="E303" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8227,13 +8260,13 @@
         <v>434</v>
       </c>
       <c r="C304" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="D304" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="E304" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8241,16 +8274,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C305" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="D305" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
       <c r="E305" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8258,16 +8291,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="C306" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="D306" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="E306" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8275,16 +8308,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C307" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="D307" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="E307" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8292,16 +8325,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C308" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="D308" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="E308" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8309,16 +8342,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C309" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="D309" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="E309" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8326,16 +8359,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C310" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="D310" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="E310" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8343,16 +8376,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C311" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="D311" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="E311" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8360,16 +8393,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C312" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="D312" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="E312" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8377,16 +8410,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C313" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="D313" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="E313" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8394,16 +8427,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C314" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="D314" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="E314" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8411,16 +8444,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C315" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="D315" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="E315" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8428,16 +8461,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C316" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="D316" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="E316" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8445,16 +8478,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C317" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="D317" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="E317" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8462,16 +8495,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C318" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="D318" t="s">
-        <v>861</v>
+        <v>887</v>
       </c>
       <c r="E318" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8479,16 +8512,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C319" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="D319" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="E319" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8496,16 +8529,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C320" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="D320" t="s">
-        <v>877</v>
+        <v>888</v>
       </c>
       <c r="E320" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8513,16 +8546,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C321" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="D321" t="s">
-        <v>877</v>
+        <v>888</v>
       </c>
       <c r="E321" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8530,16 +8563,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C322" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="D322" t="s">
-        <v>877</v>
+        <v>888</v>
       </c>
       <c r="E322" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8547,16 +8580,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C323" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="D323" t="s">
-        <v>877</v>
+        <v>888</v>
       </c>
       <c r="E323" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8564,16 +8597,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C324" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="D324" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="E324" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8581,16 +8614,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C325" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="D325" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="E325" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8598,16 +8631,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C326" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="D326" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="E326" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8615,16 +8648,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C327" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="D327" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="E327" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8632,16 +8665,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C328" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="D328" t="s">
-        <v>856</v>
+        <v>889</v>
       </c>
       <c r="E328" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8649,16 +8682,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C329" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="D329" t="s">
-        <v>856</v>
+        <v>889</v>
       </c>
       <c r="E329" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8666,16 +8699,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C330" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="D330" t="s">
-        <v>856</v>
+        <v>889</v>
       </c>
       <c r="E330" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8683,16 +8716,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C331" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D331" t="s">
-        <v>856</v>
+        <v>889</v>
       </c>
       <c r="E331" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8700,16 +8733,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C332" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="D332" t="s">
-        <v>856</v>
+        <v>889</v>
       </c>
       <c r="E332" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8717,16 +8750,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C333" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="D333" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="E333" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8734,16 +8767,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C334" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="D334" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="E334" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8751,16 +8784,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C335" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="D335" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="E335" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8768,16 +8801,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C336" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="D336" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="E336" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8785,16 +8818,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C337" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="D337" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="E337" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8802,16 +8835,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C338" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="D338" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="E338" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8819,16 +8852,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C339" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="D339" t="s">
-        <v>879</v>
+        <v>890</v>
       </c>
       <c r="E339" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8836,16 +8869,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C340" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="D340" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="E340" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8853,16 +8886,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C341" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="D341" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="E341" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8870,16 +8903,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C342" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="D342" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="E342" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8887,16 +8920,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C343" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="D343" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="E343" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8904,16 +8937,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C344" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="D344" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="E344" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8921,16 +8954,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C345" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="D345" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="E345" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8938,16 +8971,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C346" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="D346" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="E346" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8955,16 +8988,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C347" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="D347" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="E347" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8972,16 +9005,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C348" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="D348" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="E348" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8989,16 +9022,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C349" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="D349" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="E349" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9006,16 +9039,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C350" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="D350" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="E350" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9023,16 +9056,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C351" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="D351" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="E351" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9040,16 +9073,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C352" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="D352" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="E352" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9057,16 +9090,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C353" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="D353" t="s">
-        <v>858</v>
+        <v>892</v>
       </c>
       <c r="E353" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9074,16 +9107,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C354" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="D354" t="s">
-        <v>858</v>
+        <v>893</v>
       </c>
       <c r="E354" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9091,16 +9124,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C355" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="D355" t="s">
-        <v>858</v>
+        <v>893</v>
       </c>
       <c r="E355" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9108,16 +9141,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C356" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="D356" t="s">
-        <v>859</v>
+        <v>893</v>
       </c>
       <c r="E356" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9125,16 +9158,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C357" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="D357" t="s">
-        <v>865</v>
+        <v>893</v>
       </c>
       <c r="E357" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9142,16 +9175,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C358" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="D358" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E358" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9159,16 +9192,16 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C359" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="D359" t="s">
-        <v>433</v>
+        <v>868</v>
       </c>
       <c r="E359" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9176,16 +9209,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C360" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="D360" t="s">
-        <v>433</v>
+        <v>868</v>
       </c>
       <c r="E360" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9193,16 +9226,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C361" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="D361" t="s">
-        <v>433</v>
+        <v>869</v>
       </c>
       <c r="E361" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9210,16 +9243,16 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C362" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="D362" t="s">
-        <v>433</v>
+        <v>876</v>
       </c>
       <c r="E362" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9230,13 +9263,13 @@
         <v>433</v>
       </c>
       <c r="C363" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="D363" t="s">
-        <v>433</v>
+        <v>878</v>
       </c>
       <c r="E363" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9244,16 +9277,16 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C364" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="D364" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E364" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9261,16 +9294,16 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C365" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="D365" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E365" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9278,16 +9311,16 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C366" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="D366" t="s">
-        <v>883</v>
+        <v>438</v>
       </c>
       <c r="E366" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9295,16 +9328,16 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C367" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D367" t="s">
-        <v>883</v>
+        <v>438</v>
       </c>
       <c r="E367" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9312,16 +9345,16 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C368" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D368" t="s">
-        <v>883</v>
+        <v>438</v>
       </c>
       <c r="E368" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9329,16 +9362,16 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C369" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="D369" t="s">
-        <v>883</v>
+        <v>438</v>
       </c>
       <c r="E369" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9346,16 +9379,16 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C370" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="D370" t="s">
-        <v>883</v>
+        <v>438</v>
       </c>
       <c r="E370" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9363,16 +9396,16 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C371" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="D371" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="E371" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9380,16 +9413,16 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C372" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D372" t="s">
-        <v>877</v>
+        <v>894</v>
       </c>
       <c r="E372" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9397,16 +9430,16 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C373" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="D373" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="E373" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9414,16 +9447,16 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C374" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="D374" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="E374" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9431,16 +9464,16 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C375" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="D375" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="E375" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9448,16 +9481,16 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C376" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="D376" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="E376" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9465,16 +9498,16 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C377" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="D377" t="s">
-        <v>856</v>
+        <v>888</v>
       </c>
       <c r="E377" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9482,16 +9515,16 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C378" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="D378" t="s">
-        <v>856</v>
+        <v>895</v>
       </c>
       <c r="E378" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9499,16 +9532,16 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C379" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="D379" t="s">
-        <v>879</v>
+        <v>895</v>
       </c>
       <c r="E379" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9516,16 +9549,16 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C380" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="D380" t="s">
-        <v>858</v>
+        <v>896</v>
       </c>
       <c r="E380" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9533,16 +9566,16 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C381" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="D381" t="s">
-        <v>858</v>
+        <v>896</v>
       </c>
       <c r="E381" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9550,16 +9583,16 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C382" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="D382" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="E382" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9567,16 +9600,16 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C383" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="D383" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="E383" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9584,16 +9617,16 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="C384" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="D384" t="s">
-        <v>859</v>
+        <v>890</v>
       </c>
       <c r="E384" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9601,16 +9634,16 @@
         <v>388</v>
       </c>
       <c r="B385" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C385" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="D385" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
       <c r="E385" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9618,16 +9651,16 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C386" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="D386" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="E386" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9635,16 +9668,16 @@
         <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C387" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="D387" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="E387" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9652,16 +9685,16 @@
         <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C388" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="D388" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="E388" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9669,16 +9702,16 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C389" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="D389" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="E389" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9686,16 +9719,16 @@
         <v>393</v>
       </c>
       <c r="B390" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C390" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="D390" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="E390" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9703,16 +9736,16 @@
         <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C391" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="D391" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="E391" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9720,16 +9753,16 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C392" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="D392" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="E392" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9737,16 +9770,16 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C393" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="D393" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="E393" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9754,16 +9787,16 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C394" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="D394" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="E394" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9771,16 +9804,16 @@
         <v>398</v>
       </c>
       <c r="B395" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C395" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="D395" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="E395" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9788,16 +9821,16 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C396" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="D396" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="E396" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9805,16 +9838,16 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C397" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="D397" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="E397" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -9822,16 +9855,16 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C398" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="D398" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="E398" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -9839,16 +9872,16 @@
         <v>402</v>
       </c>
       <c r="B399" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C399" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="D399" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E399" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -9856,16 +9889,16 @@
         <v>403</v>
       </c>
       <c r="B400" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C400" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="D400" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E400" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -9873,16 +9906,16 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C401" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="D401" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E401" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -9890,16 +9923,16 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C402" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="D402" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E402" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -9907,16 +9940,16 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C403" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="D403" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E403" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -9924,16 +9957,16 @@
         <v>407</v>
       </c>
       <c r="B404" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C404" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="D404" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E404" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -9941,16 +9974,16 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C405" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="D405" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E405" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -9958,16 +9991,16 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C406" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="D406" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E406" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -9975,16 +10008,16 @@
         <v>410</v>
       </c>
       <c r="B407" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C407" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="D407" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E407" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -9992,16 +10025,16 @@
         <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C408" t="s">
-        <v>456</v>
+        <v>845</v>
       </c>
       <c r="D408" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E408" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10009,16 +10042,16 @@
         <v>412</v>
       </c>
       <c r="B409" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C409" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="D409" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E409" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10026,16 +10059,16 @@
         <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C410" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="D410" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E410" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10043,16 +10076,16 @@
         <v>414</v>
       </c>
       <c r="B411" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C411" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="D411" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E411" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10060,16 +10093,16 @@
         <v>415</v>
       </c>
       <c r="B412" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C412" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="D412" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E412" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10077,16 +10110,16 @@
         <v>416</v>
       </c>
       <c r="B413" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C413" t="s">
-        <v>844</v>
+        <v>461</v>
       </c>
       <c r="D413" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E413" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10094,16 +10127,16 @@
         <v>417</v>
       </c>
       <c r="B414" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C414" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D414" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E414" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10111,16 +10144,16 @@
         <v>418</v>
       </c>
       <c r="B415" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C415" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="D415" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E415" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10128,16 +10161,16 @@
         <v>419</v>
       </c>
       <c r="B416" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C416" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="D416" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E416" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10145,16 +10178,16 @@
         <v>420</v>
       </c>
       <c r="B417" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C417" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="D417" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E417" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10162,16 +10195,16 @@
         <v>421</v>
       </c>
       <c r="B418" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C418" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="D418" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E418" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10179,16 +10212,16 @@
         <v>422</v>
       </c>
       <c r="B419" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C419" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="D419" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E419" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10196,16 +10229,16 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C420" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="D420" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E420" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10213,16 +10246,16 @@
         <v>424</v>
       </c>
       <c r="B421" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C421" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="D421" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E421" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10230,16 +10263,16 @@
         <v>425</v>
       </c>
       <c r="B422" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C422" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="D422" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E422" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10247,16 +10280,16 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C423" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="D423" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E423" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10264,16 +10297,101 @@
         <v>427</v>
       </c>
       <c r="B424" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C424" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="D424" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E424" t="s">
-        <v>896</v>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" t="s">
+        <v>428</v>
+      </c>
+      <c r="B425" t="s">
+        <v>442</v>
+      </c>
+      <c r="C425" t="s">
+        <v>861</v>
+      </c>
+      <c r="D425" t="s">
+        <v>901</v>
+      </c>
+      <c r="E425" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" t="s">
+        <v>429</v>
+      </c>
+      <c r="B426" t="s">
+        <v>442</v>
+      </c>
+      <c r="C426" t="s">
+        <v>862</v>
+      </c>
+      <c r="D426" t="s">
+        <v>901</v>
+      </c>
+      <c r="E426" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" t="s">
+        <v>430</v>
+      </c>
+      <c r="B427" t="s">
+        <v>442</v>
+      </c>
+      <c r="C427" t="s">
+        <v>863</v>
+      </c>
+      <c r="D427" t="s">
+        <v>901</v>
+      </c>
+      <c r="E427" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" t="s">
+        <v>431</v>
+      </c>
+      <c r="B428" t="s">
+        <v>442</v>
+      </c>
+      <c r="C428" t="s">
+        <v>864</v>
+      </c>
+      <c r="D428" t="s">
+        <v>901</v>
+      </c>
+      <c r="E428" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" t="s">
+        <v>432</v>
+      </c>
+      <c r="B429" t="s">
+        <v>442</v>
+      </c>
+      <c r="C429" t="s">
+        <v>865</v>
+      </c>
+      <c r="D429" t="s">
+        <v>901</v>
+      </c>
+      <c r="E429" t="s">
+        <v>907</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class7.xlsx
+++ b/pali-class/vocab/vocab-class7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="924">
   <si>
     <t>Pāli1</t>
   </si>
@@ -706,6 +706,9 @@
     <t>āmantesi</t>
   </si>
   <si>
+    <t>ahosi</t>
+  </si>
+  <si>
     <t>pāturahosi</t>
   </si>
   <si>
@@ -991,6 +994,9 @@
     <t>vādī 1</t>
   </si>
   <si>
+    <t>vihārī</t>
+  </si>
+  <si>
     <t>āgāmī 1</t>
   </si>
   <si>
@@ -1000,6 +1006,9 @@
     <t>bhogī 1</t>
   </si>
   <si>
+    <t>anupassī 1</t>
+  </si>
+  <si>
     <t>gavesī 1</t>
   </si>
   <si>
@@ -1012,6 +1021,9 @@
     <t>brahmacārī 2</t>
   </si>
   <si>
+    <t>dassī 2</t>
+  </si>
+  <si>
     <t>sukhī 2</t>
   </si>
   <si>
@@ -1117,6 +1129,9 @@
     <t>nidhi</t>
   </si>
   <si>
+    <t>vā 1</t>
+  </si>
+  <si>
     <t>kālena</t>
   </si>
   <si>
@@ -1126,9 +1141,15 @@
     <t>sadā</t>
   </si>
   <si>
+    <t>ca 1</t>
+  </si>
+  <si>
     <t>pacchā 1</t>
   </si>
   <si>
+    <t>pure 2</t>
+  </si>
+  <si>
     <t>suve</t>
   </si>
   <si>
@@ -1162,6 +1183,9 @@
     <t>rattaññū</t>
   </si>
   <si>
+    <t>vidū 1</t>
+  </si>
+  <si>
     <t>mattaññū</t>
   </si>
   <si>
@@ -2017,6 +2041,9 @@
     <t>addressed; said (to)</t>
   </si>
   <si>
+    <t>was; existed; became</t>
+  </si>
+  <si>
     <t>appeared; manifested; lit. became visible</t>
   </si>
   <si>
@@ -2293,6 +2320,9 @@
     <t>speaking; saying; telling</t>
   </si>
   <si>
+    <t>(of a state of being) living in; who has</t>
+  </si>
+  <si>
     <t>who returns; who comes back</t>
   </si>
   <si>
@@ -2302,6 +2332,9 @@
     <t>enjoying; using; experiencing; partaking in</t>
   </si>
   <si>
+    <t>looking (at); observing; following; noticing; witnessing; watching</t>
+  </si>
+  <si>
     <t>seeking; searching for; looking for</t>
   </si>
   <si>
@@ -2314,6 +2347,9 @@
     <t>celibate person; one living the holy life</t>
   </si>
   <si>
+    <t>who sees; who knows; who perceives; who understands</t>
+  </si>
+  <si>
     <t>who is happy; at ease; comfortable</t>
   </si>
   <si>
@@ -2419,6 +2455,9 @@
     <t>treasure; trove; hoard; lit. put down</t>
   </si>
   <si>
+    <t>or; either or</t>
+  </si>
+  <si>
     <t>at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
@@ -2428,9 +2467,15 @@
     <t>ever; always</t>
   </si>
   <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>after; afterwards; in the future</t>
   </si>
   <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
     <t>tomorrow</t>
   </si>
   <si>
@@ -2462,6 +2507,9 @@
   </si>
   <si>
     <t>of long standing; lit. who knowing (many) night (as a monk)</t>
+  </si>
+  <si>
+    <t>wise; knowing; understanding</t>
   </si>
   <si>
     <t>knowing the measure or limit; moderate</t>
@@ -3095,7 +3143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E429"/>
+  <dimension ref="A1:E437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3123,16 +3171,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="D2" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E2" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3140,16 +3188,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D3" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E3" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3157,16 +3205,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D4" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E4" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3174,16 +3222,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C5" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D5" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E5" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3191,16 +3239,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C6" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="D6" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E6" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3208,16 +3256,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D7" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E7" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3225,16 +3273,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C8" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D8" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E8" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3242,16 +3290,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C9" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="D9" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E9" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3259,16 +3307,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C10" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="D10" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E10" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3276,16 +3324,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C11" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D11" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E11" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3293,16 +3341,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C12" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D12" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E12" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3310,16 +3358,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C13" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="D13" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E13" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3327,16 +3375,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C14" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D14" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E14" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3344,16 +3392,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C15" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D15" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E15" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3361,16 +3409,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C16" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D16" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E16" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3378,16 +3426,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C17" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D17" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E17" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3395,16 +3443,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C18" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D18" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E18" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3412,16 +3460,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C19" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D19" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E19" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3429,16 +3477,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C20" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D20" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E20" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3446,16 +3494,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C21" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D21" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E21" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3463,16 +3511,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C22" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D22" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E22" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3480,16 +3528,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C23" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D23" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E23" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3497,16 +3545,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C24" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D24" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E24" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3514,16 +3562,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C25" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D25" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E25" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3531,16 +3579,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C26" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D26" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E26" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3548,16 +3596,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C27" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D27" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E27" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3565,16 +3613,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C28" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="D28" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E28" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3582,16 +3630,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C29" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D29" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E29" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3599,16 +3647,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C30" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D30" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E30" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3616,16 +3664,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C31" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D31" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E31" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3633,16 +3681,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C32" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D32" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E32" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3650,16 +3698,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C33" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D33" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E33" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3667,16 +3715,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C34" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D34" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E34" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3684,16 +3732,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C35" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D35" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E35" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3701,16 +3749,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C36" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D36" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E36" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3718,16 +3766,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C37" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D37" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E37" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3735,16 +3783,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C38" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D38" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E38" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3752,16 +3800,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C39" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D39" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E39" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3769,16 +3817,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C40" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D40" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E40" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3786,16 +3834,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C41" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D41" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E41" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3803,16 +3851,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C42" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D42" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E42" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3820,16 +3868,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C43" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D43" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E43" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3837,16 +3885,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C44" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D44" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E44" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3854,16 +3902,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C45" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D45" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E45" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3871,16 +3919,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C46" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="D46" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E46" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3888,16 +3936,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C47" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D47" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E47" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3905,16 +3953,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C48" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="D48" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E48" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3922,16 +3970,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C49" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D49" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E49" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3939,16 +3987,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C50" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E50" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3956,16 +4004,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C51" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D51" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E51" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3973,16 +4021,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C52" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D52" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E52" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3990,16 +4038,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C53" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="D53" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E53" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4007,16 +4055,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C54" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D54" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E54" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4024,16 +4072,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C55" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="D55" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E55" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4041,16 +4089,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C56" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D56" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E56" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4058,16 +4106,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C57" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="D57" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E57" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4075,16 +4123,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C58" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="D58" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E58" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4092,16 +4140,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C59" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="D59" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E59" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4109,16 +4157,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C60" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="D60" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E60" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4126,16 +4174,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C61" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="D61" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E61" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4143,16 +4191,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C62" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D62" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E62" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4160,16 +4208,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C63" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="D63" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E63" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4177,16 +4225,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C64" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="D64" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E64" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4194,16 +4242,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C65" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="D65" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E65" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4211,16 +4259,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C66" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="D66" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E66" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4228,16 +4276,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C67" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D67" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E67" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4245,16 +4293,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C68" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D68" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E68" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4262,16 +4310,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C69" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D69" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E69" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4279,16 +4327,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C70" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D70" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E70" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4296,16 +4344,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C71" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D71" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E71" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4313,16 +4361,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C72" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D72" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E72" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4330,16 +4378,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C73" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="D73" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E73" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4347,16 +4395,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C74" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="D74" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E74" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4364,16 +4412,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C75" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="D75" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E75" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4381,16 +4429,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C76" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="D76" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E76" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4398,16 +4446,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C77" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="D77" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E77" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4415,16 +4463,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C78" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D78" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E78" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4432,16 +4480,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C79" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="D79" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E79" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4449,16 +4497,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C80" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D80" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E80" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4466,16 +4514,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C81" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="D81" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E81" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4483,16 +4531,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C82" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="D82" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E82" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4500,16 +4548,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C83" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="D83" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E83" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4517,16 +4565,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C84" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="D84" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E84" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4534,16 +4582,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C85" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D85" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E85" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4551,16 +4599,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C86" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D86" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E86" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4568,16 +4616,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C87" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D87" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E87" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4585,16 +4633,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C88" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="D88" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E88" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4602,16 +4650,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C89" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="D89" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E89" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4619,16 +4667,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C90" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="D90" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E90" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4636,16 +4684,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C91" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="D91" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E91" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4653,16 +4701,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C92" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D92" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E92" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4670,16 +4718,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C93" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D93" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E93" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4687,16 +4735,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C94" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="D94" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E94" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4704,16 +4752,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C95" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="D95" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E95" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4721,16 +4769,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C96" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D96" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E96" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4738,16 +4786,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C97" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="D97" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E97" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4755,16 +4803,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C98" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="D98" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E98" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4772,16 +4820,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C99" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D99" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E99" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4789,16 +4837,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C100" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="D100" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E100" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4806,16 +4854,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C101" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="D101" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E101" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4823,16 +4871,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C102" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="D102" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E102" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4840,16 +4888,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C103" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D103" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E103" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4857,16 +4905,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C104" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="D104" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E104" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4874,16 +4922,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C105" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="D105" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E105" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4891,16 +4939,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C106" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D106" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E106" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4908,16 +4956,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C107" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="D107" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E107" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4925,16 +4973,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C108" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="D108" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E108" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4942,16 +4990,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C109" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="D109" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E109" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4959,16 +5007,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C110" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D110" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E110" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4976,16 +5024,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C111" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D111" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E111" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4993,16 +5041,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C112" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="D112" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E112" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5010,16 +5058,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C113" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="D113" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E113" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5027,16 +5075,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C114" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="D114" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E114" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5044,16 +5092,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C115" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="D115" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E115" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5061,16 +5109,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C116" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D116" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E116" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5078,16 +5126,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C117" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="D117" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E117" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5095,16 +5143,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C118" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="D118" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E118" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5112,16 +5160,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C119" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D119" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E119" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5129,16 +5177,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C120" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="D120" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E120" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5146,16 +5194,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C121" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="D121" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E121" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5163,16 +5211,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C122" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="D122" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E122" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5180,16 +5228,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C123" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="D123" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E123" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5197,16 +5245,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C124" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D124" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E124" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5214,16 +5262,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C125" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="D125" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E125" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5231,16 +5279,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C126" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D126" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E126" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5248,16 +5296,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C127" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D127" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E127" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5265,16 +5313,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C128" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="D128" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E128" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5282,16 +5330,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C129" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="D129" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E129" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5299,16 +5347,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C130" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D130" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E130" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5316,16 +5364,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C131" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="D131" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E131" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5333,16 +5381,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C132" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="D132" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E132" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5350,16 +5398,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C133" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="D133" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E133" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5367,16 +5415,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C134" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D134" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E134" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5384,16 +5432,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C135" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="D135" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E135" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5401,16 +5449,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C136" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="D136" t="s">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="E136" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5418,16 +5466,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C137" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="D137" t="s">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="E137" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5435,16 +5483,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C138" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="D138" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E138" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5452,16 +5500,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C139" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D139" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E139" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5469,16 +5517,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C140" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="D140" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E140" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5486,16 +5534,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C141" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D141" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E141" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5503,16 +5551,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C142" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="D142" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E142" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5520,16 +5568,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C143" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="D143" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E143" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5537,16 +5585,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C144" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="D144" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E144" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5554,16 +5602,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C145" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D145" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E145" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5571,16 +5619,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C146" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="D146" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E146" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5588,16 +5636,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C147" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="D147" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E147" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5605,16 +5653,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C148" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D148" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E148" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5622,16 +5670,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C149" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="D149" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E149" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5639,16 +5687,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C150" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="D150" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E150" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5656,16 +5704,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C151" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="D151" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E151" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5673,16 +5721,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C152" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D152" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E152" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5690,16 +5738,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C153" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="D153" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E153" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5707,16 +5755,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C154" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="D154" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E154" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5724,16 +5772,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C155" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="D155" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E155" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5741,16 +5789,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C156" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="D156" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E156" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5758,16 +5806,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C157" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="D157" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E157" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5775,16 +5823,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C158" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="D158" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E158" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5792,16 +5840,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C159" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="D159" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E159" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5809,16 +5857,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C160" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="D160" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E160" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5826,16 +5874,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C161" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="D161" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E161" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5843,16 +5891,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C162" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="D162" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E162" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5860,16 +5908,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C163" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="D163" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E163" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5877,16 +5925,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C164" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="D164" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E164" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5894,16 +5942,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C165" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="D165" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E165" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5911,16 +5959,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C166" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="D166" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E166" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5928,16 +5976,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C167" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="D167" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E167" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5945,16 +5993,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C168" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="D168" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E168" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5962,16 +6010,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C169" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="D169" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E169" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5979,16 +6027,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C170" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="D170" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E170" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5996,16 +6044,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C171" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="D171" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E171" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6013,16 +6061,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C172" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="D172" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E172" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6030,16 +6078,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C173" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="D173" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E173" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6047,16 +6095,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C174" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="D174" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E174" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6064,16 +6112,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C175" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="D175" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E175" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6081,16 +6129,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C176" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="D176" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E176" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6098,16 +6146,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C177" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="D177" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E177" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6115,16 +6163,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C178" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D178" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E178" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6132,16 +6180,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C179" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="D179" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="E179" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6149,16 +6197,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C180" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D180" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="E180" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6166,16 +6214,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C181" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="D181" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="E181" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6183,16 +6231,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C182" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="D182" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="E182" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6200,16 +6248,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C183" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="D183" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="E183" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6217,16 +6265,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C184" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="D184" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="E184" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6234,16 +6282,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C185" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="D185" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="E185" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6251,16 +6299,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C186" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D186" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="E186" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6268,16 +6316,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C187" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="D187" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="E187" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6285,16 +6333,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C188" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="D188" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="E188" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6302,16 +6350,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C189" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D189" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="E189" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6319,16 +6367,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C190" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="D190" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="E190" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6336,16 +6384,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C191" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="D191" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="E191" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6353,16 +6401,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C192" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="D192" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="E192" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6370,16 +6418,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C193" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="D193" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="E193" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6387,16 +6435,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C194" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="D194" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="E194" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6404,16 +6452,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C195" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="D195" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="E195" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6421,16 +6469,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C196" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="D196" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="E196" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6438,16 +6486,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C197" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="D197" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="E197" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6455,16 +6503,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C198" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="D198" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="E198" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6472,16 +6520,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C199" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="D199" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="E199" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6489,16 +6537,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C200" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="D200" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E200" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6506,16 +6554,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C201" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="D201" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E201" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6523,16 +6571,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C202" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="D202" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E202" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6540,16 +6588,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C203" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="D203" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E203" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6557,16 +6605,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C204" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="D204" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E204" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6574,16 +6622,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C205" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="D205" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E205" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6591,16 +6639,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C206" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="D206" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E206" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6608,16 +6656,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C207" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="D207" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E207" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6625,16 +6673,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C208" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="D208" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E208" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6642,16 +6690,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C209" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="D209" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E209" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6659,16 +6707,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C210" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="D210" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E210" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6676,16 +6724,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C211" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D211" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E211" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6693,16 +6741,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C212" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="D212" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E212" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6710,16 +6758,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C213" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="D213" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E213" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6727,16 +6775,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C214" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="D214" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E214" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6744,16 +6792,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C215" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="D215" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E215" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6761,16 +6809,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C216" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="D216" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E216" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6778,16 +6826,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C217" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="D217" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E217" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6795,16 +6843,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C218" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="D218" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E218" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6812,16 +6860,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C219" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="D219" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E219" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6829,16 +6877,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C220" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="D220" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E220" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6846,16 +6894,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C221" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="D221" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E221" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6863,16 +6911,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C222" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="D222" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E222" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6880,16 +6928,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C223" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="D223" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E223" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6897,16 +6945,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C224" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="D224" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E224" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6914,16 +6962,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C225" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="D225" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E225" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6931,16 +6979,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C226" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="D226" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="E226" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6948,16 +6996,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C227" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="D227" t="s">
-        <v>874</v>
+        <v>890</v>
       </c>
       <c r="E227" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6965,16 +7013,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C228" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="D228" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="E228" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6982,16 +7030,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C229" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D229" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="E229" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6999,16 +7047,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C230" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="D230" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="E230" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7016,16 +7064,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C231" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="D231" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="E231" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7033,16 +7081,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="C232" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="D232" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="E232" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7050,16 +7098,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C233" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="D233" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="E233" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7067,16 +7115,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C234" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="D234" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="E234" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7084,16 +7132,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C235" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="D235" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="E235" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7101,16 +7149,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C236" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D236" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="E236" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7118,16 +7166,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C237" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="D237" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="E237" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7135,16 +7183,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C238" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D238" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="E238" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7152,16 +7200,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C239" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="D239" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="E239" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7169,16 +7217,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C240" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="D240" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="E240" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7186,16 +7234,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C241" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="D241" t="s">
-        <v>877</v>
+        <v>892</v>
       </c>
       <c r="E241" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7203,16 +7251,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C242" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="D242" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="E242" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7220,16 +7268,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C243" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="D243" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="E243" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7237,16 +7285,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C244" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="D244" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="E244" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7254,16 +7302,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C245" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="D245" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="E245" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7271,16 +7319,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C246" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="D246" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="E246" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7288,16 +7336,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C247" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="D247" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="E247" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7305,16 +7353,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C248" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="D248" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="E248" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7322,16 +7370,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C249" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="D249" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="E249" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7339,16 +7387,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C250" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="D250" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="E250" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7356,16 +7404,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C251" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="D251" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="E251" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7373,16 +7421,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C252" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="D252" t="s">
-        <v>879</v>
+        <v>894</v>
       </c>
       <c r="E252" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7390,16 +7438,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C253" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="D253" t="s">
-        <v>879</v>
+        <v>895</v>
       </c>
       <c r="E253" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7407,16 +7455,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="C254" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="D254" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
       <c r="E254" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7424,16 +7472,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C255" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="D255" t="s">
-        <v>880</v>
+        <v>896</v>
       </c>
       <c r="E255" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7441,16 +7489,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C256" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="D256" t="s">
-        <v>881</v>
+        <v>896</v>
       </c>
       <c r="E256" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7458,16 +7506,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C257" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="D257" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="E257" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7475,16 +7523,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C258" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="D258" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="E258" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7492,16 +7540,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C259" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="D259" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="E259" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7509,16 +7557,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C260" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="D260" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="E260" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7526,16 +7574,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C261" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="D261" t="s">
-        <v>882</v>
+        <v>898</v>
       </c>
       <c r="E261" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7543,16 +7591,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C262" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="D262" t="s">
-        <v>866</v>
+        <v>898</v>
       </c>
       <c r="E262" t="s">
-        <v>905</v>
+        <v>920</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7560,16 +7608,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C263" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="D263" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E263" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7577,16 +7625,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C264" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="D264" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E264" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7594,16 +7642,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C265" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="D265" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E265" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7611,16 +7659,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C266" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="D266" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E266" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7628,16 +7676,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C267" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="D267" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E267" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7645,16 +7693,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C268" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="D268" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E268" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7662,16 +7710,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C269" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="D269" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E269" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7679,16 +7727,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C270" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="D270" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E270" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7696,16 +7744,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C271" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="D271" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E271" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7713,16 +7761,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C272" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="D272" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E272" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7730,16 +7778,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C273" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="D273" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E273" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7747,16 +7795,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C274" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="D274" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="E274" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7764,16 +7812,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C275" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="D275" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="E275" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7781,16 +7829,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C276" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="D276" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="E276" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7798,16 +7846,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C277" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="D277" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="E277" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7815,16 +7863,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C278" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="D278" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="E278" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7832,16 +7880,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C279" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="D279" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="E279" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7849,16 +7897,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C280" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D280" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="E280" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7866,16 +7914,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C281" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="D281" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="E281" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7883,16 +7931,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C282" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="D282" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="E282" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7900,16 +7948,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C283" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="D283" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="E283" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7917,16 +7965,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C284" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="D284" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="E284" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7934,16 +7982,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="C285" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D285" t="s">
-        <v>868</v>
+        <v>899</v>
       </c>
       <c r="E285" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7951,16 +7999,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C286" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="D286" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E286" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7968,16 +8016,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C287" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="D287" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E287" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7985,16 +8033,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C288" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="D288" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="E288" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8002,16 +8050,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C289" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="D289" t="s">
-        <v>869</v>
+        <v>889</v>
       </c>
       <c r="E289" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8019,16 +8067,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C290" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="D290" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="E290" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8036,16 +8084,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C291" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="D291" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="E291" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8053,16 +8101,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C292" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="D292" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="E292" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8070,16 +8118,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C293" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="D293" t="s">
-        <v>438</v>
+        <v>892</v>
       </c>
       <c r="E293" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8087,16 +8135,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C294" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="D294" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E294" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8104,16 +8152,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C295" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="D295" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E295" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8121,16 +8169,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C296" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="D296" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E296" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8138,16 +8186,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C297" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="D297" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E297" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8155,16 +8203,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C298" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="D298" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E298" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8172,16 +8220,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C299" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="D299" t="s">
-        <v>884</v>
+        <v>446</v>
       </c>
       <c r="E299" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8189,16 +8237,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C300" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="D300" t="s">
-        <v>884</v>
+        <v>900</v>
       </c>
       <c r="E300" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8206,16 +8254,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C301" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="D301" t="s">
-        <v>884</v>
+        <v>900</v>
       </c>
       <c r="E301" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8223,16 +8271,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C302" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="D302" t="s">
-        <v>884</v>
+        <v>900</v>
       </c>
       <c r="E302" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8240,16 +8288,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C303" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="D303" t="s">
-        <v>884</v>
+        <v>900</v>
       </c>
       <c r="E303" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8257,16 +8305,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C304" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="D304" t="s">
-        <v>885</v>
+        <v>900</v>
       </c>
       <c r="E304" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8274,16 +8322,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C305" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="D305" t="s">
-        <v>886</v>
+        <v>901</v>
       </c>
       <c r="E305" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8291,16 +8339,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C306" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="D306" t="s">
-        <v>886</v>
+        <v>902</v>
       </c>
       <c r="E306" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8308,16 +8356,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C307" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="D307" t="s">
-        <v>887</v>
+        <v>902</v>
       </c>
       <c r="E307" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8325,16 +8373,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C308" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="D308" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="E308" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8342,16 +8390,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C309" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="D309" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="E309" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8359,16 +8407,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C310" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="D310" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="E310" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8376,16 +8424,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C311" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="D311" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="E311" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8393,16 +8441,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C312" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="D312" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="E312" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8410,16 +8458,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C313" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="D313" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="E313" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8427,16 +8475,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C314" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="D314" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="E314" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8444,16 +8492,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C315" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="D315" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="E315" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8461,16 +8509,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C316" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="D316" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="E316" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8478,16 +8526,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C317" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="D317" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="E317" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8495,16 +8543,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C318" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="D318" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="E318" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8512,16 +8560,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="C319" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="D319" t="s">
-        <v>871</v>
+        <v>903</v>
       </c>
       <c r="E319" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8529,16 +8577,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C320" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="D320" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E320" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8546,16 +8594,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C321" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="D321" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="E321" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8563,16 +8611,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C322" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="D322" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="E322" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8580,16 +8628,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C323" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="D323" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="E323" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8597,16 +8645,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C324" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="D324" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="E324" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8614,16 +8662,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C325" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="D325" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="E325" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8631,16 +8679,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C326" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="D326" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="E326" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8648,16 +8696,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C327" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="D327" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="E327" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8665,16 +8713,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C328" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="D328" t="s">
-        <v>889</v>
+        <v>904</v>
       </c>
       <c r="E328" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8682,16 +8730,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C329" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="D329" t="s">
-        <v>889</v>
+        <v>904</v>
       </c>
       <c r="E329" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8699,16 +8747,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C330" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="D330" t="s">
-        <v>889</v>
+        <v>904</v>
       </c>
       <c r="E330" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8716,16 +8764,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C331" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="D331" t="s">
-        <v>889</v>
+        <v>905</v>
       </c>
       <c r="E331" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8733,16 +8781,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C332" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="D332" t="s">
-        <v>889</v>
+        <v>905</v>
       </c>
       <c r="E332" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8750,16 +8798,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C333" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="D333" t="s">
-        <v>866</v>
+        <v>905</v>
       </c>
       <c r="E333" t="s">
-        <v>906</v>
+        <v>921</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8767,16 +8815,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C334" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="D334" t="s">
-        <v>866</v>
+        <v>905</v>
       </c>
       <c r="E334" t="s">
-        <v>906</v>
+        <v>921</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8784,16 +8832,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C335" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="D335" t="s">
-        <v>866</v>
+        <v>905</v>
       </c>
       <c r="E335" t="s">
-        <v>906</v>
+        <v>921</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8801,16 +8849,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C336" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="D336" t="s">
-        <v>866</v>
+        <v>905</v>
       </c>
       <c r="E336" t="s">
-        <v>906</v>
+        <v>921</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8818,16 +8866,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C337" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="D337" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E337" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8835,16 +8883,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C338" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="D338" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="E338" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8852,16 +8900,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C339" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="D339" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="E339" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8869,16 +8917,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C340" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="D340" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="E340" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8886,16 +8934,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C341" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="D341" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="E341" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8903,16 +8951,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C342" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="D342" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="E342" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8920,16 +8968,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C343" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="D343" t="s">
-        <v>890</v>
+        <v>906</v>
       </c>
       <c r="E343" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8937,16 +8985,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C344" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="D344" t="s">
-        <v>890</v>
+        <v>906</v>
       </c>
       <c r="E344" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8954,16 +9002,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C345" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="D345" t="s">
-        <v>891</v>
+        <v>906</v>
       </c>
       <c r="E345" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8971,16 +9019,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C346" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="D346" t="s">
-        <v>891</v>
+        <v>906</v>
       </c>
       <c r="E346" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8988,16 +9036,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C347" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="D347" t="s">
-        <v>891</v>
+        <v>906</v>
       </c>
       <c r="E347" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9005,16 +9053,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C348" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="D348" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
       <c r="E348" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9022,16 +9070,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C349" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="D349" t="s">
-        <v>892</v>
+        <v>907</v>
       </c>
       <c r="E349" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9039,16 +9087,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C350" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="D350" t="s">
-        <v>892</v>
+        <v>907</v>
       </c>
       <c r="E350" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9056,16 +9104,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C351" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="D351" t="s">
-        <v>892</v>
+        <v>907</v>
       </c>
       <c r="E351" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9073,16 +9121,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C352" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="D352" t="s">
-        <v>892</v>
+        <v>908</v>
       </c>
       <c r="E352" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9090,16 +9138,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C353" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="D353" t="s">
-        <v>892</v>
+        <v>908</v>
       </c>
       <c r="E353" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9107,16 +9155,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C354" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="D354" t="s">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="E354" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9124,16 +9172,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C355" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="D355" t="s">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="E355" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9141,16 +9189,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C356" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="D356" t="s">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="E356" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9158,16 +9206,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C357" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="D357" t="s">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="E357" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9175,16 +9223,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C358" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="D358" t="s">
-        <v>868</v>
+        <v>909</v>
       </c>
       <c r="E358" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9192,16 +9240,16 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C359" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="D359" t="s">
-        <v>868</v>
+        <v>909</v>
       </c>
       <c r="E359" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9209,16 +9257,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C360" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="D360" t="s">
-        <v>868</v>
+        <v>909</v>
       </c>
       <c r="E360" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9226,16 +9274,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C361" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="D361" t="s">
-        <v>869</v>
+        <v>909</v>
       </c>
       <c r="E361" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9243,16 +9291,16 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C362" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="D362" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="E362" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9260,16 +9308,16 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="C363" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="D363" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="E363" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9277,16 +9325,16 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C364" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="D364" t="s">
-        <v>438</v>
+        <v>884</v>
       </c>
       <c r="E364" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9294,16 +9342,16 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C365" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="D365" t="s">
-        <v>438</v>
+        <v>885</v>
       </c>
       <c r="E365" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9311,16 +9359,16 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C366" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D366" t="s">
-        <v>438</v>
+        <v>892</v>
       </c>
       <c r="E366" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9328,16 +9376,16 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C367" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="D367" t="s">
-        <v>438</v>
+        <v>894</v>
       </c>
       <c r="E367" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9345,16 +9393,16 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C368" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="D368" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E368" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9362,16 +9410,16 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C369" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="D369" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E369" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9379,16 +9427,16 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C370" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="D370" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E370" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9396,16 +9444,16 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C371" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="D371" t="s">
-        <v>894</v>
+        <v>446</v>
       </c>
       <c r="E371" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9413,16 +9461,16 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C372" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="D372" t="s">
-        <v>894</v>
+        <v>446</v>
       </c>
       <c r="E372" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9430,16 +9478,16 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C373" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="D373" t="s">
-        <v>894</v>
+        <v>446</v>
       </c>
       <c r="E373" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9447,16 +9495,16 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C374" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="D374" t="s">
-        <v>894</v>
+        <v>446</v>
       </c>
       <c r="E374" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9464,16 +9512,16 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C375" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="D375" t="s">
-        <v>894</v>
+        <v>446</v>
       </c>
       <c r="E375" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9481,16 +9529,16 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C376" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="D376" t="s">
-        <v>894</v>
+        <v>446</v>
       </c>
       <c r="E376" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9498,16 +9546,16 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C377" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="D377" t="s">
-        <v>888</v>
+        <v>446</v>
       </c>
       <c r="E377" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9515,16 +9563,16 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C378" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="D378" t="s">
-        <v>895</v>
+        <v>910</v>
       </c>
       <c r="E378" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9532,16 +9580,16 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C379" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="D379" t="s">
-        <v>895</v>
+        <v>910</v>
       </c>
       <c r="E379" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9549,16 +9597,16 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C380" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="D380" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="E380" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9566,16 +9614,16 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C381" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="D381" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="E381" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9583,16 +9631,16 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C382" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="D382" t="s">
-        <v>866</v>
+        <v>910</v>
       </c>
       <c r="E382" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9600,16 +9648,16 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C383" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="D383" t="s">
-        <v>866</v>
+        <v>910</v>
       </c>
       <c r="E383" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9617,16 +9665,16 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C384" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="D384" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="E384" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9634,16 +9682,16 @@
         <v>388</v>
       </c>
       <c r="B385" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C385" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="D385" t="s">
-        <v>868</v>
+        <v>911</v>
       </c>
       <c r="E385" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9651,16 +9699,16 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C386" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="D386" t="s">
-        <v>868</v>
+        <v>911</v>
       </c>
       <c r="E386" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9668,16 +9716,16 @@
         <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C387" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="D387" t="s">
-        <v>868</v>
+        <v>911</v>
       </c>
       <c r="E387" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9685,16 +9733,16 @@
         <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C388" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="D388" t="s">
-        <v>868</v>
+        <v>912</v>
       </c>
       <c r="E388" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9702,16 +9750,16 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C389" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="D389" t="s">
-        <v>869</v>
+        <v>912</v>
       </c>
       <c r="E389" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9719,16 +9767,16 @@
         <v>393</v>
       </c>
       <c r="B390" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C390" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="D390" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="E390" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9739,13 +9787,13 @@
         <v>441</v>
       </c>
       <c r="C391" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="D391" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="E391" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9753,16 +9801,16 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C392" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="D392" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="E392" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9770,16 +9818,16 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C393" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="D393" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="E393" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9787,16 +9835,16 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C394" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="D394" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="E394" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9804,16 +9852,16 @@
         <v>398</v>
       </c>
       <c r="B395" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C395" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="D395" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="E395" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9821,16 +9869,16 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C396" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="D396" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="E396" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9838,16 +9886,16 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C397" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="D397" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="E397" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -9855,16 +9903,16 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C398" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="D398" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="E398" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -9872,16 +9920,16 @@
         <v>402</v>
       </c>
       <c r="B399" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C399" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="D399" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="E399" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -9889,16 +9937,16 @@
         <v>403</v>
       </c>
       <c r="B400" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C400" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="D400" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="E400" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -9906,16 +9954,16 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C401" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="D401" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="E401" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -9923,16 +9971,16 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C402" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="D402" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="E402" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -9940,16 +9988,16 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C403" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="D403" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="E403" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -9960,13 +10008,13 @@
         <v>442</v>
       </c>
       <c r="C404" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="D404" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
       <c r="E404" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -9974,16 +10022,16 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C405" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="D405" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="E405" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -9991,16 +10039,16 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C406" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D406" t="s">
-        <v>901</v>
+        <v>916</v>
       </c>
       <c r="E406" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10008,16 +10056,16 @@
         <v>410</v>
       </c>
       <c r="B407" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C407" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="D407" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E407" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10025,16 +10073,16 @@
         <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C408" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="D408" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E408" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10042,16 +10090,16 @@
         <v>412</v>
       </c>
       <c r="B409" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C409" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="D409" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E409" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10059,16 +10107,16 @@
         <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C410" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="D410" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E410" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10076,16 +10124,16 @@
         <v>414</v>
       </c>
       <c r="B411" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C411" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="D411" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E411" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10093,16 +10141,16 @@
         <v>415</v>
       </c>
       <c r="B412" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C412" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="D412" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E412" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10110,16 +10158,16 @@
         <v>416</v>
       </c>
       <c r="B413" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C413" t="s">
-        <v>461</v>
+        <v>858</v>
       </c>
       <c r="D413" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E413" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10127,16 +10175,16 @@
         <v>417</v>
       </c>
       <c r="B414" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C414" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="D414" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E414" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10144,16 +10192,16 @@
         <v>418</v>
       </c>
       <c r="B415" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C415" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="D415" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E415" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10161,16 +10209,16 @@
         <v>419</v>
       </c>
       <c r="B416" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C416" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="D416" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E416" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10178,16 +10226,16 @@
         <v>420</v>
       </c>
       <c r="B417" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C417" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="D417" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E417" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10195,16 +10243,16 @@
         <v>421</v>
       </c>
       <c r="B418" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C418" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
       <c r="D418" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E418" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10212,16 +10260,16 @@
         <v>422</v>
       </c>
       <c r="B419" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C419" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
       <c r="D419" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E419" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10229,16 +10277,16 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C420" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="D420" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E420" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10246,16 +10294,16 @@
         <v>424</v>
       </c>
       <c r="B421" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C421" t="s">
-        <v>857</v>
+        <v>469</v>
       </c>
       <c r="D421" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E421" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10263,16 +10311,16 @@
         <v>425</v>
       </c>
       <c r="B422" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C422" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="D422" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E422" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10280,16 +10328,16 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C423" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="D423" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E423" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10297,16 +10345,16 @@
         <v>427</v>
       </c>
       <c r="B424" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C424" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="D424" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E424" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10314,16 +10362,16 @@
         <v>428</v>
       </c>
       <c r="B425" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C425" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="D425" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E425" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10331,16 +10379,16 @@
         <v>429</v>
       </c>
       <c r="B426" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C426" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="D426" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E426" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10348,16 +10396,16 @@
         <v>430</v>
       </c>
       <c r="B427" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C427" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="D427" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E427" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10365,16 +10413,16 @@
         <v>431</v>
       </c>
       <c r="B428" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C428" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="D428" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E428" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10382,16 +10430,152 @@
         <v>432</v>
       </c>
       <c r="B429" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C429" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="D429" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E429" t="s">
-        <v>907</v>
+        <v>923</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" t="s">
+        <v>433</v>
+      </c>
+      <c r="B430" t="s">
+        <v>450</v>
+      </c>
+      <c r="C430" t="s">
+        <v>874</v>
+      </c>
+      <c r="D430" t="s">
+        <v>917</v>
+      </c>
+      <c r="E430" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" t="s">
+        <v>434</v>
+      </c>
+      <c r="B431" t="s">
+        <v>450</v>
+      </c>
+      <c r="C431" t="s">
+        <v>875</v>
+      </c>
+      <c r="D431" t="s">
+        <v>917</v>
+      </c>
+      <c r="E431" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" t="s">
+        <v>435</v>
+      </c>
+      <c r="B432" t="s">
+        <v>450</v>
+      </c>
+      <c r="C432" t="s">
+        <v>876</v>
+      </c>
+      <c r="D432" t="s">
+        <v>917</v>
+      </c>
+      <c r="E432" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" t="s">
+        <v>436</v>
+      </c>
+      <c r="B433" t="s">
+        <v>450</v>
+      </c>
+      <c r="C433" t="s">
+        <v>877</v>
+      </c>
+      <c r="D433" t="s">
+        <v>917</v>
+      </c>
+      <c r="E433" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" t="s">
+        <v>437</v>
+      </c>
+      <c r="B434" t="s">
+        <v>450</v>
+      </c>
+      <c r="C434" t="s">
+        <v>878</v>
+      </c>
+      <c r="D434" t="s">
+        <v>917</v>
+      </c>
+      <c r="E434" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" t="s">
+        <v>438</v>
+      </c>
+      <c r="B435" t="s">
+        <v>450</v>
+      </c>
+      <c r="C435" t="s">
+        <v>879</v>
+      </c>
+      <c r="D435" t="s">
+        <v>917</v>
+      </c>
+      <c r="E435" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" t="s">
+        <v>439</v>
+      </c>
+      <c r="B436" t="s">
+        <v>450</v>
+      </c>
+      <c r="C436" t="s">
+        <v>880</v>
+      </c>
+      <c r="D436" t="s">
+        <v>917</v>
+      </c>
+      <c r="E436" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" t="s">
+        <v>440</v>
+      </c>
+      <c r="B437" t="s">
+        <v>450</v>
+      </c>
+      <c r="C437" t="s">
+        <v>881</v>
+      </c>
+      <c r="D437" t="s">
+        <v>917</v>
+      </c>
+      <c r="E437" t="s">
+        <v>923</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class7.xlsx
+++ b/pali-class/vocab/vocab-class7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="936">
   <si>
     <t>Pāli1</t>
   </si>
@@ -208,6 +208,9 @@
     <t>saṅgha 1</t>
   </si>
   <si>
+    <t>udapāna</t>
+  </si>
+  <si>
     <t>upāyāsa</t>
   </si>
   <si>
@@ -310,6 +313,9 @@
     <t>vūpasama 1</t>
   </si>
   <si>
+    <t>samudda</t>
+  </si>
+  <si>
     <t>asura</t>
   </si>
   <si>
@@ -940,7 +946,7 @@
     <t>passasissati</t>
   </si>
   <si>
-    <t>natthi</t>
+    <t>natthi 1</t>
   </si>
   <si>
     <t>dhāressati</t>
@@ -1234,12 +1240,12 @@
     <t>adhigaccheyya</t>
   </si>
   <si>
-    <t>vihareyya</t>
-  </si>
-  <si>
     <t>hanati 3</t>
   </si>
   <si>
+    <t>kareyya</t>
+  </si>
+  <si>
     <t>siyā</t>
   </si>
   <si>
@@ -1249,6 +1255,9 @@
     <t>sivathikā</t>
   </si>
   <si>
+    <t>sacchikiriyā</t>
+  </si>
+  <si>
     <t>pabbajjā</t>
   </si>
   <si>
@@ -1285,12 +1294,18 @@
     <t>jivhā</t>
   </si>
   <si>
+    <t>sālā</t>
+  </si>
+  <si>
     <t>upāsikā</t>
   </si>
   <si>
     <t>devatā</t>
   </si>
   <si>
+    <t>assavanatā</t>
+  </si>
+  <si>
     <t>kusinārā</t>
   </si>
   <si>
@@ -1303,6 +1318,9 @@
     <t>kathā 1</t>
   </si>
   <si>
+    <t>upasampadā 2</t>
+  </si>
+  <si>
     <t>upekkhā</t>
   </si>
   <si>
@@ -1546,6 +1564,9 @@
     <t>community; assembly of monks</t>
   </si>
   <si>
+    <t>well; lit. water drinking</t>
+  </si>
+  <si>
     <t>affliction; agitation; trouble; despair</t>
   </si>
   <si>
@@ -1648,6 +1669,9 @@
     <t>calming (of); subsiding (of); settling (of); peace (of)</t>
   </si>
   <si>
+    <t>the sea; ocean</t>
+  </si>
+  <si>
     <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
   </si>
   <si>
@@ -2560,12 +2584,12 @@
     <t>could get; would experience; would come across; lit. could arrive at</t>
   </si>
   <si>
-    <t>may live; could stay</t>
-  </si>
-  <si>
     <t>punishes; flogs; beats</t>
   </si>
   <si>
+    <t>could do; could make</t>
+  </si>
+  <si>
     <t>could be; may be; might be</t>
   </si>
   <si>
@@ -2575,6 +2599,9 @@
     <t>a charnel ground; lit. bones in safe</t>
   </si>
   <si>
+    <t>personal experience; realization</t>
+  </si>
+  <si>
     <t>ordination; renunciation; becoming a monastic; lit. going forth</t>
   </si>
   <si>
@@ -2611,9 +2638,15 @@
     <t>tongue</t>
   </si>
   <si>
+    <t>hall</t>
+  </si>
+  <si>
     <t>female disciple; laywomen; female devotee</t>
   </si>
   <si>
+    <t>fact of not hearing (of)</t>
+  </si>
+  <si>
     <t>Kusinara; city of the Mallas; small town where the Buddha passed away</t>
   </si>
   <si>
@@ -2624,6 +2657,9 @@
   </si>
   <si>
     <t>speech; story; talk</t>
+  </si>
+  <si>
+    <t>(vinaya) higher ordination as monastic</t>
   </si>
   <si>
     <t>mental poise; balance; equanimity; equipoise</t>
@@ -3143,7 +3179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E437"/>
+  <dimension ref="A1:E443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3171,16 +3207,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D2" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E2" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3188,16 +3224,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C3" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D3" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E3" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3205,16 +3241,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C4" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D4" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E4" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3222,16 +3258,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C5" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D5" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E5" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3239,16 +3275,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C6" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D6" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E6" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3256,16 +3292,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D7" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E7" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3273,16 +3309,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C8" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D8" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E8" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3290,16 +3326,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C9" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D9" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E9" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3307,16 +3343,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C10" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D10" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E10" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3324,16 +3360,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C11" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D11" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E11" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3341,16 +3377,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C12" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D12" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E12" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3358,16 +3394,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C13" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D13" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E13" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3375,16 +3411,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C14" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D14" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E14" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3392,16 +3428,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C15" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D15" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E15" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3409,16 +3445,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C16" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D16" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E16" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3426,16 +3462,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C17" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D17" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E17" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3443,16 +3479,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C18" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D18" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E18" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3460,16 +3496,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C19" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D19" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E19" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3477,16 +3513,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D20" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E20" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3494,16 +3530,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C21" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D21" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E21" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3511,16 +3547,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C22" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D22" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E22" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3528,16 +3564,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C23" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D23" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E23" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3545,16 +3581,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C24" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D24" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E24" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3562,16 +3598,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C25" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D25" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E25" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3579,16 +3615,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C26" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D26" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E26" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3596,16 +3632,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C27" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D27" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E27" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3613,16 +3649,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C28" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D28" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E28" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3630,16 +3666,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C29" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D29" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E29" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3647,16 +3683,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C30" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D30" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E30" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3664,16 +3700,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C31" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D31" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E31" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3681,16 +3717,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C32" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D32" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E32" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3698,16 +3734,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C33" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D33" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E33" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3715,16 +3751,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C34" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D34" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E34" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3732,16 +3768,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C35" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D35" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E35" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3749,16 +3785,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C36" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D36" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E36" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3766,16 +3802,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C37" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D37" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E37" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3783,16 +3819,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C38" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D38" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E38" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3800,16 +3836,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C39" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D39" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E39" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3817,16 +3853,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C40" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D40" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E40" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3834,16 +3870,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C41" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="D41" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E41" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3851,16 +3887,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C42" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D42" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E42" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3868,16 +3904,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C43" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D43" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E43" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3885,16 +3921,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C44" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D44" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E44" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3902,16 +3938,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C45" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D45" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E45" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3919,16 +3955,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C46" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D46" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E46" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3936,16 +3972,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C47" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D47" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E47" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3953,16 +3989,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C48" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D48" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E48" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3970,16 +4006,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C49" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D49" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E49" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3987,16 +4023,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C50" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D50" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E50" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4004,16 +4040,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C51" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D51" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E51" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4021,16 +4057,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C52" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D52" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E52" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4038,16 +4074,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C53" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D53" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E53" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4055,16 +4091,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C54" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D54" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E54" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4072,16 +4108,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C55" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D55" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E55" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4089,16 +4125,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C56" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D56" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E56" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4106,16 +4142,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C57" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D57" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E57" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4123,16 +4159,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C58" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D58" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E58" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4140,16 +4176,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C59" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D59" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E59" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4157,16 +4193,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C60" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D60" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E60" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4174,16 +4210,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C61" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D61" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E61" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4191,16 +4227,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C62" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D62" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E62" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4208,16 +4244,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C63" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D63" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E63" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4225,16 +4261,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C64" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D64" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E64" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4242,16 +4278,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C65" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D65" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E65" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4259,16 +4295,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C66" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D66" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E66" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4276,16 +4312,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C67" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="D67" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E67" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4293,16 +4329,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C68" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D68" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E68" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4310,16 +4346,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C69" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="D69" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E69" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4327,16 +4363,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C70" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D70" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E70" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4344,16 +4380,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C71" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D71" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E71" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4361,16 +4397,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C72" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="D72" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E72" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4378,16 +4414,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C73" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D73" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E73" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4395,16 +4431,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C74" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D74" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E74" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4412,16 +4448,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C75" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="D75" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E75" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4429,16 +4465,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C76" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D76" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E76" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4446,16 +4482,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C77" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D77" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E77" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4463,16 +4499,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C78" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D78" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E78" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4480,16 +4516,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C79" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D79" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E79" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4497,16 +4533,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C80" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D80" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E80" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4514,16 +4550,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C81" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D81" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E81" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4531,16 +4567,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C82" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D82" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E82" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4548,16 +4584,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C83" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D83" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E83" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4565,16 +4601,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C84" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D84" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E84" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4582,16 +4618,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C85" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D85" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E85" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4599,16 +4635,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C86" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D86" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E86" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4616,16 +4652,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C87" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D87" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E87" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4633,16 +4669,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C88" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D88" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E88" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4650,16 +4686,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C89" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D89" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E89" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4667,16 +4703,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C90" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D90" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E90" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4684,16 +4720,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C91" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D91" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E91" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4701,16 +4737,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C92" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D92" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E92" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4718,16 +4754,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C93" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D93" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E93" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4735,16 +4771,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C94" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D94" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E94" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4752,16 +4788,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C95" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D95" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E95" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4769,16 +4805,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C96" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D96" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E96" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4786,16 +4822,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C97" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D97" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E97" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4803,16 +4839,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C98" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="D98" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E98" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4820,16 +4856,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C99" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D99" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E99" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4837,16 +4873,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C100" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D100" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E100" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4854,16 +4890,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C101" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="D101" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E101" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4871,16 +4907,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C102" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="D102" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E102" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4888,16 +4924,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C103" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="D103" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E103" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4905,16 +4941,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C104" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D104" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E104" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4922,16 +4958,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C105" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D105" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E105" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4939,16 +4975,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C106" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D106" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E106" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4956,16 +4992,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C107" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="D107" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E107" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4973,16 +5009,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C108" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="D108" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E108" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4990,16 +5026,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C109" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D109" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E109" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5007,16 +5043,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C110" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="D110" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E110" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5024,16 +5060,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C111" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="D111" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E111" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5041,16 +5077,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C112" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D112" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E112" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5058,16 +5094,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C113" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D113" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E113" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5075,16 +5111,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C114" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="D114" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E114" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5092,16 +5128,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C115" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D115" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E115" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5109,16 +5145,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C116" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D116" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E116" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5126,16 +5162,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C117" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="D117" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E117" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5143,16 +5179,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C118" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D118" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E118" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5160,16 +5196,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C119" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="D119" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E119" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5177,16 +5213,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C120" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D120" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E120" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5194,16 +5230,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C121" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D121" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E121" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5211,16 +5247,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C122" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D122" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E122" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5228,16 +5264,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C123" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="D123" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E123" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5245,16 +5281,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C124" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="D124" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E124" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5262,16 +5298,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C125" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D125" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E125" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5279,16 +5315,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C126" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="D126" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E126" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5296,16 +5332,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C127" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D127" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E127" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5313,16 +5349,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C128" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D128" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E128" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5330,16 +5366,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C129" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D129" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E129" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5347,16 +5383,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C130" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D130" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E130" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5364,16 +5400,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C131" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D131" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E131" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5381,16 +5417,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C132" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D132" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E132" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5398,16 +5434,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C133" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D133" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E133" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5415,16 +5451,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C134" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D134" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E134" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5432,16 +5468,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C135" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D135" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E135" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5449,16 +5485,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C136" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D136" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="E136" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5466,16 +5502,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C137" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="D137" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="E137" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5483,16 +5519,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C138" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D138" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="E138" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5500,16 +5536,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C139" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D139" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="E139" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5517,16 +5553,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C140" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D140" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E140" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5534,16 +5570,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C141" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="D141" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="E141" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5551,16 +5587,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C142" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D142" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="E142" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5568,16 +5604,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C143" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D143" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E143" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5585,16 +5621,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C144" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D144" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E144" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5602,16 +5638,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C145" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D145" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E145" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5619,16 +5655,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C146" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D146" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E146" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5636,16 +5672,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C147" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="D147" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E147" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5653,16 +5689,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C148" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D148" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E148" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5670,16 +5706,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C149" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D149" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E149" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5687,16 +5723,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C150" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="D150" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E150" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5704,16 +5740,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C151" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D151" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E151" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5721,16 +5757,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C152" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="D152" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E152" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5738,16 +5774,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C153" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D153" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E153" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5755,16 +5791,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C154" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D154" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E154" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5772,16 +5808,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C155" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D155" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E155" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5789,16 +5825,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C156" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D156" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E156" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5806,16 +5842,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C157" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D157" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E157" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5823,16 +5859,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C158" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D158" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E158" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5840,16 +5876,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C159" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D159" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E159" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5857,16 +5893,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C160" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="D160" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E160" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5874,16 +5910,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C161" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="D161" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E161" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5891,16 +5927,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C162" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D162" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E162" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5908,16 +5944,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C163" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D163" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E163" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5925,16 +5961,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C164" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="D164" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E164" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5942,16 +5978,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C165" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="D165" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E165" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5959,16 +5995,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C166" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D166" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E166" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5976,16 +6012,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C167" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="D167" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E167" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5993,16 +6029,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C168" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="D168" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E168" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6010,16 +6046,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C169" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D169" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E169" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6027,16 +6063,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C170" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D170" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E170" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6044,16 +6080,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C171" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="D171" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E171" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6061,16 +6097,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C172" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D172" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E172" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6078,16 +6114,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C173" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D173" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E173" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6095,16 +6131,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C174" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="D174" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E174" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6112,16 +6148,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C175" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="D175" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E175" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6129,16 +6165,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C176" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D176" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E176" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6146,16 +6182,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C177" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="D177" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E177" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6163,16 +6199,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C178" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D178" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E178" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6180,16 +6216,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C179" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="D179" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="E179" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6197,16 +6233,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C180" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="D180" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="E180" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6214,16 +6250,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C181" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="D181" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="E181" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6231,16 +6267,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C182" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="D182" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="E182" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6248,16 +6284,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C183" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D183" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="E183" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6265,16 +6301,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C184" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="D184" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="E184" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6282,16 +6318,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C185" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D185" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="E185" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6299,16 +6335,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C186" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="D186" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="E186" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6316,16 +6352,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C187" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="D187" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="E187" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6333,16 +6369,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C188" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="D188" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="E188" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6350,16 +6386,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C189" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="D189" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="E189" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6367,16 +6403,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C190" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="D190" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="E190" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6384,16 +6420,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C191" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="D191" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="E191" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6401,16 +6437,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C192" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="D192" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="E192" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6418,16 +6454,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C193" t="s">
         <v>641</v>
       </c>
       <c r="D193" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="E193" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6435,16 +6471,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C194" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="D194" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="E194" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6452,16 +6488,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C195" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="D195" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="E195" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6469,16 +6505,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C196" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="D196" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="E196" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6486,16 +6522,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C197" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="D197" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="E197" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6503,16 +6539,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C198" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="D198" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="E198" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6520,16 +6556,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C199" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="D199" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="E199" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6537,16 +6573,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C200" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D200" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
       <c r="E200" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6554,16 +6590,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C201" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="D201" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
       <c r="E201" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6571,16 +6607,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C202" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D202" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E202" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6588,16 +6624,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C203" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="D203" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E203" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6605,16 +6641,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C204" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="D204" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E204" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6622,16 +6658,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C205" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D205" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E205" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6639,16 +6675,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C206" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="D206" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E206" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6656,16 +6692,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C207" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="D207" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="E207" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6673,16 +6709,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C208" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="D208" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="E208" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6690,16 +6726,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C209" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="D209" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E209" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6707,16 +6743,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C210" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="D210" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E210" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6724,16 +6760,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C211" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="D211" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E211" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6741,16 +6777,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C212" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="D212" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E212" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6758,16 +6794,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C213" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="D213" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E213" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6775,16 +6811,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C214" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="D214" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E214" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6792,16 +6828,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C215" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="D215" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E215" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6809,16 +6845,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C216" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="D216" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E216" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6826,16 +6862,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C217" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="D217" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E217" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6843,16 +6879,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C218" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="D218" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E218" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6860,16 +6896,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C219" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="D219" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="E219" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6877,16 +6913,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C220" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="D220" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="E220" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6894,16 +6930,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C221" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="D221" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="E221" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6911,16 +6947,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C222" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="D222" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="E222" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6928,16 +6964,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C223" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="D223" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="E223" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6945,16 +6981,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C224" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="D224" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="E224" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6962,16 +6998,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C225" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="D225" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="E225" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6979,16 +7015,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C226" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="D226" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="E226" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6996,16 +7032,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C227" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="D227" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="E227" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7013,16 +7049,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C228" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="D228" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E228" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7030,16 +7066,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C229" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="D229" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="E229" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7047,16 +7083,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C230" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="D230" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="E230" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7064,16 +7100,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C231" t="s">
         <v>678</v>
       </c>
       <c r="D231" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="E231" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7081,16 +7117,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C232" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="D232" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="E232" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7098,16 +7134,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C233" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="D233" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="E233" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7115,16 +7151,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C234" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="D234" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="E234" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7132,16 +7168,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C235" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="D235" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="E235" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7149,16 +7185,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C236" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="D236" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="E236" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7166,16 +7202,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C237" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="D237" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="E237" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7183,16 +7219,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C238" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="D238" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="E238" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7200,16 +7236,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C239" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="D239" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="E239" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7217,16 +7253,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C240" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="D240" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="E240" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7234,16 +7270,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C241" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="D241" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="E241" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7251,16 +7287,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C242" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="D242" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="E242" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7268,16 +7304,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C243" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="D243" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="E243" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7285,16 +7321,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C244" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="D244" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="E244" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7302,16 +7338,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C245" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="D245" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="E245" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7319,16 +7355,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C246" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="D246" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="E246" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7336,16 +7372,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C247" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="D247" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="E247" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7353,16 +7389,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C248" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="D248" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="E248" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7370,16 +7406,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C249" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="D249" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="E249" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7387,16 +7423,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C250" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="D250" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="E250" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7404,16 +7440,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C251" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="D251" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="E251" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7421,16 +7457,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C252" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="D252" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="E252" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7438,16 +7474,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C253" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="D253" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="E253" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7455,16 +7491,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C254" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="D254" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="E254" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7472,16 +7508,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C255" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="D255" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E255" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7489,16 +7525,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C256" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="D256" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E256" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7506,16 +7542,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C257" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="D257" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="E257" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7523,16 +7559,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C258" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="D258" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="E258" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7540,16 +7576,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C259" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="D259" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="E259" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7557,16 +7593,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C260" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="D260" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="E260" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7574,16 +7610,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C261" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D261" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="E261" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7591,16 +7627,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C262" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="D262" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="E262" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7608,16 +7644,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C263" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="D263" t="s">
-        <v>882</v>
+        <v>910</v>
       </c>
       <c r="E263" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7625,16 +7661,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C264" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="D264" t="s">
-        <v>882</v>
+        <v>910</v>
       </c>
       <c r="E264" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7642,16 +7678,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C265" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="D265" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E265" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7659,16 +7695,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C266" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="D266" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E266" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7676,16 +7712,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C267" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="D267" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E267" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7693,16 +7729,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C268" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="D268" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E268" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7710,16 +7746,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C269" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="D269" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E269" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7727,16 +7763,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C270" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="D270" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E270" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7744,16 +7780,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C271" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="D271" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E271" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7761,16 +7797,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C272" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="D272" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E272" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7778,16 +7814,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C273" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="D273" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E273" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7795,16 +7831,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C274" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="D274" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="E274" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7812,16 +7848,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C275" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="D275" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="E275" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7829,16 +7865,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C276" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="D276" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="E276" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7846,16 +7882,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C277" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="D277" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="E277" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7863,16 +7899,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C278" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="D278" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="E278" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7880,16 +7916,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C279" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="D279" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="E279" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7897,16 +7933,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C280" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="D280" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="E280" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7914,16 +7950,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C281" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="D281" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="E281" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7931,16 +7967,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C282" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D282" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="E282" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7948,16 +7984,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C283" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="D283" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="E283" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7965,16 +8001,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C284" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="D284" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="E284" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7982,16 +8018,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C285" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="D285" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="E285" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7999,16 +8035,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="C286" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="D286" t="s">
-        <v>884</v>
+        <v>911</v>
       </c>
       <c r="E286" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8016,16 +8052,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="C287" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="D287" t="s">
-        <v>884</v>
+        <v>911</v>
       </c>
       <c r="E287" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8033,16 +8069,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C288" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="D288" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E288" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8050,16 +8086,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C289" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="D289" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="E289" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8067,16 +8103,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C290" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="D290" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="E290" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8084,16 +8120,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C291" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="D291" t="s">
-        <v>885</v>
+        <v>901</v>
       </c>
       <c r="E291" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8101,16 +8137,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C292" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="D292" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="E292" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8118,16 +8154,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C293" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="D293" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="E293" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8135,16 +8171,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C294" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="D294" t="s">
-        <v>446</v>
+        <v>904</v>
       </c>
       <c r="E294" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8152,16 +8188,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C295" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="D295" t="s">
-        <v>446</v>
+        <v>904</v>
       </c>
       <c r="E295" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8169,16 +8205,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C296" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="D296" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E296" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8186,16 +8222,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C297" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="D297" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E297" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8203,16 +8239,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C298" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="D298" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E298" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8220,16 +8256,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C299" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="D299" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E299" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8237,16 +8273,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C300" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="D300" t="s">
-        <v>900</v>
+        <v>452</v>
       </c>
       <c r="E300" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8254,16 +8290,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C301" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="D301" t="s">
-        <v>900</v>
+        <v>452</v>
       </c>
       <c r="E301" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8271,16 +8307,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C302" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="D302" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="E302" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8288,16 +8324,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C303" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="D303" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="E303" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8305,16 +8341,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C304" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="D304" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="E304" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8322,16 +8358,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="C305" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="D305" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="E305" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8339,16 +8375,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C306" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="D306" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="E306" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8356,16 +8392,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C307" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="D307" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="E307" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8373,16 +8409,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C308" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="D308" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="E308" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8390,16 +8426,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C309" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="D309" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="E309" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8407,16 +8443,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C310" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="D310" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="E310" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8424,16 +8460,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C311" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="D311" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="E311" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8441,16 +8477,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C312" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="D312" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="E312" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8458,16 +8494,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C313" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="D313" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="E313" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8475,16 +8511,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C314" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="D314" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="E314" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8492,16 +8528,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C315" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="D315" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="E315" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8509,16 +8545,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C316" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="D316" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="E316" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8526,16 +8562,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C317" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="D317" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="E317" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8543,16 +8579,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C318" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="D318" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="E318" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8560,16 +8596,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C319" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="D319" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="E319" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8577,16 +8613,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="C320" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="D320" t="s">
-        <v>887</v>
+        <v>915</v>
       </c>
       <c r="E320" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8594,16 +8630,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C321" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="D321" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="E321" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8614,13 +8650,13 @@
         <v>448</v>
       </c>
       <c r="C322" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="D322" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="E322" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8628,16 +8664,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C323" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="D323" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="E323" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8645,16 +8681,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C324" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="D324" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="E324" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8662,16 +8698,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C325" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="D325" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="E325" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8679,16 +8715,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C326" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="D326" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="E326" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8696,16 +8732,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C327" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="D327" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="E327" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8713,16 +8749,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C328" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="D328" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="E328" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8730,16 +8766,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C329" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="D329" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="E329" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8747,16 +8783,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C330" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="D330" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="E330" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8764,16 +8800,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C331" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="D331" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="E331" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8781,16 +8817,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C332" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="D332" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="E332" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8798,16 +8834,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C333" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="D333" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="E333" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8815,16 +8851,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C334" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="D334" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="E334" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8832,16 +8868,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C335" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="D335" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="E335" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8849,16 +8885,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C336" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="D336" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="E336" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8866,16 +8902,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C337" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="D337" t="s">
-        <v>882</v>
+        <v>917</v>
       </c>
       <c r="E337" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8883,16 +8919,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C338" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="D338" t="s">
-        <v>882</v>
+        <v>917</v>
       </c>
       <c r="E338" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8900,16 +8936,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C339" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="D339" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E339" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8917,16 +8953,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C340" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="D340" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E340" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8934,16 +8970,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C341" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="D341" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E341" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8951,16 +8987,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C342" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="D342" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="E342" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8968,16 +9004,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C343" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="D343" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="E343" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8985,16 +9021,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C344" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="D344" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="E344" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9002,16 +9038,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C345" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="D345" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="E345" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9019,16 +9055,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C346" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="D346" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="E346" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9036,16 +9072,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C347" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="D347" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="E347" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9053,16 +9089,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C348" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="D348" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="E348" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9070,16 +9106,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C349" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="D349" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="E349" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9087,16 +9123,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C350" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="D350" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="E350" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9104,16 +9140,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C351" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="D351" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="E351" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9121,16 +9157,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C352" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="D352" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="E352" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9138,16 +9174,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C353" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="D353" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="E353" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9155,16 +9191,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C354" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="D354" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="E354" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9172,16 +9208,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C355" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="D355" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="E355" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9189,16 +9225,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C356" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="D356" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="E356" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9206,16 +9242,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C357" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="D357" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="E357" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9223,16 +9259,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C358" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="D358" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="E358" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9240,16 +9276,16 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C359" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="D359" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="E359" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9257,16 +9293,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C360" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="D360" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="E360" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9274,16 +9310,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C361" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="D361" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="E361" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9291,16 +9327,16 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C362" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="D362" t="s">
-        <v>884</v>
+        <v>921</v>
       </c>
       <c r="E362" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9308,16 +9344,16 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C363" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="D363" t="s">
-        <v>884</v>
+        <v>921</v>
       </c>
       <c r="E363" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9325,16 +9361,16 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C364" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="D364" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E364" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9342,16 +9378,16 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C365" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="D365" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="E365" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9359,16 +9395,16 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C366" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="D366" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="E366" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9376,16 +9412,16 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C367" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="D367" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="E367" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9393,16 +9429,16 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C368" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="D368" t="s">
-        <v>446</v>
+        <v>904</v>
       </c>
       <c r="E368" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9410,16 +9446,16 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C369" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="D369" t="s">
-        <v>446</v>
+        <v>906</v>
       </c>
       <c r="E369" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9427,16 +9463,16 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C370" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="D370" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E370" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9444,16 +9480,16 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C371" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="D371" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E371" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9461,16 +9497,16 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C372" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="D372" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E372" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9478,16 +9514,16 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C373" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="D373" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E373" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9495,16 +9531,16 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C374" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="D374" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E374" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9512,16 +9548,16 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C375" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="D375" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E375" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9529,16 +9565,16 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C376" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="D376" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E376" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9546,16 +9582,16 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C377" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="D377" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E377" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9563,16 +9599,16 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="C378" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="D378" t="s">
-        <v>910</v>
+        <v>452</v>
       </c>
       <c r="E378" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9580,16 +9616,16 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="C379" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="D379" t="s">
-        <v>910</v>
+        <v>452</v>
       </c>
       <c r="E379" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9597,16 +9633,16 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C380" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="D380" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="E380" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9614,16 +9650,16 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C381" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D381" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="E381" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9631,16 +9667,16 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C382" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="D382" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="E382" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9648,16 +9684,16 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C383" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="D383" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="E383" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9665,16 +9701,16 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C384" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="D384" t="s">
-        <v>904</v>
+        <v>922</v>
       </c>
       <c r="E384" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9682,16 +9718,16 @@
         <v>388</v>
       </c>
       <c r="B385" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C385" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="D385" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="E385" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9699,16 +9735,16 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C386" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="D386" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="E386" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9716,16 +9752,16 @@
         <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C387" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="D387" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="E387" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9733,16 +9769,16 @@
         <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C388" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="D388" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="E388" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9750,16 +9786,16 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C389" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="D389" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="E389" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9767,16 +9803,16 @@
         <v>393</v>
       </c>
       <c r="B390" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C390" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="D390" t="s">
-        <v>882</v>
+        <v>924</v>
       </c>
       <c r="E390" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9784,16 +9820,16 @@
         <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C391" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="D391" t="s">
-        <v>882</v>
+        <v>924</v>
       </c>
       <c r="E391" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9801,16 +9837,16 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C392" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="D392" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="E392" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9818,16 +9854,16 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C393" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="D393" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="E393" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9835,16 +9871,16 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="C394" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="D394" t="s">
-        <v>884</v>
+        <v>918</v>
       </c>
       <c r="E394" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9852,16 +9888,16 @@
         <v>398</v>
       </c>
       <c r="B395" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C395" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="D395" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E395" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9869,16 +9905,16 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C396" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="D396" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="E396" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9886,16 +9922,16 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C397" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="D397" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="E397" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -9903,16 +9939,16 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C398" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="D398" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="E398" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -9920,16 +9956,16 @@
         <v>402</v>
       </c>
       <c r="B399" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C399" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="D399" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="E399" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -9937,16 +9973,16 @@
         <v>403</v>
       </c>
       <c r="B400" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C400" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="D400" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="E400" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -9954,16 +9990,16 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C401" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="D401" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="E401" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -9971,16 +10007,16 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C402" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="D402" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="E402" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -9988,16 +10024,16 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C403" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="D403" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="E403" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10005,16 +10041,16 @@
         <v>407</v>
       </c>
       <c r="B404" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="C404" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="D404" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="E404" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10022,16 +10058,16 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C405" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="D405" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="E405" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10039,16 +10075,16 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C406" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="D406" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="E406" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10056,16 +10092,16 @@
         <v>410</v>
       </c>
       <c r="B407" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C407" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="D407" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="E407" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10073,16 +10109,16 @@
         <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C408" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="D408" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="E408" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10090,16 +10126,16 @@
         <v>412</v>
       </c>
       <c r="B409" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C409" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="D409" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E409" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10107,16 +10143,16 @@
         <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C410" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="D410" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E410" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10124,16 +10160,16 @@
         <v>414</v>
       </c>
       <c r="B411" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C411" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="D411" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E411" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10141,16 +10177,16 @@
         <v>415</v>
       </c>
       <c r="B412" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C412" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="D412" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E412" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10158,16 +10194,16 @@
         <v>416</v>
       </c>
       <c r="B413" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C413" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="D413" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E413" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10175,16 +10211,16 @@
         <v>417</v>
       </c>
       <c r="B414" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C414" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="D414" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E414" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10192,16 +10228,16 @@
         <v>418</v>
       </c>
       <c r="B415" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C415" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="D415" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E415" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10209,16 +10245,16 @@
         <v>419</v>
       </c>
       <c r="B416" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C416" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="D416" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E416" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10226,16 +10262,16 @@
         <v>420</v>
       </c>
       <c r="B417" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C417" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="D417" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E417" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10243,16 +10279,16 @@
         <v>421</v>
       </c>
       <c r="B418" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C418" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="D418" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E418" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10260,16 +10296,16 @@
         <v>422</v>
       </c>
       <c r="B419" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C419" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="D419" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E419" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10277,16 +10313,16 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C420" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="D420" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E420" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10294,16 +10330,16 @@
         <v>424</v>
       </c>
       <c r="B421" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C421" t="s">
-        <v>469</v>
+        <v>872</v>
       </c>
       <c r="D421" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E421" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10311,16 +10347,16 @@
         <v>425</v>
       </c>
       <c r="B422" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C422" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="D422" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E422" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10328,16 +10364,16 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C423" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="D423" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E423" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10345,16 +10381,16 @@
         <v>427</v>
       </c>
       <c r="B424" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C424" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="D424" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E424" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10362,16 +10398,16 @@
         <v>428</v>
       </c>
       <c r="B425" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C425" t="s">
-        <v>869</v>
+        <v>475</v>
       </c>
       <c r="D425" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E425" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10379,16 +10415,16 @@
         <v>429</v>
       </c>
       <c r="B426" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C426" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="D426" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E426" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10396,16 +10432,16 @@
         <v>430</v>
       </c>
       <c r="B427" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C427" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="D427" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E427" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10413,16 +10449,16 @@
         <v>431</v>
       </c>
       <c r="B428" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C428" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="D428" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E428" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10430,16 +10466,16 @@
         <v>432</v>
       </c>
       <c r="B429" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C429" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="D429" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E429" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10447,16 +10483,16 @@
         <v>433</v>
       </c>
       <c r="B430" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C430" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="D430" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E430" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10464,16 +10500,16 @@
         <v>434</v>
       </c>
       <c r="B431" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C431" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="D431" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E431" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10481,16 +10517,16 @@
         <v>435</v>
       </c>
       <c r="B432" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C432" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="D432" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E432" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10498,16 +10534,16 @@
         <v>436</v>
       </c>
       <c r="B433" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C433" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="D433" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E433" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10515,16 +10551,16 @@
         <v>437</v>
       </c>
       <c r="B434" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C434" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="D434" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E434" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10532,16 +10568,16 @@
         <v>438</v>
       </c>
       <c r="B435" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C435" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="D435" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E435" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10549,16 +10585,16 @@
         <v>439</v>
       </c>
       <c r="B436" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C436" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="D436" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E436" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10566,16 +10602,118 @@
         <v>440</v>
       </c>
       <c r="B437" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C437" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D437" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="E437" t="s">
-        <v>923</v>
+        <v>935</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" t="s">
+        <v>441</v>
+      </c>
+      <c r="B438" t="s">
+        <v>456</v>
+      </c>
+      <c r="C438" t="s">
+        <v>888</v>
+      </c>
+      <c r="D438" t="s">
+        <v>929</v>
+      </c>
+      <c r="E438" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" t="s">
+        <v>442</v>
+      </c>
+      <c r="B439" t="s">
+        <v>456</v>
+      </c>
+      <c r="C439" t="s">
+        <v>889</v>
+      </c>
+      <c r="D439" t="s">
+        <v>929</v>
+      </c>
+      <c r="E439" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" t="s">
+        <v>443</v>
+      </c>
+      <c r="B440" t="s">
+        <v>456</v>
+      </c>
+      <c r="C440" t="s">
+        <v>890</v>
+      </c>
+      <c r="D440" t="s">
+        <v>929</v>
+      </c>
+      <c r="E440" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" t="s">
+        <v>444</v>
+      </c>
+      <c r="B441" t="s">
+        <v>456</v>
+      </c>
+      <c r="C441" t="s">
+        <v>891</v>
+      </c>
+      <c r="D441" t="s">
+        <v>929</v>
+      </c>
+      <c r="E441" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" t="s">
+        <v>445</v>
+      </c>
+      <c r="B442" t="s">
+        <v>456</v>
+      </c>
+      <c r="C442" t="s">
+        <v>892</v>
+      </c>
+      <c r="D442" t="s">
+        <v>929</v>
+      </c>
+      <c r="E442" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" t="s">
+        <v>446</v>
+      </c>
+      <c r="B443" t="s">
+        <v>456</v>
+      </c>
+      <c r="C443" t="s">
+        <v>893</v>
+      </c>
+      <c r="D443" t="s">
+        <v>929</v>
+      </c>
+      <c r="E443" t="s">
+        <v>935</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class7.xlsx
+++ b/pali-class/vocab/vocab-class7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="942">
   <si>
     <t>Pāli1</t>
   </si>
@@ -1021,6 +1021,9 @@
     <t>pītipaṭisaṃvedī</t>
   </si>
   <si>
+    <t>anāgāmī</t>
+  </si>
+  <si>
     <t>sakadāgāmī</t>
   </si>
   <si>
@@ -1147,9 +1150,15 @@
     <t>sadā</t>
   </si>
   <si>
+    <t>ratto</t>
+  </si>
+  <si>
     <t>ca 1</t>
   </si>
   <si>
+    <t>sabbadā</t>
+  </si>
+  <si>
     <t>pacchā 1</t>
   </si>
   <si>
@@ -2365,6 +2374,9 @@
     <t>experiencing heart-felt joy; feeling delight; sensitive to rapture</t>
   </si>
   <si>
+    <t>who does not return; non-returning (in this world)</t>
+  </si>
+  <si>
     <t>who returns once; once-returner</t>
   </si>
   <si>
@@ -2491,7 +2503,13 @@
     <t>ever; always</t>
   </si>
   <si>
+    <t>at night; by night</t>
+  </si>
+  <si>
     <t>and</t>
+  </si>
+  <si>
+    <t>always; at all times</t>
   </si>
   <si>
     <t>after; afterwards; in the future</t>
@@ -3179,7 +3197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E443"/>
+  <dimension ref="A1:E446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3207,16 +3225,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D2" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E2" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3224,16 +3242,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D3" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E3" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3241,16 +3259,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D4" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E4" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3258,16 +3276,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C5" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D5" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E5" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3275,16 +3293,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C6" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D6" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E6" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3292,16 +3310,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D7" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E7" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3309,16 +3327,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C8" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D8" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E8" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3326,16 +3344,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C9" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D9" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E9" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3343,16 +3361,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C10" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D10" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E10" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3360,16 +3378,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C11" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D11" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E11" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3377,16 +3395,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C12" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D12" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E12" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3394,16 +3412,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C13" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D13" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E13" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3411,16 +3429,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C14" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D14" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E14" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3428,16 +3446,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C15" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D15" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E15" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3445,16 +3463,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C16" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D16" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E16" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3462,16 +3480,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C17" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D17" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E17" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3479,16 +3497,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C18" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D18" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E18" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3496,16 +3514,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C19" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D19" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E19" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3513,16 +3531,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C20" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D20" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E20" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3530,16 +3548,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C21" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D21" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E21" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3547,16 +3565,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C22" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D22" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E22" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3564,16 +3582,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C23" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D23" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E23" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3581,16 +3599,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C24" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D24" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E24" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3598,16 +3616,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C25" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D25" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E25" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3615,16 +3633,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C26" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D26" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E26" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3632,16 +3650,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C27" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D27" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E27" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3649,16 +3667,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C28" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D28" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E28" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3666,16 +3684,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C29" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D29" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E29" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3683,16 +3701,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C30" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D30" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E30" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3700,16 +3718,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C31" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D31" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E31" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3717,16 +3735,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C32" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D32" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E32" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3734,16 +3752,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C33" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D33" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E33" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3751,16 +3769,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C34" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D34" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E34" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3768,16 +3786,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C35" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D35" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E35" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3785,16 +3803,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C36" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D36" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E36" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3802,16 +3820,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C37" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D37" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E37" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3819,16 +3837,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C38" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D38" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E38" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3836,16 +3854,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C39" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D39" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E39" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3853,16 +3871,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C40" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D40" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E40" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3870,16 +3888,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C41" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D41" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E41" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3887,16 +3905,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C42" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D42" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E42" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3904,16 +3922,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C43" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D43" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E43" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3921,16 +3939,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C44" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D44" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E44" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3938,16 +3956,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C45" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D45" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E45" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3955,16 +3973,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C46" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D46" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E46" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3972,16 +3990,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C47" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D47" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E47" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3989,16 +4007,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C48" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D48" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E48" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4006,16 +4024,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C49" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D49" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E49" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4023,16 +4041,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C50" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D50" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E50" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4040,16 +4058,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C51" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D51" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E51" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4057,16 +4075,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C52" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D52" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E52" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4074,16 +4092,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C53" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D53" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E53" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4091,16 +4109,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C54" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D54" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E54" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4108,16 +4126,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C55" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D55" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E55" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4125,16 +4143,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C56" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D56" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E56" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4142,16 +4160,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C57" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D57" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E57" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4159,16 +4177,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C58" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D58" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E58" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4176,16 +4194,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C59" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D59" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E59" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4193,16 +4211,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C60" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D60" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E60" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4210,16 +4228,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C61" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D61" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E61" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4227,16 +4245,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C62" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D62" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E62" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4244,16 +4262,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C63" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D63" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E63" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4261,16 +4279,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C64" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D64" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E64" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4278,16 +4296,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C65" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D65" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E65" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4295,16 +4313,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C66" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D66" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E66" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4312,16 +4330,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C67" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D67" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E67" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4329,16 +4347,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C68" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D68" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E68" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4346,16 +4364,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C69" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D69" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E69" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4363,16 +4381,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C70" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D70" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E70" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4380,16 +4398,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C71" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D71" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E71" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4397,16 +4415,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C72" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D72" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E72" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4414,16 +4432,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C73" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D73" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E73" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4431,16 +4449,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C74" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D74" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E74" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4448,16 +4466,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C75" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D75" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E75" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4465,16 +4483,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C76" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D76" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E76" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4482,16 +4500,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C77" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D77" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E77" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4499,16 +4517,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C78" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D78" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E78" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4516,16 +4534,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C79" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D79" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E79" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4533,16 +4551,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C80" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D80" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E80" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4550,16 +4568,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C81" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D81" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E81" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4567,16 +4585,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C82" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D82" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E82" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4584,16 +4602,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C83" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D83" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E83" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4601,16 +4619,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C84" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D84" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E84" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4618,16 +4636,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C85" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D85" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E85" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4635,16 +4653,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C86" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D86" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E86" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4652,16 +4670,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C87" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D87" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E87" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4669,16 +4687,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C88" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D88" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E88" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4686,16 +4704,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C89" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D89" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E89" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4703,16 +4721,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C90" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D90" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E90" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4720,16 +4738,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C91" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D91" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E91" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4737,16 +4755,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C92" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D92" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E92" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4754,16 +4772,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C93" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D93" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E93" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4771,16 +4789,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C94" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D94" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E94" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4788,16 +4806,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C95" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D95" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E95" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4805,16 +4823,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C96" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D96" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E96" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4822,16 +4840,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C97" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D97" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E97" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4839,16 +4857,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C98" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D98" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E98" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4856,16 +4874,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C99" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D99" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E99" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4873,16 +4891,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C100" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D100" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E100" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4890,16 +4908,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C101" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D101" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E101" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4907,16 +4925,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C102" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D102" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E102" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4924,16 +4942,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C103" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D103" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E103" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4941,16 +4959,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C104" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D104" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E104" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4958,16 +4976,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C105" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D105" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E105" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4975,16 +4993,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C106" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D106" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E106" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4992,16 +5010,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C107" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D107" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E107" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5009,16 +5027,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C108" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D108" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E108" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5026,16 +5044,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C109" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D109" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E109" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5043,16 +5061,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C110" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D110" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E110" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5060,16 +5078,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C111" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D111" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E111" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5077,16 +5095,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C112" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D112" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E112" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5094,16 +5112,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C113" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D113" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E113" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5111,16 +5129,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C114" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D114" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E114" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5128,16 +5146,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C115" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D115" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E115" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5145,16 +5163,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C116" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D116" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E116" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5162,16 +5180,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C117" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D117" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E117" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5179,16 +5197,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C118" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D118" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E118" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5196,16 +5214,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C119" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D119" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E119" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5213,16 +5231,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C120" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D120" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E120" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5230,16 +5248,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C121" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D121" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E121" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5247,16 +5265,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C122" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D122" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E122" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5264,16 +5282,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C123" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D123" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E123" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5281,16 +5299,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C124" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D124" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E124" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5298,16 +5316,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C125" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D125" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E125" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5315,16 +5333,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C126" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D126" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E126" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5332,16 +5350,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C127" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D127" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E127" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5349,16 +5367,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C128" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D128" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E128" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5366,16 +5384,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C129" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D129" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E129" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5383,16 +5401,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C130" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D130" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E130" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5400,16 +5418,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C131" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D131" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E131" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5417,16 +5435,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C132" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D132" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E132" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5434,16 +5452,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C133" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D133" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E133" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5451,16 +5469,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C134" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D134" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E134" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5468,16 +5486,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C135" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D135" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E135" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5485,16 +5503,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C136" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D136" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E136" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5502,16 +5520,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C137" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D137" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E137" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5519,16 +5537,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C138" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D138" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="E138" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5536,16 +5554,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C139" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D139" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="E139" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5553,16 +5571,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C140" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D140" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E140" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5570,16 +5588,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C141" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D141" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E141" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5587,16 +5605,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C142" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D142" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E142" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5604,16 +5622,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C143" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D143" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E143" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5621,16 +5639,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C144" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D144" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E144" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5638,16 +5656,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C145" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D145" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E145" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5655,16 +5673,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C146" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D146" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E146" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5672,16 +5690,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C147" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D147" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E147" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5689,16 +5707,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C148" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D148" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E148" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5706,16 +5724,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C149" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D149" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E149" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5723,16 +5741,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C150" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D150" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E150" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5740,16 +5758,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C151" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D151" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E151" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5757,16 +5775,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C152" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D152" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E152" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5774,16 +5792,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C153" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D153" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E153" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5791,16 +5809,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C154" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D154" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E154" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5808,16 +5826,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C155" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D155" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E155" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5825,16 +5843,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C156" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D156" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E156" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5842,16 +5860,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C157" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D157" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E157" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5859,16 +5877,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C158" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D158" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E158" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5876,16 +5894,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C159" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D159" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E159" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5893,16 +5911,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C160" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D160" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E160" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5910,16 +5928,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C161" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D161" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E161" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5927,16 +5945,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C162" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D162" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E162" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5944,16 +5962,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C163" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D163" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E163" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5961,16 +5979,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C164" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D164" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E164" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5978,16 +5996,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C165" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D165" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E165" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5995,16 +6013,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C166" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D166" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E166" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6012,16 +6030,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C167" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D167" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E167" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6029,16 +6047,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C168" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D168" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E168" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6046,16 +6064,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C169" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D169" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E169" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6063,16 +6081,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C170" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D170" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E170" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6080,16 +6098,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C171" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D171" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E171" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6097,16 +6115,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C172" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D172" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E172" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6114,16 +6132,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C173" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D173" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E173" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6131,16 +6149,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C174" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D174" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E174" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6148,16 +6166,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C175" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D175" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E175" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6165,16 +6183,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C176" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D176" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E176" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6182,16 +6200,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C177" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D177" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E177" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6199,16 +6217,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C178" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D178" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E178" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6216,16 +6234,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C179" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D179" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E179" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6233,16 +6251,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C180" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D180" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E180" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6250,16 +6268,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C181" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D181" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E181" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6267,16 +6285,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C182" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D182" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E182" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6284,16 +6302,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C183" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D183" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E183" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6301,16 +6319,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C184" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D184" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E184" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6318,16 +6336,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C185" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D185" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E185" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6335,16 +6353,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C186" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D186" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E186" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6352,16 +6370,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C187" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D187" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E187" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6369,16 +6387,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C188" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D188" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E188" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6386,16 +6404,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C189" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D189" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E189" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6403,16 +6421,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C190" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D190" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="E190" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6420,16 +6438,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C191" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D191" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E191" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6437,16 +6455,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C192" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D192" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E192" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6454,16 +6472,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C193" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D193" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E193" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6471,16 +6489,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C194" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D194" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E194" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6488,16 +6506,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C195" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D195" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E195" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6505,16 +6523,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C196" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D196" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E196" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6522,16 +6540,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C197" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D197" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E197" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6539,16 +6557,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C198" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D198" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E198" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6556,16 +6574,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C199" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D199" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E199" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6573,16 +6591,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C200" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D200" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E200" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6590,16 +6608,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C201" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D201" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E201" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6607,16 +6625,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C202" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D202" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E202" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6624,16 +6642,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C203" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D203" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E203" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6641,16 +6659,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C204" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D204" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E204" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6658,16 +6676,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C205" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="D205" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E205" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6675,16 +6693,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C206" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D206" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E206" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6692,16 +6710,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C207" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D207" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E207" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6709,16 +6727,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C208" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="D208" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E208" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6726,16 +6744,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C209" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D209" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E209" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6743,16 +6761,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C210" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D210" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E210" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6760,16 +6778,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C211" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D211" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E211" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6777,16 +6795,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C212" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D212" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E212" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6794,16 +6812,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C213" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D213" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E213" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6811,16 +6829,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C214" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D214" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E214" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6828,16 +6846,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C215" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D215" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E215" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6845,16 +6863,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C216" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="D216" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E216" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6862,16 +6880,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C217" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D217" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E217" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6879,16 +6897,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C218" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="D218" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E218" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6896,16 +6914,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C219" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D219" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E219" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6913,16 +6931,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C220" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D220" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E220" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6930,16 +6948,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C221" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D221" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="E221" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6947,16 +6965,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C222" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D222" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="E222" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6964,16 +6982,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C223" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D223" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="E223" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6981,16 +6999,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C224" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="D224" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="E224" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6998,16 +7016,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C225" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D225" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="E225" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7015,16 +7033,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C226" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D226" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="E226" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7032,16 +7050,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C227" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D227" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="E227" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7049,16 +7067,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C228" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D228" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="E228" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7066,16 +7084,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C229" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="D229" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="E229" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7083,16 +7101,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C230" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D230" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="E230" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7100,16 +7118,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C231" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="D231" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="E231" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7117,16 +7135,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C232" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="D232" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="E232" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7134,16 +7152,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C233" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D233" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="E233" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7151,16 +7169,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C234" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="D234" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="E234" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7168,16 +7186,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C235" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="D235" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="E235" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7185,16 +7203,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C236" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="D236" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="E236" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7202,16 +7220,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C237" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="D237" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="E237" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7219,16 +7237,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C238" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="D238" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="E238" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7236,16 +7254,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C239" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D239" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="E239" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7253,16 +7271,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C240" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D240" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="E240" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7270,16 +7288,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C241" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="D241" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="E241" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7287,16 +7305,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C242" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="D242" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="E242" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7304,16 +7322,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C243" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="D243" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="E243" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7321,16 +7339,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C244" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D244" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="E244" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7338,16 +7356,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C245" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="D245" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="E245" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7355,16 +7373,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C246" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D246" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="E246" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7372,16 +7390,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C247" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="D247" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="E247" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7389,16 +7407,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C248" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D248" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="E248" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7406,16 +7424,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C249" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D249" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="E249" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7423,16 +7441,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C250" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D250" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="E250" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7440,16 +7458,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C251" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D251" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="E251" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7457,16 +7475,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C252" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D252" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="E252" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7474,16 +7492,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C253" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="D253" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="E253" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7491,16 +7509,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C254" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D254" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="E254" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7508,16 +7526,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C255" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="D255" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="E255" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7525,16 +7543,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C256" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D256" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="E256" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7542,16 +7560,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C257" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D257" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="E257" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7559,16 +7577,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C258" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="D258" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="E258" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7576,16 +7594,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C259" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="D259" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="E259" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7593,16 +7611,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C260" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="D260" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="E260" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7610,16 +7628,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C261" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="D261" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="E261" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7627,16 +7645,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C262" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="D262" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="E262" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7644,16 +7662,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C263" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D263" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="E263" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7661,16 +7679,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C264" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="D264" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="E264" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7678,16 +7696,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C265" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D265" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E265" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7695,16 +7713,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C266" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="D266" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E266" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7712,16 +7730,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C267" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D267" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E267" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7729,16 +7747,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C268" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="D268" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E268" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7746,16 +7764,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C269" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D269" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E269" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7763,16 +7781,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C270" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="D270" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E270" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7780,16 +7798,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C271" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="D271" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E271" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7797,16 +7815,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C272" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D272" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E272" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7814,16 +7832,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C273" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="D273" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E273" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7831,16 +7849,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C274" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="D274" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E274" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7848,16 +7866,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C275" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D275" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E275" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7865,16 +7883,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C276" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D276" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="E276" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7882,16 +7900,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C277" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="D277" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="E277" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7899,16 +7917,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C278" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D278" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="E278" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7916,16 +7934,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C279" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="D279" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="E279" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7933,16 +7951,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C280" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D280" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="E280" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7950,16 +7968,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C281" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="D281" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="E281" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7967,16 +7985,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C282" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D282" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="E282" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7984,16 +8002,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C283" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D283" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="E283" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8001,16 +8019,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C284" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="D284" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="E284" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -8018,16 +8036,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C285" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D285" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="E285" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8035,16 +8053,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C286" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="D286" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="E286" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8052,16 +8070,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C287" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="D287" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="E287" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8069,16 +8087,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C288" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D288" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E288" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8086,16 +8104,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C289" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D289" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E289" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8103,16 +8121,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C290" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D290" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E290" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8120,16 +8138,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C291" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="D291" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="E291" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8137,16 +8155,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C292" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="D292" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E292" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8154,16 +8172,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C293" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="D293" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E293" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8171,16 +8189,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C294" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D294" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="E294" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8188,16 +8206,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C295" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="D295" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="E295" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8205,16 +8223,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C296" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="D296" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E296" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8222,16 +8240,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C297" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D297" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E297" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8239,16 +8257,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C298" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="D298" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E298" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8256,16 +8274,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C299" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="D299" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E299" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8273,16 +8291,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C300" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D300" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E300" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8290,16 +8308,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C301" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D301" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E301" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8307,16 +8325,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C302" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="D302" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="E302" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8324,16 +8342,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C303" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="D303" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="E303" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8341,16 +8359,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C304" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="D304" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="E304" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8358,16 +8376,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C305" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="D305" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="E305" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8375,16 +8393,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C306" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D306" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="E306" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8392,16 +8410,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C307" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="D307" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="E307" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8409,16 +8427,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C308" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D308" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="E308" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8426,16 +8444,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C309" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D309" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="E309" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8443,16 +8461,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C310" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="D310" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="E310" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8460,16 +8478,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C311" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="D311" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="E311" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8477,16 +8495,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C312" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="D312" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="E312" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8494,16 +8512,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C313" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="D313" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="E313" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8511,16 +8529,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C314" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="D314" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="E314" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8528,16 +8546,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C315" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="D315" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="E315" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8545,16 +8563,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C316" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="D316" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="E316" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8562,16 +8580,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C317" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="D317" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="E317" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8579,16 +8597,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C318" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D318" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="E318" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8596,16 +8614,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C319" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="D319" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="E319" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8613,16 +8631,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C320" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="D320" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="E320" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8630,16 +8648,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C321" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="D321" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="E321" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8647,16 +8665,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C322" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="D322" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E322" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8664,16 +8682,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C323" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D323" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="E323" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8681,16 +8699,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C324" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="D324" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="E324" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8698,16 +8716,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C325" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D325" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="E325" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8715,16 +8733,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C326" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="D326" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="E326" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8732,16 +8750,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C327" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="D327" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="E327" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8749,16 +8767,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C328" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="D328" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="E328" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8766,16 +8784,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C329" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D329" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="E329" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8783,16 +8801,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C330" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="D330" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="E330" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8800,16 +8818,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C331" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D331" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="E331" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8817,16 +8835,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C332" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D332" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="E332" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8834,16 +8852,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C333" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D333" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="E333" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8851,16 +8869,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C334" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="D334" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="E334" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8868,16 +8886,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C335" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D335" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="E335" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8885,16 +8903,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C336" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="D336" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="E336" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8902,16 +8920,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C337" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="D337" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="E337" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8919,16 +8937,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C338" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="D338" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="E338" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8936,16 +8954,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C339" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="D339" t="s">
-        <v>894</v>
+        <v>923</v>
       </c>
       <c r="E339" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8953,16 +8971,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C340" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D340" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E340" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8970,16 +8988,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C341" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D341" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E341" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8987,16 +9005,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C342" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="D342" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E342" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -9004,16 +9022,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C343" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="D343" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E343" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9021,16 +9039,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C344" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="D344" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E344" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9038,16 +9056,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C345" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="D345" t="s">
-        <v>918</v>
+        <v>900</v>
       </c>
       <c r="E345" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9055,16 +9073,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C346" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="D346" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="E346" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9072,16 +9090,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C347" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="D347" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="E347" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9089,16 +9107,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C348" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="D348" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="E348" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9106,16 +9124,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C349" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D349" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="E349" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9123,16 +9141,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C350" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="D350" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="E350" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9140,16 +9158,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C351" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D351" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="E351" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9157,16 +9175,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C352" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="D352" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="E352" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9174,16 +9192,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C353" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D353" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="E353" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9191,16 +9209,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C354" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="D354" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="E354" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9208,16 +9226,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C355" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D355" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="E355" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9225,16 +9243,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C356" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D356" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="E356" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9242,16 +9260,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C357" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="D357" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="E357" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9259,16 +9277,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C358" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D358" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="E358" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9276,16 +9294,16 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C359" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D359" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="E359" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9293,16 +9311,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C360" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="D360" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="E360" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9310,16 +9328,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C361" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="D361" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="E361" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9327,16 +9345,16 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C362" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D362" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="E362" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9344,16 +9362,16 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C363" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D363" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="E363" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9361,16 +9379,16 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C364" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D364" t="s">
-        <v>896</v>
+        <v>927</v>
       </c>
       <c r="E364" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9378,16 +9396,16 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C365" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D365" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E365" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9395,16 +9413,16 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C366" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D366" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E366" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9412,16 +9430,16 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C367" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D367" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="E367" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9429,16 +9447,16 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C368" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="D368" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E368" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9446,16 +9464,16 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C369" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D369" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="E369" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9463,16 +9481,16 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C370" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="D370" t="s">
-        <v>452</v>
+        <v>912</v>
       </c>
       <c r="E370" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9480,16 +9498,16 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C371" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D371" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E371" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9497,16 +9515,16 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C372" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="D372" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E372" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9514,16 +9532,16 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C373" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D373" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E373" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9531,16 +9549,16 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C374" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="D374" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E374" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9548,16 +9566,16 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C375" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="D375" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E375" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9565,16 +9583,16 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C376" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D376" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E376" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9582,16 +9600,16 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C377" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D377" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E377" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9599,16 +9617,16 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C378" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D378" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E378" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9616,16 +9634,16 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C379" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D379" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E379" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9633,16 +9651,16 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C380" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="D380" t="s">
-        <v>922</v>
+        <v>455</v>
       </c>
       <c r="E380" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9650,16 +9668,16 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C381" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="D381" t="s">
-        <v>922</v>
+        <v>455</v>
       </c>
       <c r="E381" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9667,16 +9685,16 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C382" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="D382" t="s">
-        <v>922</v>
+        <v>455</v>
       </c>
       <c r="E382" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9684,16 +9702,16 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C383" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="D383" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="E383" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9701,16 +9719,16 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C384" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D384" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="E384" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9718,16 +9736,16 @@
         <v>388</v>
       </c>
       <c r="B385" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C385" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="D385" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="E385" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9735,16 +9753,16 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C386" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D386" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="E386" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9752,16 +9770,16 @@
         <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C387" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="D387" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="E387" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9769,16 +9787,16 @@
         <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C388" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D388" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="E388" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9786,16 +9804,16 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C389" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="D389" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E389" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9803,16 +9821,16 @@
         <v>393</v>
       </c>
       <c r="B390" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C390" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D390" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="E390" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9820,16 +9838,16 @@
         <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C391" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D391" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="E391" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9837,16 +9855,16 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C392" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D392" t="s">
-        <v>894</v>
+        <v>929</v>
       </c>
       <c r="E392" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9854,16 +9872,16 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C393" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="D393" t="s">
-        <v>894</v>
+        <v>930</v>
       </c>
       <c r="E393" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9871,16 +9889,16 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C394" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="D394" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="E394" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9888,16 +9906,16 @@
         <v>398</v>
       </c>
       <c r="B395" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C395" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D395" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="E395" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9905,16 +9923,16 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C396" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="D396" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="E396" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9922,16 +9940,16 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="C397" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D397" t="s">
-        <v>896</v>
+        <v>924</v>
       </c>
       <c r="E397" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -9939,16 +9957,16 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C398" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="D398" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E398" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -9956,16 +9974,16 @@
         <v>402</v>
       </c>
       <c r="B399" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C399" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="D399" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="E399" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -9973,16 +9991,16 @@
         <v>403</v>
       </c>
       <c r="B400" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C400" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="D400" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="E400" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -9990,16 +10008,16 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C401" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="D401" t="s">
-        <v>925</v>
+        <v>902</v>
       </c>
       <c r="E401" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10007,16 +10025,16 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C402" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="D402" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="E402" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10024,16 +10042,16 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C403" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="D403" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="E403" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10041,16 +10059,16 @@
         <v>407</v>
       </c>
       <c r="B404" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C404" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D404" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="E404" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10058,16 +10076,16 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C405" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="D405" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="E405" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10075,16 +10093,16 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C406" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D406" t="s">
-        <v>907</v>
+        <v>931</v>
       </c>
       <c r="E406" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10092,16 +10110,16 @@
         <v>410</v>
       </c>
       <c r="B407" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C407" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="D407" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="E407" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10109,16 +10127,16 @@
         <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C408" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D408" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="E408" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10126,16 +10144,16 @@
         <v>412</v>
       </c>
       <c r="B409" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C409" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D409" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
       <c r="E409" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10143,16 +10161,16 @@
         <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C410" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="D410" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="E410" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10160,16 +10178,16 @@
         <v>414</v>
       </c>
       <c r="B411" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C411" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D411" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="E411" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10177,16 +10195,16 @@
         <v>415</v>
       </c>
       <c r="B412" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C412" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="D412" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E412" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10194,16 +10212,16 @@
         <v>416</v>
       </c>
       <c r="B413" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C413" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="D413" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E413" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10211,16 +10229,16 @@
         <v>417</v>
       </c>
       <c r="B414" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C414" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D414" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E414" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10228,16 +10246,16 @@
         <v>418</v>
       </c>
       <c r="B415" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C415" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="D415" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E415" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10245,16 +10263,16 @@
         <v>419</v>
       </c>
       <c r="B416" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C416" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="D416" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E416" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10262,16 +10280,16 @@
         <v>420</v>
       </c>
       <c r="B417" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C417" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="D417" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E417" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10279,16 +10297,16 @@
         <v>421</v>
       </c>
       <c r="B418" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C418" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D418" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E418" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10296,16 +10314,16 @@
         <v>422</v>
       </c>
       <c r="B419" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C419" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="D419" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E419" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10313,16 +10331,16 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C420" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D420" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E420" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10330,16 +10348,16 @@
         <v>424</v>
       </c>
       <c r="B421" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C421" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="D421" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E421" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10347,16 +10365,16 @@
         <v>425</v>
       </c>
       <c r="B422" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C422" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="D422" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E422" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10364,16 +10382,16 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C423" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="D423" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E423" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10381,16 +10399,16 @@
         <v>427</v>
       </c>
       <c r="B424" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C424" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="D424" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E424" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10398,16 +10416,16 @@
         <v>428</v>
       </c>
       <c r="B425" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C425" t="s">
-        <v>475</v>
+        <v>879</v>
       </c>
       <c r="D425" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E425" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10415,16 +10433,16 @@
         <v>429</v>
       </c>
       <c r="B426" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C426" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="D426" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E426" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10432,16 +10450,16 @@
         <v>430</v>
       </c>
       <c r="B427" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C427" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="D427" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E427" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10449,16 +10467,16 @@
         <v>431</v>
       </c>
       <c r="B428" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C428" t="s">
-        <v>878</v>
+        <v>478</v>
       </c>
       <c r="D428" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E428" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10466,16 +10484,16 @@
         <v>432</v>
       </c>
       <c r="B429" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C429" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D429" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E429" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10483,16 +10501,16 @@
         <v>433</v>
       </c>
       <c r="B430" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C430" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="D430" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E430" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10500,16 +10518,16 @@
         <v>434</v>
       </c>
       <c r="B431" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C431" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D431" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E431" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10517,16 +10535,16 @@
         <v>435</v>
       </c>
       <c r="B432" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C432" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="D432" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E432" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10534,16 +10552,16 @@
         <v>436</v>
       </c>
       <c r="B433" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C433" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D433" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E433" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10551,16 +10569,16 @@
         <v>437</v>
       </c>
       <c r="B434" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C434" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="D434" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E434" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10568,16 +10586,16 @@
         <v>438</v>
       </c>
       <c r="B435" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C435" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D435" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E435" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10585,16 +10603,16 @@
         <v>439</v>
       </c>
       <c r="B436" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C436" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D436" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E436" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10602,16 +10620,16 @@
         <v>440</v>
       </c>
       <c r="B437" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C437" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="D437" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E437" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10619,16 +10637,16 @@
         <v>441</v>
       </c>
       <c r="B438" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C438" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D438" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E438" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10636,16 +10654,16 @@
         <v>442</v>
       </c>
       <c r="B439" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C439" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="D439" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E439" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10653,16 +10671,16 @@
         <v>443</v>
       </c>
       <c r="B440" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C440" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="D440" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E440" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10670,16 +10688,16 @@
         <v>444</v>
       </c>
       <c r="B441" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C441" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="D441" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E441" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10687,16 +10705,16 @@
         <v>445</v>
       </c>
       <c r="B442" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C442" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="D442" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E442" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10704,16 +10722,67 @@
         <v>446</v>
       </c>
       <c r="B443" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C443" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="D443" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E443" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" t="s">
+        <v>447</v>
+      </c>
+      <c r="B444" t="s">
+        <v>459</v>
+      </c>
+      <c r="C444" t="s">
+        <v>897</v>
+      </c>
+      <c r="D444" t="s">
         <v>935</v>
+      </c>
+      <c r="E444" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" t="s">
+        <v>448</v>
+      </c>
+      <c r="B445" t="s">
+        <v>459</v>
+      </c>
+      <c r="C445" t="s">
+        <v>898</v>
+      </c>
+      <c r="D445" t="s">
+        <v>935</v>
+      </c>
+      <c r="E445" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" t="s">
+        <v>449</v>
+      </c>
+      <c r="B446" t="s">
+        <v>459</v>
+      </c>
+      <c r="C446" t="s">
+        <v>899</v>
+      </c>
+      <c r="D446" t="s">
+        <v>935</v>
+      </c>
+      <c r="E446" t="s">
+        <v>941</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class7.xlsx
+++ b/pali-class/vocab/vocab-class7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="914">
   <si>
     <t>Pāli1</t>
   </si>
@@ -568,15 +568,9 @@
     <t>carati 1</t>
   </si>
   <si>
-    <t>pabbājeti 1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
-    <t>pasāreti</t>
-  </si>
-  <si>
     <t>ceteti 2</t>
   </si>
   <si>
@@ -634,15 +628,9 @@
     <t>mugga</t>
   </si>
   <si>
-    <t>pessaka</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
-    <t>sippika</t>
-  </si>
-  <si>
     <t>kāraka 2</t>
   </si>
   <si>
@@ -679,9 +667,6 @@
     <t>jhāyati 1</t>
   </si>
   <si>
-    <t>panūdati</t>
-  </si>
-  <si>
     <t>chindati</t>
   </si>
   <si>
@@ -709,6 +694,9 @@
     <t>amhi</t>
   </si>
   <si>
+    <t>ajesi</t>
+  </si>
+  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -766,9 +754,6 @@
     <t>gahapati</t>
   </si>
   <si>
-    <t>vīhi</t>
-  </si>
-  <si>
     <t>sāli</t>
   </si>
   <si>
@@ -898,9 +883,6 @@
     <t>sobhati</t>
   </si>
   <si>
-    <t>ajesi</t>
-  </si>
-  <si>
     <t>ḍeti</t>
   </si>
   <si>
@@ -1003,9 +985,6 @@
     <t>vihārī</t>
   </si>
   <si>
-    <t>āgāmī 1</t>
-  </si>
-  <si>
     <t>vippaṭisārī</t>
   </si>
   <si>
@@ -1018,9 +997,6 @@
     <t>gavesī 1</t>
   </si>
   <si>
-    <t>pītipaṭisaṃvedī</t>
-  </si>
-  <si>
     <t>anāgāmī</t>
   </si>
   <si>
@@ -1045,9 +1021,6 @@
     <t>pakkhī</t>
   </si>
   <si>
-    <t>pariṇāyaka</t>
-  </si>
-  <si>
     <t>upassaya 1</t>
   </si>
   <si>
@@ -1123,18 +1096,9 @@
     <t>paricarati 3</t>
   </si>
   <si>
-    <t>upasussati</t>
-  </si>
-  <si>
-    <t>avasissati</t>
-  </si>
-  <si>
     <t>acchādeti 1</t>
   </si>
   <si>
-    <t>niddisi 1</t>
-  </si>
-  <si>
     <t>nidhi</t>
   </si>
   <si>
@@ -1216,18 +1180,12 @@
     <t>paṭighāta</t>
   </si>
   <si>
-    <t>vajjavant</t>
-  </si>
-  <si>
     <t>obhāsati</t>
   </si>
   <si>
     <t>nahāyati</t>
   </si>
   <si>
-    <t>abhitthavati</t>
-  </si>
-  <si>
     <t>nappaṭikaṅkhati</t>
   </si>
   <si>
@@ -1933,15 +1891,9 @@
     <t>walks; wanders; goes around; travels; fares on</t>
   </si>
   <si>
-    <t>banishes; exiles; lit. causes to leave</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
-    <t>stretches out; straightens; extends; lit. causes to go forward</t>
-  </si>
-  <si>
     <t>intends; will (to); lit. thinks</t>
   </si>
   <si>
@@ -1996,15 +1948,9 @@
     <t>mung beans</t>
   </si>
   <si>
-    <t>messenger; lit. who is sent</t>
-  </si>
-  <si>
     <t>merchant; trader</t>
   </si>
   <si>
-    <t>craftsman; artisan</t>
-  </si>
-  <si>
     <t>doer; maker; creator; builder</t>
   </si>
   <si>
@@ -2041,9 +1987,6 @@
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
-    <t>dispels; drives out; rejects; pushes away</t>
-  </si>
-  <si>
     <t>cuts; cuts off; severs</t>
   </si>
   <si>
@@ -2071,6 +2014,9 @@
     <t>I am</t>
   </si>
   <si>
+    <t>conquered; defeated</t>
+  </si>
+  <si>
     <t>addressed; said (to)</t>
   </si>
   <si>
@@ -2125,9 +2071,6 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
-    <t>rice paddy</t>
-  </si>
-  <si>
     <t>rice</t>
   </si>
   <si>
@@ -2254,9 +2197,6 @@
     <t>shines; radiates; looks beautiful</t>
   </si>
   <si>
-    <t>conquered; defeated</t>
-  </si>
-  <si>
     <t>flies; flies up</t>
   </si>
   <si>
@@ -2356,9 +2296,6 @@
     <t>(of a state of being) living in; who has</t>
   </si>
   <si>
-    <t>who returns; who comes back</t>
-  </si>
-  <si>
     <t>remorseful; regretful; sorry; lit. remembering back negatively</t>
   </si>
   <si>
@@ -2371,9 +2308,6 @@
     <t>seeking; searching for; looking for</t>
   </si>
   <si>
-    <t>experiencing heart-felt joy; feeling delight; sensitive to rapture</t>
-  </si>
-  <si>
     <t>who does not return; non-returning (in this world)</t>
   </si>
   <si>
@@ -2398,9 +2332,6 @@
     <t>bird; lit. with wings</t>
   </si>
   <si>
-    <t>leader; guide; adviser</t>
-  </si>
-  <si>
     <t>dwelling; shelter; home</t>
   </si>
   <si>
@@ -2476,18 +2407,9 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
-    <t>dries up; withers; shrivels</t>
-  </si>
-  <si>
-    <t>remains; is left over</t>
-  </si>
-  <si>
     <t>dresses; clothes; give clothes (to)</t>
   </si>
   <si>
-    <t>indicated; pointed out; designated; appointed</t>
-  </si>
-  <si>
     <t>treasure; trove; hoard; lit. put down</t>
   </si>
   <si>
@@ -2569,16 +2491,10 @@
     <t>warding off; repelling; counteract; lit. beating back</t>
   </si>
   <si>
-    <t>sinful; with faults; with mistakes</t>
-  </si>
-  <si>
     <t>speaks coarsely (to); speaks rudely (to); speaks dirty (to); lit. talks down (to)</t>
   </si>
   <si>
     <t>takes a bath; bathes; washes</t>
-  </si>
-  <si>
-    <t>praises; applauds</t>
   </si>
   <si>
     <t>does not anticipate; does not expect; does not await</t>
@@ -3197,7 +3113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E446"/>
+  <dimension ref="A1:E432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3225,16 +3141,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C2" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E2" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3242,16 +3158,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C3" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D3" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E3" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3259,16 +3175,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C4" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="D4" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E4" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3276,16 +3192,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C5" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="D5" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E5" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3293,16 +3209,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" t="s">
         <v>450</v>
       </c>
-      <c r="C6" t="s">
-        <v>464</v>
-      </c>
       <c r="D6" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E6" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3310,16 +3226,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="D7" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E7" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3327,16 +3243,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C8" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="D8" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E8" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3344,16 +3260,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="D9" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E9" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3361,16 +3277,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C10" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="D10" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E10" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3378,16 +3294,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C11" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="D11" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E11" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3395,16 +3311,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C12" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="D12" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E12" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3412,16 +3328,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C13" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="D13" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E13" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3429,16 +3345,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C14" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D14" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E14" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3446,16 +3362,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C15" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D15" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E15" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3463,16 +3379,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C16" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="D16" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E16" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3480,16 +3396,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C17" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="D17" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E17" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3497,16 +3413,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C18" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="D18" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E18" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3514,16 +3430,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C19" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="D19" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E19" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3531,16 +3447,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C20" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D20" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E20" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3548,16 +3464,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C21" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D21" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E21" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3565,16 +3481,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C22" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D22" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E22" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3582,16 +3498,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C23" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="D23" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E23" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3599,16 +3515,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C24" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="D24" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E24" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3616,16 +3532,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C25" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="D25" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E25" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3633,16 +3549,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C26" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D26" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E26" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3650,16 +3566,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C27" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="D27" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E27" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3667,16 +3583,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C28" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D28" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E28" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3684,16 +3600,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C29" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="D29" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E29" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3701,16 +3617,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C30" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="D30" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E30" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3718,16 +3634,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C31" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="D31" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E31" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3735,16 +3651,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C32" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="D32" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E32" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3752,16 +3668,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C33" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="D33" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E33" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3769,16 +3685,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C34" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="D34" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E34" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3786,16 +3702,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C35" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="D35" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E35" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3803,16 +3719,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C36" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="D36" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E36" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3820,16 +3736,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C37" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="D37" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E37" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3837,16 +3753,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C38" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="D38" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E38" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3854,16 +3770,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C39" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="D39" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E39" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3871,16 +3787,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C40" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="D40" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E40" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3888,16 +3804,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C41" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="D41" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E41" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3905,16 +3821,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C42" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="D42" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E42" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3922,16 +3838,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C43" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="D43" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E43" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3939,16 +3855,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C44" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="D44" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E44" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3956,16 +3872,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C45" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="D45" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E45" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3973,16 +3889,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C46" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="D46" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E46" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3990,16 +3906,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C47" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="D47" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E47" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4007,16 +3923,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C48" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="D48" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E48" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4024,16 +3940,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C49" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="D49" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E49" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4041,16 +3957,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C50" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="D50" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E50" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4058,16 +3974,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C51" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="D51" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E51" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4075,16 +3991,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C52" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="D52" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E52" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4092,16 +4008,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C53" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="D53" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E53" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4109,16 +4025,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C54" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="D54" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E54" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4126,16 +4042,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C55" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E55" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4143,16 +4059,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C56" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="D56" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E56" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4160,16 +4076,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C57" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="D57" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E57" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4177,16 +4093,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C58" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="D58" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E58" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4194,16 +4110,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C59" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="D59" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E59" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4211,16 +4127,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C60" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="D60" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E60" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4228,16 +4144,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C61" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="D61" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E61" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4245,16 +4161,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C62" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="D62" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E62" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4262,16 +4178,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C63" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="D63" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E63" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4279,16 +4195,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C64" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="D64" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E64" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4296,16 +4212,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C65" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="D65" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E65" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4313,16 +4229,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C66" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="D66" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E66" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4330,16 +4246,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C67" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="D67" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E67" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4347,16 +4263,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C68" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="D68" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E68" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4364,16 +4280,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C69" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D69" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E69" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4381,16 +4297,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C70" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="D70" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E70" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4398,16 +4314,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C71" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="D71" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E71" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4415,16 +4331,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C72" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="D72" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E72" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4432,16 +4348,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C73" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D73" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E73" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4449,16 +4365,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C74" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="D74" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E74" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4466,16 +4382,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C75" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="D75" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E75" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4483,16 +4399,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C76" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="D76" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E76" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4500,16 +4416,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C77" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="D77" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E77" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4517,16 +4433,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C78" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="D78" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E78" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4534,16 +4450,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C79" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="D79" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E79" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4551,16 +4467,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C80" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="D80" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E80" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4568,16 +4484,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C81" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="D81" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E81" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4585,16 +4501,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C82" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="D82" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E82" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4602,16 +4518,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C83" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D83" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E83" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4619,16 +4535,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C84" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="D84" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E84" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4636,16 +4552,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C85" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="D85" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E85" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4653,16 +4569,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C86" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="D86" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E86" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4670,16 +4586,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C87" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="D87" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E87" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4687,16 +4603,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C88" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="D88" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E88" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4704,16 +4620,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C89" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="D89" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E89" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4721,16 +4637,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C90" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="D90" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E90" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4738,16 +4654,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C91" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="D91" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E91" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4755,16 +4671,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C92" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="D92" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E92" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4772,16 +4688,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C93" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D93" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E93" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4789,16 +4705,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C94" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="D94" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E94" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4806,16 +4722,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C95" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="D95" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E95" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4823,16 +4739,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C96" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="D96" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E96" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4840,16 +4756,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C97" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="D97" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E97" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4857,16 +4773,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C98" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="D98" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E98" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4874,16 +4790,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C99" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="D99" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E99" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4891,16 +4807,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C100" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="D100" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E100" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4908,16 +4824,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C101" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="D101" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E101" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4925,16 +4841,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C102" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="D102" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E102" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4942,16 +4858,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C103" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="D103" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E103" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4959,16 +4875,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C104" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="D104" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E104" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4976,16 +4892,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C105" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="D105" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E105" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4993,16 +4909,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C106" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="D106" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E106" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5010,16 +4926,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C107" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="D107" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E107" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5027,16 +4943,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C108" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="D108" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E108" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5044,16 +4960,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C109" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="D109" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E109" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5061,16 +4977,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C110" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="D110" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E110" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5078,16 +4994,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C111" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="D111" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E111" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5095,16 +5011,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C112" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="D112" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E112" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5112,16 +5028,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C113" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="D113" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E113" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5129,16 +5045,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C114" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="D114" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E114" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5146,16 +5062,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C115" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="D115" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E115" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5163,16 +5079,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C116" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="D116" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E116" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5180,16 +5096,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C117" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="D117" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E117" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5197,16 +5113,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C118" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="D118" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E118" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5214,16 +5130,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C119" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="D119" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E119" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5231,16 +5147,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C120" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="D120" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E120" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5248,16 +5164,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C121" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="D121" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E121" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5265,16 +5181,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C122" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="D122" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E122" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5282,16 +5198,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C123" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="D123" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E123" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5299,16 +5215,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C124" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="D124" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E124" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5316,16 +5232,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C125" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="D125" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E125" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5333,16 +5249,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C126" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="D126" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E126" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5350,16 +5266,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C127" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="D127" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E127" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5367,16 +5283,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C128" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="D128" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E128" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5384,16 +5300,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C129" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="D129" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E129" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5401,16 +5317,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C130" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="D130" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E130" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5418,16 +5334,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C131" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="D131" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E131" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5435,16 +5351,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C132" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="D132" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E132" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5452,16 +5368,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C133" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="D133" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E133" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5469,16 +5385,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C134" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="D134" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E134" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5486,16 +5402,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C135" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="D135" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E135" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5503,16 +5419,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C136" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="D136" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E136" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5520,16 +5436,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C137" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="D137" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E137" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5537,16 +5453,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C138" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="D138" t="s">
-        <v>901</v>
+        <v>873</v>
       </c>
       <c r="E138" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5554,16 +5470,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C139" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="D139" t="s">
-        <v>901</v>
+        <v>873</v>
       </c>
       <c r="E139" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5571,16 +5487,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C140" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="D140" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E140" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5588,16 +5504,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C141" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="D141" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E141" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5605,16 +5521,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C142" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="D142" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E142" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5622,16 +5538,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C143" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="D143" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E143" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5639,16 +5555,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C144" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D144" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E144" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5656,16 +5572,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C145" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="D145" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E145" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5673,16 +5589,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C146" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="D146" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E146" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5690,16 +5606,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C147" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="D147" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E147" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5707,16 +5623,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C148" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="D148" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E148" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5724,16 +5640,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C149" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="D149" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E149" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5741,16 +5657,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C150" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="D150" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E150" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5758,16 +5674,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C151" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="D151" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E151" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5775,16 +5691,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C152" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="D152" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E152" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5792,16 +5708,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C153" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="D153" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E153" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5809,16 +5725,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C154" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="D154" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E154" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5826,16 +5742,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C155" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="D155" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E155" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5843,16 +5759,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C156" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="D156" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E156" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5860,16 +5776,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C157" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="D157" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E157" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5877,16 +5793,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C158" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="D158" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E158" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5894,16 +5810,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C159" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="D159" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E159" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5911,16 +5827,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C160" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="D160" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E160" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5928,16 +5844,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C161" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="D161" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E161" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5945,16 +5861,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C162" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="D162" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E162" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5962,16 +5878,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C163" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="D163" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E163" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5979,16 +5895,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C164" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="D164" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E164" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5996,16 +5912,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C165" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="D165" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E165" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6013,16 +5929,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C166" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="D166" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E166" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6030,16 +5946,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C167" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="D167" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E167" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6047,16 +5963,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C168" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="D168" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E168" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6064,16 +5980,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C169" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="D169" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E169" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6081,16 +5997,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C170" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="D170" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E170" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6098,16 +6014,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C171" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="D171" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E171" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6115,16 +6031,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C172" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="D172" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E172" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6132,16 +6048,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C173" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="D173" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E173" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6149,16 +6065,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C174" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="D174" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E174" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6166,16 +6082,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C175" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="D175" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E175" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6183,16 +6099,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C176" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="D176" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E176" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6200,16 +6116,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C177" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="D177" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E177" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6217,16 +6133,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C178" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="D178" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E178" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6234,16 +6150,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C179" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="D179" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E179" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6251,16 +6167,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C180" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="D180" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E180" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6268,16 +6184,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C181" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="D181" t="s">
-        <v>903</v>
+        <v>875</v>
       </c>
       <c r="E181" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6285,16 +6201,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C182" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="D182" t="s">
-        <v>903</v>
+        <v>875</v>
       </c>
       <c r="E182" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6302,16 +6218,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C183" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="D183" t="s">
-        <v>903</v>
+        <v>875</v>
       </c>
       <c r="E183" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6319,16 +6235,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C184" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="D184" t="s">
-        <v>903</v>
+        <v>875</v>
       </c>
       <c r="E184" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6336,16 +6252,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C185" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="D185" t="s">
-        <v>903</v>
+        <v>875</v>
       </c>
       <c r="E185" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6353,16 +6269,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C186" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="D186" t="s">
-        <v>903</v>
+        <v>875</v>
       </c>
       <c r="E186" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6370,16 +6286,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C187" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="D187" t="s">
-        <v>903</v>
+        <v>875</v>
       </c>
       <c r="E187" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6387,16 +6303,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C188" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="D188" t="s">
-        <v>903</v>
+        <v>876</v>
       </c>
       <c r="E188" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6404,16 +6320,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C189" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="D189" t="s">
-        <v>903</v>
+        <v>877</v>
       </c>
       <c r="E189" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6421,16 +6337,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C190" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="D190" t="s">
-        <v>904</v>
+        <v>877</v>
       </c>
       <c r="E190" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6438,16 +6354,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C191" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="D191" t="s">
-        <v>905</v>
+        <v>877</v>
       </c>
       <c r="E191" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6455,16 +6371,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="C192" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="D192" t="s">
-        <v>905</v>
+        <v>877</v>
       </c>
       <c r="E192" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6472,16 +6388,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C193" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D193" t="s">
-        <v>905</v>
+        <v>877</v>
       </c>
       <c r="E193" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6489,16 +6405,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C194" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="D194" t="s">
-        <v>905</v>
+        <v>877</v>
       </c>
       <c r="E194" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6506,16 +6422,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C195" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="D195" t="s">
-        <v>905</v>
+        <v>877</v>
       </c>
       <c r="E195" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6523,16 +6439,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C196" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="D196" t="s">
-        <v>905</v>
+        <v>877</v>
       </c>
       <c r="E196" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6540,16 +6456,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C197" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="D197" t="s">
-        <v>905</v>
+        <v>877</v>
       </c>
       <c r="E197" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6557,16 +6473,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C198" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="D198" t="s">
-        <v>905</v>
+        <v>877</v>
       </c>
       <c r="E198" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6574,16 +6490,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C199" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="D199" t="s">
-        <v>905</v>
+        <v>877</v>
       </c>
       <c r="E199" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6591,16 +6507,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C200" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="D200" t="s">
-        <v>905</v>
+        <v>872</v>
       </c>
       <c r="E200" t="s">
-        <v>937</v>
+        <v>910</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6608,16 +6524,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C201" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="D201" t="s">
-        <v>905</v>
+        <v>872</v>
       </c>
       <c r="E201" t="s">
-        <v>937</v>
+        <v>910</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6625,16 +6541,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C202" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="D202" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E202" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6642,16 +6558,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C203" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="D203" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E203" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6659,16 +6575,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C204" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="D204" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E204" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6676,16 +6592,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C205" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="D205" t="s">
-        <v>900</v>
+        <v>874</v>
       </c>
       <c r="E205" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6693,16 +6609,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C206" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="D206" t="s">
-        <v>900</v>
+        <v>874</v>
       </c>
       <c r="E206" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6710,16 +6626,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C207" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="D207" t="s">
-        <v>900</v>
+        <v>874</v>
       </c>
       <c r="E207" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6727,16 +6643,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C208" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="D208" t="s">
-        <v>900</v>
+        <v>874</v>
       </c>
       <c r="E208" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6744,16 +6660,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C209" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="D209" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E209" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6761,16 +6677,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C210" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="D210" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E210" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6778,16 +6694,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C211" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="D211" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E211" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6795,16 +6711,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C212" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="D212" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E212" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6812,16 +6728,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C213" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="D213" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E213" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6829,16 +6745,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C214" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="D214" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E214" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6846,16 +6762,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C215" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="D215" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E215" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6863,16 +6779,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C216" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="D216" t="s">
-        <v>902</v>
+        <v>878</v>
       </c>
       <c r="E216" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6880,16 +6796,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C217" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="D217" t="s">
-        <v>902</v>
+        <v>878</v>
       </c>
       <c r="E217" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6897,16 +6813,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C218" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="D218" t="s">
-        <v>902</v>
+        <v>878</v>
       </c>
       <c r="E218" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6914,16 +6830,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C219" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="D219" t="s">
-        <v>902</v>
+        <v>878</v>
       </c>
       <c r="E219" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6931,16 +6847,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C220" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="D220" t="s">
-        <v>902</v>
+        <v>878</v>
       </c>
       <c r="E220" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6948,16 +6864,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C221" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="D221" t="s">
-        <v>906</v>
+        <v>878</v>
       </c>
       <c r="E221" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6965,16 +6881,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C222" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="D222" t="s">
-        <v>906</v>
+        <v>878</v>
       </c>
       <c r="E222" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6982,16 +6898,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C223" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="D223" t="s">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="E223" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6999,16 +6915,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C224" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="D224" t="s">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="E224" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -7016,16 +6932,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C225" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="D225" t="s">
-        <v>906</v>
+        <v>880</v>
       </c>
       <c r="E225" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7033,16 +6949,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C226" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="D226" t="s">
-        <v>906</v>
+        <v>880</v>
       </c>
       <c r="E226" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7050,16 +6966,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C227" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="D227" t="s">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="E227" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7067,16 +6983,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="C228" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="D228" t="s">
-        <v>907</v>
+        <v>881</v>
       </c>
       <c r="E228" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7084,16 +7000,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="C229" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="D229" t="s">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="E229" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7101,16 +7017,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="C230" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="D230" t="s">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="E230" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7118,16 +7034,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C231" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="D231" t="s">
-        <v>909</v>
+        <v>881</v>
       </c>
       <c r="E231" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7135,16 +7051,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C232" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="D232" t="s">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="E232" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7152,16 +7068,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C233" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="D233" t="s">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="E233" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7169,16 +7085,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C234" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="D234" t="s">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="E234" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7186,16 +7102,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C235" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="D235" t="s">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="E235" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7203,16 +7119,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C236" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="D236" t="s">
+        <v>882</v>
+      </c>
+      <c r="E236" t="s">
         <v>910</v>
-      </c>
-      <c r="E236" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7220,16 +7136,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C237" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="D237" t="s">
+        <v>882</v>
+      </c>
+      <c r="E237" t="s">
         <v>910</v>
-      </c>
-      <c r="E237" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7237,16 +7153,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C238" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="D238" t="s">
+        <v>882</v>
+      </c>
+      <c r="E238" t="s">
         <v>910</v>
-      </c>
-      <c r="E238" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7254,16 +7170,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C239" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="D239" t="s">
+        <v>882</v>
+      </c>
+      <c r="E239" t="s">
         <v>910</v>
-      </c>
-      <c r="E239" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7271,16 +7187,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C240" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="D240" t="s">
+        <v>883</v>
+      </c>
+      <c r="E240" t="s">
         <v>910</v>
-      </c>
-      <c r="E240" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7288,16 +7204,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C241" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="D241" t="s">
+        <v>884</v>
+      </c>
+      <c r="E241" t="s">
         <v>910</v>
-      </c>
-      <c r="E241" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7305,16 +7221,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C242" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="D242" t="s">
+        <v>884</v>
+      </c>
+      <c r="E242" t="s">
         <v>910</v>
-      </c>
-      <c r="E242" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7322,16 +7238,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C243" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="D243" t="s">
+        <v>884</v>
+      </c>
+      <c r="E243" t="s">
         <v>910</v>
-      </c>
-      <c r="E243" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7339,16 +7255,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C244" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="D244" t="s">
-        <v>911</v>
+        <v>884</v>
       </c>
       <c r="E244" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7356,16 +7272,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C245" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="D245" t="s">
-        <v>912</v>
+        <v>884</v>
       </c>
       <c r="E245" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7373,16 +7289,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C246" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="D246" t="s">
-        <v>912</v>
+        <v>884</v>
       </c>
       <c r="E246" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7390,16 +7306,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C247" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="D247" t="s">
-        <v>912</v>
+        <v>884</v>
       </c>
       <c r="E247" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7407,16 +7323,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C248" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="D248" t="s">
-        <v>912</v>
+        <v>884</v>
       </c>
       <c r="E248" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7424,16 +7340,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C249" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="D249" t="s">
-        <v>912</v>
+        <v>884</v>
       </c>
       <c r="E249" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7441,16 +7357,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C250" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="D250" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="E250" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7458,16 +7374,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C251" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="D251" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="E251" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7475,16 +7391,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C252" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="D252" t="s">
-        <v>912</v>
+        <v>886</v>
       </c>
       <c r="E252" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7492,16 +7408,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C253" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="D253" t="s">
-        <v>912</v>
+        <v>886</v>
       </c>
       <c r="E253" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7509,16 +7425,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C254" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="D254" t="s">
-        <v>912</v>
+        <v>887</v>
       </c>
       <c r="E254" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7526,16 +7442,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C255" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="D255" t="s">
-        <v>913</v>
+        <v>887</v>
       </c>
       <c r="E255" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7543,16 +7459,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C256" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="D256" t="s">
-        <v>913</v>
+        <v>887</v>
       </c>
       <c r="E256" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7560,16 +7476,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C257" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="D257" t="s">
-        <v>914</v>
+        <v>887</v>
       </c>
       <c r="E257" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7577,16 +7493,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C258" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="D258" t="s">
-        <v>914</v>
+        <v>888</v>
       </c>
       <c r="E258" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7594,16 +7510,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C259" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="D259" t="s">
-        <v>915</v>
+        <v>888</v>
       </c>
       <c r="E259" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7611,16 +7527,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C260" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="D260" t="s">
-        <v>915</v>
+        <v>872</v>
       </c>
       <c r="E260" t="s">
-        <v>938</v>
+        <v>911</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7628,16 +7544,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C261" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="D261" t="s">
-        <v>915</v>
+        <v>872</v>
       </c>
       <c r="E261" t="s">
-        <v>938</v>
+        <v>911</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7645,16 +7561,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C262" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="D262" t="s">
-        <v>915</v>
+        <v>872</v>
       </c>
       <c r="E262" t="s">
-        <v>938</v>
+        <v>911</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7662,16 +7578,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C263" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="D263" t="s">
-        <v>916</v>
+        <v>872</v>
       </c>
       <c r="E263" t="s">
-        <v>938</v>
+        <v>911</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7679,16 +7595,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C264" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="D264" t="s">
-        <v>916</v>
+        <v>872</v>
       </c>
       <c r="E264" t="s">
-        <v>938</v>
+        <v>911</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7696,16 +7612,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C265" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="D265" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E265" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7713,16 +7629,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C266" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="D266" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E266" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7730,16 +7646,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C267" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="D267" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E267" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7747,16 +7663,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C268" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="D268" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E268" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7764,16 +7680,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C269" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="D269" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E269" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7781,16 +7697,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C270" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="D270" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E270" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7798,16 +7714,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C271" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="D271" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="E271" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7815,16 +7731,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C272" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="D272" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="E272" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7832,16 +7748,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C273" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="D273" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="E273" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7849,16 +7765,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C274" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="D274" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="E274" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7866,16 +7782,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C275" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="D275" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="E275" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7883,16 +7799,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C276" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="D276" t="s">
-        <v>917</v>
+        <v>889</v>
       </c>
       <c r="E276" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7900,16 +7816,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C277" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="D277" t="s">
-        <v>917</v>
+        <v>889</v>
       </c>
       <c r="E277" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7917,16 +7833,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C278" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="D278" t="s">
-        <v>917</v>
+        <v>889</v>
       </c>
       <c r="E278" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7934,16 +7850,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C279" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="D279" t="s">
-        <v>917</v>
+        <v>889</v>
       </c>
       <c r="E279" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7951,16 +7867,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C280" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="D280" t="s">
-        <v>917</v>
+        <v>889</v>
       </c>
       <c r="E280" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7968,16 +7884,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C281" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="D281" t="s">
-        <v>917</v>
+        <v>889</v>
       </c>
       <c r="E281" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7985,16 +7901,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C282" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="D282" t="s">
-        <v>917</v>
+        <v>889</v>
       </c>
       <c r="E282" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -8002,16 +7918,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="C283" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="D283" t="s">
-        <v>917</v>
+        <v>874</v>
       </c>
       <c r="E283" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8019,16 +7935,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="C284" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="D284" t="s">
-        <v>917</v>
+        <v>874</v>
       </c>
       <c r="E284" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -8036,16 +7952,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="C285" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="D285" t="s">
-        <v>917</v>
+        <v>874</v>
       </c>
       <c r="E285" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8053,16 +7969,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="C286" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="D286" t="s">
-        <v>917</v>
+        <v>875</v>
       </c>
       <c r="E286" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8070,16 +7986,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="C287" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="D287" t="s">
-        <v>917</v>
+        <v>875</v>
       </c>
       <c r="E287" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8087,16 +8003,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C288" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="D288" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
       <c r="E288" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8104,16 +8020,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C289" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="D289" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
       <c r="E289" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8121,16 +8037,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C290" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="D290" t="s">
-        <v>902</v>
+        <v>441</v>
       </c>
       <c r="E290" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8138,16 +8054,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C291" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="D291" t="s">
-        <v>907</v>
+        <v>441</v>
       </c>
       <c r="E291" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8155,16 +8071,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C292" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="D292" t="s">
-        <v>903</v>
+        <v>441</v>
       </c>
       <c r="E292" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8172,16 +8088,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C293" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="D293" t="s">
-        <v>903</v>
+        <v>441</v>
       </c>
       <c r="E293" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8189,16 +8105,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C294" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="D294" t="s">
-        <v>910</v>
+        <v>441</v>
       </c>
       <c r="E294" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8206,16 +8122,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C295" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="D295" t="s">
-        <v>910</v>
+        <v>441</v>
       </c>
       <c r="E295" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8223,16 +8139,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C296" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="D296" t="s">
-        <v>455</v>
+        <v>890</v>
       </c>
       <c r="E296" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8240,16 +8156,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C297" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="D297" t="s">
-        <v>455</v>
+        <v>890</v>
       </c>
       <c r="E297" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8257,16 +8173,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C298" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="D298" t="s">
-        <v>455</v>
+        <v>890</v>
       </c>
       <c r="E298" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8274,16 +8190,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C299" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="D299" t="s">
-        <v>455</v>
+        <v>890</v>
       </c>
       <c r="E299" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8291,16 +8207,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C300" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="D300" t="s">
-        <v>455</v>
+        <v>890</v>
       </c>
       <c r="E300" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8308,16 +8224,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="C301" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="D301" t="s">
-        <v>455</v>
+        <v>891</v>
       </c>
       <c r="E301" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8325,16 +8241,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="C302" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="D302" t="s">
-        <v>918</v>
+        <v>892</v>
       </c>
       <c r="E302" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8342,16 +8258,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="C303" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="D303" t="s">
-        <v>918</v>
+        <v>892</v>
       </c>
       <c r="E303" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8359,16 +8275,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C304" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="D304" t="s">
-        <v>918</v>
+        <v>893</v>
       </c>
       <c r="E304" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8376,16 +8292,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C305" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="D305" t="s">
-        <v>918</v>
+        <v>893</v>
       </c>
       <c r="E305" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8393,16 +8309,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C306" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="D306" t="s">
-        <v>918</v>
+        <v>893</v>
       </c>
       <c r="E306" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8410,16 +8326,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C307" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="D307" t="s">
-        <v>919</v>
+        <v>893</v>
       </c>
       <c r="E307" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8427,16 +8343,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C308" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="D308" t="s">
-        <v>920</v>
+        <v>893</v>
       </c>
       <c r="E308" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8444,16 +8360,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C309" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="D309" t="s">
-        <v>920</v>
+        <v>893</v>
       </c>
       <c r="E309" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8461,16 +8377,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C310" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="D310" t="s">
-        <v>921</v>
+        <v>893</v>
       </c>
       <c r="E310" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8478,16 +8394,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C311" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="D311" t="s">
-        <v>921</v>
+        <v>893</v>
       </c>
       <c r="E311" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8495,16 +8411,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C312" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="D312" t="s">
-        <v>921</v>
+        <v>893</v>
       </c>
       <c r="E312" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8512,16 +8428,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C313" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="D313" t="s">
-        <v>921</v>
+        <v>893</v>
       </c>
       <c r="E313" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8529,16 +8445,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C314" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="D314" t="s">
-        <v>921</v>
+        <v>893</v>
       </c>
       <c r="E314" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8546,16 +8462,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C315" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="D315" t="s">
-        <v>921</v>
+        <v>893</v>
       </c>
       <c r="E315" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8563,16 +8479,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="C316" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="D316" t="s">
-        <v>921</v>
+        <v>877</v>
       </c>
       <c r="E316" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8580,16 +8496,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C317" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="D317" t="s">
-        <v>921</v>
+        <v>894</v>
       </c>
       <c r="E317" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8597,16 +8513,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C318" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="D318" t="s">
-        <v>921</v>
+        <v>894</v>
       </c>
       <c r="E318" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8614,16 +8530,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C319" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="D319" t="s">
-        <v>921</v>
+        <v>894</v>
       </c>
       <c r="E319" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8631,16 +8547,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C320" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="D320" t="s">
-        <v>921</v>
+        <v>894</v>
       </c>
       <c r="E320" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8648,16 +8564,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C321" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="D321" t="s">
-        <v>921</v>
+        <v>894</v>
       </c>
       <c r="E321" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8665,16 +8581,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C322" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="D322" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="E322" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8682,16 +8598,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="C323" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="D323" t="s">
-        <v>922</v>
+        <v>894</v>
       </c>
       <c r="E323" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8699,16 +8615,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="C324" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="D324" t="s">
-        <v>922</v>
+        <v>894</v>
       </c>
       <c r="E324" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8716,16 +8632,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="C325" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="D325" t="s">
-        <v>922</v>
+        <v>894</v>
       </c>
       <c r="E325" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8733,16 +8649,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C326" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="D326" t="s">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="E326" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8750,16 +8666,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C327" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="D327" t="s">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="E327" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8767,16 +8683,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C328" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="D328" t="s">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="E328" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8784,16 +8700,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C329" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="D329" t="s">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="E329" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8801,16 +8717,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C330" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="D330" t="s">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="E330" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8818,16 +8734,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C331" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="D331" t="s">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="E331" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8835,16 +8751,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C332" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="D332" t="s">
-        <v>922</v>
+        <v>872</v>
       </c>
       <c r="E332" t="s">
-        <v>939</v>
+        <v>912</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8852,16 +8768,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C333" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="D333" t="s">
-        <v>922</v>
+        <v>872</v>
       </c>
       <c r="E333" t="s">
-        <v>939</v>
+        <v>912</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8869,16 +8785,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C334" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="D334" t="s">
-        <v>923</v>
+        <v>872</v>
       </c>
       <c r="E334" t="s">
-        <v>939</v>
+        <v>912</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8886,16 +8802,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C335" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="D335" t="s">
-        <v>923</v>
+        <v>872</v>
       </c>
       <c r="E335" t="s">
-        <v>939</v>
+        <v>912</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8903,16 +8819,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C336" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="D336" t="s">
-        <v>923</v>
+        <v>872</v>
       </c>
       <c r="E336" t="s">
-        <v>939</v>
+        <v>912</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8920,16 +8836,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C337" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="D337" t="s">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E337" t="s">
-        <v>939</v>
+        <v>912</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8937,16 +8853,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C338" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="D338" t="s">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E338" t="s">
-        <v>939</v>
+        <v>912</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8954,16 +8870,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C339" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="D339" t="s">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E339" t="s">
-        <v>939</v>
+        <v>912</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8971,16 +8887,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C340" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="D340" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="E340" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8988,16 +8904,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C341" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="D341" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="E341" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -9005,16 +8921,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C342" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="D342" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="E342" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -9022,16 +8938,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C343" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="D343" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E343" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9039,16 +8955,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C344" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="D344" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E344" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9056,16 +8972,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C345" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="D345" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E345" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9073,16 +8989,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C346" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="D346" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
       <c r="E346" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9090,16 +9006,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C347" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="D347" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
       <c r="E347" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9107,16 +9023,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C348" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="D348" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
       <c r="E348" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9124,16 +9040,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C349" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="D349" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
       <c r="E349" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9141,16 +9057,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C350" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="D350" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
       <c r="E350" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9158,16 +9074,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C351" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="D351" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
       <c r="E351" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9175,16 +9091,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C352" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="D352" t="s">
-        <v>925</v>
+        <v>899</v>
       </c>
       <c r="E352" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9192,16 +9108,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C353" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="D353" t="s">
-        <v>925</v>
+        <v>899</v>
       </c>
       <c r="E353" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9209,16 +9125,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C354" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="D354" t="s">
-        <v>925</v>
+        <v>899</v>
       </c>
       <c r="E354" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9226,16 +9142,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C355" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="D355" t="s">
-        <v>926</v>
+        <v>899</v>
       </c>
       <c r="E355" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9243,16 +9159,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C356" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="D356" t="s">
-        <v>926</v>
+        <v>874</v>
       </c>
       <c r="E356" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9260,16 +9176,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C357" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D357" t="s">
-        <v>926</v>
+        <v>875</v>
       </c>
       <c r="E357" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9277,16 +9193,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C358" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D358" t="s">
-        <v>926</v>
+        <v>884</v>
       </c>
       <c r="E358" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9294,16 +9210,16 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C359" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="D359" t="s">
-        <v>926</v>
+        <v>441</v>
       </c>
       <c r="E359" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9311,16 +9227,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C360" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="D360" t="s">
-        <v>926</v>
+        <v>441</v>
       </c>
       <c r="E360" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9328,16 +9244,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C361" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="D361" t="s">
-        <v>927</v>
+        <v>441</v>
       </c>
       <c r="E361" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9345,16 +9261,16 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C362" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="D362" t="s">
-        <v>927</v>
+        <v>441</v>
       </c>
       <c r="E362" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9362,16 +9278,16 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C363" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="D363" t="s">
-        <v>927</v>
+        <v>441</v>
       </c>
       <c r="E363" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9379,16 +9295,16 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C364" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="D364" t="s">
-        <v>927</v>
+        <v>441</v>
       </c>
       <c r="E364" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9396,16 +9312,16 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C365" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="D365" t="s">
-        <v>902</v>
+        <v>441</v>
       </c>
       <c r="E365" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9413,16 +9329,16 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C366" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="D366" t="s">
-        <v>902</v>
+        <v>441</v>
       </c>
       <c r="E366" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9430,16 +9346,16 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C367" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="D367" t="s">
-        <v>902</v>
+        <v>441</v>
       </c>
       <c r="E367" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9447,16 +9363,16 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C368" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="D368" t="s">
-        <v>903</v>
+        <v>441</v>
       </c>
       <c r="E368" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9464,16 +9380,16 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C369" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="D369" t="s">
-        <v>910</v>
+        <v>441</v>
       </c>
       <c r="E369" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9481,16 +9397,16 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C370" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="D370" t="s">
+        <v>441</v>
+      </c>
+      <c r="E370" t="s">
         <v>912</v>
-      </c>
-      <c r="E370" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9498,16 +9414,16 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="C371" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="D371" t="s">
-        <v>455</v>
+        <v>900</v>
       </c>
       <c r="E371" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9515,16 +9431,16 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="C372" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="D372" t="s">
-        <v>455</v>
+        <v>900</v>
       </c>
       <c r="E372" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9532,16 +9448,16 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="C373" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="D373" t="s">
-        <v>455</v>
+        <v>900</v>
       </c>
       <c r="E373" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9549,16 +9465,16 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="C374" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="D374" t="s">
-        <v>455</v>
+        <v>900</v>
       </c>
       <c r="E374" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9566,16 +9482,16 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="C375" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="D375" t="s">
-        <v>455</v>
+        <v>900</v>
       </c>
       <c r="E375" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9583,16 +9499,16 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="C376" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="D376" t="s">
-        <v>455</v>
+        <v>900</v>
       </c>
       <c r="E376" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9600,16 +9516,16 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C377" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="D377" t="s">
-        <v>455</v>
+        <v>894</v>
       </c>
       <c r="E377" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9617,16 +9533,16 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C378" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="D378" t="s">
-        <v>455</v>
+        <v>901</v>
       </c>
       <c r="E378" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9634,16 +9550,16 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C379" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="D379" t="s">
-        <v>455</v>
+        <v>901</v>
       </c>
       <c r="E379" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9651,16 +9567,16 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C380" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="D380" t="s">
-        <v>455</v>
+        <v>901</v>
       </c>
       <c r="E380" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9668,16 +9584,16 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="C381" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="D381" t="s">
-        <v>455</v>
+        <v>902</v>
       </c>
       <c r="E381" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9685,16 +9601,16 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="C382" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="D382" t="s">
-        <v>455</v>
+        <v>902</v>
       </c>
       <c r="E382" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9702,16 +9618,16 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C383" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="D383" t="s">
-        <v>928</v>
+        <v>872</v>
       </c>
       <c r="E383" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9719,16 +9635,16 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C384" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="D384" t="s">
-        <v>928</v>
+        <v>872</v>
       </c>
       <c r="E384" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9736,16 +9652,16 @@
         <v>388</v>
       </c>
       <c r="B385" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C385" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="D385" t="s">
-        <v>928</v>
+        <v>874</v>
       </c>
       <c r="E385" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9753,16 +9669,16 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C386" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="D386" t="s">
-        <v>928</v>
+        <v>874</v>
       </c>
       <c r="E386" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9770,16 +9686,16 @@
         <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C387" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="D387" t="s">
-        <v>928</v>
+        <v>874</v>
       </c>
       <c r="E387" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9787,16 +9703,16 @@
         <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C388" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="D388" t="s">
-        <v>928</v>
+        <v>875</v>
       </c>
       <c r="E388" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9804,16 +9720,16 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="C389" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="D389" t="s">
-        <v>922</v>
+        <v>875</v>
       </c>
       <c r="E389" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9821,16 +9737,16 @@
         <v>393</v>
       </c>
       <c r="B390" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C390" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="D390" t="s">
-        <v>929</v>
+        <v>903</v>
       </c>
       <c r="E390" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9838,16 +9754,16 @@
         <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C391" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="D391" t="s">
-        <v>929</v>
+        <v>903</v>
       </c>
       <c r="E391" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9855,16 +9771,16 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C392" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="D392" t="s">
-        <v>929</v>
+        <v>903</v>
       </c>
       <c r="E392" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9872,16 +9788,16 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C393" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="D393" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="E393" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9889,16 +9805,16 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C394" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="D394" t="s">
-        <v>930</v>
+        <v>904</v>
       </c>
       <c r="E394" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9906,16 +9822,16 @@
         <v>398</v>
       </c>
       <c r="B395" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C395" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="D395" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="E395" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9923,16 +9839,16 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C396" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="D396" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="E396" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9940,16 +9856,16 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C397" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="D397" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="E397" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -9957,16 +9873,16 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C398" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="D398" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="E398" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -9974,16 +9890,16 @@
         <v>402</v>
       </c>
       <c r="B399" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C399" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="D399" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="E399" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -9991,16 +9907,16 @@
         <v>403</v>
       </c>
       <c r="B400" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C400" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="D400" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="E400" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -10008,16 +9924,16 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C401" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="D401" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="E401" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10025,16 +9941,16 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C402" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="D402" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="E402" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10042,16 +9958,16 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C403" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="D403" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="E403" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10059,16 +9975,16 @@
         <v>407</v>
       </c>
       <c r="B404" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C404" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="D404" t="s">
-        <v>931</v>
+        <v>907</v>
       </c>
       <c r="E404" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10076,16 +9992,16 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C405" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="D405" t="s">
-        <v>931</v>
+        <v>907</v>
       </c>
       <c r="E405" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10093,16 +10009,16 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C406" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="D406" t="s">
-        <v>931</v>
+        <v>907</v>
       </c>
       <c r="E406" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10110,16 +10026,16 @@
         <v>410</v>
       </c>
       <c r="B407" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C407" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="D407" t="s">
-        <v>931</v>
+        <v>907</v>
       </c>
       <c r="E407" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10127,16 +10043,16 @@
         <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C408" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="D408" t="s">
-        <v>932</v>
+        <v>907</v>
       </c>
       <c r="E408" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10144,16 +10060,16 @@
         <v>412</v>
       </c>
       <c r="B409" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C409" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="D409" t="s">
+        <v>907</v>
+      </c>
+      <c r="E409" t="s">
         <v>913</v>
-      </c>
-      <c r="E409" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10161,16 +10077,16 @@
         <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C410" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="D410" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="E410" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10178,16 +10094,16 @@
         <v>414</v>
       </c>
       <c r="B411" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C411" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="D411" t="s">
-        <v>934</v>
+        <v>907</v>
       </c>
       <c r="E411" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10195,16 +10111,16 @@
         <v>415</v>
       </c>
       <c r="B412" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C412" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="D412" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E412" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10212,16 +10128,16 @@
         <v>416</v>
       </c>
       <c r="B413" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C413" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="D413" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E413" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10229,16 +10145,16 @@
         <v>417</v>
       </c>
       <c r="B414" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C414" t="s">
-        <v>868</v>
+        <v>464</v>
       </c>
       <c r="D414" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E414" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10246,16 +10162,16 @@
         <v>418</v>
       </c>
       <c r="B415" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C415" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="D415" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E415" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10263,16 +10179,16 @@
         <v>419</v>
       </c>
       <c r="B416" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C416" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="D416" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E416" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10280,16 +10196,16 @@
         <v>420</v>
       </c>
       <c r="B417" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C417" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="D417" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E417" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10297,16 +10213,16 @@
         <v>421</v>
       </c>
       <c r="B418" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C418" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="D418" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E418" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10314,16 +10230,16 @@
         <v>422</v>
       </c>
       <c r="B419" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C419" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="D419" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E419" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10331,16 +10247,16 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C420" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="D420" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E420" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10348,16 +10264,16 @@
         <v>424</v>
       </c>
       <c r="B421" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C421" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="D421" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E421" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10365,16 +10281,16 @@
         <v>425</v>
       </c>
       <c r="B422" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C422" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="D422" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E422" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10382,16 +10298,16 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C423" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="D423" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E423" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10399,16 +10315,16 @@
         <v>427</v>
       </c>
       <c r="B424" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C424" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="D424" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E424" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10416,16 +10332,16 @@
         <v>428</v>
       </c>
       <c r="B425" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C425" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
       <c r="D425" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E425" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10433,16 +10349,16 @@
         <v>429</v>
       </c>
       <c r="B426" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C426" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="D426" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E426" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10450,16 +10366,16 @@
         <v>430</v>
       </c>
       <c r="B427" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C427" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="D427" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E427" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10467,16 +10383,16 @@
         <v>431</v>
       </c>
       <c r="B428" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C428" t="s">
-        <v>478</v>
+        <v>867</v>
       </c>
       <c r="D428" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E428" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10484,16 +10400,16 @@
         <v>432</v>
       </c>
       <c r="B429" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C429" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="D429" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E429" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10501,16 +10417,16 @@
         <v>433</v>
       </c>
       <c r="B430" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C430" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="D430" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E430" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10518,16 +10434,16 @@
         <v>434</v>
       </c>
       <c r="B431" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C431" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="D431" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E431" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10535,254 +10451,16 @@
         <v>435</v>
       </c>
       <c r="B432" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C432" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="D432" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="E432" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
-      <c r="A433" t="s">
-        <v>436</v>
-      </c>
-      <c r="B433" t="s">
-        <v>459</v>
-      </c>
-      <c r="C433" t="s">
-        <v>886</v>
-      </c>
-      <c r="D433" t="s">
-        <v>935</v>
-      </c>
-      <c r="E433" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
-      <c r="A434" t="s">
-        <v>437</v>
-      </c>
-      <c r="B434" t="s">
-        <v>459</v>
-      </c>
-      <c r="C434" t="s">
-        <v>887</v>
-      </c>
-      <c r="D434" t="s">
-        <v>935</v>
-      </c>
-      <c r="E434" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
-      <c r="A435" t="s">
-        <v>438</v>
-      </c>
-      <c r="B435" t="s">
-        <v>459</v>
-      </c>
-      <c r="C435" t="s">
-        <v>888</v>
-      </c>
-      <c r="D435" t="s">
-        <v>935</v>
-      </c>
-      <c r="E435" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
-      <c r="A436" t="s">
-        <v>439</v>
-      </c>
-      <c r="B436" t="s">
-        <v>459</v>
-      </c>
-      <c r="C436" t="s">
-        <v>889</v>
-      </c>
-      <c r="D436" t="s">
-        <v>935</v>
-      </c>
-      <c r="E436" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
-      <c r="A437" t="s">
-        <v>440</v>
-      </c>
-      <c r="B437" t="s">
-        <v>459</v>
-      </c>
-      <c r="C437" t="s">
-        <v>890</v>
-      </c>
-      <c r="D437" t="s">
-        <v>935</v>
-      </c>
-      <c r="E437" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
-      <c r="A438" t="s">
-        <v>441</v>
-      </c>
-      <c r="B438" t="s">
-        <v>459</v>
-      </c>
-      <c r="C438" t="s">
-        <v>891</v>
-      </c>
-      <c r="D438" t="s">
-        <v>935</v>
-      </c>
-      <c r="E438" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
-      <c r="A439" t="s">
-        <v>442</v>
-      </c>
-      <c r="B439" t="s">
-        <v>459</v>
-      </c>
-      <c r="C439" t="s">
-        <v>892</v>
-      </c>
-      <c r="D439" t="s">
-        <v>935</v>
-      </c>
-      <c r="E439" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
-      <c r="A440" t="s">
-        <v>443</v>
-      </c>
-      <c r="B440" t="s">
-        <v>459</v>
-      </c>
-      <c r="C440" t="s">
-        <v>893</v>
-      </c>
-      <c r="D440" t="s">
-        <v>935</v>
-      </c>
-      <c r="E440" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
-      <c r="A441" t="s">
-        <v>444</v>
-      </c>
-      <c r="B441" t="s">
-        <v>459</v>
-      </c>
-      <c r="C441" t="s">
-        <v>894</v>
-      </c>
-      <c r="D441" t="s">
-        <v>935</v>
-      </c>
-      <c r="E441" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
-      <c r="A442" t="s">
-        <v>445</v>
-      </c>
-      <c r="B442" t="s">
-        <v>459</v>
-      </c>
-      <c r="C442" t="s">
-        <v>895</v>
-      </c>
-      <c r="D442" t="s">
-        <v>935</v>
-      </c>
-      <c r="E442" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
-      <c r="A443" t="s">
-        <v>446</v>
-      </c>
-      <c r="B443" t="s">
-        <v>459</v>
-      </c>
-      <c r="C443" t="s">
-        <v>896</v>
-      </c>
-      <c r="D443" t="s">
-        <v>935</v>
-      </c>
-      <c r="E443" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
-      <c r="A444" t="s">
-        <v>447</v>
-      </c>
-      <c r="B444" t="s">
-        <v>459</v>
-      </c>
-      <c r="C444" t="s">
-        <v>897</v>
-      </c>
-      <c r="D444" t="s">
-        <v>935</v>
-      </c>
-      <c r="E444" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
-      <c r="A445" t="s">
-        <v>448</v>
-      </c>
-      <c r="B445" t="s">
-        <v>459</v>
-      </c>
-      <c r="C445" t="s">
-        <v>898</v>
-      </c>
-      <c r="D445" t="s">
-        <v>935</v>
-      </c>
-      <c r="E445" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
-      <c r="A446" t="s">
-        <v>449</v>
-      </c>
-      <c r="B446" t="s">
-        <v>459</v>
-      </c>
-      <c r="C446" t="s">
-        <v>899</v>
-      </c>
-      <c r="D446" t="s">
-        <v>935</v>
-      </c>
-      <c r="E446" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class7.xlsx
+++ b/pali-class/vocab/vocab-class7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="815">
   <si>
     <t>Pāli1</t>
   </si>
@@ -37,7 +37,7 @@
     <t>magga 2</t>
   </si>
   <si>
-    <t>dhamma 7</t>
+    <t>dhamma 06</t>
   </si>
   <si>
     <t>loka 1</t>
@@ -64,9 +64,6 @@
     <t>danta 2</t>
   </si>
   <si>
-    <t>nakha</t>
-  </si>
-  <si>
     <t>loma</t>
   </si>
   <si>
@@ -76,7 +73,7 @@
     <t>vinaya 1</t>
   </si>
   <si>
-    <t>dhamma 1</t>
+    <t>dhamma 03</t>
   </si>
   <si>
     <t>pariyāya 4</t>
@@ -139,7 +136,7 @@
     <t>purisa 1</t>
   </si>
   <si>
-    <t>attha 1</t>
+    <t>attha 01</t>
   </si>
   <si>
     <t>sāriputta</t>
@@ -190,7 +187,7 @@
     <t>hattha 1</t>
   </si>
   <si>
-    <t>satta 1</t>
+    <t>satta 2</t>
   </si>
   <si>
     <t>niraya</t>
@@ -226,7 +223,7 @@
     <t>rāga 1</t>
   </si>
   <si>
-    <t>bheda 1</t>
+    <t>bheda 3</t>
   </si>
   <si>
     <t>khaya</t>
@@ -241,7 +238,7 @@
     <t>sekha</t>
   </si>
   <si>
-    <t>dhamma 5</t>
+    <t>dhamma 02</t>
   </si>
   <si>
     <t>samatha 1</t>
@@ -346,13 +343,13 @@
     <t>uppāda</t>
   </si>
   <si>
-    <t>dhamma 2</t>
+    <t>dhamma 05</t>
   </si>
   <si>
     <t>moha</t>
   </si>
   <si>
-    <t>bāla 4</t>
+    <t>bāla 2</t>
   </si>
   <si>
     <t>kāya 1</t>
@@ -367,7 +364,7 @@
     <t>cāga 2</t>
   </si>
   <si>
-    <t>attha 5</t>
+    <t>attha 05</t>
   </si>
   <si>
     <t>abyāpāda</t>
@@ -406,7 +403,7 @@
     <t>thera 2</t>
   </si>
   <si>
-    <t>dhamma 9</t>
+    <t>dhamma 09</t>
   </si>
   <si>
     <t>nara</t>
@@ -511,12 +508,6 @@
     <t>passati 2</t>
   </si>
   <si>
-    <t>tasati 1</t>
-  </si>
-  <si>
-    <t>āmantayati 1</t>
-  </si>
-  <si>
     <t>sikkhati</t>
   </si>
   <si>
@@ -577,9 +568,6 @@
     <t>paṭisaṃvedeti</t>
   </si>
   <si>
-    <t>paṭiggaheti</t>
-  </si>
-  <si>
     <t>vedeti 1</t>
   </si>
   <si>
@@ -607,9 +595,6 @@
     <t>paṭijānāti 3</t>
   </si>
   <si>
-    <t>jināti 2</t>
-  </si>
-  <si>
     <t>dadāti</t>
   </si>
   <si>
@@ -625,18 +610,9 @@
     <t>pāpuṇāti 1</t>
   </si>
   <si>
-    <t>mugga</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
-    <t>kāraka 2</t>
-  </si>
-  <si>
-    <t>dhaja 1</t>
-  </si>
-  <si>
     <t>kassaka</t>
   </si>
   <si>
@@ -688,15 +664,12 @@
     <t>asi 2</t>
   </si>
   <si>
-    <t>attha 8</t>
+    <t>attha 12</t>
   </si>
   <si>
     <t>amhi</t>
   </si>
   <si>
-    <t>ajesi</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -706,15 +679,9 @@
     <t>pāturahosi</t>
   </si>
   <si>
-    <t>homa 3</t>
-  </si>
-  <si>
     <t>hotha</t>
   </si>
   <si>
-    <t>hontu</t>
-  </si>
-  <si>
     <t>hotu</t>
   </si>
   <si>
@@ -745,9 +712,6 @@
     <t>nisīdi</t>
   </si>
   <si>
-    <t>agacchi</t>
-  </si>
-  <si>
     <t>muni</t>
   </si>
   <si>
@@ -808,15 +772,9 @@
     <t>taca 1</t>
   </si>
   <si>
-    <t>kāra 2</t>
-  </si>
-  <si>
     <t>mada 1</t>
   </si>
   <si>
-    <t>dava</t>
-  </si>
-  <si>
     <t>ājīva</t>
   </si>
   <si>
@@ -826,15 +784,6 @@
     <t>adhamma 2</t>
   </si>
   <si>
-    <t>saṃyoga 2</t>
-  </si>
-  <si>
-    <t>visaṃyoga</t>
-  </si>
-  <si>
-    <t>akkosa</t>
-  </si>
-  <si>
     <t>abhisamaya</t>
   </si>
   <si>
@@ -844,9 +793,6 @@
     <t>mayā 1</t>
   </si>
   <si>
-    <t>amhesu</t>
-  </si>
-  <si>
     <t>no 4</t>
   </si>
   <si>
@@ -856,7 +802,7 @@
     <t>mayaṃ</t>
   </si>
   <si>
-    <t>me 4</t>
+    <t>me 5</t>
   </si>
   <si>
     <t>no 7</t>
@@ -874,27 +820,12 @@
     <t>me 3</t>
   </si>
   <si>
-    <t>khaṇati</t>
-  </si>
-  <si>
-    <t>okirati</t>
-  </si>
-  <si>
     <t>sobhati</t>
   </si>
   <si>
-    <t>ḍeti</t>
-  </si>
-  <si>
     <t>neti 2</t>
   </si>
   <si>
-    <t>paridevi</t>
-  </si>
-  <si>
-    <t>soci</t>
-  </si>
-  <si>
     <t>no 3</t>
   </si>
   <si>
@@ -961,7 +892,7 @@
     <t>tvaṃ</t>
   </si>
   <si>
-    <t>te 4</t>
+    <t>te 6</t>
   </si>
   <si>
     <t>tuvaṃ 1</t>
@@ -1021,30 +952,15 @@
     <t>pakkhī</t>
   </si>
   <si>
-    <t>upassaya 1</t>
-  </si>
-  <si>
     <t>saṅgaha 1</t>
   </si>
   <si>
-    <t>balibadda</t>
-  </si>
-  <si>
-    <t>saṅgara 1</t>
-  </si>
-  <si>
-    <t>vikappa 1</t>
-  </si>
-  <si>
     <t>sīlavant</t>
   </si>
   <si>
     <t>paññavant</t>
   </si>
   <si>
-    <t>hirimant</t>
-  </si>
-  <si>
     <t>balavant</t>
   </si>
   <si>
@@ -1069,24 +985,12 @@
     <t>bhāsitar</t>
   </si>
   <si>
-    <t>pavattar</t>
-  </si>
-  <si>
-    <t>āgantar 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamitar</t>
-  </si>
-  <si>
     <t>dātar</t>
   </si>
   <si>
     <t>pitar</t>
   </si>
   <si>
-    <t>saṅghapitar</t>
-  </si>
-  <si>
     <t>bhātar</t>
   </si>
   <si>
@@ -1096,12 +1000,6 @@
     <t>paricarati 3</t>
   </si>
   <si>
-    <t>acchādeti 1</t>
-  </si>
-  <si>
-    <t>nidhi</t>
-  </si>
-  <si>
     <t>vā 1</t>
   </si>
   <si>
@@ -1114,9 +1012,6 @@
     <t>sadā</t>
   </si>
   <si>
-    <t>ratto</t>
-  </si>
-  <si>
     <t>ca 1</t>
   </si>
   <si>
@@ -1129,9 +1024,6 @@
     <t>pure 2</t>
   </si>
   <si>
-    <t>suve</t>
-  </si>
-  <si>
     <t>ajja</t>
   </si>
   <si>
@@ -1141,12 +1033,6 @@
     <t>garu 5</t>
   </si>
   <si>
-    <t>bāhu</t>
-  </si>
-  <si>
-    <t>nahāru</t>
-  </si>
-  <si>
     <t>bhikkhu</t>
   </si>
   <si>
@@ -1180,21 +1066,9 @@
     <t>paṭighāta</t>
   </si>
   <si>
-    <t>obhāsati</t>
-  </si>
-  <si>
     <t>nahāyati</t>
   </si>
   <si>
-    <t>nappaṭikaṅkhati</t>
-  </si>
-  <si>
-    <t>ulloketi</t>
-  </si>
-  <si>
-    <t>anuviloketi</t>
-  </si>
-  <si>
     <t>passeyya 2</t>
   </si>
   <si>
@@ -1219,9 +1093,6 @@
     <t>assa 3</t>
   </si>
   <si>
-    <t>sivathikā</t>
-  </si>
-  <si>
     <t>sacchikiriyā</t>
   </si>
   <si>
@@ -1237,9 +1108,6 @@
     <t>disā 1</t>
   </si>
   <si>
-    <t>pūjā</t>
-  </si>
-  <si>
     <t>abhijjhā</t>
   </si>
   <si>
@@ -1270,12 +1138,6 @@
     <t>devatā</t>
   </si>
   <si>
-    <t>assavanatā</t>
-  </si>
-  <si>
-    <t>kusinārā</t>
-  </si>
-  <si>
     <t>avijjā</t>
   </si>
   <si>
@@ -1291,21 +1153,12 @@
     <t>upekkhā</t>
   </si>
   <si>
-    <t>karuṇā</t>
-  </si>
-  <si>
     <t>ṭīkā</t>
   </si>
   <si>
     <t>nibbidā</t>
   </si>
   <si>
-    <t>pavāraṇā 1</t>
-  </si>
-  <si>
-    <t>muditā</t>
-  </si>
-  <si>
     <t>mettā</t>
   </si>
   <si>
@@ -1315,9 +1168,6 @@
     <t>saddhā 1</t>
   </si>
   <si>
-    <t>sīmā 2</t>
-  </si>
-  <si>
     <t>vijjā</t>
   </si>
   <si>
@@ -1387,9 +1237,6 @@
     <t>tooth; tusk; fang</t>
   </si>
   <si>
-    <t>a nail; a claw</t>
-  </si>
-  <si>
     <t>the hair on the body; pelt</t>
   </si>
   <si>
@@ -1429,7 +1276,7 @@
     <t>being; existence; becoming</t>
   </si>
   <si>
-    <t>rainy season; rain</t>
+    <t>rainy season; monsoon</t>
   </si>
   <si>
     <t>house; dwelling place; residence</t>
@@ -1669,7 +1516,7 @@
     <t>arising; appearing; coming into being</t>
   </si>
   <si>
-    <t>state of mind</t>
+    <t>state of mind; mental states</t>
   </si>
   <si>
     <t>stupidity; delusion; illusion; confusion</t>
@@ -1834,12 +1681,6 @@
     <t>understands; gets; lit. sees</t>
   </si>
   <si>
-    <t>is afraid (of); fears</t>
-  </si>
-  <si>
-    <t>adresses; speaks to; tells</t>
-  </si>
-  <si>
     <t>learns; trains; practises</t>
   </si>
   <si>
@@ -1900,36 +1741,33 @@
     <t>undergoes; feels; experiences</t>
   </si>
   <si>
+    <t>feels; experiences; senses</t>
+  </si>
+  <si>
+    <t>bears in mind; keeps in mind; remembers</t>
+  </si>
+  <si>
+    <t>gives; offers; hands</t>
+  </si>
+  <si>
+    <t>come; come here!</t>
+  </si>
+  <si>
+    <t>listens; hears</t>
+  </si>
+  <si>
+    <t>he must hear! may he listen!</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>feels; experiences; senses</t>
-  </si>
-  <si>
-    <t>bears in mind; keeps in mind; remembers</t>
-  </si>
-  <si>
-    <t>gives; offers; hands</t>
-  </si>
-  <si>
-    <t>come; come here!</t>
-  </si>
-  <si>
-    <t>listens; hears</t>
-  </si>
-  <si>
-    <t>he must hear! may he listen!</t>
-  </si>
-  <si>
     <t>comes to mind; occurs (to); appears; becomes evident</t>
   </si>
   <si>
     <t>makes the claim (of); claims (to be)</t>
   </si>
   <si>
-    <t>surpasses; beats; wins (over)</t>
-  </si>
-  <si>
     <t>gives; offers; donates</t>
   </si>
   <si>
@@ -1945,18 +1783,9 @@
     <t>reaches; arrives (at); attains; experiences</t>
   </si>
   <si>
-    <t>mung beans</t>
-  </si>
-  <si>
     <t>merchant; trader</t>
   </si>
   <si>
-    <t>doer; maker; creator; builder</t>
-  </si>
-  <si>
-    <t>flag; banner; symbol; emblem; lit. flapping (on the wind)</t>
-  </si>
-  <si>
     <t>farmer; ploughman</t>
   </si>
   <si>
@@ -2014,9 +1843,6 @@
     <t>I am</t>
   </si>
   <si>
-    <t>conquered; defeated</t>
-  </si>
-  <si>
     <t>addressed; said (to)</t>
   </si>
   <si>
@@ -2029,9 +1855,6 @@
     <t>may you all be! you all must be!</t>
   </si>
   <si>
-    <t>may they be! they must be!</t>
-  </si>
-  <si>
     <t>may it be! he must be</t>
   </si>
   <si>
@@ -2062,9 +1885,6 @@
     <t>sat (on); sat down (in)</t>
   </si>
   <si>
-    <t>went; travelled</t>
-  </si>
-  <si>
     <t>monk; sage; hermit; holy man</t>
   </si>
   <si>
@@ -2125,15 +1945,9 @@
     <t>skin</t>
   </si>
   <si>
-    <t>deed; action; service</t>
-  </si>
-  <si>
     <t>excess; pleasure; intoxication</t>
   </si>
   <si>
-    <t>pleasure; fun; play; sport</t>
-  </si>
-  <si>
     <t>livelihood; way of earning a living</t>
   </si>
   <si>
@@ -2143,15 +1957,6 @@
     <t>false teaching; against the teaching</t>
   </si>
   <si>
-    <t>attachment; association; constraint</t>
-  </si>
-  <si>
-    <t>detachment; separation; unconstraint</t>
-  </si>
-  <si>
-    <t>verbal abuse; insult</t>
-  </si>
-  <si>
     <t>complete comprehension (of); total understanding (of); lit. arriving</t>
   </si>
   <si>
@@ -2161,9 +1966,6 @@
     <t>by me; with me</t>
   </si>
   <si>
-    <t>in us; among us</t>
-  </si>
-  <si>
     <t>us (object)</t>
   </si>
   <si>
@@ -2188,27 +1990,12 @@
     <t>for me; to me</t>
   </si>
   <si>
-    <t>digs; uproots; destroys</t>
-  </si>
-  <si>
-    <t>sprinkles; scatters down (onto)</t>
-  </si>
-  <si>
     <t>shines; radiates; looks beautiful</t>
   </si>
   <si>
-    <t>flies; flies up</t>
-  </si>
-  <si>
     <t>leads; carries away; takes away</t>
   </si>
   <si>
-    <t>mourned; lamented; wailed</t>
-  </si>
-  <si>
-    <t>grieved; was sad</t>
-  </si>
-  <si>
     <t>then; now; indeed</t>
   </si>
   <si>
@@ -2332,30 +2119,15 @@
     <t>bird; lit. with wings</t>
   </si>
   <si>
-    <t>dwelling; shelter; home</t>
-  </si>
-  <si>
     <t>support (of); maintenance (of); looking after; lit. holding together</t>
   </si>
   <si>
-    <t>ox; bull</t>
-  </si>
-  <si>
-    <t>dealing; bargaining; negotiating; transacting; lit. talking together</t>
-  </si>
-  <si>
-    <t>alteration (to); improvement (to); alternative; lit. more suitable</t>
-  </si>
-  <si>
     <t>virtuous; observing the moral practices</t>
   </si>
   <si>
     <t>wise; insightful; percipient</t>
   </si>
   <si>
-    <t>has a conscience; conscientious</t>
-  </si>
-  <si>
     <t>powerful; strong</t>
   </si>
   <si>
@@ -2380,24 +2152,12 @@
     <t>speaker</t>
   </si>
   <si>
-    <t>proclaimer; who tells about; who points out</t>
-  </si>
-  <si>
-    <t>returner (to); who comes back (to)</t>
-  </si>
-  <si>
-    <t>visitor; guest; lit. approacher</t>
-  </si>
-  <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
     <t>father</t>
   </si>
   <si>
-    <t>father of the community; community elder</t>
-  </si>
-  <si>
     <t>brother</t>
   </si>
   <si>
@@ -2407,12 +2167,6 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
-    <t>dresses; clothes; give clothes (to)</t>
-  </si>
-  <si>
-    <t>treasure; trove; hoard; lit. put down</t>
-  </si>
-  <si>
     <t>or; either or</t>
   </si>
   <si>
@@ -2425,9 +2179,6 @@
     <t>ever; always</t>
   </si>
   <si>
-    <t>at night; by night</t>
-  </si>
-  <si>
     <t>and</t>
   </si>
   <si>
@@ -2440,9 +2191,6 @@
     <t>formerly; previously; in the past</t>
   </si>
   <si>
-    <t>tomorrow</t>
-  </si>
-  <si>
     <t>today; now</t>
   </si>
   <si>
@@ -2452,12 +2200,6 @@
     <t>respect; honour</t>
   </si>
   <si>
-    <t>arm</t>
-  </si>
-  <si>
-    <t>tendon; sinew; lit. binding</t>
-  </si>
-  <si>
     <t>monk; an almsman; mendicant; lit. beggar</t>
   </si>
   <si>
@@ -2491,21 +2233,9 @@
     <t>warding off; repelling; counteract; lit. beating back</t>
   </si>
   <si>
-    <t>speaks coarsely (to); speaks rudely (to); speaks dirty (to); lit. talks down (to)</t>
-  </si>
-  <si>
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
-    <t>does not anticipate; does not expect; does not await</t>
-  </si>
-  <si>
-    <t>looks up at</t>
-  </si>
-  <si>
-    <t>looks around; survey</t>
-  </si>
-  <si>
     <t>could see; would see</t>
   </si>
   <si>
@@ -2530,9 +2260,6 @@
     <t>may be; would be; could be</t>
   </si>
   <si>
-    <t>a charnel ground; lit. bones in safe</t>
-  </si>
-  <si>
     <t>personal experience; realization</t>
   </si>
   <si>
@@ -2548,9 +2275,6 @@
     <t>direction; point of the compass; cardinal point</t>
   </si>
   <si>
-    <t>veneration; homage; religious offering</t>
-  </si>
-  <si>
     <t>wishing; wanting; covetousness</t>
   </si>
   <si>
@@ -2578,12 +2302,6 @@
     <t>female disciple; laywomen; female devotee</t>
   </si>
   <si>
-    <t>fact of not hearing (of)</t>
-  </si>
-  <si>
-    <t>Kusinara; city of the Mallas; small town where the Buddha passed away</t>
-  </si>
-  <si>
     <t>ignorance; illusion; not knowing; not understanding; stupidity</t>
   </si>
   <si>
@@ -2599,21 +2317,12 @@
     <t>mental poise; balance; equanimity; equipoise</t>
   </si>
   <si>
-    <t>compassion; sympathy; kindness (towards unfortunate beings); lit. action</t>
-  </si>
-  <si>
     <t>sub-commentary; commentary on a commentary</t>
   </si>
   <si>
     <t>dis-enchantment; de-illusionment; disinterest</t>
   </si>
   <si>
-    <t>(vinaya) invitation ceremony at the end of the rains retreat</t>
-  </si>
-  <si>
-    <t>sympathy in other's welfare; heartiness; sympathetic joy; state of happy for</t>
-  </si>
-  <si>
     <t>goodwill; friendliness; benevolence</t>
   </si>
   <si>
@@ -2623,9 +2332,6 @@
     <t>faith; confidence; lit. putting heart</t>
   </si>
   <si>
-    <t>(vinaya) boundary in which legal procedures are performed; legal territory</t>
-  </si>
-  <si>
     <t>knowledge; wisdom; understanding</t>
   </si>
   <si>
@@ -2663,9 +2369,6 @@
   </si>
   <si>
     <t>i-aor</t>
-  </si>
-  <si>
-    <t>i-aor-issaṃ</t>
   </si>
   <si>
     <t>i-masc</t>
@@ -3113,7 +2816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E432"/>
+  <dimension ref="A1:E382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3141,16 +2844,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="D2" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E2" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3158,16 +2861,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C3" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="D3" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E3" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3175,16 +2878,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C4" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="D4" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E4" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3192,16 +2895,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C5" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="D5" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E5" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3209,16 +2912,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C6" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="D6" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E6" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3226,16 +2929,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C7" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="D7" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E7" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3243,16 +2946,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C8" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="D8" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E8" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3260,16 +2963,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C9" t="s">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="D9" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E9" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3277,16 +2980,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C10" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E10" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3294,16 +2997,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C11" t="s">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="D11" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E11" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3311,16 +3014,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C12" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="D12" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E12" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3328,16 +3031,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C13" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="D13" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E13" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3345,16 +3048,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C14" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="D14" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E14" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3362,16 +3065,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C15" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="D15" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E15" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3379,16 +3082,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C16" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="D16" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E16" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3396,16 +3099,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C17" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="D17" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E17" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3413,16 +3116,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C18" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="D18" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E18" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3430,16 +3133,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C19" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
       <c r="D19" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E19" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3447,16 +3150,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C20" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="D20" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E20" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3464,16 +3167,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C21" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="D21" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E21" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3481,16 +3184,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C22" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="D22" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E22" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3498,16 +3201,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C23" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="D23" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E23" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3515,16 +3218,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C24" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D24" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E24" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3532,16 +3235,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C25" t="s">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="D25" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E25" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3549,16 +3252,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C26" t="s">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="D26" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E26" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3566,16 +3269,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C27" t="s">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="D27" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E27" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3583,16 +3286,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C28" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="D28" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E28" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3600,16 +3303,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C29" t="s">
-        <v>473</v>
+        <v>423</v>
       </c>
       <c r="D29" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E29" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3617,16 +3320,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C30" t="s">
-        <v>474</v>
+        <v>424</v>
       </c>
       <c r="D30" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E30" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3634,16 +3337,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C31" t="s">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="D31" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E31" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3651,16 +3354,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C32" t="s">
-        <v>476</v>
+        <v>426</v>
       </c>
       <c r="D32" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E32" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3668,16 +3371,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C33" t="s">
-        <v>477</v>
+        <v>427</v>
       </c>
       <c r="D33" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E33" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3685,16 +3388,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C34" t="s">
-        <v>478</v>
+        <v>428</v>
       </c>
       <c r="D34" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E34" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3702,16 +3405,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C35" t="s">
-        <v>479</v>
+        <v>429</v>
       </c>
       <c r="D35" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E35" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3719,16 +3422,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C36" t="s">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="D36" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E36" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3736,16 +3439,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C37" t="s">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="D37" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E37" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3753,16 +3456,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C38" t="s">
-        <v>482</v>
+        <v>432</v>
       </c>
       <c r="D38" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E38" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3770,16 +3473,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C39" t="s">
-        <v>483</v>
+        <v>433</v>
       </c>
       <c r="D39" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E39" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3787,16 +3490,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C40" t="s">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="D40" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E40" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3804,16 +3507,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C41" t="s">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="D41" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E41" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3821,16 +3524,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
+        <v>386</v>
+      </c>
+      <c r="C42" t="s">
         <v>436</v>
       </c>
-      <c r="C42" t="s">
-        <v>486</v>
-      </c>
       <c r="D42" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E42" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3838,16 +3541,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C43" t="s">
-        <v>487</v>
+        <v>437</v>
       </c>
       <c r="D43" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E43" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3855,16 +3558,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C44" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="D44" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E44" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3872,16 +3575,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C45" t="s">
-        <v>489</v>
+        <v>439</v>
       </c>
       <c r="D45" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E45" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3889,16 +3592,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C46" t="s">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="D46" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E46" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3906,16 +3609,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C47" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="D47" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E47" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3923,16 +3626,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C48" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="D48" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E48" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3940,16 +3643,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C49" t="s">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="D49" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E49" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3957,16 +3660,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C50" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="D50" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E50" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3974,16 +3677,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C51" t="s">
-        <v>495</v>
+        <v>445</v>
       </c>
       <c r="D51" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E51" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3991,16 +3694,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C52" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="D52" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E52" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4008,16 +3711,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C53" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="D53" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E53" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4025,16 +3728,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C54" t="s">
-        <v>498</v>
+        <v>448</v>
       </c>
       <c r="D54" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E54" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4042,16 +3745,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C55" t="s">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="D55" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E55" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4059,16 +3762,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C56" t="s">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="D56" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E56" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4076,16 +3779,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C57" t="s">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="D57" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E57" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4093,16 +3796,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C58" t="s">
-        <v>502</v>
+        <v>452</v>
       </c>
       <c r="D58" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E58" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4110,16 +3813,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C59" t="s">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="D59" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E59" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4127,16 +3830,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C60" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
       <c r="D60" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E60" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4144,16 +3847,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C61" t="s">
-        <v>505</v>
+        <v>455</v>
       </c>
       <c r="D61" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E61" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4161,16 +3864,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C62" t="s">
-        <v>506</v>
+        <v>456</v>
       </c>
       <c r="D62" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E62" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4178,16 +3881,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C63" t="s">
-        <v>507</v>
+        <v>457</v>
       </c>
       <c r="D63" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E63" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4195,16 +3898,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C64" t="s">
-        <v>508</v>
+        <v>458</v>
       </c>
       <c r="D64" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E64" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4212,16 +3915,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C65" t="s">
-        <v>509</v>
+        <v>459</v>
       </c>
       <c r="D65" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E65" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4229,16 +3932,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C66" t="s">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="D66" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E66" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4246,16 +3949,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C67" t="s">
-        <v>511</v>
+        <v>461</v>
       </c>
       <c r="D67" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E67" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4263,16 +3966,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C68" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="D68" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E68" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4280,16 +3983,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C69" t="s">
-        <v>513</v>
+        <v>463</v>
       </c>
       <c r="D69" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E69" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4297,16 +4000,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C70" t="s">
-        <v>514</v>
+        <v>464</v>
       </c>
       <c r="D70" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E70" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4314,16 +4017,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C71" t="s">
-        <v>515</v>
+        <v>465</v>
       </c>
       <c r="D71" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E71" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4331,16 +4034,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C72" t="s">
-        <v>516</v>
+        <v>466</v>
       </c>
       <c r="D72" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E72" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4348,16 +4051,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C73" t="s">
-        <v>517</v>
+        <v>467</v>
       </c>
       <c r="D73" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E73" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4365,16 +4068,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C74" t="s">
-        <v>518</v>
+        <v>468</v>
       </c>
       <c r="D74" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E74" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4382,16 +4085,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C75" t="s">
-        <v>519</v>
+        <v>469</v>
       </c>
       <c r="D75" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E75" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4399,16 +4102,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C76" t="s">
-        <v>520</v>
+        <v>470</v>
       </c>
       <c r="D76" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E76" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4416,16 +4119,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C77" t="s">
-        <v>521</v>
+        <v>471</v>
       </c>
       <c r="D77" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E77" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4433,16 +4136,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C78" t="s">
-        <v>522</v>
+        <v>472</v>
       </c>
       <c r="D78" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E78" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4450,16 +4153,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C79" t="s">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="D79" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E79" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4467,16 +4170,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C80" t="s">
-        <v>524</v>
+        <v>474</v>
       </c>
       <c r="D80" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E80" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4484,16 +4187,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C81" t="s">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="D81" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E81" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4501,16 +4204,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C82" t="s">
-        <v>526</v>
+        <v>476</v>
       </c>
       <c r="D82" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E82" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4518,16 +4221,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C83" t="s">
-        <v>527</v>
+        <v>477</v>
       </c>
       <c r="D83" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E83" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4535,16 +4238,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C84" t="s">
-        <v>528</v>
+        <v>478</v>
       </c>
       <c r="D84" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E84" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4552,16 +4255,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C85" t="s">
-        <v>529</v>
+        <v>479</v>
       </c>
       <c r="D85" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E85" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4569,16 +4272,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C86" t="s">
-        <v>530</v>
+        <v>480</v>
       </c>
       <c r="D86" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E86" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4586,16 +4289,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C87" t="s">
-        <v>531</v>
+        <v>481</v>
       </c>
       <c r="D87" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E87" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4603,16 +4306,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C88" t="s">
-        <v>532</v>
+        <v>482</v>
       </c>
       <c r="D88" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E88" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4620,16 +4323,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C89" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="D89" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E89" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4637,16 +4340,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C90" t="s">
-        <v>534</v>
+        <v>484</v>
       </c>
       <c r="D90" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E90" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4654,16 +4357,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C91" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="D91" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E91" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4671,16 +4374,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C92" t="s">
-        <v>536</v>
+        <v>486</v>
       </c>
       <c r="D92" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E92" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4688,16 +4391,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C93" t="s">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="D93" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E93" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4705,16 +4408,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C94" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="D94" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E94" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4722,16 +4425,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C95" t="s">
-        <v>539</v>
+        <v>489</v>
       </c>
       <c r="D95" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E95" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4739,16 +4442,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C96" t="s">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="D96" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E96" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4756,16 +4459,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C97" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="D97" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E97" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4773,16 +4476,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C98" t="s">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="D98" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E98" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4790,16 +4493,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C99" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="D99" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E99" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4807,16 +4510,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C100" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="D100" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E100" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4824,16 +4527,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C101" t="s">
-        <v>545</v>
+        <v>495</v>
       </c>
       <c r="D101" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E101" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4841,16 +4544,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C102" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="D102" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E102" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4858,16 +4561,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C103" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="D103" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E103" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4875,16 +4578,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C104" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="D104" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E104" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4892,16 +4595,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C105" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="D105" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E105" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4909,16 +4612,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C106" t="s">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="D106" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E106" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4926,16 +4629,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C107" t="s">
-        <v>551</v>
+        <v>501</v>
       </c>
       <c r="D107" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E107" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4943,16 +4646,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C108" t="s">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="D108" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E108" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4960,16 +4663,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C109" t="s">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="D109" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E109" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4977,16 +4680,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C110" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="D110" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E110" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4994,16 +4697,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C111" t="s">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="D111" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E111" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5011,16 +4714,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C112" t="s">
-        <v>556</v>
+        <v>506</v>
       </c>
       <c r="D112" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E112" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5028,16 +4731,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C113" t="s">
-        <v>557</v>
+        <v>507</v>
       </c>
       <c r="D113" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E113" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5045,16 +4748,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C114" t="s">
-        <v>558</v>
+        <v>508</v>
       </c>
       <c r="D114" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E114" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5062,16 +4765,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C115" t="s">
-        <v>559</v>
+        <v>509</v>
       </c>
       <c r="D115" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E115" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5079,16 +4782,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C116" t="s">
-        <v>560</v>
+        <v>510</v>
       </c>
       <c r="D116" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E116" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5096,16 +4799,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C117" t="s">
-        <v>561</v>
+        <v>511</v>
       </c>
       <c r="D117" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E117" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5113,16 +4816,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C118" t="s">
-        <v>562</v>
+        <v>512</v>
       </c>
       <c r="D118" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E118" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5130,16 +4833,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C119" t="s">
-        <v>563</v>
+        <v>513</v>
       </c>
       <c r="D119" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E119" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5147,16 +4850,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C120" t="s">
-        <v>564</v>
+        <v>514</v>
       </c>
       <c r="D120" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E120" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5164,16 +4867,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C121" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="D121" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E121" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5181,16 +4884,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C122" t="s">
-        <v>566</v>
+        <v>516</v>
       </c>
       <c r="D122" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E122" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5198,16 +4901,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C123" t="s">
-        <v>567</v>
+        <v>517</v>
       </c>
       <c r="D123" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E123" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5215,16 +4918,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C124" t="s">
-        <v>568</v>
+        <v>518</v>
       </c>
       <c r="D124" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E124" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5232,16 +4935,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C125" t="s">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="D125" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E125" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5249,16 +4952,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C126" t="s">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="D126" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E126" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5266,16 +4969,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C127" t="s">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="D127" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E127" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5283,16 +4986,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C128" t="s">
-        <v>572</v>
+        <v>522</v>
       </c>
       <c r="D128" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E128" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5300,16 +5003,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C129" t="s">
-        <v>573</v>
+        <v>523</v>
       </c>
       <c r="D129" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E129" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5317,16 +5020,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C130" t="s">
-        <v>574</v>
+        <v>524</v>
       </c>
       <c r="D130" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E130" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5334,16 +5037,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C131" t="s">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="D131" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E131" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5351,16 +5054,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C132" t="s">
-        <v>576</v>
+        <v>526</v>
       </c>
       <c r="D132" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E132" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5368,16 +5071,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C133" t="s">
-        <v>577</v>
+        <v>527</v>
       </c>
       <c r="D133" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E133" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5385,16 +5088,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C134" t="s">
-        <v>578</v>
+        <v>528</v>
       </c>
       <c r="D134" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E134" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5402,16 +5105,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C135" t="s">
-        <v>579</v>
+        <v>529</v>
       </c>
       <c r="D135" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E135" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5419,16 +5122,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C136" t="s">
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="D136" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E136" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5436,16 +5139,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C137" t="s">
-        <v>581</v>
+        <v>531</v>
       </c>
       <c r="D137" t="s">
-        <v>872</v>
+        <v>775</v>
       </c>
       <c r="E137" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5453,16 +5156,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C138" t="s">
-        <v>582</v>
+        <v>532</v>
       </c>
       <c r="D138" t="s">
-        <v>873</v>
+        <v>775</v>
       </c>
       <c r="E138" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5470,16 +5173,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C139" t="s">
-        <v>583</v>
+        <v>533</v>
       </c>
       <c r="D139" t="s">
-        <v>873</v>
+        <v>774</v>
       </c>
       <c r="E139" t="s">
-        <v>908</v>
+        <v>810</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5487,16 +5190,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C140" t="s">
-        <v>584</v>
+        <v>534</v>
       </c>
       <c r="D140" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E140" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5504,16 +5207,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C141" t="s">
-        <v>585</v>
+        <v>535</v>
       </c>
       <c r="D141" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="E141" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5521,16 +5224,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="C142" t="s">
-        <v>586</v>
+        <v>536</v>
       </c>
       <c r="D142" t="s">
-        <v>872</v>
+        <v>776</v>
       </c>
       <c r="E142" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5538,16 +5241,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C143" t="s">
-        <v>587</v>
+        <v>537</v>
       </c>
       <c r="D143" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E143" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5555,16 +5258,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C144" t="s">
-        <v>588</v>
+        <v>538</v>
       </c>
       <c r="D144" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E144" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5572,16 +5275,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C145" t="s">
-        <v>589</v>
+        <v>539</v>
       </c>
       <c r="D145" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E145" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5589,16 +5292,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C146" t="s">
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="D146" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E146" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5606,16 +5309,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C147" t="s">
-        <v>591</v>
+        <v>541</v>
       </c>
       <c r="D147" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E147" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5623,16 +5326,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C148" t="s">
-        <v>592</v>
+        <v>542</v>
       </c>
       <c r="D148" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E148" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5640,16 +5343,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="C149" t="s">
-        <v>593</v>
+        <v>543</v>
       </c>
       <c r="D149" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E149" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5657,16 +5360,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="C150" t="s">
-        <v>594</v>
+        <v>544</v>
       </c>
       <c r="D150" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E150" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5674,16 +5377,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C151" t="s">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="D151" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E151" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5691,16 +5394,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C152" t="s">
-        <v>596</v>
+        <v>546</v>
       </c>
       <c r="D152" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E152" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5708,16 +5411,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C153" t="s">
-        <v>597</v>
+        <v>547</v>
       </c>
       <c r="D153" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E153" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5725,16 +5428,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C154" t="s">
-        <v>598</v>
+        <v>548</v>
       </c>
       <c r="D154" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E154" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5742,16 +5445,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C155" t="s">
-        <v>599</v>
+        <v>549</v>
       </c>
       <c r="D155" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E155" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5759,16 +5462,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C156" t="s">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="D156" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E156" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5776,16 +5479,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C157" t="s">
-        <v>601</v>
+        <v>551</v>
       </c>
       <c r="D157" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E157" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5793,16 +5496,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C158" t="s">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="D158" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E158" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5810,16 +5513,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C159" t="s">
-        <v>603</v>
+        <v>553</v>
       </c>
       <c r="D159" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E159" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5827,16 +5530,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C160" t="s">
-        <v>604</v>
+        <v>554</v>
       </c>
       <c r="D160" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E160" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5844,16 +5547,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C161" t="s">
-        <v>605</v>
+        <v>555</v>
       </c>
       <c r="D161" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E161" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5861,16 +5564,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C162" t="s">
-        <v>606</v>
+        <v>556</v>
       </c>
       <c r="D162" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E162" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5878,16 +5581,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C163" t="s">
-        <v>607</v>
+        <v>557</v>
       </c>
       <c r="D163" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E163" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5895,16 +5598,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C164" t="s">
-        <v>608</v>
+        <v>558</v>
       </c>
       <c r="D164" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E164" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5912,16 +5615,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C165" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="D165" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E165" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5929,16 +5632,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C166" t="s">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="D166" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E166" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5946,16 +5649,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C167" t="s">
-        <v>611</v>
+        <v>561</v>
       </c>
       <c r="D167" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E167" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5963,16 +5666,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C168" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
       <c r="D168" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E168" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5980,16 +5683,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C169" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
       <c r="D169" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E169" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5997,16 +5700,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C170" t="s">
-        <v>614</v>
+        <v>564</v>
       </c>
       <c r="D170" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E170" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6014,16 +5717,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C171" t="s">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="D171" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E171" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6031,16 +5734,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C172" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="D172" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E172" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6048,16 +5751,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C173" t="s">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="D173" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E173" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6065,16 +5768,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C174" t="s">
-        <v>618</v>
+        <v>568</v>
       </c>
       <c r="D174" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E174" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6082,16 +5785,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C175" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
       <c r="D175" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E175" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6099,16 +5802,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="C176" t="s">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="D176" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E176" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6116,16 +5819,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C177" t="s">
-        <v>621</v>
+        <v>571</v>
       </c>
       <c r="D177" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E177" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6133,16 +5836,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C178" t="s">
-        <v>622</v>
+        <v>572</v>
       </c>
       <c r="D178" t="s">
-        <v>874</v>
+        <v>777</v>
       </c>
       <c r="E178" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6150,16 +5853,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="C179" t="s">
-        <v>623</v>
+        <v>573</v>
       </c>
       <c r="D179" t="s">
-        <v>874</v>
+        <v>777</v>
       </c>
       <c r="E179" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6167,16 +5870,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C180" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="D180" t="s">
-        <v>874</v>
+        <v>777</v>
       </c>
       <c r="E180" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6184,16 +5887,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C181" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="D181" t="s">
-        <v>875</v>
+        <v>777</v>
       </c>
       <c r="E181" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6201,16 +5904,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C182" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="D182" t="s">
-        <v>875</v>
+        <v>777</v>
       </c>
       <c r="E182" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6218,16 +5921,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C183" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="D183" t="s">
-        <v>875</v>
+        <v>777</v>
       </c>
       <c r="E183" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6235,16 +5938,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="C184" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="D184" t="s">
-        <v>875</v>
+        <v>778</v>
       </c>
       <c r="E184" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6252,16 +5955,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C185" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="D185" t="s">
-        <v>875</v>
+        <v>779</v>
       </c>
       <c r="E185" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6269,16 +5972,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="C186" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="D186" t="s">
-        <v>875</v>
+        <v>779</v>
       </c>
       <c r="E186" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6286,16 +5989,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C187" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="D187" t="s">
-        <v>875</v>
+        <v>779</v>
       </c>
       <c r="E187" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6303,16 +6006,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="C188" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="D188" t="s">
-        <v>876</v>
+        <v>779</v>
       </c>
       <c r="E188" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6320,16 +6023,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C189" t="s">
-        <v>633</v>
+        <v>583</v>
       </c>
       <c r="D189" t="s">
-        <v>877</v>
+        <v>779</v>
       </c>
       <c r="E189" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6337,16 +6040,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="C190" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="D190" t="s">
-        <v>877</v>
+        <v>779</v>
       </c>
       <c r="E190" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6354,16 +6057,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C191" t="s">
-        <v>628</v>
+        <v>585</v>
       </c>
       <c r="D191" t="s">
-        <v>877</v>
+        <v>779</v>
       </c>
       <c r="E191" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6371,16 +6074,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C192" t="s">
-        <v>635</v>
+        <v>586</v>
       </c>
       <c r="D192" t="s">
-        <v>877</v>
+        <v>779</v>
       </c>
       <c r="E192" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6388,16 +6091,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C193" t="s">
-        <v>636</v>
+        <v>587</v>
       </c>
       <c r="D193" t="s">
-        <v>877</v>
+        <v>779</v>
       </c>
       <c r="E193" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6405,16 +6108,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C194" t="s">
-        <v>637</v>
+        <v>588</v>
       </c>
       <c r="D194" t="s">
-        <v>877</v>
+        <v>779</v>
       </c>
       <c r="E194" t="s">
-        <v>909</v>
+        <v>810</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6422,16 +6125,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="C195" t="s">
-        <v>638</v>
+        <v>589</v>
       </c>
       <c r="D195" t="s">
-        <v>877</v>
+        <v>774</v>
       </c>
       <c r="E195" t="s">
-        <v>909</v>
+        <v>811</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6439,16 +6142,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="C196" t="s">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="D196" t="s">
-        <v>877</v>
+        <v>774</v>
       </c>
       <c r="E196" t="s">
-        <v>909</v>
+        <v>811</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6456,16 +6159,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C197" t="s">
-        <v>640</v>
+        <v>591</v>
       </c>
       <c r="D197" t="s">
-        <v>877</v>
+        <v>776</v>
       </c>
       <c r="E197" t="s">
-        <v>909</v>
+        <v>811</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6473,16 +6176,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C198" t="s">
-        <v>641</v>
+        <v>592</v>
       </c>
       <c r="D198" t="s">
-        <v>877</v>
+        <v>776</v>
       </c>
       <c r="E198" t="s">
-        <v>909</v>
+        <v>811</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6490,16 +6193,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C199" t="s">
-        <v>642</v>
+        <v>593</v>
       </c>
       <c r="D199" t="s">
-        <v>877</v>
+        <v>776</v>
       </c>
       <c r="E199" t="s">
-        <v>909</v>
+        <v>811</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6507,16 +6210,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="C200" t="s">
-        <v>643</v>
+        <v>594</v>
       </c>
       <c r="D200" t="s">
-        <v>872</v>
+        <v>776</v>
       </c>
       <c r="E200" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6524,16 +6227,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="C201" t="s">
-        <v>644</v>
+        <v>595</v>
       </c>
       <c r="D201" t="s">
-        <v>872</v>
+        <v>776</v>
       </c>
       <c r="E201" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6541,16 +6244,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="C202" t="s">
-        <v>645</v>
+        <v>596</v>
       </c>
       <c r="D202" t="s">
-        <v>872</v>
+        <v>776</v>
       </c>
       <c r="E202" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6558,16 +6261,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="C203" t="s">
-        <v>646</v>
+        <v>597</v>
       </c>
       <c r="D203" t="s">
-        <v>872</v>
+        <v>776</v>
       </c>
       <c r="E203" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6575,16 +6278,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="C204" t="s">
-        <v>647</v>
+        <v>598</v>
       </c>
       <c r="D204" t="s">
-        <v>872</v>
+        <v>776</v>
       </c>
       <c r="E204" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6592,16 +6295,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C205" t="s">
-        <v>648</v>
+        <v>599</v>
       </c>
       <c r="D205" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E205" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6609,16 +6312,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C206" t="s">
-        <v>649</v>
+        <v>600</v>
       </c>
       <c r="D206" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E206" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6626,16 +6329,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C207" t="s">
-        <v>650</v>
+        <v>601</v>
       </c>
       <c r="D207" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="E207" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6643,16 +6346,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C208" t="s">
-        <v>651</v>
+        <v>602</v>
       </c>
       <c r="D208" t="s">
-        <v>874</v>
+        <v>780</v>
       </c>
       <c r="E208" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6660,16 +6363,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C209" t="s">
-        <v>652</v>
+        <v>603</v>
       </c>
       <c r="D209" t="s">
-        <v>874</v>
+        <v>780</v>
       </c>
       <c r="E209" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6677,16 +6380,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C210" t="s">
-        <v>653</v>
+        <v>604</v>
       </c>
       <c r="D210" t="s">
-        <v>874</v>
+        <v>780</v>
       </c>
       <c r="E210" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6694,16 +6397,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C211" t="s">
-        <v>654</v>
+        <v>605</v>
       </c>
       <c r="D211" t="s">
-        <v>874</v>
+        <v>780</v>
       </c>
       <c r="E211" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6711,16 +6414,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C212" t="s">
-        <v>655</v>
+        <v>606</v>
       </c>
       <c r="D212" t="s">
-        <v>874</v>
+        <v>780</v>
       </c>
       <c r="E212" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6728,16 +6431,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="C213" t="s">
-        <v>656</v>
+        <v>607</v>
       </c>
       <c r="D213" t="s">
-        <v>874</v>
+        <v>780</v>
       </c>
       <c r="E213" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6745,16 +6448,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C214" t="s">
-        <v>657</v>
+        <v>608</v>
       </c>
       <c r="D214" t="s">
-        <v>874</v>
+        <v>780</v>
       </c>
       <c r="E214" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6762,16 +6465,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="C215" t="s">
-        <v>658</v>
+        <v>609</v>
       </c>
       <c r="D215" t="s">
-        <v>874</v>
+        <v>781</v>
       </c>
       <c r="E215" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6779,16 +6482,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="C216" t="s">
-        <v>659</v>
+        <v>610</v>
       </c>
       <c r="D216" t="s">
-        <v>878</v>
+        <v>782</v>
       </c>
       <c r="E216" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6796,16 +6499,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="C217" t="s">
-        <v>660</v>
+        <v>611</v>
       </c>
       <c r="D217" t="s">
-        <v>878</v>
+        <v>782</v>
       </c>
       <c r="E217" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6813,16 +6516,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="C218" t="s">
-        <v>661</v>
+        <v>612</v>
       </c>
       <c r="D218" t="s">
-        <v>878</v>
+        <v>783</v>
       </c>
       <c r="E218" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6830,16 +6533,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="C219" t="s">
-        <v>662</v>
+        <v>613</v>
       </c>
       <c r="D219" t="s">
-        <v>878</v>
+        <v>783</v>
       </c>
       <c r="E219" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6847,16 +6550,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C220" t="s">
-        <v>663</v>
+        <v>614</v>
       </c>
       <c r="D220" t="s">
-        <v>878</v>
+        <v>783</v>
       </c>
       <c r="E220" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6864,16 +6567,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="C221" t="s">
-        <v>664</v>
+        <v>615</v>
       </c>
       <c r="D221" t="s">
-        <v>878</v>
+        <v>784</v>
       </c>
       <c r="E221" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6881,16 +6584,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="C222" t="s">
-        <v>665</v>
+        <v>616</v>
       </c>
       <c r="D222" t="s">
-        <v>878</v>
+        <v>784</v>
       </c>
       <c r="E222" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6898,16 +6601,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="C223" t="s">
-        <v>666</v>
+        <v>617</v>
       </c>
       <c r="D223" t="s">
-        <v>879</v>
+        <v>784</v>
       </c>
       <c r="E223" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6915,16 +6618,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="C224" t="s">
-        <v>667</v>
+        <v>618</v>
       </c>
       <c r="D224" t="s">
-        <v>879</v>
+        <v>784</v>
       </c>
       <c r="E224" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6932,16 +6635,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="C225" t="s">
-        <v>668</v>
+        <v>619</v>
       </c>
       <c r="D225" t="s">
-        <v>880</v>
+        <v>784</v>
       </c>
       <c r="E225" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6949,16 +6652,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="C226" t="s">
-        <v>669</v>
+        <v>620</v>
       </c>
       <c r="D226" t="s">
-        <v>880</v>
+        <v>784</v>
       </c>
       <c r="E226" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6966,16 +6669,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="C227" t="s">
-        <v>662</v>
+        <v>621</v>
       </c>
       <c r="D227" t="s">
-        <v>881</v>
+        <v>784</v>
       </c>
       <c r="E227" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6983,16 +6686,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="C228" t="s">
-        <v>670</v>
+        <v>622</v>
       </c>
       <c r="D228" t="s">
-        <v>881</v>
+        <v>784</v>
       </c>
       <c r="E228" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7000,16 +6703,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="C229" t="s">
-        <v>671</v>
+        <v>623</v>
       </c>
       <c r="D229" t="s">
-        <v>881</v>
+        <v>785</v>
       </c>
       <c r="E229" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7017,16 +6720,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="C230" t="s">
-        <v>672</v>
+        <v>624</v>
       </c>
       <c r="D230" t="s">
-        <v>881</v>
+        <v>785</v>
       </c>
       <c r="E230" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7034,16 +6737,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="C231" t="s">
-        <v>673</v>
+        <v>625</v>
       </c>
       <c r="D231" t="s">
-        <v>881</v>
+        <v>785</v>
       </c>
       <c r="E231" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7051,16 +6754,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="C232" t="s">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="D232" t="s">
-        <v>882</v>
+        <v>785</v>
       </c>
       <c r="E232" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7068,16 +6771,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="C233" t="s">
-        <v>675</v>
+        <v>627</v>
       </c>
       <c r="D233" t="s">
-        <v>882</v>
+        <v>785</v>
       </c>
       <c r="E233" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7085,16 +6788,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="C234" t="s">
-        <v>676</v>
+        <v>628</v>
       </c>
       <c r="D234" t="s">
-        <v>882</v>
+        <v>785</v>
       </c>
       <c r="E234" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7102,16 +6805,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="C235" t="s">
-        <v>677</v>
+        <v>629</v>
       </c>
       <c r="D235" t="s">
-        <v>882</v>
+        <v>785</v>
       </c>
       <c r="E235" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7119,16 +6822,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="C236" t="s">
-        <v>678</v>
+        <v>630</v>
       </c>
       <c r="D236" t="s">
-        <v>882</v>
+        <v>785</v>
       </c>
       <c r="E236" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7136,16 +6839,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="C237" t="s">
-        <v>679</v>
+        <v>631</v>
       </c>
       <c r="D237" t="s">
-        <v>882</v>
+        <v>785</v>
       </c>
       <c r="E237" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7153,16 +6856,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="C238" t="s">
-        <v>680</v>
+        <v>632</v>
       </c>
       <c r="D238" t="s">
-        <v>882</v>
+        <v>786</v>
       </c>
       <c r="E238" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7170,16 +6873,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="C239" t="s">
-        <v>681</v>
+        <v>633</v>
       </c>
       <c r="D239" t="s">
-        <v>882</v>
+        <v>786</v>
       </c>
       <c r="E239" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7187,16 +6890,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="C240" t="s">
-        <v>682</v>
+        <v>634</v>
       </c>
       <c r="D240" t="s">
-        <v>883</v>
+        <v>787</v>
       </c>
       <c r="E240" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7204,16 +6907,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="C241" t="s">
-        <v>683</v>
+        <v>635</v>
       </c>
       <c r="D241" t="s">
-        <v>884</v>
+        <v>787</v>
       </c>
       <c r="E241" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7221,16 +6924,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="C242" t="s">
-        <v>684</v>
+        <v>636</v>
       </c>
       <c r="D242" t="s">
-        <v>884</v>
+        <v>788</v>
       </c>
       <c r="E242" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7238,16 +6941,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="C243" t="s">
-        <v>685</v>
+        <v>637</v>
       </c>
       <c r="D243" t="s">
-        <v>884</v>
+        <v>788</v>
       </c>
       <c r="E243" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7255,16 +6958,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="C244" t="s">
-        <v>686</v>
+        <v>638</v>
       </c>
       <c r="D244" t="s">
-        <v>884</v>
+        <v>788</v>
       </c>
       <c r="E244" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7272,16 +6975,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="C245" t="s">
-        <v>687</v>
+        <v>639</v>
       </c>
       <c r="D245" t="s">
-        <v>884</v>
+        <v>788</v>
       </c>
       <c r="E245" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7289,16 +6992,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="C246" t="s">
-        <v>688</v>
+        <v>640</v>
       </c>
       <c r="D246" t="s">
-        <v>884</v>
+        <v>789</v>
       </c>
       <c r="E246" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7306,16 +7009,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="C247" t="s">
-        <v>689</v>
+        <v>641</v>
       </c>
       <c r="D247" t="s">
-        <v>884</v>
+        <v>789</v>
       </c>
       <c r="E247" t="s">
-        <v>910</v>
+        <v>811</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7323,16 +7026,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C248" t="s">
-        <v>690</v>
+        <v>642</v>
       </c>
       <c r="D248" t="s">
-        <v>884</v>
+        <v>774</v>
       </c>
       <c r="E248" t="s">
-        <v>910</v>
+        <v>812</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7340,16 +7043,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C249" t="s">
-        <v>691</v>
+        <v>643</v>
       </c>
       <c r="D249" t="s">
-        <v>884</v>
+        <v>774</v>
       </c>
       <c r="E249" t="s">
-        <v>910</v>
+        <v>812</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7357,16 +7060,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="C250" t="s">
-        <v>692</v>
+        <v>644</v>
       </c>
       <c r="D250" t="s">
-        <v>885</v>
+        <v>774</v>
       </c>
       <c r="E250" t="s">
-        <v>910</v>
+        <v>812</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7374,16 +7077,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="C251" t="s">
-        <v>693</v>
+        <v>645</v>
       </c>
       <c r="D251" t="s">
-        <v>885</v>
+        <v>774</v>
       </c>
       <c r="E251" t="s">
-        <v>910</v>
+        <v>812</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7391,16 +7094,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="C252" t="s">
-        <v>694</v>
+        <v>646</v>
       </c>
       <c r="D252" t="s">
-        <v>886</v>
+        <v>774</v>
       </c>
       <c r="E252" t="s">
-        <v>910</v>
+        <v>812</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7408,16 +7111,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="C253" t="s">
-        <v>695</v>
+        <v>647</v>
       </c>
       <c r="D253" t="s">
-        <v>886</v>
+        <v>774</v>
       </c>
       <c r="E253" t="s">
-        <v>910</v>
+        <v>812</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7425,16 +7128,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="C254" t="s">
-        <v>696</v>
+        <v>648</v>
       </c>
       <c r="D254" t="s">
-        <v>887</v>
+        <v>790</v>
       </c>
       <c r="E254" t="s">
-        <v>910</v>
+        <v>812</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7442,16 +7145,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="C255" t="s">
-        <v>697</v>
+        <v>649</v>
       </c>
       <c r="D255" t="s">
-        <v>887</v>
+        <v>790</v>
       </c>
       <c r="E255" t="s">
-        <v>910</v>
+        <v>812</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7459,16 +7162,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="C256" t="s">
-        <v>698</v>
+        <v>650</v>
       </c>
       <c r="D256" t="s">
-        <v>887</v>
+        <v>790</v>
       </c>
       <c r="E256" t="s">
-        <v>910</v>
+        <v>812</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7476,16 +7179,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="C257" t="s">
-        <v>699</v>
+        <v>651</v>
       </c>
       <c r="D257" t="s">
-        <v>887</v>
+        <v>790</v>
       </c>
       <c r="E257" t="s">
-        <v>910</v>
+        <v>812</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7493,16 +7196,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="C258" t="s">
-        <v>700</v>
+        <v>652</v>
       </c>
       <c r="D258" t="s">
-        <v>888</v>
+        <v>790</v>
       </c>
       <c r="E258" t="s">
-        <v>910</v>
+        <v>812</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7510,16 +7213,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="C259" t="s">
-        <v>701</v>
+        <v>648</v>
       </c>
       <c r="D259" t="s">
-        <v>888</v>
+        <v>790</v>
       </c>
       <c r="E259" t="s">
-        <v>910</v>
+        <v>812</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7527,16 +7230,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="C260" t="s">
-        <v>702</v>
+        <v>653</v>
       </c>
       <c r="D260" t="s">
-        <v>872</v>
+        <v>790</v>
       </c>
       <c r="E260" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7544,16 +7247,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="C261" t="s">
-        <v>703</v>
+        <v>654</v>
       </c>
       <c r="D261" t="s">
-        <v>872</v>
+        <v>790</v>
       </c>
       <c r="E261" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7561,16 +7264,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="C262" t="s">
-        <v>704</v>
+        <v>655</v>
       </c>
       <c r="D262" t="s">
-        <v>872</v>
+        <v>790</v>
       </c>
       <c r="E262" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7578,16 +7281,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="C263" t="s">
-        <v>705</v>
+        <v>656</v>
       </c>
       <c r="D263" t="s">
-        <v>872</v>
+        <v>790</v>
       </c>
       <c r="E263" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7595,16 +7298,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="C264" t="s">
-        <v>706</v>
+        <v>657</v>
       </c>
       <c r="D264" t="s">
-        <v>872</v>
+        <v>790</v>
       </c>
       <c r="E264" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7612,16 +7315,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="C265" t="s">
-        <v>707</v>
+        <v>658</v>
       </c>
       <c r="D265" t="s">
-        <v>872</v>
+        <v>776</v>
       </c>
       <c r="E265" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7629,16 +7332,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="C266" t="s">
-        <v>708</v>
+        <v>659</v>
       </c>
       <c r="D266" t="s">
-        <v>872</v>
+        <v>777</v>
       </c>
       <c r="E266" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7646,16 +7349,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="C267" t="s">
-        <v>709</v>
+        <v>660</v>
       </c>
       <c r="D267" t="s">
-        <v>872</v>
+        <v>391</v>
       </c>
       <c r="E267" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7663,16 +7366,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="C268" t="s">
-        <v>710</v>
+        <v>661</v>
       </c>
       <c r="D268" t="s">
-        <v>872</v>
+        <v>391</v>
       </c>
       <c r="E268" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7680,16 +7383,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="C269" t="s">
-        <v>711</v>
+        <v>662</v>
       </c>
       <c r="D269" t="s">
-        <v>872</v>
+        <v>391</v>
       </c>
       <c r="E269" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7697,16 +7400,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="C270" t="s">
-        <v>712</v>
+        <v>663</v>
       </c>
       <c r="D270" t="s">
-        <v>872</v>
+        <v>391</v>
       </c>
       <c r="E270" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7714,16 +7417,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="C271" t="s">
-        <v>713</v>
+        <v>664</v>
       </c>
       <c r="D271" t="s">
-        <v>889</v>
+        <v>391</v>
       </c>
       <c r="E271" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7731,16 +7434,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="C272" t="s">
-        <v>714</v>
+        <v>665</v>
       </c>
       <c r="D272" t="s">
-        <v>889</v>
+        <v>391</v>
       </c>
       <c r="E272" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7748,16 +7451,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="C273" t="s">
-        <v>715</v>
+        <v>666</v>
       </c>
       <c r="D273" t="s">
-        <v>889</v>
+        <v>791</v>
       </c>
       <c r="E273" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7765,16 +7468,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="C274" t="s">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="D274" t="s">
-        <v>889</v>
+        <v>791</v>
       </c>
       <c r="E274" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7782,16 +7485,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="C275" t="s">
-        <v>717</v>
+        <v>668</v>
       </c>
       <c r="D275" t="s">
-        <v>889</v>
+        <v>791</v>
       </c>
       <c r="E275" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7799,16 +7502,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="C276" t="s">
-        <v>718</v>
+        <v>669</v>
       </c>
       <c r="D276" t="s">
-        <v>889</v>
+        <v>791</v>
       </c>
       <c r="E276" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7816,16 +7519,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="C277" t="s">
-        <v>713</v>
+        <v>670</v>
       </c>
       <c r="D277" t="s">
-        <v>889</v>
+        <v>791</v>
       </c>
       <c r="E277" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7833,16 +7536,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="C278" t="s">
-        <v>719</v>
+        <v>671</v>
       </c>
       <c r="D278" t="s">
-        <v>889</v>
+        <v>792</v>
       </c>
       <c r="E278" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7850,16 +7553,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="C279" t="s">
-        <v>720</v>
+        <v>672</v>
       </c>
       <c r="D279" t="s">
-        <v>889</v>
+        <v>793</v>
       </c>
       <c r="E279" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7867,16 +7570,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="C280" t="s">
-        <v>721</v>
+        <v>673</v>
       </c>
       <c r="D280" t="s">
-        <v>889</v>
+        <v>793</v>
       </c>
       <c r="E280" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7884,16 +7587,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="C281" t="s">
-        <v>722</v>
+        <v>674</v>
       </c>
       <c r="D281" t="s">
-        <v>889</v>
+        <v>794</v>
       </c>
       <c r="E281" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7901,16 +7604,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="C282" t="s">
-        <v>723</v>
+        <v>675</v>
       </c>
       <c r="D282" t="s">
-        <v>889</v>
+        <v>794</v>
       </c>
       <c r="E282" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7918,16 +7621,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="C283" t="s">
-        <v>724</v>
+        <v>676</v>
       </c>
       <c r="D283" t="s">
-        <v>874</v>
+        <v>794</v>
       </c>
       <c r="E283" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7935,16 +7638,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="C284" t="s">
-        <v>725</v>
+        <v>677</v>
       </c>
       <c r="D284" t="s">
-        <v>874</v>
+        <v>794</v>
       </c>
       <c r="E284" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7952,16 +7655,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="C285" t="s">
-        <v>726</v>
+        <v>678</v>
       </c>
       <c r="D285" t="s">
-        <v>874</v>
+        <v>794</v>
       </c>
       <c r="E285" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7969,16 +7672,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="C286" t="s">
-        <v>727</v>
+        <v>679</v>
       </c>
       <c r="D286" t="s">
-        <v>875</v>
+        <v>794</v>
       </c>
       <c r="E286" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7986,16 +7689,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="C287" t="s">
-        <v>728</v>
+        <v>680</v>
       </c>
       <c r="D287" t="s">
-        <v>875</v>
+        <v>794</v>
       </c>
       <c r="E287" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8003,16 +7706,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="C288" t="s">
-        <v>729</v>
+        <v>681</v>
       </c>
       <c r="D288" t="s">
-        <v>882</v>
+        <v>794</v>
       </c>
       <c r="E288" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8020,16 +7723,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="C289" t="s">
-        <v>730</v>
+        <v>682</v>
       </c>
       <c r="D289" t="s">
-        <v>882</v>
+        <v>794</v>
       </c>
       <c r="E289" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8037,16 +7740,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="C290" t="s">
-        <v>731</v>
+        <v>681</v>
       </c>
       <c r="D290" t="s">
-        <v>441</v>
+        <v>794</v>
       </c>
       <c r="E290" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8054,16 +7757,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="C291" t="s">
-        <v>732</v>
+        <v>683</v>
       </c>
       <c r="D291" t="s">
-        <v>441</v>
+        <v>794</v>
       </c>
       <c r="E291" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8071,16 +7774,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="C292" t="s">
-        <v>733</v>
+        <v>684</v>
       </c>
       <c r="D292" t="s">
-        <v>441</v>
+        <v>794</v>
       </c>
       <c r="E292" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8088,16 +7791,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>441</v>
+        <v>387</v>
       </c>
       <c r="C293" t="s">
-        <v>734</v>
+        <v>685</v>
       </c>
       <c r="D293" t="s">
-        <v>441</v>
+        <v>779</v>
       </c>
       <c r="E293" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8105,16 +7808,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="C294" t="s">
-        <v>735</v>
+        <v>686</v>
       </c>
       <c r="D294" t="s">
-        <v>441</v>
+        <v>795</v>
       </c>
       <c r="E294" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8122,16 +7825,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="C295" t="s">
-        <v>736</v>
+        <v>687</v>
       </c>
       <c r="D295" t="s">
-        <v>441</v>
+        <v>795</v>
       </c>
       <c r="E295" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8139,16 +7842,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="C296" t="s">
-        <v>737</v>
+        <v>688</v>
       </c>
       <c r="D296" t="s">
-        <v>890</v>
+        <v>795</v>
       </c>
       <c r="E296" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8156,16 +7859,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="C297" t="s">
-        <v>738</v>
+        <v>689</v>
       </c>
       <c r="D297" t="s">
-        <v>890</v>
+        <v>795</v>
       </c>
       <c r="E297" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8173,16 +7876,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="C298" t="s">
-        <v>739</v>
+        <v>690</v>
       </c>
       <c r="D298" t="s">
-        <v>890</v>
+        <v>795</v>
       </c>
       <c r="E298" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8190,16 +7893,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="C299" t="s">
-        <v>740</v>
+        <v>691</v>
       </c>
       <c r="D299" t="s">
-        <v>890</v>
+        <v>795</v>
       </c>
       <c r="E299" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8207,16 +7910,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="C300" t="s">
-        <v>741</v>
+        <v>692</v>
       </c>
       <c r="D300" t="s">
-        <v>890</v>
+        <v>795</v>
       </c>
       <c r="E300" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8224,16 +7927,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="C301" t="s">
-        <v>742</v>
+        <v>693</v>
       </c>
       <c r="D301" t="s">
-        <v>891</v>
+        <v>795</v>
       </c>
       <c r="E301" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8241,16 +7944,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="C302" t="s">
-        <v>743</v>
+        <v>694</v>
       </c>
       <c r="D302" t="s">
-        <v>892</v>
+        <v>795</v>
       </c>
       <c r="E302" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8258,16 +7961,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>442</v>
+        <v>386</v>
       </c>
       <c r="C303" t="s">
-        <v>744</v>
+        <v>695</v>
       </c>
       <c r="D303" t="s">
-        <v>892</v>
+        <v>796</v>
       </c>
       <c r="E303" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8275,16 +7978,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="C304" t="s">
-        <v>745</v>
+        <v>696</v>
       </c>
       <c r="D304" t="s">
-        <v>893</v>
+        <v>796</v>
       </c>
       <c r="E304" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8292,16 +7995,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="C305" t="s">
-        <v>746</v>
+        <v>697</v>
       </c>
       <c r="D305" t="s">
-        <v>893</v>
+        <v>796</v>
       </c>
       <c r="E305" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8309,16 +8012,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="C306" t="s">
-        <v>747</v>
+        <v>698</v>
       </c>
       <c r="D306" t="s">
-        <v>893</v>
+        <v>796</v>
       </c>
       <c r="E306" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8326,16 +8029,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="C307" t="s">
-        <v>748</v>
+        <v>699</v>
       </c>
       <c r="D307" t="s">
-        <v>893</v>
+        <v>796</v>
       </c>
       <c r="E307" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8343,16 +8046,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="C308" t="s">
-        <v>749</v>
+        <v>700</v>
       </c>
       <c r="D308" t="s">
-        <v>893</v>
+        <v>796</v>
       </c>
       <c r="E308" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8360,16 +8063,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="C309" t="s">
-        <v>750</v>
+        <v>701</v>
       </c>
       <c r="D309" t="s">
-        <v>893</v>
+        <v>774</v>
       </c>
       <c r="E309" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8377,16 +8080,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="C310" t="s">
-        <v>751</v>
+        <v>702</v>
       </c>
       <c r="D310" t="s">
-        <v>893</v>
+        <v>797</v>
       </c>
       <c r="E310" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8394,16 +8097,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="C311" t="s">
-        <v>752</v>
+        <v>703</v>
       </c>
       <c r="D311" t="s">
-        <v>893</v>
+        <v>797</v>
       </c>
       <c r="E311" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8411,16 +8114,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="C312" t="s">
-        <v>753</v>
+        <v>704</v>
       </c>
       <c r="D312" t="s">
-        <v>893</v>
+        <v>797</v>
       </c>
       <c r="E312" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8428,16 +8131,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="C313" t="s">
-        <v>752</v>
+        <v>705</v>
       </c>
       <c r="D313" t="s">
-        <v>893</v>
+        <v>797</v>
       </c>
       <c r="E313" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8445,16 +8148,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="C314" t="s">
-        <v>754</v>
+        <v>706</v>
       </c>
       <c r="D314" t="s">
-        <v>893</v>
+        <v>797</v>
       </c>
       <c r="E314" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8462,16 +8165,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="C315" t="s">
-        <v>755</v>
+        <v>707</v>
       </c>
       <c r="D315" t="s">
-        <v>893</v>
+        <v>798</v>
       </c>
       <c r="E315" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8479,16 +8182,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="C316" t="s">
-        <v>756</v>
+        <v>708</v>
       </c>
       <c r="D316" t="s">
-        <v>877</v>
+        <v>798</v>
       </c>
       <c r="E316" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8496,16 +8199,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="C317" t="s">
-        <v>757</v>
+        <v>709</v>
       </c>
       <c r="D317" t="s">
-        <v>894</v>
+        <v>798</v>
       </c>
       <c r="E317" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8513,16 +8216,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="C318" t="s">
-        <v>758</v>
+        <v>710</v>
       </c>
       <c r="D318" t="s">
-        <v>894</v>
+        <v>799</v>
       </c>
       <c r="E318" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8530,16 +8233,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="C319" t="s">
-        <v>759</v>
+        <v>711</v>
       </c>
       <c r="D319" t="s">
-        <v>894</v>
+        <v>799</v>
       </c>
       <c r="E319" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8547,16 +8250,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="C320" t="s">
-        <v>760</v>
+        <v>712</v>
       </c>
       <c r="D320" t="s">
-        <v>894</v>
+        <v>799</v>
       </c>
       <c r="E320" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8564,16 +8267,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="C321" t="s">
-        <v>761</v>
+        <v>713</v>
       </c>
       <c r="D321" t="s">
-        <v>894</v>
+        <v>800</v>
       </c>
       <c r="E321" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8581,16 +8284,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="C322" t="s">
-        <v>762</v>
+        <v>714</v>
       </c>
       <c r="D322" t="s">
-        <v>894</v>
+        <v>800</v>
       </c>
       <c r="E322" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8598,16 +8301,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="C323" t="s">
-        <v>763</v>
+        <v>715</v>
       </c>
       <c r="D323" t="s">
-        <v>894</v>
+        <v>800</v>
       </c>
       <c r="E323" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8615,16 +8318,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="C324" t="s">
-        <v>764</v>
+        <v>716</v>
       </c>
       <c r="D324" t="s">
-        <v>894</v>
+        <v>776</v>
       </c>
       <c r="E324" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8632,16 +8335,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="C325" t="s">
-        <v>765</v>
+        <v>717</v>
       </c>
       <c r="D325" t="s">
-        <v>894</v>
+        <v>391</v>
       </c>
       <c r="E325" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8649,16 +8352,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="C326" t="s">
-        <v>766</v>
+        <v>718</v>
       </c>
       <c r="D326" t="s">
-        <v>895</v>
+        <v>391</v>
       </c>
       <c r="E326" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8666,16 +8369,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="C327" t="s">
-        <v>767</v>
+        <v>719</v>
       </c>
       <c r="D327" t="s">
-        <v>895</v>
+        <v>391</v>
       </c>
       <c r="E327" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8683,16 +8386,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="C328" t="s">
-        <v>768</v>
+        <v>720</v>
       </c>
       <c r="D328" t="s">
-        <v>895</v>
+        <v>391</v>
       </c>
       <c r="E328" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8700,16 +8403,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="C329" t="s">
-        <v>769</v>
+        <v>721</v>
       </c>
       <c r="D329" t="s">
-        <v>895</v>
+        <v>391</v>
       </c>
       <c r="E329" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8717,16 +8420,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="C330" t="s">
-        <v>770</v>
+        <v>722</v>
       </c>
       <c r="D330" t="s">
-        <v>895</v>
+        <v>391</v>
       </c>
       <c r="E330" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8734,16 +8437,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="C331" t="s">
-        <v>771</v>
+        <v>723</v>
       </c>
       <c r="D331" t="s">
-        <v>895</v>
+        <v>391</v>
       </c>
       <c r="E331" t="s">
-        <v>911</v>
+        <v>813</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8751,16 +8454,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="C332" t="s">
-        <v>772</v>
+        <v>724</v>
       </c>
       <c r="D332" t="s">
-        <v>872</v>
+        <v>391</v>
       </c>
       <c r="E332" t="s">
-        <v>912</v>
+        <v>813</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8768,16 +8471,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="C333" t="s">
-        <v>773</v>
+        <v>725</v>
       </c>
       <c r="D333" t="s">
-        <v>872</v>
+        <v>391</v>
       </c>
       <c r="E333" t="s">
-        <v>912</v>
+        <v>813</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8785,16 +8488,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="C334" t="s">
-        <v>774</v>
+        <v>726</v>
       </c>
       <c r="D334" t="s">
-        <v>872</v>
+        <v>391</v>
       </c>
       <c r="E334" t="s">
-        <v>912</v>
+        <v>813</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8802,16 +8505,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C335" t="s">
-        <v>775</v>
+        <v>727</v>
       </c>
       <c r="D335" t="s">
-        <v>872</v>
+        <v>801</v>
       </c>
       <c r="E335" t="s">
-        <v>912</v>
+        <v>813</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8819,16 +8522,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C336" t="s">
-        <v>776</v>
+        <v>728</v>
       </c>
       <c r="D336" t="s">
-        <v>872</v>
+        <v>801</v>
       </c>
       <c r="E336" t="s">
-        <v>912</v>
+        <v>813</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8836,16 +8539,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="C337" t="s">
-        <v>777</v>
+        <v>729</v>
       </c>
       <c r="D337" t="s">
-        <v>896</v>
+        <v>801</v>
       </c>
       <c r="E337" t="s">
-        <v>912</v>
+        <v>813</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8853,16 +8556,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="C338" t="s">
-        <v>778</v>
+        <v>730</v>
       </c>
       <c r="D338" t="s">
-        <v>896</v>
+        <v>801</v>
       </c>
       <c r="E338" t="s">
-        <v>912</v>
+        <v>813</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8870,16 +8573,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="C339" t="s">
-        <v>779</v>
+        <v>731</v>
       </c>
       <c r="D339" t="s">
-        <v>896</v>
+        <v>795</v>
       </c>
       <c r="E339" t="s">
-        <v>912</v>
+        <v>813</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8887,16 +8590,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="C340" t="s">
-        <v>780</v>
+        <v>732</v>
       </c>
       <c r="D340" t="s">
-        <v>896</v>
+        <v>802</v>
       </c>
       <c r="E340" t="s">
-        <v>912</v>
+        <v>813</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8904,16 +8607,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="C341" t="s">
-        <v>781</v>
+        <v>733</v>
       </c>
       <c r="D341" t="s">
-        <v>896</v>
+        <v>802</v>
       </c>
       <c r="E341" t="s">
-        <v>912</v>
+        <v>813</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8921,16 +8624,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="C342" t="s">
-        <v>782</v>
+        <v>734</v>
       </c>
       <c r="D342" t="s">
-        <v>896</v>
+        <v>802</v>
       </c>
       <c r="E342" t="s">
-        <v>912</v>
+        <v>813</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8938,16 +8641,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C343" t="s">
-        <v>783</v>
+        <v>735</v>
       </c>
       <c r="D343" t="s">
-        <v>897</v>
+        <v>803</v>
       </c>
       <c r="E343" t="s">
-        <v>912</v>
+        <v>813</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8955,16 +8658,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C344" t="s">
-        <v>784</v>
+        <v>736</v>
       </c>
       <c r="D344" t="s">
-        <v>897</v>
+        <v>803</v>
       </c>
       <c r="E344" t="s">
-        <v>912</v>
+        <v>813</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8972,16 +8675,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C345" t="s">
-        <v>785</v>
+        <v>737</v>
       </c>
       <c r="D345" t="s">
-        <v>897</v>
+        <v>774</v>
       </c>
       <c r="E345" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8989,16 +8692,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C346" t="s">
-        <v>786</v>
+        <v>738</v>
       </c>
       <c r="D346" t="s">
-        <v>898</v>
+        <v>774</v>
       </c>
       <c r="E346" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9006,16 +8709,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="C347" t="s">
-        <v>787</v>
+        <v>739</v>
       </c>
       <c r="D347" t="s">
-        <v>898</v>
+        <v>776</v>
       </c>
       <c r="E347" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9023,16 +8726,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="C348" t="s">
-        <v>788</v>
+        <v>740</v>
       </c>
       <c r="D348" t="s">
-        <v>898</v>
+        <v>804</v>
       </c>
       <c r="E348" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9040,16 +8743,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="C349" t="s">
-        <v>789</v>
+        <v>741</v>
       </c>
       <c r="D349" t="s">
-        <v>898</v>
+        <v>804</v>
       </c>
       <c r="E349" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9057,16 +8760,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="C350" t="s">
-        <v>790</v>
+        <v>742</v>
       </c>
       <c r="D350" t="s">
-        <v>898</v>
+        <v>804</v>
       </c>
       <c r="E350" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9074,16 +8777,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="C351" t="s">
-        <v>791</v>
+        <v>743</v>
       </c>
       <c r="D351" t="s">
-        <v>898</v>
+        <v>804</v>
       </c>
       <c r="E351" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9091,16 +8794,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="C352" t="s">
-        <v>792</v>
+        <v>744</v>
       </c>
       <c r="D352" t="s">
-        <v>899</v>
+        <v>805</v>
       </c>
       <c r="E352" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9108,16 +8811,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="C353" t="s">
-        <v>793</v>
+        <v>745</v>
       </c>
       <c r="D353" t="s">
-        <v>899</v>
+        <v>786</v>
       </c>
       <c r="E353" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9125,16 +8828,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="C354" t="s">
-        <v>794</v>
+        <v>746</v>
       </c>
       <c r="D354" t="s">
-        <v>899</v>
+        <v>806</v>
       </c>
       <c r="E354" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9142,16 +8845,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="C355" t="s">
-        <v>795</v>
+        <v>747</v>
       </c>
       <c r="D355" t="s">
-        <v>899</v>
+        <v>807</v>
       </c>
       <c r="E355" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9159,16 +8862,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="C356" t="s">
-        <v>796</v>
+        <v>748</v>
       </c>
       <c r="D356" t="s">
-        <v>874</v>
+        <v>808</v>
       </c>
       <c r="E356" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9176,16 +8879,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="C357" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="D357" t="s">
-        <v>875</v>
+        <v>808</v>
       </c>
       <c r="E357" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9193,16 +8896,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="C358" t="s">
-        <v>798</v>
+        <v>750</v>
       </c>
       <c r="D358" t="s">
-        <v>884</v>
+        <v>808</v>
       </c>
       <c r="E358" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9210,16 +8913,16 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="C359" t="s">
-        <v>799</v>
+        <v>751</v>
       </c>
       <c r="D359" t="s">
-        <v>441</v>
+        <v>808</v>
       </c>
       <c r="E359" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9227,16 +8930,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="C360" t="s">
-        <v>800</v>
+        <v>752</v>
       </c>
       <c r="D360" t="s">
-        <v>441</v>
+        <v>808</v>
       </c>
       <c r="E360" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9244,16 +8947,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="C361" t="s">
-        <v>801</v>
+        <v>753</v>
       </c>
       <c r="D361" t="s">
-        <v>441</v>
+        <v>808</v>
       </c>
       <c r="E361" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9261,16 +8964,16 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="C362" t="s">
-        <v>802</v>
+        <v>754</v>
       </c>
       <c r="D362" t="s">
-        <v>441</v>
+        <v>808</v>
       </c>
       <c r="E362" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9278,16 +8981,16 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="C363" t="s">
-        <v>803</v>
+        <v>755</v>
       </c>
       <c r="D363" t="s">
-        <v>441</v>
+        <v>808</v>
       </c>
       <c r="E363" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9295,16 +8998,16 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="C364" t="s">
-        <v>804</v>
+        <v>756</v>
       </c>
       <c r="D364" t="s">
-        <v>441</v>
+        <v>808</v>
       </c>
       <c r="E364" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9312,16 +9015,16 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="C365" t="s">
-        <v>805</v>
+        <v>757</v>
       </c>
       <c r="D365" t="s">
-        <v>441</v>
+        <v>808</v>
       </c>
       <c r="E365" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9329,16 +9032,16 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="C366" t="s">
-        <v>806</v>
+        <v>758</v>
       </c>
       <c r="D366" t="s">
-        <v>441</v>
+        <v>808</v>
       </c>
       <c r="E366" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9346,16 +9049,16 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="C367" t="s">
-        <v>807</v>
+        <v>759</v>
       </c>
       <c r="D367" t="s">
-        <v>441</v>
+        <v>808</v>
       </c>
       <c r="E367" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9363,16 +9066,16 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="C368" t="s">
+        <v>760</v>
+      </c>
+      <c r="D368" t="s">
         <v>808</v>
       </c>
-      <c r="D368" t="s">
-        <v>441</v>
-      </c>
       <c r="E368" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9380,16 +9083,16 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="C369" t="s">
-        <v>809</v>
+        <v>761</v>
       </c>
       <c r="D369" t="s">
-        <v>441</v>
+        <v>808</v>
       </c>
       <c r="E369" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9397,16 +9100,16 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="C370" t="s">
-        <v>810</v>
+        <v>413</v>
       </c>
       <c r="D370" t="s">
-        <v>441</v>
+        <v>808</v>
       </c>
       <c r="E370" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9414,16 +9117,16 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="C371" t="s">
-        <v>811</v>
+        <v>762</v>
       </c>
       <c r="D371" t="s">
-        <v>900</v>
+        <v>808</v>
       </c>
       <c r="E371" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9431,16 +9134,16 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="C372" t="s">
-        <v>812</v>
+        <v>763</v>
       </c>
       <c r="D372" t="s">
-        <v>900</v>
+        <v>808</v>
       </c>
       <c r="E372" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9448,16 +9151,16 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="C373" t="s">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="D373" t="s">
-        <v>900</v>
+        <v>808</v>
       </c>
       <c r="E373" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9465,16 +9168,16 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="C374" t="s">
+        <v>765</v>
+      </c>
+      <c r="D374" t="s">
+        <v>808</v>
+      </c>
+      <c r="E374" t="s">
         <v>814</v>
-      </c>
-      <c r="D374" t="s">
-        <v>900</v>
-      </c>
-      <c r="E374" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9482,16 +9185,16 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="C375" t="s">
-        <v>815</v>
+        <v>766</v>
       </c>
       <c r="D375" t="s">
-        <v>900</v>
+        <v>808</v>
       </c>
       <c r="E375" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9499,16 +9202,16 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="C376" t="s">
-        <v>816</v>
+        <v>767</v>
       </c>
       <c r="D376" t="s">
-        <v>900</v>
+        <v>808</v>
       </c>
       <c r="E376" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9516,16 +9219,16 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="C377" t="s">
-        <v>817</v>
+        <v>768</v>
       </c>
       <c r="D377" t="s">
-        <v>894</v>
+        <v>808</v>
       </c>
       <c r="E377" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9533,16 +9236,16 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="C378" t="s">
-        <v>818</v>
+        <v>769</v>
       </c>
       <c r="D378" t="s">
-        <v>901</v>
+        <v>808</v>
       </c>
       <c r="E378" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9550,16 +9253,16 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="C379" t="s">
-        <v>819</v>
+        <v>770</v>
       </c>
       <c r="D379" t="s">
-        <v>901</v>
+        <v>808</v>
       </c>
       <c r="E379" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9567,16 +9270,16 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="C380" t="s">
-        <v>820</v>
+        <v>771</v>
       </c>
       <c r="D380" t="s">
-        <v>901</v>
+        <v>808</v>
       </c>
       <c r="E380" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9584,16 +9287,16 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="C381" t="s">
-        <v>821</v>
+        <v>772</v>
       </c>
       <c r="D381" t="s">
-        <v>902</v>
+        <v>808</v>
       </c>
       <c r="E381" t="s">
-        <v>912</v>
+        <v>814</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9601,866 +9304,16 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="C382" t="s">
-        <v>822</v>
+        <v>773</v>
       </c>
       <c r="D382" t="s">
-        <v>902</v>
+        <v>808</v>
       </c>
       <c r="E382" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
-      <c r="A383" t="s">
-        <v>386</v>
-      </c>
-      <c r="B383" t="s">
-        <v>436</v>
-      </c>
-      <c r="C383" t="s">
-        <v>823</v>
-      </c>
-      <c r="D383" t="s">
-        <v>872</v>
-      </c>
-      <c r="E383" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
-      <c r="A384" t="s">
-        <v>387</v>
-      </c>
-      <c r="B384" t="s">
-        <v>436</v>
-      </c>
-      <c r="C384" t="s">
-        <v>824</v>
-      </c>
-      <c r="D384" t="s">
-        <v>872</v>
-      </c>
-      <c r="E384" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
-      <c r="A385" t="s">
-        <v>388</v>
-      </c>
-      <c r="B385" t="s">
-        <v>437</v>
-      </c>
-      <c r="C385" t="s">
-        <v>825</v>
-      </c>
-      <c r="D385" t="s">
-        <v>874</v>
-      </c>
-      <c r="E385" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
-      <c r="A386" t="s">
-        <v>389</v>
-      </c>
-      <c r="B386" t="s">
-        <v>437</v>
-      </c>
-      <c r="C386" t="s">
-        <v>826</v>
-      </c>
-      <c r="D386" t="s">
-        <v>874</v>
-      </c>
-      <c r="E386" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
-      <c r="A387" t="s">
-        <v>390</v>
-      </c>
-      <c r="B387" t="s">
-        <v>437</v>
-      </c>
-      <c r="C387" t="s">
-        <v>827</v>
-      </c>
-      <c r="D387" t="s">
-        <v>874</v>
-      </c>
-      <c r="E387" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
-      <c r="A388" t="s">
-        <v>391</v>
-      </c>
-      <c r="B388" t="s">
-        <v>437</v>
-      </c>
-      <c r="C388" t="s">
-        <v>828</v>
-      </c>
-      <c r="D388" t="s">
-        <v>875</v>
-      </c>
-      <c r="E388" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
-      <c r="A389" t="s">
-        <v>392</v>
-      </c>
-      <c r="B389" t="s">
-        <v>437</v>
-      </c>
-      <c r="C389" t="s">
-        <v>829</v>
-      </c>
-      <c r="D389" t="s">
-        <v>875</v>
-      </c>
-      <c r="E389" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
-      <c r="A390" t="s">
-        <v>393</v>
-      </c>
-      <c r="B390" t="s">
-        <v>444</v>
-      </c>
-      <c r="C390" t="s">
-        <v>830</v>
-      </c>
-      <c r="D390" t="s">
-        <v>903</v>
-      </c>
-      <c r="E390" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
-      <c r="A391" t="s">
-        <v>394</v>
-      </c>
-      <c r="B391" t="s">
-        <v>444</v>
-      </c>
-      <c r="C391" t="s">
-        <v>831</v>
-      </c>
-      <c r="D391" t="s">
-        <v>903</v>
-      </c>
-      <c r="E391" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
-      <c r="A392" t="s">
-        <v>395</v>
-      </c>
-      <c r="B392" t="s">
-        <v>444</v>
-      </c>
-      <c r="C392" t="s">
-        <v>832</v>
-      </c>
-      <c r="D392" t="s">
-        <v>903</v>
-      </c>
-      <c r="E392" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
-      <c r="A393" t="s">
-        <v>396</v>
-      </c>
-      <c r="B393" t="s">
-        <v>444</v>
-      </c>
-      <c r="C393" t="s">
-        <v>833</v>
-      </c>
-      <c r="D393" t="s">
-        <v>903</v>
-      </c>
-      <c r="E393" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
-      <c r="A394" t="s">
-        <v>397</v>
-      </c>
-      <c r="B394" t="s">
-        <v>437</v>
-      </c>
-      <c r="C394" t="s">
-        <v>834</v>
-      </c>
-      <c r="D394" t="s">
-        <v>904</v>
-      </c>
-      <c r="E394" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
-      <c r="A395" t="s">
-        <v>398</v>
-      </c>
-      <c r="B395" t="s">
-        <v>444</v>
-      </c>
-      <c r="C395" t="s">
-        <v>835</v>
-      </c>
-      <c r="D395" t="s">
-        <v>885</v>
-      </c>
-      <c r="E395" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
-      <c r="A396" t="s">
-        <v>399</v>
-      </c>
-      <c r="B396" t="s">
-        <v>444</v>
-      </c>
-      <c r="C396" t="s">
-        <v>836</v>
-      </c>
-      <c r="D396" t="s">
-        <v>905</v>
-      </c>
-      <c r="E396" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
-      <c r="A397" t="s">
-        <v>400</v>
-      </c>
-      <c r="B397" t="s">
-        <v>444</v>
-      </c>
-      <c r="C397" t="s">
-        <v>837</v>
-      </c>
-      <c r="D397" t="s">
-        <v>906</v>
-      </c>
-      <c r="E397" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
-      <c r="A398" t="s">
-        <v>401</v>
-      </c>
-      <c r="B398" t="s">
-        <v>445</v>
-      </c>
-      <c r="C398" t="s">
-        <v>838</v>
-      </c>
-      <c r="D398" t="s">
-        <v>907</v>
-      </c>
-      <c r="E398" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
-      <c r="A399" t="s">
-        <v>402</v>
-      </c>
-      <c r="B399" t="s">
-        <v>445</v>
-      </c>
-      <c r="C399" t="s">
-        <v>839</v>
-      </c>
-      <c r="D399" t="s">
-        <v>907</v>
-      </c>
-      <c r="E399" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
-      <c r="A400" t="s">
-        <v>403</v>
-      </c>
-      <c r="B400" t="s">
-        <v>445</v>
-      </c>
-      <c r="C400" t="s">
-        <v>840</v>
-      </c>
-      <c r="D400" t="s">
-        <v>907</v>
-      </c>
-      <c r="E400" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
-      <c r="A401" t="s">
-        <v>404</v>
-      </c>
-      <c r="B401" t="s">
-        <v>445</v>
-      </c>
-      <c r="C401" t="s">
-        <v>841</v>
-      </c>
-      <c r="D401" t="s">
-        <v>907</v>
-      </c>
-      <c r="E401" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
-      <c r="A402" t="s">
-        <v>405</v>
-      </c>
-      <c r="B402" t="s">
-        <v>445</v>
-      </c>
-      <c r="C402" t="s">
-        <v>842</v>
-      </c>
-      <c r="D402" t="s">
-        <v>907</v>
-      </c>
-      <c r="E402" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
-      <c r="A403" t="s">
-        <v>406</v>
-      </c>
-      <c r="B403" t="s">
-        <v>445</v>
-      </c>
-      <c r="C403" t="s">
-        <v>843</v>
-      </c>
-      <c r="D403" t="s">
-        <v>907</v>
-      </c>
-      <c r="E403" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
-      <c r="A404" t="s">
-        <v>407</v>
-      </c>
-      <c r="B404" t="s">
-        <v>445</v>
-      </c>
-      <c r="C404" t="s">
-        <v>844</v>
-      </c>
-      <c r="D404" t="s">
-        <v>907</v>
-      </c>
-      <c r="E404" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
-      <c r="A405" t="s">
-        <v>408</v>
-      </c>
-      <c r="B405" t="s">
-        <v>445</v>
-      </c>
-      <c r="C405" t="s">
-        <v>845</v>
-      </c>
-      <c r="D405" t="s">
-        <v>907</v>
-      </c>
-      <c r="E405" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
-      <c r="A406" t="s">
-        <v>409</v>
-      </c>
-      <c r="B406" t="s">
-        <v>445</v>
-      </c>
-      <c r="C406" t="s">
-        <v>846</v>
-      </c>
-      <c r="D406" t="s">
-        <v>907</v>
-      </c>
-      <c r="E406" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
-      <c r="A407" t="s">
-        <v>410</v>
-      </c>
-      <c r="B407" t="s">
-        <v>445</v>
-      </c>
-      <c r="C407" t="s">
-        <v>847</v>
-      </c>
-      <c r="D407" t="s">
-        <v>907</v>
-      </c>
-      <c r="E407" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="A408" t="s">
-        <v>411</v>
-      </c>
-      <c r="B408" t="s">
-        <v>445</v>
-      </c>
-      <c r="C408" t="s">
-        <v>848</v>
-      </c>
-      <c r="D408" t="s">
-        <v>907</v>
-      </c>
-      <c r="E408" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
-      <c r="A409" t="s">
-        <v>412</v>
-      </c>
-      <c r="B409" t="s">
-        <v>445</v>
-      </c>
-      <c r="C409" t="s">
-        <v>849</v>
-      </c>
-      <c r="D409" t="s">
-        <v>907</v>
-      </c>
-      <c r="E409" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
-      <c r="A410" t="s">
-        <v>413</v>
-      </c>
-      <c r="B410" t="s">
-        <v>445</v>
-      </c>
-      <c r="C410" t="s">
-        <v>850</v>
-      </c>
-      <c r="D410" t="s">
-        <v>907</v>
-      </c>
-      <c r="E410" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
-      <c r="A411" t="s">
-        <v>414</v>
-      </c>
-      <c r="B411" t="s">
-        <v>445</v>
-      </c>
-      <c r="C411" t="s">
-        <v>851</v>
-      </c>
-      <c r="D411" t="s">
-        <v>907</v>
-      </c>
-      <c r="E411" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
-      <c r="A412" t="s">
-        <v>415</v>
-      </c>
-      <c r="B412" t="s">
-        <v>445</v>
-      </c>
-      <c r="C412" t="s">
-        <v>852</v>
-      </c>
-      <c r="D412" t="s">
-        <v>907</v>
-      </c>
-      <c r="E412" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
-      <c r="A413" t="s">
-        <v>416</v>
-      </c>
-      <c r="B413" t="s">
-        <v>445</v>
-      </c>
-      <c r="C413" t="s">
-        <v>853</v>
-      </c>
-      <c r="D413" t="s">
-        <v>907</v>
-      </c>
-      <c r="E413" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
-      <c r="A414" t="s">
-        <v>417</v>
-      </c>
-      <c r="B414" t="s">
-        <v>445</v>
-      </c>
-      <c r="C414" t="s">
-        <v>464</v>
-      </c>
-      <c r="D414" t="s">
-        <v>907</v>
-      </c>
-      <c r="E414" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
-      <c r="A415" t="s">
-        <v>418</v>
-      </c>
-      <c r="B415" t="s">
-        <v>445</v>
-      </c>
-      <c r="C415" t="s">
-        <v>854</v>
-      </c>
-      <c r="D415" t="s">
-        <v>907</v>
-      </c>
-      <c r="E415" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
-      <c r="A416" t="s">
-        <v>419</v>
-      </c>
-      <c r="B416" t="s">
-        <v>445</v>
-      </c>
-      <c r="C416" t="s">
-        <v>855</v>
-      </c>
-      <c r="D416" t="s">
-        <v>907</v>
-      </c>
-      <c r="E416" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
-      <c r="A417" t="s">
-        <v>420</v>
-      </c>
-      <c r="B417" t="s">
-        <v>445</v>
-      </c>
-      <c r="C417" t="s">
-        <v>856</v>
-      </c>
-      <c r="D417" t="s">
-        <v>907</v>
-      </c>
-      <c r="E417" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
-      <c r="A418" t="s">
-        <v>421</v>
-      </c>
-      <c r="B418" t="s">
-        <v>445</v>
-      </c>
-      <c r="C418" t="s">
-        <v>857</v>
-      </c>
-      <c r="D418" t="s">
-        <v>907</v>
-      </c>
-      <c r="E418" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
-      <c r="A419" t="s">
-        <v>422</v>
-      </c>
-      <c r="B419" t="s">
-        <v>445</v>
-      </c>
-      <c r="C419" t="s">
-        <v>858</v>
-      </c>
-      <c r="D419" t="s">
-        <v>907</v>
-      </c>
-      <c r="E419" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
-      <c r="A420" t="s">
-        <v>423</v>
-      </c>
-      <c r="B420" t="s">
-        <v>445</v>
-      </c>
-      <c r="C420" t="s">
-        <v>859</v>
-      </c>
-      <c r="D420" t="s">
-        <v>907</v>
-      </c>
-      <c r="E420" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
-      <c r="A421" t="s">
-        <v>424</v>
-      </c>
-      <c r="B421" t="s">
-        <v>445</v>
-      </c>
-      <c r="C421" t="s">
-        <v>860</v>
-      </c>
-      <c r="D421" t="s">
-        <v>907</v>
-      </c>
-      <c r="E421" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
-      <c r="A422" t="s">
-        <v>425</v>
-      </c>
-      <c r="B422" t="s">
-        <v>445</v>
-      </c>
-      <c r="C422" t="s">
-        <v>861</v>
-      </c>
-      <c r="D422" t="s">
-        <v>907</v>
-      </c>
-      <c r="E422" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
-      <c r="A423" t="s">
-        <v>426</v>
-      </c>
-      <c r="B423" t="s">
-        <v>445</v>
-      </c>
-      <c r="C423" t="s">
-        <v>862</v>
-      </c>
-      <c r="D423" t="s">
-        <v>907</v>
-      </c>
-      <c r="E423" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
-      <c r="A424" t="s">
-        <v>427</v>
-      </c>
-      <c r="B424" t="s">
-        <v>445</v>
-      </c>
-      <c r="C424" t="s">
-        <v>863</v>
-      </c>
-      <c r="D424" t="s">
-        <v>907</v>
-      </c>
-      <c r="E424" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
-      <c r="A425" t="s">
-        <v>428</v>
-      </c>
-      <c r="B425" t="s">
-        <v>445</v>
-      </c>
-      <c r="C425" t="s">
-        <v>864</v>
-      </c>
-      <c r="D425" t="s">
-        <v>907</v>
-      </c>
-      <c r="E425" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
-      <c r="A426" t="s">
-        <v>429</v>
-      </c>
-      <c r="B426" t="s">
-        <v>445</v>
-      </c>
-      <c r="C426" t="s">
-        <v>865</v>
-      </c>
-      <c r="D426" t="s">
-        <v>907</v>
-      </c>
-      <c r="E426" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
-      <c r="A427" t="s">
-        <v>430</v>
-      </c>
-      <c r="B427" t="s">
-        <v>445</v>
-      </c>
-      <c r="C427" t="s">
-        <v>866</v>
-      </c>
-      <c r="D427" t="s">
-        <v>907</v>
-      </c>
-      <c r="E427" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
-      <c r="A428" t="s">
-        <v>431</v>
-      </c>
-      <c r="B428" t="s">
-        <v>445</v>
-      </c>
-      <c r="C428" t="s">
-        <v>867</v>
-      </c>
-      <c r="D428" t="s">
-        <v>907</v>
-      </c>
-      <c r="E428" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
-      <c r="A429" t="s">
-        <v>432</v>
-      </c>
-      <c r="B429" t="s">
-        <v>445</v>
-      </c>
-      <c r="C429" t="s">
-        <v>868</v>
-      </c>
-      <c r="D429" t="s">
-        <v>907</v>
-      </c>
-      <c r="E429" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
-      <c r="A430" t="s">
-        <v>433</v>
-      </c>
-      <c r="B430" t="s">
-        <v>445</v>
-      </c>
-      <c r="C430" t="s">
-        <v>869</v>
-      </c>
-      <c r="D430" t="s">
-        <v>907</v>
-      </c>
-      <c r="E430" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
-      <c r="A431" t="s">
-        <v>434</v>
-      </c>
-      <c r="B431" t="s">
-        <v>445</v>
-      </c>
-      <c r="C431" t="s">
-        <v>870</v>
-      </c>
-      <c r="D431" t="s">
-        <v>907</v>
-      </c>
-      <c r="E431" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
-      <c r="A432" t="s">
-        <v>435</v>
-      </c>
-      <c r="B432" t="s">
-        <v>445</v>
-      </c>
-      <c r="C432" t="s">
-        <v>871</v>
-      </c>
-      <c r="D432" t="s">
-        <v>907</v>
-      </c>
-      <c r="E432" t="s">
-        <v>913</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class7.xlsx
+++ b/pali-class/vocab/vocab-class7.xlsx
@@ -61,7 +61,7 @@
     <t>visesa 1</t>
   </si>
   <si>
-    <t>danta 2</t>
+    <t>danta 1</t>
   </si>
   <si>
     <t>loma</t>
@@ -472,7 +472,7 @@
     <t>bandhati 1</t>
   </si>
   <si>
-    <t>passa 2</t>
+    <t>passa 5</t>
   </si>
   <si>
     <t>tiṭṭhati 3</t>
@@ -640,7 +640,7 @@
     <t>bhuñjati 1</t>
   </si>
   <si>
-    <t>jhāyati 1</t>
+    <t>jhāyati 2</t>
   </si>
   <si>
     <t>chindati</t>
@@ -1234,7 +1234,7 @@
     <t>distinction; attainment</t>
   </si>
   <si>
-    <t>tooth; tusk; fang</t>
+    <t>tooth</t>
   </si>
   <si>
     <t>the hair on the body; pelt</t>
@@ -1243,7 +1243,7 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out (from unwholesome)</t>
+    <t>discipline; training; lit. leading out</t>
   </si>
   <si>
     <t>teaching; doctrine</t>
@@ -1345,7 +1345,7 @@
     <t>requisite; accessory</t>
   </si>
   <si>
-    <t>mode; way; course; means</t>
+    <t>range; mode; way</t>
   </si>
   <si>
     <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
@@ -1789,7 +1789,7 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
-    <t>takes place; arises; appears</t>
+    <t>appears; arises; takes place</t>
   </si>
   <si>
     <t>is reborn in; re-arises; lit. goes towards</t>

--- a/pali-class/vocab/vocab-class7.xlsx
+++ b/pali-class/vocab/vocab-class7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="814">
   <si>
     <t>Pāli1</t>
   </si>
@@ -49,7 +49,7 @@
     <t>sāvaka</t>
   </si>
   <si>
-    <t>adhigama</t>
+    <t>adhigama 1</t>
   </si>
   <si>
     <t>ñāya</t>
@@ -64,7 +64,7 @@
     <t>danta 1</t>
   </si>
   <si>
-    <t>loma</t>
+    <t>loma 1</t>
   </si>
   <si>
     <t>kesa</t>
@@ -97,7 +97,7 @@
     <t>āsaya 2</t>
   </si>
   <si>
-    <t>uposatha</t>
+    <t>uposatha 1</t>
   </si>
   <si>
     <t>bhava 2</t>
@@ -106,7 +106,7 @@
     <t>vassa 2</t>
   </si>
   <si>
-    <t>āvāsa</t>
+    <t>āvāsa 1</t>
   </si>
   <si>
     <t>antarāya</t>
@@ -142,7 +142,7 @@
     <t>sāriputta</t>
   </si>
   <si>
-    <t>pañha</t>
+    <t>pañha 2</t>
   </si>
   <si>
     <t>ābādha</t>
@@ -151,7 +151,7 @@
     <t>saṅkhāra 3</t>
   </si>
   <si>
-    <t>phassa</t>
+    <t>phassa 1</t>
   </si>
   <si>
     <t>puthujjana</t>
@@ -169,7 +169,7 @@
     <t>pāda 1</t>
   </si>
   <si>
-    <t>parikkhāra</t>
+    <t>parikkhāra 1</t>
   </si>
   <si>
     <t>patha 2</t>
@@ -229,10 +229,10 @@
     <t>khaya</t>
   </si>
   <si>
-    <t>āsava</t>
-  </si>
-  <si>
-    <t>nīvaraṇa</t>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
   </si>
   <si>
     <t>sekha</t>
@@ -340,13 +340,13 @@
     <t>chanda 1</t>
   </si>
   <si>
-    <t>uppāda</t>
+    <t>uppāda 1</t>
   </si>
   <si>
     <t>dhamma 05</t>
   </si>
   <si>
-    <t>moha</t>
+    <t>moha 1</t>
   </si>
   <si>
     <t>bāla 2</t>
@@ -379,7 +379,7 @@
     <t>ākāsa 2</t>
   </si>
   <si>
-    <t>ācariya</t>
+    <t>ācariya 1</t>
   </si>
   <si>
     <t>upajjhāya</t>
@@ -418,19 +418,19 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>saṅghādisesa 1</t>
+    <t>saṅghādisesa 2</t>
   </si>
   <si>
     <t>satipaṭṭhāna</t>
   </si>
   <si>
-    <t>sīha</t>
-  </si>
-  <si>
-    <t>vitakka</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>vipāka</t>
   </si>
   <si>
     <t>viveka 1</t>
@@ -442,7 +442,7 @@
     <t>kosalā</t>
   </si>
   <si>
-    <t>pātimokkha</t>
+    <t>pātimokkha 2</t>
   </si>
   <si>
     <t>punabbhava</t>
@@ -454,7 +454,7 @@
     <t>pakkamati 1</t>
   </si>
   <si>
-    <t>bhaṇati</t>
+    <t>bhaṇati 1</t>
   </si>
   <si>
     <t>vattati 1</t>
@@ -487,7 +487,7 @@
     <t>uddisati 1</t>
   </si>
   <si>
-    <t>rakkhati 1</t>
+    <t>rakkhati 2</t>
   </si>
   <si>
     <t>upasaṅkamati</t>
@@ -496,7 +496,7 @@
     <t>bhāsati 1</t>
   </si>
   <si>
-    <t>yācati</t>
+    <t>yācati 1</t>
   </si>
   <si>
     <t>harati 2</t>
@@ -508,7 +508,7 @@
     <t>passati 2</t>
   </si>
   <si>
-    <t>sikkhati</t>
+    <t>sikkhati 2</t>
   </si>
   <si>
     <t>paṭisevati 2</t>
@@ -547,7 +547,7 @@
     <t>abhiramati</t>
   </si>
   <si>
-    <t>viharati</t>
+    <t>viharati 1</t>
   </si>
   <si>
     <t>passati 1</t>
@@ -571,16 +571,16 @@
     <t>vedeti 1</t>
   </si>
   <si>
-    <t>dhāreti 2</t>
-  </si>
-  <si>
-    <t>deti</t>
+    <t>dhāreti 3</t>
+  </si>
+  <si>
+    <t>deti 1</t>
   </si>
   <si>
     <t>ehi</t>
   </si>
   <si>
-    <t>suṇāti</t>
+    <t>suṇāti 1</t>
   </si>
   <si>
     <t>suṇātu</t>
@@ -604,7 +604,7 @@
     <t>paggaṇhāti 2</t>
   </si>
   <si>
-    <t>jānāti</t>
+    <t>jānāti 1</t>
   </si>
   <si>
     <t>pāpuṇāti 1</t>
@@ -631,7 +631,7 @@
     <t>maññati 1</t>
   </si>
   <si>
-    <t>nibbindati</t>
+    <t>nibbindati 1</t>
   </si>
   <si>
     <t>anuyuñjati 2</t>
@@ -643,7 +643,7 @@
     <t>jhāyati 2</t>
   </si>
   <si>
-    <t>chindati</t>
+    <t>chindati 1</t>
   </si>
   <si>
     <t>āpajjati 5</t>
@@ -658,10 +658,10 @@
     <t>atthi 2</t>
   </si>
   <si>
-    <t>amha</t>
-  </si>
-  <si>
-    <t>asi 2</t>
+    <t>amha 1</t>
+  </si>
+  <si>
+    <t>asi 3</t>
   </si>
   <si>
     <t>attha 12</t>
@@ -682,7 +682,7 @@
     <t>hotha</t>
   </si>
   <si>
-    <t>hotu</t>
+    <t>hotu 1</t>
   </si>
   <si>
     <t>hoti 1</t>
@@ -712,7 +712,7 @@
     <t>nisīdi</t>
   </si>
   <si>
-    <t>muni</t>
+    <t>muni 1</t>
   </si>
   <si>
     <t>gahapati</t>
@@ -727,7 +727,7 @@
     <t>isi</t>
   </si>
   <si>
-    <t>samādhi</t>
+    <t>samādhi 1</t>
   </si>
   <si>
     <t>gāmaṇi</t>
@@ -739,7 +739,7 @@
     <t>ñāti</t>
   </si>
   <si>
-    <t>karoti</t>
+    <t>karoti 1</t>
   </si>
   <si>
     <t>karohi</t>
@@ -748,7 +748,7 @@
     <t>sakkaroti</t>
   </si>
   <si>
-    <t>abhisaṅkharoti</t>
+    <t>abhisaṅkharoti 2</t>
   </si>
   <si>
     <t>ajjhabhāsi</t>
@@ -808,22 +808,22 @@
     <t>no 7</t>
   </si>
   <si>
-    <t>amhākaṃ 1</t>
+    <t>amhākaṃ 3</t>
   </si>
   <si>
     <t>ahaṃ</t>
   </si>
   <si>
-    <t>maṃ</t>
+    <t>maṃ 1</t>
   </si>
   <si>
     <t>me 3</t>
   </si>
   <si>
-    <t>sobhati</t>
-  </si>
-  <si>
-    <t>neti 2</t>
+    <t>sobhati 2</t>
+  </si>
+  <si>
+    <t>neti 1</t>
   </si>
   <si>
     <t>no 3</t>
@@ -889,7 +889,7 @@
     <t>tumhe 2</t>
   </si>
   <si>
-    <t>tvaṃ</t>
+    <t>tvaṃ 1</t>
   </si>
   <si>
     <t>te 6</t>
@@ -904,7 +904,7 @@
     <t>vo 4</t>
   </si>
   <si>
-    <t>nābhijānāti</t>
+    <t>nābhijānāti 1</t>
   </si>
   <si>
     <t>ottappī</t>
@@ -916,6 +916,9 @@
     <t>vihārī</t>
   </si>
   <si>
+    <t>dassī 2</t>
+  </si>
+  <si>
     <t>vippaṭisārī</t>
   </si>
   <si>
@@ -937,9 +940,6 @@
     <t>brahmacārī 2</t>
   </si>
   <si>
-    <t>dassī 2</t>
-  </si>
-  <si>
     <t>sukhī 2</t>
   </si>
   <si>
@@ -976,16 +976,16 @@
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>āyasmant</t>
-  </si>
-  <si>
-    <t>satthar</t>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
+    <t>satthar 1</t>
   </si>
   <si>
     <t>bhāsitar</t>
   </si>
   <si>
-    <t>dātar</t>
+    <t>dātar 1</t>
   </si>
   <si>
     <t>pitar</t>
@@ -1027,7 +1027,7 @@
     <t>ajja</t>
   </si>
   <si>
-    <t>pubbe</t>
+    <t>pubbe 1</t>
   </si>
   <si>
     <t>garu 5</t>
@@ -1063,13 +1063,13 @@
     <t>gāha 4</t>
   </si>
   <si>
-    <t>paṭighāta</t>
+    <t>paṭighāta 1</t>
   </si>
   <si>
     <t>nahāyati</t>
   </si>
   <si>
-    <t>passeyya 2</t>
+    <t>passeyya 1</t>
   </si>
   <si>
     <t>jāneyya</t>
@@ -1084,10 +1084,10 @@
     <t>hanati 3</t>
   </si>
   <si>
-    <t>kareyya</t>
-  </si>
-  <si>
-    <t>siyā</t>
+    <t>kareyya 1</t>
+  </si>
+  <si>
+    <t>siyā 2</t>
   </si>
   <si>
     <t>assa 3</t>
@@ -1099,7 +1099,7 @@
     <t>pabbajjā</t>
   </si>
   <si>
-    <t>gāthā 2</t>
+    <t>gāthā 1</t>
   </si>
   <si>
     <t>jarā</t>
@@ -1120,7 +1120,7 @@
     <t>vācā 1</t>
   </si>
   <si>
-    <t>taṇhā</t>
+    <t>taṇhā 1</t>
   </si>
   <si>
     <t>vedanā 1</t>
@@ -1129,7 +1129,7 @@
     <t>jivhā</t>
   </si>
   <si>
-    <t>sālā</t>
+    <t>sālā 1</t>
   </si>
   <si>
     <t>upāsikā</t>
@@ -1168,7 +1168,7 @@
     <t>saddhā 1</t>
   </si>
   <si>
-    <t>vijjā</t>
+    <t>vijjā 1</t>
   </si>
   <si>
     <t>vipassanā</t>
@@ -1681,7 +1681,7 @@
     <t>understands; gets; lit. sees</t>
   </si>
   <si>
-    <t>learns; trains; practises</t>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
   </si>
   <si>
     <t>uses; makes use (of); lit. associates</t>
@@ -1720,7 +1720,7 @@
     <t>enjoys; finds high pleasure in</t>
   </si>
   <si>
-    <t>lives; abides; dwells</t>
+    <t>lives (in); dwells (in)</t>
   </si>
   <si>
     <t>sees</t>
@@ -1777,9 +1777,6 @@
     <t>holds up; raises up</t>
   </si>
   <si>
-    <t>knows; understands; is aware; finds out</t>
-  </si>
-  <si>
     <t>reaches; arrives (at); attains; experiences</t>
   </si>
   <si>
@@ -1912,7 +1909,7 @@
     <t>family; relative; lit. known</t>
   </si>
   <si>
-    <t>does; makes; acts; performs; builds</t>
+    <t>does; acts; performs</t>
   </si>
   <si>
     <t>do! make! may you preform; you must do</t>
@@ -1921,7 +1918,7 @@
     <t>honours; esteems; respects; lit. makes properly</t>
   </si>
   <si>
-    <t>does; performs; creates; constructs</t>
+    <t>does; performs; lit. constructs</t>
   </si>
   <si>
     <t>addressed; spoke (to)</t>
@@ -1951,7 +1948,7 @@
     <t>livelihood; way of earning a living</t>
   </si>
   <si>
-    <t>one who has thoroughly understood; being enlightened; the Buddha</t>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
   </si>
   <si>
     <t>false teaching; against the teaching</t>
@@ -1990,7 +1987,7 @@
     <t>for me; to me</t>
   </si>
   <si>
-    <t>shines; radiates; looks beautiful</t>
+    <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
     <t>leads; carries away; takes away</t>
@@ -2083,6 +2080,9 @@
     <t>(of a state of being) living in; who has</t>
   </si>
   <si>
+    <t>who sees; who knows; who perceives; who understands</t>
+  </si>
+  <si>
     <t>remorseful; regretful; sorry; lit. remembering back negatively</t>
   </si>
   <si>
@@ -2104,10 +2104,7 @@
     <t>celibate person; one living the holy life</t>
   </si>
   <si>
-    <t>who sees; who knows; who perceives; who understands</t>
-  </si>
-  <si>
-    <t>who is happy; at ease; comfortable</t>
+    <t>happy one; who is at ease; who is happy; who is comfortable</t>
   </si>
   <si>
     <t>fellow monk; spiritual companion</t>
@@ -2251,10 +2248,10 @@
     <t>punishes; flogs; beats</t>
   </si>
   <si>
-    <t>could do; could make</t>
-  </si>
-  <si>
-    <t>could be; may be; might be</t>
+    <t>could do; would do</t>
+  </si>
+  <si>
+    <t>there could be</t>
   </si>
   <si>
     <t>may be; would be; could be</t>
@@ -2329,7 +2326,7 @@
     <t>perception; conception; recognition; third of the five aggregates</t>
   </si>
   <si>
-    <t>faith; confidence; lit. putting heart</t>
+    <t>faith (in); belief (in); trust (in); lit. putting heart</t>
   </si>
   <si>
     <t>knowledge; wisdom; understanding</t>
@@ -2850,10 +2847,10 @@
         <v>396</v>
       </c>
       <c r="D2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2867,10 +2864,10 @@
         <v>397</v>
       </c>
       <c r="D3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2884,10 +2881,10 @@
         <v>398</v>
       </c>
       <c r="D4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2901,10 +2898,10 @@
         <v>399</v>
       </c>
       <c r="D5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2918,10 +2915,10 @@
         <v>400</v>
       </c>
       <c r="D6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2935,10 +2932,10 @@
         <v>401</v>
       </c>
       <c r="D7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2952,10 +2949,10 @@
         <v>402</v>
       </c>
       <c r="D8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2969,10 +2966,10 @@
         <v>403</v>
       </c>
       <c r="D9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2986,10 +2983,10 @@
         <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3003,10 +3000,10 @@
         <v>405</v>
       </c>
       <c r="D11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3020,10 +3017,10 @@
         <v>406</v>
       </c>
       <c r="D12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3037,10 +3034,10 @@
         <v>407</v>
       </c>
       <c r="D13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3054,10 +3051,10 @@
         <v>408</v>
       </c>
       <c r="D14" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3071,10 +3068,10 @@
         <v>409</v>
       </c>
       <c r="D15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E15" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3088,10 +3085,10 @@
         <v>410</v>
       </c>
       <c r="D16" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E16" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3105,10 +3102,10 @@
         <v>411</v>
       </c>
       <c r="D17" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3122,10 +3119,10 @@
         <v>412</v>
       </c>
       <c r="D18" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3139,10 +3136,10 @@
         <v>413</v>
       </c>
       <c r="D19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3156,10 +3153,10 @@
         <v>414</v>
       </c>
       <c r="D20" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3173,10 +3170,10 @@
         <v>415</v>
       </c>
       <c r="D21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E21" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3190,10 +3187,10 @@
         <v>416</v>
       </c>
       <c r="D22" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3207,10 +3204,10 @@
         <v>417</v>
       </c>
       <c r="D23" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E23" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3224,10 +3221,10 @@
         <v>418</v>
       </c>
       <c r="D24" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3241,10 +3238,10 @@
         <v>419</v>
       </c>
       <c r="D25" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E25" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3258,10 +3255,10 @@
         <v>420</v>
       </c>
       <c r="D26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3275,10 +3272,10 @@
         <v>421</v>
       </c>
       <c r="D27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E27" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3292,10 +3289,10 @@
         <v>422</v>
       </c>
       <c r="D28" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E28" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3309,10 +3306,10 @@
         <v>423</v>
       </c>
       <c r="D29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E29" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3326,10 +3323,10 @@
         <v>424</v>
       </c>
       <c r="D30" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3343,10 +3340,10 @@
         <v>425</v>
       </c>
       <c r="D31" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E31" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3360,10 +3357,10 @@
         <v>426</v>
       </c>
       <c r="D32" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3377,10 +3374,10 @@
         <v>427</v>
       </c>
       <c r="D33" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E33" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3394,10 +3391,10 @@
         <v>428</v>
       </c>
       <c r="D34" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E34" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3411,10 +3408,10 @@
         <v>429</v>
       </c>
       <c r="D35" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E35" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3428,10 +3425,10 @@
         <v>430</v>
       </c>
       <c r="D36" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E36" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3445,10 +3442,10 @@
         <v>431</v>
       </c>
       <c r="D37" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E37" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3462,10 +3459,10 @@
         <v>432</v>
       </c>
       <c r="D38" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E38" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3479,10 +3476,10 @@
         <v>433</v>
       </c>
       <c r="D39" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E39" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3496,10 +3493,10 @@
         <v>434</v>
       </c>
       <c r="D40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E40" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3513,10 +3510,10 @@
         <v>435</v>
       </c>
       <c r="D41" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E41" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3530,10 +3527,10 @@
         <v>436</v>
       </c>
       <c r="D42" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E42" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3547,10 +3544,10 @@
         <v>437</v>
       </c>
       <c r="D43" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E43" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3564,10 +3561,10 @@
         <v>438</v>
       </c>
       <c r="D44" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E44" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3581,10 +3578,10 @@
         <v>439</v>
       </c>
       <c r="D45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E45" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3598,10 +3595,10 @@
         <v>440</v>
       </c>
       <c r="D46" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E46" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3615,10 +3612,10 @@
         <v>441</v>
       </c>
       <c r="D47" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E47" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3632,10 +3629,10 @@
         <v>442</v>
       </c>
       <c r="D48" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E48" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3649,10 +3646,10 @@
         <v>443</v>
       </c>
       <c r="D49" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E49" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3666,10 +3663,10 @@
         <v>444</v>
       </c>
       <c r="D50" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E50" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3683,10 +3680,10 @@
         <v>445</v>
       </c>
       <c r="D51" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E51" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3700,10 +3697,10 @@
         <v>446</v>
       </c>
       <c r="D52" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E52" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3717,10 +3714,10 @@
         <v>447</v>
       </c>
       <c r="D53" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E53" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3734,10 +3731,10 @@
         <v>448</v>
       </c>
       <c r="D54" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E54" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3751,10 +3748,10 @@
         <v>449</v>
       </c>
       <c r="D55" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E55" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3768,10 +3765,10 @@
         <v>450</v>
       </c>
       <c r="D56" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E56" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3785,10 +3782,10 @@
         <v>451</v>
       </c>
       <c r="D57" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E57" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3802,10 +3799,10 @@
         <v>452</v>
       </c>
       <c r="D58" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E58" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3819,10 +3816,10 @@
         <v>453</v>
       </c>
       <c r="D59" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E59" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3836,10 +3833,10 @@
         <v>454</v>
       </c>
       <c r="D60" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E60" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3853,10 +3850,10 @@
         <v>455</v>
       </c>
       <c r="D61" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E61" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3870,10 +3867,10 @@
         <v>456</v>
       </c>
       <c r="D62" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E62" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3887,10 +3884,10 @@
         <v>457</v>
       </c>
       <c r="D63" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E63" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3904,10 +3901,10 @@
         <v>458</v>
       </c>
       <c r="D64" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E64" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3921,10 +3918,10 @@
         <v>459</v>
       </c>
       <c r="D65" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E65" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3938,10 +3935,10 @@
         <v>460</v>
       </c>
       <c r="D66" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E66" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3955,10 +3952,10 @@
         <v>461</v>
       </c>
       <c r="D67" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E67" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3972,10 +3969,10 @@
         <v>462</v>
       </c>
       <c r="D68" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E68" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3989,10 +3986,10 @@
         <v>463</v>
       </c>
       <c r="D69" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E69" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4006,10 +4003,10 @@
         <v>464</v>
       </c>
       <c r="D70" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E70" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4023,10 +4020,10 @@
         <v>465</v>
       </c>
       <c r="D71" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E71" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4040,10 +4037,10 @@
         <v>466</v>
       </c>
       <c r="D72" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E72" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4057,10 +4054,10 @@
         <v>467</v>
       </c>
       <c r="D73" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E73" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4074,10 +4071,10 @@
         <v>468</v>
       </c>
       <c r="D74" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E74" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4091,10 +4088,10 @@
         <v>469</v>
       </c>
       <c r="D75" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E75" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4108,10 +4105,10 @@
         <v>470</v>
       </c>
       <c r="D76" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E76" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4125,10 +4122,10 @@
         <v>471</v>
       </c>
       <c r="D77" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E77" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4142,10 +4139,10 @@
         <v>472</v>
       </c>
       <c r="D78" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E78" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4159,10 +4156,10 @@
         <v>473</v>
       </c>
       <c r="D79" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E79" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4176,10 +4173,10 @@
         <v>474</v>
       </c>
       <c r="D80" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E80" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4193,10 +4190,10 @@
         <v>475</v>
       </c>
       <c r="D81" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E81" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4210,10 +4207,10 @@
         <v>476</v>
       </c>
       <c r="D82" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E82" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4227,10 +4224,10 @@
         <v>477</v>
       </c>
       <c r="D83" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E83" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4244,10 +4241,10 @@
         <v>478</v>
       </c>
       <c r="D84" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E84" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4261,10 +4258,10 @@
         <v>479</v>
       </c>
       <c r="D85" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E85" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4278,10 +4275,10 @@
         <v>480</v>
       </c>
       <c r="D86" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E86" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4295,10 +4292,10 @@
         <v>481</v>
       </c>
       <c r="D87" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E87" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4312,10 +4309,10 @@
         <v>482</v>
       </c>
       <c r="D88" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E88" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4329,10 +4326,10 @@
         <v>483</v>
       </c>
       <c r="D89" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E89" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4346,10 +4343,10 @@
         <v>484</v>
       </c>
       <c r="D90" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E90" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4363,10 +4360,10 @@
         <v>485</v>
       </c>
       <c r="D91" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E91" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4380,10 +4377,10 @@
         <v>486</v>
       </c>
       <c r="D92" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E92" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4397,10 +4394,10 @@
         <v>487</v>
       </c>
       <c r="D93" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E93" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4414,10 +4411,10 @@
         <v>488</v>
       </c>
       <c r="D94" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E94" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4431,10 +4428,10 @@
         <v>489</v>
       </c>
       <c r="D95" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E95" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4448,10 +4445,10 @@
         <v>490</v>
       </c>
       <c r="D96" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E96" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4465,10 +4462,10 @@
         <v>491</v>
       </c>
       <c r="D97" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E97" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4482,10 +4479,10 @@
         <v>492</v>
       </c>
       <c r="D98" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E98" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4499,10 +4496,10 @@
         <v>493</v>
       </c>
       <c r="D99" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E99" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4516,10 +4513,10 @@
         <v>494</v>
       </c>
       <c r="D100" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E100" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4533,10 +4530,10 @@
         <v>495</v>
       </c>
       <c r="D101" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E101" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4550,10 +4547,10 @@
         <v>496</v>
       </c>
       <c r="D102" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E102" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4567,10 +4564,10 @@
         <v>497</v>
       </c>
       <c r="D103" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E103" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4584,10 +4581,10 @@
         <v>498</v>
       </c>
       <c r="D104" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E104" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4601,10 +4598,10 @@
         <v>499</v>
       </c>
       <c r="D105" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E105" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4618,10 +4615,10 @@
         <v>500</v>
       </c>
       <c r="D106" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E106" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4635,10 +4632,10 @@
         <v>501</v>
       </c>
       <c r="D107" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E107" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4652,10 +4649,10 @@
         <v>502</v>
       </c>
       <c r="D108" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E108" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4669,10 +4666,10 @@
         <v>503</v>
       </c>
       <c r="D109" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E109" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4686,10 +4683,10 @@
         <v>504</v>
       </c>
       <c r="D110" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E110" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4703,10 +4700,10 @@
         <v>505</v>
       </c>
       <c r="D111" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E111" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4720,10 +4717,10 @@
         <v>506</v>
       </c>
       <c r="D112" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E112" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4737,10 +4734,10 @@
         <v>507</v>
       </c>
       <c r="D113" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E113" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4754,10 +4751,10 @@
         <v>508</v>
       </c>
       <c r="D114" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E114" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4771,10 +4768,10 @@
         <v>509</v>
       </c>
       <c r="D115" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E115" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4788,10 +4785,10 @@
         <v>510</v>
       </c>
       <c r="D116" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E116" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4805,10 +4802,10 @@
         <v>511</v>
       </c>
       <c r="D117" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E117" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4822,10 +4819,10 @@
         <v>512</v>
       </c>
       <c r="D118" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E118" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4839,10 +4836,10 @@
         <v>513</v>
       </c>
       <c r="D119" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E119" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4856,10 +4853,10 @@
         <v>514</v>
       </c>
       <c r="D120" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E120" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4873,10 +4870,10 @@
         <v>515</v>
       </c>
       <c r="D121" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E121" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4890,10 +4887,10 @@
         <v>516</v>
       </c>
       <c r="D122" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E122" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4907,10 +4904,10 @@
         <v>517</v>
       </c>
       <c r="D123" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E123" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4924,10 +4921,10 @@
         <v>518</v>
       </c>
       <c r="D124" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E124" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4941,10 +4938,10 @@
         <v>519</v>
       </c>
       <c r="D125" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E125" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4958,10 +4955,10 @@
         <v>520</v>
       </c>
       <c r="D126" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E126" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4975,10 +4972,10 @@
         <v>521</v>
       </c>
       <c r="D127" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E127" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4992,10 +4989,10 @@
         <v>522</v>
       </c>
       <c r="D128" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E128" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5009,10 +5006,10 @@
         <v>523</v>
       </c>
       <c r="D129" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E129" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5026,10 +5023,10 @@
         <v>524</v>
       </c>
       <c r="D130" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E130" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5043,10 +5040,10 @@
         <v>525</v>
       </c>
       <c r="D131" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E131" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5060,10 +5057,10 @@
         <v>526</v>
       </c>
       <c r="D132" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E132" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5077,10 +5074,10 @@
         <v>527</v>
       </c>
       <c r="D133" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E133" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5094,10 +5091,10 @@
         <v>528</v>
       </c>
       <c r="D134" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E134" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5111,10 +5108,10 @@
         <v>529</v>
       </c>
       <c r="D135" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E135" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5128,10 +5125,10 @@
         <v>530</v>
       </c>
       <c r="D136" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E136" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5145,10 +5142,10 @@
         <v>531</v>
       </c>
       <c r="D137" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E137" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5162,10 +5159,10 @@
         <v>532</v>
       </c>
       <c r="D138" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E138" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5179,10 +5176,10 @@
         <v>533</v>
       </c>
       <c r="D139" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E139" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5196,10 +5193,10 @@
         <v>534</v>
       </c>
       <c r="D140" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E140" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5213,10 +5210,10 @@
         <v>535</v>
       </c>
       <c r="D141" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E141" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5230,10 +5227,10 @@
         <v>536</v>
       </c>
       <c r="D142" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E142" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5247,10 +5244,10 @@
         <v>537</v>
       </c>
       <c r="D143" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E143" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5264,10 +5261,10 @@
         <v>538</v>
       </c>
       <c r="D144" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E144" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5281,10 +5278,10 @@
         <v>539</v>
       </c>
       <c r="D145" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E145" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5298,10 +5295,10 @@
         <v>540</v>
       </c>
       <c r="D146" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E146" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5315,10 +5312,10 @@
         <v>541</v>
       </c>
       <c r="D147" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E147" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5332,10 +5329,10 @@
         <v>542</v>
       </c>
       <c r="D148" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E148" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5349,10 +5346,10 @@
         <v>543</v>
       </c>
       <c r="D149" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E149" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5366,10 +5363,10 @@
         <v>544</v>
       </c>
       <c r="D150" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E150" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5383,10 +5380,10 @@
         <v>545</v>
       </c>
       <c r="D151" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E151" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5400,10 +5397,10 @@
         <v>546</v>
       </c>
       <c r="D152" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E152" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5417,10 +5414,10 @@
         <v>547</v>
       </c>
       <c r="D153" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E153" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5434,10 +5431,10 @@
         <v>548</v>
       </c>
       <c r="D154" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E154" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5451,10 +5448,10 @@
         <v>549</v>
       </c>
       <c r="D155" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E155" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5468,10 +5465,10 @@
         <v>550</v>
       </c>
       <c r="D156" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E156" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5485,10 +5482,10 @@
         <v>551</v>
       </c>
       <c r="D157" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E157" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5502,10 +5499,10 @@
         <v>552</v>
       </c>
       <c r="D158" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E158" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5519,10 +5516,10 @@
         <v>553</v>
       </c>
       <c r="D159" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E159" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5536,10 +5533,10 @@
         <v>554</v>
       </c>
       <c r="D160" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E160" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5553,10 +5550,10 @@
         <v>555</v>
       </c>
       <c r="D161" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E161" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5570,10 +5567,10 @@
         <v>556</v>
       </c>
       <c r="D162" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E162" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5587,10 +5584,10 @@
         <v>557</v>
       </c>
       <c r="D163" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E163" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5604,10 +5601,10 @@
         <v>558</v>
       </c>
       <c r="D164" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E164" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5621,10 +5618,10 @@
         <v>559</v>
       </c>
       <c r="D165" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E165" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5638,10 +5635,10 @@
         <v>560</v>
       </c>
       <c r="D166" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E166" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5655,10 +5652,10 @@
         <v>561</v>
       </c>
       <c r="D167" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E167" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5672,10 +5669,10 @@
         <v>562</v>
       </c>
       <c r="D168" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E168" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5689,10 +5686,10 @@
         <v>563</v>
       </c>
       <c r="D169" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E169" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5706,10 +5703,10 @@
         <v>564</v>
       </c>
       <c r="D170" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E170" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5723,10 +5720,10 @@
         <v>565</v>
       </c>
       <c r="D171" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E171" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5740,10 +5737,10 @@
         <v>566</v>
       </c>
       <c r="D172" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E172" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5757,10 +5754,10 @@
         <v>567</v>
       </c>
       <c r="D173" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E173" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5774,10 +5771,10 @@
         <v>568</v>
       </c>
       <c r="D174" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E174" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5791,10 +5788,10 @@
         <v>569</v>
       </c>
       <c r="D175" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E175" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5808,10 +5805,10 @@
         <v>570</v>
       </c>
       <c r="D176" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E176" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5825,10 +5822,10 @@
         <v>571</v>
       </c>
       <c r="D177" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E177" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5842,10 +5839,10 @@
         <v>572</v>
       </c>
       <c r="D178" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E178" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5859,10 +5856,10 @@
         <v>573</v>
       </c>
       <c r="D179" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E179" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5876,10 +5873,10 @@
         <v>574</v>
       </c>
       <c r="D180" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E180" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5893,10 +5890,10 @@
         <v>575</v>
       </c>
       <c r="D181" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E181" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5910,10 +5907,10 @@
         <v>576</v>
       </c>
       <c r="D182" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E182" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5927,10 +5924,10 @@
         <v>577</v>
       </c>
       <c r="D183" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E183" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5944,10 +5941,10 @@
         <v>578</v>
       </c>
       <c r="D184" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E184" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5961,10 +5958,10 @@
         <v>579</v>
       </c>
       <c r="D185" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E185" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5978,10 +5975,10 @@
         <v>580</v>
       </c>
       <c r="D186" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E186" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5995,10 +5992,10 @@
         <v>581</v>
       </c>
       <c r="D187" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E187" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6012,10 +6009,10 @@
         <v>582</v>
       </c>
       <c r="D188" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E188" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6029,10 +6026,10 @@
         <v>583</v>
       </c>
       <c r="D189" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E189" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6046,10 +6043,10 @@
         <v>584</v>
       </c>
       <c r="D190" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E190" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6063,10 +6060,10 @@
         <v>585</v>
       </c>
       <c r="D191" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E191" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6080,10 +6077,10 @@
         <v>586</v>
       </c>
       <c r="D192" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E192" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6094,13 +6091,13 @@
         <v>387</v>
       </c>
       <c r="C193" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D193" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E193" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6111,13 +6108,13 @@
         <v>387</v>
       </c>
       <c r="C194" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D194" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E194" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6128,13 +6125,13 @@
         <v>386</v>
       </c>
       <c r="C195" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D195" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E195" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6145,13 +6142,13 @@
         <v>386</v>
       </c>
       <c r="C196" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D196" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E196" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6162,13 +6159,13 @@
         <v>387</v>
       </c>
       <c r="C197" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D197" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E197" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6179,13 +6176,13 @@
         <v>387</v>
       </c>
       <c r="C198" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D198" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E198" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6196,13 +6193,13 @@
         <v>387</v>
       </c>
       <c r="C199" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D199" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E199" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6213,13 +6210,13 @@
         <v>387</v>
       </c>
       <c r="C200" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D200" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E200" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6230,13 +6227,13 @@
         <v>387</v>
       </c>
       <c r="C201" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D201" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E201" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6247,13 +6244,13 @@
         <v>387</v>
       </c>
       <c r="C202" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D202" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E202" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6264,13 +6261,13 @@
         <v>387</v>
       </c>
       <c r="C203" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D203" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E203" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6281,13 +6278,13 @@
         <v>387</v>
       </c>
       <c r="C204" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D204" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E204" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6298,13 +6295,13 @@
         <v>387</v>
       </c>
       <c r="C205" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D205" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E205" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6315,13 +6312,13 @@
         <v>387</v>
       </c>
       <c r="C206" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D206" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E206" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6332,13 +6329,13 @@
         <v>387</v>
       </c>
       <c r="C207" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D207" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E207" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6349,13 +6346,13 @@
         <v>387</v>
       </c>
       <c r="C208" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D208" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E208" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6366,13 +6363,13 @@
         <v>387</v>
       </c>
       <c r="C209" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D209" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E209" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6383,13 +6380,13 @@
         <v>387</v>
       </c>
       <c r="C210" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D210" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E210" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6400,13 +6397,13 @@
         <v>387</v>
       </c>
       <c r="C211" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D211" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E211" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6417,13 +6414,13 @@
         <v>387</v>
       </c>
       <c r="C212" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D212" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E212" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6434,13 +6431,13 @@
         <v>388</v>
       </c>
       <c r="C213" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D213" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E213" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6451,13 +6448,13 @@
         <v>387</v>
       </c>
       <c r="C214" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D214" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E214" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6468,13 +6465,13 @@
         <v>389</v>
       </c>
       <c r="C215" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D215" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E215" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6485,13 +6482,13 @@
         <v>389</v>
       </c>
       <c r="C216" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D216" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E216" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6502,13 +6499,13 @@
         <v>389</v>
       </c>
       <c r="C217" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D217" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E217" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6519,13 +6516,13 @@
         <v>388</v>
       </c>
       <c r="C218" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D218" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E218" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6536,13 +6533,13 @@
         <v>388</v>
       </c>
       <c r="C219" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D219" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E219" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6553,13 +6550,13 @@
         <v>387</v>
       </c>
       <c r="C220" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D220" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E220" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6570,13 +6567,13 @@
         <v>389</v>
       </c>
       <c r="C221" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D221" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E221" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6587,13 +6584,13 @@
         <v>389</v>
       </c>
       <c r="C222" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D222" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E222" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6604,13 +6601,13 @@
         <v>389</v>
       </c>
       <c r="C223" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D223" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E223" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6621,13 +6618,13 @@
         <v>389</v>
       </c>
       <c r="C224" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D224" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E224" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6638,13 +6635,13 @@
         <v>389</v>
       </c>
       <c r="C225" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D225" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E225" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6655,13 +6652,13 @@
         <v>389</v>
       </c>
       <c r="C226" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D226" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E226" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6672,13 +6669,13 @@
         <v>389</v>
       </c>
       <c r="C227" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D227" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E227" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6689,13 +6686,13 @@
         <v>389</v>
       </c>
       <c r="C228" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D228" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E228" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6706,13 +6703,13 @@
         <v>386</v>
       </c>
       <c r="C229" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D229" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E229" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6723,13 +6720,13 @@
         <v>386</v>
       </c>
       <c r="C230" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D230" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E230" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6740,13 +6737,13 @@
         <v>386</v>
       </c>
       <c r="C231" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D231" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E231" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6757,13 +6754,13 @@
         <v>386</v>
       </c>
       <c r="C232" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D232" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E232" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6774,13 +6771,13 @@
         <v>386</v>
       </c>
       <c r="C233" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D233" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E233" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6791,13 +6788,13 @@
         <v>386</v>
       </c>
       <c r="C234" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D234" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E234" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6808,13 +6805,13 @@
         <v>386</v>
       </c>
       <c r="C235" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D235" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E235" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6825,13 +6822,13 @@
         <v>386</v>
       </c>
       <c r="C236" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D236" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E236" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6842,13 +6839,13 @@
         <v>386</v>
       </c>
       <c r="C237" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D237" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E237" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6859,13 +6856,13 @@
         <v>387</v>
       </c>
       <c r="C238" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D238" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E238" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6876,13 +6873,13 @@
         <v>388</v>
       </c>
       <c r="C239" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D239" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E239" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6893,13 +6890,13 @@
         <v>387</v>
       </c>
       <c r="C240" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D240" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E240" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6910,13 +6907,13 @@
         <v>387</v>
       </c>
       <c r="C241" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D241" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E241" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6927,13 +6924,13 @@
         <v>389</v>
       </c>
       <c r="C242" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D242" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E242" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6944,13 +6941,13 @@
         <v>389</v>
       </c>
       <c r="C243" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D243" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E243" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6961,13 +6958,13 @@
         <v>389</v>
       </c>
       <c r="C244" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D244" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E244" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6978,13 +6975,13 @@
         <v>389</v>
       </c>
       <c r="C245" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D245" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E245" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6995,13 +6992,13 @@
         <v>389</v>
       </c>
       <c r="C246" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D246" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E246" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7012,13 +7009,13 @@
         <v>389</v>
       </c>
       <c r="C247" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D247" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E247" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7029,13 +7026,13 @@
         <v>386</v>
       </c>
       <c r="C248" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D248" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E248" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7046,13 +7043,13 @@
         <v>386</v>
       </c>
       <c r="C249" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D249" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E249" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7063,13 +7060,13 @@
         <v>386</v>
       </c>
       <c r="C250" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D250" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E250" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7080,13 +7077,13 @@
         <v>386</v>
       </c>
       <c r="C251" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D251" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E251" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7097,13 +7094,13 @@
         <v>386</v>
       </c>
       <c r="C252" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D252" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7114,13 +7111,13 @@
         <v>386</v>
       </c>
       <c r="C253" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D253" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E253" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7131,13 +7128,13 @@
         <v>390</v>
       </c>
       <c r="C254" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D254" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E254" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7148,13 +7145,13 @@
         <v>390</v>
       </c>
       <c r="C255" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D255" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E255" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7165,13 +7162,13 @@
         <v>390</v>
       </c>
       <c r="C256" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D256" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E256" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7182,13 +7179,13 @@
         <v>390</v>
       </c>
       <c r="C257" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D257" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E257" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7199,13 +7196,13 @@
         <v>390</v>
       </c>
       <c r="C258" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D258" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E258" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7216,13 +7213,13 @@
         <v>390</v>
       </c>
       <c r="C259" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D259" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E259" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7233,13 +7230,13 @@
         <v>390</v>
       </c>
       <c r="C260" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D260" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E260" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7250,13 +7247,13 @@
         <v>390</v>
       </c>
       <c r="C261" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D261" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E261" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7267,13 +7264,13 @@
         <v>390</v>
       </c>
       <c r="C262" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D262" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E262" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7284,13 +7281,13 @@
         <v>390</v>
       </c>
       <c r="C263" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D263" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E263" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7301,13 +7298,13 @@
         <v>390</v>
       </c>
       <c r="C264" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D264" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E264" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7318,13 +7315,13 @@
         <v>387</v>
       </c>
       <c r="C265" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D265" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E265" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7335,13 +7332,13 @@
         <v>387</v>
       </c>
       <c r="C266" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D266" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E266" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7352,13 +7349,13 @@
         <v>391</v>
       </c>
       <c r="C267" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D267" t="s">
         <v>391</v>
       </c>
       <c r="E267" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7369,13 +7366,13 @@
         <v>391</v>
       </c>
       <c r="C268" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D268" t="s">
         <v>391</v>
       </c>
       <c r="E268" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7386,13 +7383,13 @@
         <v>391</v>
       </c>
       <c r="C269" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D269" t="s">
         <v>391</v>
       </c>
       <c r="E269" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7403,13 +7400,13 @@
         <v>391</v>
       </c>
       <c r="C270" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D270" t="s">
         <v>391</v>
       </c>
       <c r="E270" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7420,13 +7417,13 @@
         <v>391</v>
       </c>
       <c r="C271" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D271" t="s">
         <v>391</v>
       </c>
       <c r="E271" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7437,13 +7434,13 @@
         <v>391</v>
       </c>
       <c r="C272" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D272" t="s">
         <v>391</v>
       </c>
       <c r="E272" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7454,13 +7451,13 @@
         <v>392</v>
       </c>
       <c r="C273" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D273" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E273" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7471,13 +7468,13 @@
         <v>392</v>
       </c>
       <c r="C274" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D274" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E274" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7488,13 +7485,13 @@
         <v>392</v>
       </c>
       <c r="C275" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D275" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E275" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7505,13 +7502,13 @@
         <v>392</v>
       </c>
       <c r="C276" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D276" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E276" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7522,13 +7519,13 @@
         <v>392</v>
       </c>
       <c r="C277" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D277" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E277" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7539,13 +7536,13 @@
         <v>387</v>
       </c>
       <c r="C278" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D278" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E278" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7556,13 +7553,13 @@
         <v>392</v>
       </c>
       <c r="C279" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D279" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E279" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7573,13 +7570,13 @@
         <v>392</v>
       </c>
       <c r="C280" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D280" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E280" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7590,13 +7587,13 @@
         <v>390</v>
       </c>
       <c r="C281" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D281" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E281" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7607,13 +7604,13 @@
         <v>390</v>
       </c>
       <c r="C282" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D282" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E282" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7624,13 +7621,13 @@
         <v>390</v>
       </c>
       <c r="C283" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D283" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E283" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7641,13 +7638,13 @@
         <v>390</v>
       </c>
       <c r="C284" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D284" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E284" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7658,13 +7655,13 @@
         <v>390</v>
       </c>
       <c r="C285" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D285" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E285" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7675,13 +7672,13 @@
         <v>390</v>
       </c>
       <c r="C286" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D286" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E286" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7692,13 +7689,13 @@
         <v>390</v>
       </c>
       <c r="C287" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D287" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E287" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7709,13 +7706,13 @@
         <v>390</v>
       </c>
       <c r="C288" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D288" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E288" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7726,13 +7723,13 @@
         <v>390</v>
       </c>
       <c r="C289" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D289" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E289" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7743,13 +7740,13 @@
         <v>390</v>
       </c>
       <c r="C290" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D290" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E290" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7760,13 +7757,13 @@
         <v>390</v>
       </c>
       <c r="C291" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D291" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E291" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7777,13 +7774,13 @@
         <v>390</v>
       </c>
       <c r="C292" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D292" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E292" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7794,13 +7791,13 @@
         <v>387</v>
       </c>
       <c r="C293" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D293" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E293" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7811,13 +7808,13 @@
         <v>393</v>
       </c>
       <c r="C294" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D294" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E294" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7828,13 +7825,13 @@
         <v>393</v>
       </c>
       <c r="C295" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D295" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E295" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7845,13 +7842,13 @@
         <v>393</v>
       </c>
       <c r="C296" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D296" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E296" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7862,13 +7859,13 @@
         <v>393</v>
       </c>
       <c r="C297" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D297" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E297" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7879,13 +7876,13 @@
         <v>393</v>
       </c>
       <c r="C298" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D298" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E298" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7896,13 +7893,13 @@
         <v>393</v>
       </c>
       <c r="C299" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D299" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E299" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7913,13 +7910,13 @@
         <v>393</v>
       </c>
       <c r="C300" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D300" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E300" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7930,13 +7927,13 @@
         <v>393</v>
       </c>
       <c r="C301" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D301" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E301" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7947,13 +7944,13 @@
         <v>393</v>
       </c>
       <c r="C302" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D302" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E302" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7961,16 +7958,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C303" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D303" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E303" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7981,13 +7978,13 @@
         <v>386</v>
       </c>
       <c r="C304" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D304" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E304" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7998,13 +7995,13 @@
         <v>386</v>
       </c>
       <c r="C305" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D305" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E305" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8015,13 +8012,13 @@
         <v>386</v>
       </c>
       <c r="C306" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D306" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E306" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8032,13 +8029,13 @@
         <v>386</v>
       </c>
       <c r="C307" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D307" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E307" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8049,13 +8046,13 @@
         <v>386</v>
       </c>
       <c r="C308" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D308" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E308" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8066,13 +8063,13 @@
         <v>386</v>
       </c>
       <c r="C309" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D309" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E309" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8083,13 +8080,13 @@
         <v>393</v>
       </c>
       <c r="C310" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D310" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E310" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8100,13 +8097,13 @@
         <v>393</v>
       </c>
       <c r="C311" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D311" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E311" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8117,13 +8114,13 @@
         <v>393</v>
       </c>
       <c r="C312" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D312" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E312" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8134,13 +8131,13 @@
         <v>393</v>
       </c>
       <c r="C313" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D313" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E313" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8151,13 +8148,13 @@
         <v>393</v>
       </c>
       <c r="C314" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D314" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E314" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8168,13 +8165,13 @@
         <v>386</v>
       </c>
       <c r="C315" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D315" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E315" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8185,13 +8182,13 @@
         <v>386</v>
       </c>
       <c r="C316" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D316" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E316" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8202,13 +8199,13 @@
         <v>386</v>
       </c>
       <c r="C317" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D317" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E317" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8219,13 +8216,13 @@
         <v>386</v>
       </c>
       <c r="C318" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D318" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E318" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8236,13 +8233,13 @@
         <v>386</v>
       </c>
       <c r="C319" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D319" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E319" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8253,13 +8250,13 @@
         <v>386</v>
       </c>
       <c r="C320" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D320" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E320" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8270,13 +8267,13 @@
         <v>386</v>
       </c>
       <c r="C321" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D321" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E321" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8287,13 +8284,13 @@
         <v>386</v>
       </c>
       <c r="C322" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D322" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E322" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8304,13 +8301,13 @@
         <v>386</v>
       </c>
       <c r="C323" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D323" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E323" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8321,13 +8318,13 @@
         <v>387</v>
       </c>
       <c r="C324" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D324" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E324" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8338,13 +8335,13 @@
         <v>391</v>
       </c>
       <c r="C325" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D325" t="s">
         <v>391</v>
       </c>
       <c r="E325" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8355,13 +8352,13 @@
         <v>391</v>
       </c>
       <c r="C326" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D326" t="s">
         <v>391</v>
       </c>
       <c r="E326" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8372,13 +8369,13 @@
         <v>391</v>
       </c>
       <c r="C327" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D327" t="s">
         <v>391</v>
       </c>
       <c r="E327" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8389,13 +8386,13 @@
         <v>391</v>
       </c>
       <c r="C328" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D328" t="s">
         <v>391</v>
       </c>
       <c r="E328" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8406,13 +8403,13 @@
         <v>391</v>
       </c>
       <c r="C329" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D329" t="s">
         <v>391</v>
       </c>
       <c r="E329" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8423,13 +8420,13 @@
         <v>391</v>
       </c>
       <c r="C330" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D330" t="s">
         <v>391</v>
       </c>
       <c r="E330" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8440,13 +8437,13 @@
         <v>391</v>
       </c>
       <c r="C331" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D331" t="s">
         <v>391</v>
       </c>
       <c r="E331" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8457,13 +8454,13 @@
         <v>391</v>
       </c>
       <c r="C332" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D332" t="s">
         <v>391</v>
       </c>
       <c r="E332" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8474,13 +8471,13 @@
         <v>391</v>
       </c>
       <c r="C333" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D333" t="s">
         <v>391</v>
       </c>
       <c r="E333" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8491,13 +8488,13 @@
         <v>391</v>
       </c>
       <c r="C334" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D334" t="s">
         <v>391</v>
       </c>
       <c r="E334" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8508,13 +8505,13 @@
         <v>386</v>
       </c>
       <c r="C335" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D335" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E335" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8525,13 +8522,13 @@
         <v>386</v>
       </c>
       <c r="C336" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D336" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E336" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8542,13 +8539,13 @@
         <v>386</v>
       </c>
       <c r="C337" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D337" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E337" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8559,13 +8556,13 @@
         <v>386</v>
       </c>
       <c r="C338" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D338" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E338" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8576,13 +8573,13 @@
         <v>393</v>
       </c>
       <c r="C339" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D339" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E339" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8593,13 +8590,13 @@
         <v>393</v>
       </c>
       <c r="C340" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D340" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E340" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8610,13 +8607,13 @@
         <v>393</v>
       </c>
       <c r="C341" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D341" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E341" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8627,13 +8624,13 @@
         <v>393</v>
       </c>
       <c r="C342" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D342" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E342" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8644,13 +8641,13 @@
         <v>386</v>
       </c>
       <c r="C343" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D343" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E343" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8661,13 +8658,13 @@
         <v>386</v>
       </c>
       <c r="C344" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D344" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E344" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8678,13 +8675,13 @@
         <v>386</v>
       </c>
       <c r="C345" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D345" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E345" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8695,13 +8692,13 @@
         <v>386</v>
       </c>
       <c r="C346" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D346" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E346" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8712,13 +8709,13 @@
         <v>387</v>
       </c>
       <c r="C347" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D347" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E347" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8729,13 +8726,13 @@
         <v>394</v>
       </c>
       <c r="C348" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D348" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E348" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8746,13 +8743,13 @@
         <v>394</v>
       </c>
       <c r="C349" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D349" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E349" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8763,13 +8760,13 @@
         <v>394</v>
       </c>
       <c r="C350" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D350" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E350" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8780,13 +8777,13 @@
         <v>394</v>
       </c>
       <c r="C351" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D351" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E351" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8797,13 +8794,13 @@
         <v>387</v>
       </c>
       <c r="C352" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D352" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E352" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -8814,13 +8811,13 @@
         <v>394</v>
       </c>
       <c r="C353" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D353" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E353" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -8831,13 +8828,13 @@
         <v>394</v>
       </c>
       <c r="C354" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D354" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E354" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -8848,13 +8845,13 @@
         <v>394</v>
       </c>
       <c r="C355" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D355" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E355" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -8865,13 +8862,13 @@
         <v>395</v>
       </c>
       <c r="C356" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D356" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E356" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -8882,13 +8879,13 @@
         <v>395</v>
       </c>
       <c r="C357" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D357" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E357" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -8899,13 +8896,13 @@
         <v>395</v>
       </c>
       <c r="C358" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D358" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E358" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -8916,13 +8913,13 @@
         <v>395</v>
       </c>
       <c r="C359" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D359" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E359" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -8933,13 +8930,13 @@
         <v>395</v>
       </c>
       <c r="C360" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D360" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E360" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -8950,13 +8947,13 @@
         <v>395</v>
       </c>
       <c r="C361" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D361" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E361" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -8967,13 +8964,13 @@
         <v>395</v>
       </c>
       <c r="C362" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D362" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E362" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -8984,13 +8981,13 @@
         <v>395</v>
       </c>
       <c r="C363" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D363" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E363" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9001,13 +8998,13 @@
         <v>395</v>
       </c>
       <c r="C364" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D364" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E364" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9018,13 +9015,13 @@
         <v>395</v>
       </c>
       <c r="C365" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D365" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E365" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9035,13 +9032,13 @@
         <v>395</v>
       </c>
       <c r="C366" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D366" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E366" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9052,13 +9049,13 @@
         <v>395</v>
       </c>
       <c r="C367" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D367" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E367" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9069,13 +9066,13 @@
         <v>395</v>
       </c>
       <c r="C368" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D368" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E368" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9086,13 +9083,13 @@
         <v>395</v>
       </c>
       <c r="C369" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D369" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E369" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9106,10 +9103,10 @@
         <v>413</v>
       </c>
       <c r="D370" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E370" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9120,13 +9117,13 @@
         <v>395</v>
       </c>
       <c r="C371" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D371" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E371" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9137,13 +9134,13 @@
         <v>395</v>
       </c>
       <c r="C372" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D372" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E372" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9154,13 +9151,13 @@
         <v>395</v>
       </c>
       <c r="C373" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D373" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E373" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9171,13 +9168,13 @@
         <v>395</v>
       </c>
       <c r="C374" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D374" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E374" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9188,13 +9185,13 @@
         <v>395</v>
       </c>
       <c r="C375" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D375" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E375" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9205,13 +9202,13 @@
         <v>395</v>
       </c>
       <c r="C376" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D376" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E376" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9222,13 +9219,13 @@
         <v>395</v>
       </c>
       <c r="C377" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D377" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E377" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9239,13 +9236,13 @@
         <v>395</v>
       </c>
       <c r="C378" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D378" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E378" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9256,13 +9253,13 @@
         <v>395</v>
       </c>
       <c r="C379" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D379" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E379" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9273,13 +9270,13 @@
         <v>395</v>
       </c>
       <c r="C380" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D380" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E380" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9290,13 +9287,13 @@
         <v>395</v>
       </c>
       <c r="C381" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D381" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E381" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9307,13 +9304,13 @@
         <v>395</v>
       </c>
       <c r="C382" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D382" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E382" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class7.xlsx
+++ b/pali-class/vocab/vocab-class7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="812">
   <si>
     <t>Pāli1</t>
   </si>
@@ -1129,9 +1129,6 @@
     <t>jivhā</t>
   </si>
   <si>
-    <t>sālā 1</t>
-  </si>
-  <si>
     <t>upāsikā</t>
   </si>
   <si>
@@ -1237,7 +1234,7 @@
     <t>tooth</t>
   </si>
   <si>
-    <t>the hair on the body; pelt</t>
+    <t>body hair</t>
   </si>
   <si>
     <t>hair of the head</t>
@@ -2291,9 +2288,6 @@
   </si>
   <si>
     <t>tongue</t>
-  </si>
-  <si>
-    <t>hall</t>
   </si>
   <si>
     <t>female disciple; laywomen; female devotee</t>
@@ -2813,7 +2807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E382"/>
+  <dimension ref="A1:E381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2841,16 +2835,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2858,16 +2852,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2875,16 +2869,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2892,16 +2886,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2909,16 +2903,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2926,16 +2920,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D7" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E7" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2943,16 +2937,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D8" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2960,16 +2954,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E9" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2977,16 +2971,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D10" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2994,16 +2988,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3011,16 +3005,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D12" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E12" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3028,16 +3022,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3045,16 +3039,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D14" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E14" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3062,16 +3056,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D15" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E15" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3079,16 +3073,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D16" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E16" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3096,16 +3090,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D17" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E17" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3113,16 +3107,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D18" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E18" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3130,16 +3124,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D19" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E19" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3147,16 +3141,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D20" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E20" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3164,16 +3158,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D21" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E21" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3181,16 +3175,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D22" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E22" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3198,16 +3192,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D23" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E23" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3215,16 +3209,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D24" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E24" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3232,16 +3226,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D25" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E25" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3249,16 +3243,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D26" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E26" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3266,16 +3260,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D27" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E27" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3283,16 +3277,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D28" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E28" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3300,16 +3294,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D29" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E29" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3317,16 +3311,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D30" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3334,16 +3328,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D31" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E31" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3351,16 +3345,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D32" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E32" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3368,16 +3362,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D33" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E33" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3385,16 +3379,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D34" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E34" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3402,16 +3396,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D35" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E35" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3419,16 +3413,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D36" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E36" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3436,16 +3430,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C37" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D37" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E37" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3453,16 +3447,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D38" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E38" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3470,16 +3464,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D39" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E39" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3487,16 +3481,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D40" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3504,16 +3498,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D41" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E41" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3521,16 +3515,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D42" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E42" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3538,16 +3532,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D43" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E43" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3555,16 +3549,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C44" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D44" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E44" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3572,16 +3566,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D45" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E45" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3589,16 +3583,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C46" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D46" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E46" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3606,16 +3600,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D47" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E47" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3623,16 +3617,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D48" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E48" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3640,16 +3634,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D49" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E49" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3657,16 +3651,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C50" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D50" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E50" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3674,16 +3668,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C51" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D51" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E51" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3691,16 +3685,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C52" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D52" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E52" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3708,16 +3702,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C53" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D53" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E53" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3725,16 +3719,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C54" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D54" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E54" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3742,16 +3736,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C55" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D55" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E55" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3759,16 +3753,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C56" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D56" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E56" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3776,16 +3770,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C57" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D57" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E57" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3793,16 +3787,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C58" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D58" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E58" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3810,16 +3804,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C59" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D59" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E59" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3827,16 +3821,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C60" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D60" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E60" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3844,16 +3838,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C61" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D61" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E61" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3861,16 +3855,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C62" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D62" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E62" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3878,16 +3872,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C63" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D63" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E63" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3895,16 +3889,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D64" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E64" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3912,16 +3906,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D65" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E65" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3929,16 +3923,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C66" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D66" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E66" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3946,16 +3940,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C67" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D67" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E67" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3963,16 +3957,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C68" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D68" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E68" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3980,16 +3974,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C69" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D69" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E69" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3997,16 +3991,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C70" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D70" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E70" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4014,16 +4008,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C71" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D71" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E71" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4031,16 +4025,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C72" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D72" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E72" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4048,16 +4042,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C73" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D73" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E73" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4065,16 +4059,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C74" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D74" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E74" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4082,16 +4076,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C75" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D75" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E75" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4099,16 +4093,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C76" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D76" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E76" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4116,16 +4110,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C77" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D77" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E77" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4133,16 +4127,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C78" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D78" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E78" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4150,16 +4144,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C79" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D79" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E79" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4167,16 +4161,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C80" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D80" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E80" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4184,16 +4178,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C81" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D81" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E81" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4201,16 +4195,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C82" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D82" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E82" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4218,16 +4212,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C83" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D83" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E83" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4235,16 +4229,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C84" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D84" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E84" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4252,16 +4246,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C85" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D85" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E85" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4269,16 +4263,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C86" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D86" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E86" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4286,16 +4280,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C87" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D87" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E87" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4303,16 +4297,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C88" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D88" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E88" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4320,16 +4314,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C89" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D89" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E89" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4337,16 +4331,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C90" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D90" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E90" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4354,16 +4348,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C91" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D91" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E91" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4371,16 +4365,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C92" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D92" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E92" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4388,16 +4382,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C93" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D93" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E93" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4405,16 +4399,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C94" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D94" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E94" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4422,16 +4416,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C95" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D95" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E95" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4439,16 +4433,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C96" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D96" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E96" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4456,16 +4450,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C97" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D97" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E97" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4473,16 +4467,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C98" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D98" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E98" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4490,16 +4484,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C99" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D99" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E99" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4507,16 +4501,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C100" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D100" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E100" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4524,16 +4518,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C101" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D101" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E101" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4541,16 +4535,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C102" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D102" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E102" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4558,16 +4552,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C103" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D103" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E103" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4575,16 +4569,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C104" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D104" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E104" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4592,16 +4586,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C105" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D105" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E105" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4609,16 +4603,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C106" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D106" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E106" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4626,16 +4620,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C107" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D107" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E107" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4643,16 +4637,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C108" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D108" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E108" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4660,16 +4654,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C109" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D109" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E109" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4677,16 +4671,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C110" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D110" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E110" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4694,16 +4688,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C111" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D111" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E111" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4711,16 +4705,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C112" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D112" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E112" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4728,16 +4722,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C113" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D113" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E113" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4745,16 +4739,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C114" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D114" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E114" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4762,16 +4756,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C115" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D115" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E115" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4779,16 +4773,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C116" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D116" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E116" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4796,16 +4790,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C117" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D117" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E117" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4813,16 +4807,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C118" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D118" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E118" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4830,16 +4824,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C119" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D119" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E119" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4847,16 +4841,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C120" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D120" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E120" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4864,16 +4858,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C121" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D121" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E121" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4881,16 +4875,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C122" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D122" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E122" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4898,16 +4892,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C123" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D123" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E123" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4915,16 +4909,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C124" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D124" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E124" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4932,16 +4926,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C125" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D125" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E125" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4949,16 +4943,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C126" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D126" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E126" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4966,16 +4960,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C127" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D127" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E127" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4983,16 +4977,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C128" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D128" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E128" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5000,16 +4994,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C129" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D129" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E129" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5017,16 +5011,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C130" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D130" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E130" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5034,16 +5028,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C131" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D131" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E131" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5051,16 +5045,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C132" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D132" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E132" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5068,16 +5062,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C133" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D133" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E133" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5085,16 +5079,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C134" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D134" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E134" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5102,16 +5096,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C135" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D135" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E135" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5119,16 +5113,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C136" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D136" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E136" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5136,16 +5130,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C137" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D137" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E137" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5153,16 +5147,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C138" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D138" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E138" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5170,16 +5164,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C139" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D139" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E139" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5187,16 +5181,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C140" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D140" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E140" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5204,16 +5198,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C141" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D141" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E141" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5221,16 +5215,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C142" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D142" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E142" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5238,16 +5232,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C143" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D143" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E143" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5255,16 +5249,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C144" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D144" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E144" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5272,16 +5266,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C145" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D145" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E145" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5289,16 +5283,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C146" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D146" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E146" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5306,16 +5300,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C147" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D147" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E147" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5323,16 +5317,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C148" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D148" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E148" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5340,16 +5334,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C149" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D149" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E149" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5357,16 +5351,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C150" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D150" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E150" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5374,16 +5368,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C151" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D151" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E151" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5391,16 +5385,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C152" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D152" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E152" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5408,16 +5402,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C153" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D153" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E153" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5425,16 +5419,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C154" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D154" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E154" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5442,16 +5436,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C155" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D155" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E155" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5459,16 +5453,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C156" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D156" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E156" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5476,16 +5470,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C157" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D157" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E157" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5493,16 +5487,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C158" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D158" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E158" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5510,16 +5504,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C159" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D159" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E159" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5527,16 +5521,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C160" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D160" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E160" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5544,16 +5538,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C161" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D161" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E161" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5561,16 +5555,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C162" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D162" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E162" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5578,16 +5572,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C163" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D163" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E163" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5595,16 +5589,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C164" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D164" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E164" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5612,16 +5606,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C165" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D165" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E165" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5629,16 +5623,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C166" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D166" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E166" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5646,16 +5640,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D167" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E167" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5663,16 +5657,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C168" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D168" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E168" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5680,16 +5674,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C169" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D169" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E169" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5697,16 +5691,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C170" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D170" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E170" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5714,16 +5708,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C171" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D171" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E171" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5731,16 +5725,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C172" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D172" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E172" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5748,16 +5742,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C173" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D173" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E173" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5765,16 +5759,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C174" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D174" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E174" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5782,16 +5776,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C175" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D175" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E175" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5799,16 +5793,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C176" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D176" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E176" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5816,16 +5810,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C177" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D177" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E177" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5833,16 +5827,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C178" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D178" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E178" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5850,16 +5844,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C179" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D179" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E179" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5867,16 +5861,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C180" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D180" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E180" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5884,16 +5878,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C181" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D181" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E181" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5901,16 +5895,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C182" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D182" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E182" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5918,16 +5912,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C183" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D183" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E183" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5935,16 +5929,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C184" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D184" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E184" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5952,16 +5946,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C185" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D185" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E185" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5969,16 +5963,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C186" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D186" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E186" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5986,16 +5980,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C187" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D187" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E187" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6003,16 +5997,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C188" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D188" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E188" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6020,16 +6014,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C189" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D189" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E189" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6037,16 +6031,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C190" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D190" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E190" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6054,16 +6048,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C191" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D191" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E191" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6071,16 +6065,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C192" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D192" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E192" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6088,16 +6082,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C193" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D193" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E193" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6105,16 +6099,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C194" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D194" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E194" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6122,16 +6116,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C195" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D195" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E195" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6139,16 +6133,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C196" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D196" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E196" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6156,16 +6150,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C197" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D197" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E197" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6173,16 +6167,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C198" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D198" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E198" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6190,16 +6184,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C199" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D199" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E199" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6207,16 +6201,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C200" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D200" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E200" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6224,16 +6218,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C201" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D201" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E201" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6241,16 +6235,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C202" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D202" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E202" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6258,16 +6252,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C203" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D203" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E203" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6275,16 +6269,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C204" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D204" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E204" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6292,16 +6286,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C205" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D205" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E205" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6309,16 +6303,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C206" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D206" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E206" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6326,16 +6320,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C207" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D207" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E207" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6343,16 +6337,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C208" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D208" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E208" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6360,16 +6354,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C209" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D209" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E209" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6377,16 +6371,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C210" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D210" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E210" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6394,16 +6388,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C211" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D211" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E211" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6411,16 +6405,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C212" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D212" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E212" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6428,16 +6422,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C213" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D213" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E213" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6445,16 +6439,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C214" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D214" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E214" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6462,16 +6456,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C215" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D215" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E215" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6479,16 +6473,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C216" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D216" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E216" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6496,16 +6490,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C217" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D217" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E217" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6513,16 +6507,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C218" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D218" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E218" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6530,16 +6524,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C219" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D219" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E219" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6547,16 +6541,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C220" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D220" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E220" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6564,16 +6558,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C221" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D221" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E221" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6581,16 +6575,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C222" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D222" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E222" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6598,16 +6592,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C223" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D223" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E223" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6615,16 +6609,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C224" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D224" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E224" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6632,16 +6626,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C225" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D225" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E225" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6649,16 +6643,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C226" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D226" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E226" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6666,16 +6660,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C227" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D227" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E227" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6683,16 +6677,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C228" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D228" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E228" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6700,16 +6694,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C229" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D229" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E229" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6717,16 +6711,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C230" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D230" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E230" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6734,16 +6728,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C231" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D231" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E231" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6751,16 +6745,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C232" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D232" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E232" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6768,16 +6762,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C233" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D233" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E233" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6785,16 +6779,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C234" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D234" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E234" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6802,16 +6796,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C235" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D235" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E235" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6819,16 +6813,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C236" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D236" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E236" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6836,16 +6830,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C237" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D237" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E237" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6853,16 +6847,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C238" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D238" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E238" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6870,16 +6864,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C239" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D239" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E239" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6887,16 +6881,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C240" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D240" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E240" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6904,16 +6898,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C241" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D241" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E241" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6921,16 +6915,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C242" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D242" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E242" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6938,16 +6932,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C243" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D243" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E243" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6955,16 +6949,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C244" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D244" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E244" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6972,16 +6966,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C245" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D245" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E245" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6989,16 +6983,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C246" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D246" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E246" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7006,16 +7000,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C247" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D247" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E247" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7023,16 +7017,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C248" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D248" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E248" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7040,16 +7034,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C249" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D249" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E249" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7057,16 +7051,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C250" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D250" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E250" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7074,16 +7068,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C251" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D251" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E251" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7091,16 +7085,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C252" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D252" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E252" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7108,16 +7102,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C253" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D253" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E253" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7125,16 +7119,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C254" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D254" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E254" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7142,16 +7136,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C255" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D255" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E255" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7159,16 +7153,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C256" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D256" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E256" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7176,16 +7170,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C257" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D257" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E257" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7193,16 +7187,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C258" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D258" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E258" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7210,16 +7204,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C259" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D259" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E259" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7227,16 +7221,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C260" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D260" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E260" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7244,16 +7238,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C261" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D261" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E261" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7261,16 +7255,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C262" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D262" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E262" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7278,16 +7272,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C263" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D263" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E263" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7295,16 +7289,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C264" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D264" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E264" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7312,16 +7306,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C265" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D265" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E265" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7329,16 +7323,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C266" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D266" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E266" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7346,16 +7340,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C267" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D267" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E267" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7363,16 +7357,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C268" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D268" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E268" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7380,16 +7374,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C269" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D269" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E269" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7397,16 +7391,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C270" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D270" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E270" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7414,16 +7408,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C271" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D271" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E271" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7431,16 +7425,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C272" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D272" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E272" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7448,16 +7442,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C273" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D273" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E273" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7465,16 +7459,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C274" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D274" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E274" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7482,16 +7476,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C275" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D275" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E275" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7499,16 +7493,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C276" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D276" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E276" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7516,16 +7510,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C277" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D277" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E277" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7533,16 +7527,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C278" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D278" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E278" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7550,16 +7544,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C279" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D279" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E279" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7567,16 +7561,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C280" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D280" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E280" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7584,16 +7578,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C281" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D281" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E281" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7601,16 +7595,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C282" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D282" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E282" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7618,16 +7612,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C283" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D283" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E283" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7635,16 +7629,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C284" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D284" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E284" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7652,16 +7646,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C285" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D285" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E285" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7669,16 +7663,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C286" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D286" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E286" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7686,16 +7680,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C287" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D287" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E287" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7703,16 +7697,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C288" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D288" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E288" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7720,16 +7714,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C289" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D289" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E289" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7737,16 +7731,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C290" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D290" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E290" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7754,16 +7748,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C291" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D291" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E291" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7771,16 +7765,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C292" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D292" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E292" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7788,16 +7782,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C293" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D293" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E293" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7805,16 +7799,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C294" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D294" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E294" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7822,16 +7816,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C295" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D295" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E295" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7839,16 +7833,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C296" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D296" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E296" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7856,16 +7850,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C297" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D297" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E297" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7873,16 +7867,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C298" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D298" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E298" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7890,16 +7884,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C299" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D299" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E299" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7907,16 +7901,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C300" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D300" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E300" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7924,16 +7918,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C301" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D301" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E301" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7941,16 +7935,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C302" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D302" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E302" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7958,16 +7952,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C303" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D303" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E303" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7975,16 +7969,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C304" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D304" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E304" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7992,16 +7986,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C305" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D305" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E305" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8009,16 +8003,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C306" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D306" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E306" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8026,16 +8020,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C307" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D307" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E307" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8043,16 +8037,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C308" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D308" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E308" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8060,16 +8054,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C309" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D309" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E309" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8077,16 +8071,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C310" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D310" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E310" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8094,16 +8088,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C311" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D311" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E311" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8111,16 +8105,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C312" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D312" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E312" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8128,16 +8122,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C313" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D313" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E313" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8145,16 +8139,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C314" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D314" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E314" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8162,16 +8156,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C315" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D315" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E315" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8179,16 +8173,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C316" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D316" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E316" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8196,16 +8190,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C317" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D317" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E317" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8213,16 +8207,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C318" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D318" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E318" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8230,16 +8224,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C319" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D319" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E319" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8247,16 +8241,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C320" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D320" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E320" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8264,16 +8258,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C321" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D321" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E321" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8281,16 +8275,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C322" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D322" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E322" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8298,16 +8292,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C323" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D323" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E323" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8315,16 +8309,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C324" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D324" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E324" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8332,16 +8326,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C325" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D325" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E325" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8349,16 +8343,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C326" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D326" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E326" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8366,16 +8360,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C327" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D327" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E327" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8383,16 +8377,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C328" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D328" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E328" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8400,16 +8394,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C329" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D329" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E329" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8417,16 +8411,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C330" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D330" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E330" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8434,16 +8428,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C331" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D331" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E331" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8451,16 +8445,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C332" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D332" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E332" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8468,16 +8462,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C333" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D333" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E333" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8485,16 +8479,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C334" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D334" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E334" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8502,16 +8496,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C335" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D335" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E335" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8519,16 +8513,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C336" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D336" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E336" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8536,16 +8530,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C337" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D337" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E337" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8553,16 +8547,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C338" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D338" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E338" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8570,16 +8564,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C339" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D339" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E339" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8587,16 +8581,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C340" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D340" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E340" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8604,16 +8598,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C341" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D341" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E341" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8621,16 +8615,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C342" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D342" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E342" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8638,16 +8632,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C343" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D343" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E343" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8655,16 +8649,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C344" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D344" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E344" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8672,16 +8666,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C345" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D345" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E345" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8689,16 +8683,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C346" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D346" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E346" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8706,16 +8700,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C347" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D347" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E347" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8723,16 +8717,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C348" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D348" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E348" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8740,16 +8734,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C349" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D349" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E349" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8757,16 +8751,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C350" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D350" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E350" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8774,16 +8768,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C351" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D351" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E351" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8791,16 +8785,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C352" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D352" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E352" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -8808,16 +8802,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C353" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D353" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E353" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -8825,16 +8819,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C354" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D354" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E354" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -8842,16 +8836,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C355" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D355" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E355" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -8859,16 +8853,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C356" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D356" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E356" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -8876,16 +8870,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C357" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D357" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E357" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -8893,16 +8887,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C358" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D358" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E358" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -8910,16 +8904,16 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C359" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D359" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E359" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -8927,16 +8921,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C360" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D360" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E360" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -8944,16 +8938,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C361" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D361" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E361" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -8961,16 +8955,16 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C362" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D362" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E362" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -8978,16 +8972,16 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C363" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D363" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E363" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -8995,16 +8989,16 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C364" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D364" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E364" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9012,16 +9006,16 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C365" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D365" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E365" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9029,16 +9023,16 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C366" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D366" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E366" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9046,16 +9040,16 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C367" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D367" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E367" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9063,16 +9057,16 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C368" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D368" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E368" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9080,16 +9074,16 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C369" t="s">
-        <v>760</v>
+        <v>412</v>
       </c>
       <c r="D369" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E369" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9097,16 +9091,16 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C370" t="s">
-        <v>413</v>
+        <v>759</v>
       </c>
       <c r="D370" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E370" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9114,16 +9108,16 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C371" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D371" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E371" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9131,16 +9125,16 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C372" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D372" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E372" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9148,16 +9142,16 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C373" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D373" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E373" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9165,16 +9159,16 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C374" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D374" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E374" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9182,16 +9176,16 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C375" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D375" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E375" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9199,16 +9193,16 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C376" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D376" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E376" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9216,16 +9210,16 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C377" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D377" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E377" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9233,16 +9227,16 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C378" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D378" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E378" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9250,16 +9244,16 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C379" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D379" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E379" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9267,16 +9261,16 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C380" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D380" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E380" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9284,33 +9278,16 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C381" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D381" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E381" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
-      <c r="A382" t="s">
-        <v>385</v>
-      </c>
-      <c r="B382" t="s">
-        <v>395</v>
-      </c>
-      <c r="C382" t="s">
-        <v>772</v>
-      </c>
-      <c r="D382" t="s">
-        <v>807</v>
-      </c>
-      <c r="E382" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class7.xlsx
+++ b/pali-class/vocab/vocab-class7.xlsx
@@ -88,6 +88,9 @@
     <t>papañca</t>
   </si>
   <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
     <t>vasa 2</t>
   </si>
   <si>
@@ -361,39 +364,39 @@
     <t>cora</t>
   </si>
   <si>
+    <t>attha 05</t>
+  </si>
+  <si>
+    <t>patta 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
     <t>cāga 2</t>
   </si>
   <si>
-    <t>attha 05</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>patta 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
     <t>tathāgata</t>
   </si>
   <si>
@@ -418,9 +421,6 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
     <t>satipaṭṭhāna</t>
   </si>
   <si>
@@ -430,7 +430,7 @@
     <t>vitakka 1</t>
   </si>
   <si>
-    <t>vipāka</t>
+    <t>vipāka 1</t>
   </si>
   <si>
     <t>viveka 1</t>
@@ -982,12 +982,12 @@
     <t>satthar 1</t>
   </si>
   <si>
+    <t>dātar 1</t>
+  </si>
+  <si>
     <t>bhāsitar</t>
   </si>
   <si>
-    <t>dātar 1</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
     <t>adhigaccheyya</t>
   </si>
   <si>
-    <t>hanati 3</t>
+    <t>hanati 2</t>
   </si>
   <si>
     <t>kareyya 1</t>
@@ -1258,6 +1258,9 @@
     <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
   </si>
   <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
     <t>control; authority; power; mastery</t>
   </si>
   <si>
@@ -1531,39 +1534,39 @@
     <t>thief</t>
   </si>
   <si>
+    <t>need (for); want (for)</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>teacher; spiritual teacher</t>
+  </si>
+  <si>
+    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>beneficial friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection (of houses)</t>
+  </si>
+  <si>
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
-    <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; spiritual teacher</t>
-  </si>
-  <si>
-    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>beneficial friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection (of houses)</t>
-  </si>
-  <si>
     <t>Such Become; Realised; being in such a state; arrived to the truth; epithet of the Buddha; lit. thus gone; (or) thus came</t>
   </si>
   <si>
@@ -1588,9 +1591,6 @@
     <t>attention; mental application; lit. making in mind</t>
   </si>
   <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
     <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
   </si>
   <si>
@@ -2143,12 +2143,12 @@
     <t>teacher; master; the Buddha</t>
   </si>
   <si>
+    <t>giver; donor; bestower</t>
+  </si>
+  <si>
     <t>speaker</t>
   </si>
   <si>
-    <t>giver; donor; bestower</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
@@ -2242,7 +2242,7 @@
     <t>could get; would experience; would come across; lit. could arrive at</t>
   </si>
   <si>
-    <t>punishes; flogs; beats</t>
+    <t>kills; executes</t>
   </si>
   <si>
     <t>could do; would do</t>

--- a/pali-class/vocab/vocab-class7.xlsx
+++ b/pali-class/vocab/vocab-class7.xlsx
@@ -31,24 +31,249 @@
     <t>class</t>
   </si>
   <si>
+    <t>vinaya 1</t>
+  </si>
+  <si>
+    <t>dhamma 03</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2</t>
+  </si>
+  <si>
+    <t>bhoga 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1</t>
+  </si>
+  <si>
+    <t>attha 01</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
     <t>khattiya 2</t>
   </si>
   <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
     <t>magga 2</t>
   </si>
   <si>
     <t>dhamma 06</t>
   </si>
   <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
     <t>loka 1</t>
   </si>
   <si>
     <t>kāma 3</t>
   </si>
   <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1</t>
+  </si>
+  <si>
+    <t>kāya 2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
     <t>sāvaka</t>
   </si>
   <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 02</t>
+  </si>
+  <si>
+    <t>samatha 1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
@@ -58,6 +283,36 @@
     <t>samatikkama</t>
   </si>
   <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2</t>
+  </si>
+  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -70,261 +325,6 @@
     <t>kesa</t>
   </si>
   <si>
-    <t>vinaya 1</t>
-  </si>
-  <si>
-    <t>dhamma 03</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>māsa 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>bhoga 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>attha 01</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1</t>
-  </si>
-  <si>
-    <t>kāya 2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
     <t>sahāya</t>
   </si>
   <si>
@@ -442,114 +442,114 @@
     <t>kosalā</t>
   </si>
   <si>
+    <t>punabbhava</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>punabbhava</t>
-  </si>
-  <si>
     <t>vibhaṅga 1</t>
   </si>
   <si>
+    <t>pajahati</t>
+  </si>
+  <si>
+    <t>bandhati 1</t>
+  </si>
+  <si>
+    <t>passa 5</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>rakkhati 2</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
     <t>bhaṇati 1</t>
   </si>
   <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>bhajati 1</t>
+  </si>
+  <si>
     <t>vattati 1</t>
   </si>
   <si>
+    <t>labhati</t>
+  </si>
+  <si>
+    <t>anussarati 1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
     <t>pucchati</t>
   </si>
   <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
     <t>kappati</t>
   </si>
   <si>
-    <t>pajahati</t>
-  </si>
-  <si>
-    <t>bandhati 1</t>
-  </si>
-  <si>
-    <t>passa 5</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>bhajati 1</t>
-  </si>
-  <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
     <t>passati 1</t>
   </si>
   <si>
@@ -616,30 +616,30 @@
     <t>kassaka</t>
   </si>
   <si>
+    <t>āpajjati 2</t>
+  </si>
+  <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
     <t>uppajjati 1</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 2</t>
-  </si>
-  <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -649,27 +649,27 @@
     <t>āpajjati 5</t>
   </si>
   <si>
+    <t>atthi 2</t>
+  </si>
+  <si>
+    <t>amha 1</t>
+  </si>
+  <si>
+    <t>asi 3</t>
+  </si>
+  <si>
+    <t>attha 12</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>santi 3</t>
   </si>
   <si>
     <t>atthi 1</t>
   </si>
   <si>
-    <t>atthi 2</t>
-  </si>
-  <si>
-    <t>amha 1</t>
-  </si>
-  <si>
-    <t>asi 3</t>
-  </si>
-  <si>
-    <t>attha 12</t>
-  </si>
-  <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -715,15 +715,15 @@
     <t>muni 1</t>
   </si>
   <si>
+    <t>sāli</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
-    <t>sāli</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
     <t>isi</t>
   </si>
   <si>
@@ -769,21 +769,21 @@
     <t>āsi 1</t>
   </si>
   <si>
+    <t>mada 1</t>
+  </si>
+  <si>
+    <t>ājīva</t>
+  </si>
+  <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>taca 1</t>
   </si>
   <si>
-    <t>mada 1</t>
-  </si>
-  <si>
-    <t>ājīva</t>
-  </si>
-  <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>abhisamaya</t>
   </si>
   <si>
@@ -826,18 +826,18 @@
     <t>neti 1</t>
   </si>
   <si>
+    <t>na 1</t>
+  </si>
+  <si>
+    <t>saddhiṃ</t>
+  </si>
+  <si>
+    <t>saha 2</t>
+  </si>
+  <si>
     <t>no 3</t>
   </si>
   <si>
-    <t>na 1</t>
-  </si>
-  <si>
-    <t>saddhiṃ</t>
-  </si>
-  <si>
-    <t>saha 2</t>
-  </si>
-  <si>
     <t>no 1</t>
   </si>
   <si>
@@ -868,27 +868,27 @@
     <t>dassati 1</t>
   </si>
   <si>
+    <t>vo 3</t>
+  </si>
+  <si>
+    <t>vo 2</t>
+  </si>
+  <si>
+    <t>tumhākaṃ 3</t>
+  </si>
+  <si>
+    <t>taṃ 3</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
+    <t>tumhe 2</t>
+  </si>
+  <si>
     <t>tumhe 1</t>
   </si>
   <si>
-    <t>taṃ 3</t>
-  </si>
-  <si>
-    <t>vo 3</t>
-  </si>
-  <si>
-    <t>vo 2</t>
-  </si>
-  <si>
-    <t>tumhākaṃ 3</t>
-  </si>
-  <si>
-    <t>tumhe 2</t>
-  </si>
-  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
@@ -937,12 +937,12 @@
     <t>sakadāgāmī</t>
   </si>
   <si>
+    <t>sukhī 2</t>
+  </si>
+  <si>
     <t>brahmacārī 2</t>
   </si>
   <si>
-    <t>sukhī 2</t>
-  </si>
-  <si>
     <t>sabrahmacārī</t>
   </si>
   <si>
@@ -955,30 +955,30 @@
     <t>saṅgaha 1</t>
   </si>
   <si>
+    <t>paññavant</t>
+  </si>
+  <si>
+    <t>balavant</t>
+  </si>
+  <si>
+    <t>satimant 1</t>
+  </si>
+  <si>
     <t>sīlavant</t>
   </si>
   <si>
-    <t>paññavant</t>
-  </si>
-  <si>
-    <t>balavant</t>
-  </si>
-  <si>
-    <t>satimant 1</t>
-  </si>
-  <si>
     <t>assutavant</t>
   </si>
   <si>
+    <t>bhagavant 1</t>
+  </si>
+  <si>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
     <t>cakkhumant 2</t>
   </si>
   <si>
-    <t>bhagavant 1</t>
-  </si>
-  <si>
-    <t>āyasmant 1</t>
-  </si>
-  <si>
     <t>satthar 1</t>
   </si>
   <si>
@@ -1000,12 +1000,12 @@
     <t>paricarati 3</t>
   </si>
   <si>
+    <t>kālena</t>
+  </si>
+  <si>
     <t>vā 1</t>
   </si>
   <si>
-    <t>kālena</t>
-  </si>
-  <si>
     <t>yadā</t>
   </si>
   <si>
@@ -1069,18 +1069,18 @@
     <t>nahāyati</t>
   </si>
   <si>
+    <t>jāneyya</t>
+  </si>
+  <si>
+    <t>āgaccheyya</t>
+  </si>
+  <si>
+    <t>adhigaccheyya</t>
+  </si>
+  <si>
     <t>passeyya 1</t>
   </si>
   <si>
-    <t>jāneyya</t>
-  </si>
-  <si>
-    <t>āgaccheyya</t>
-  </si>
-  <si>
-    <t>adhigaccheyya</t>
-  </si>
-  <si>
     <t>hanati 2</t>
   </si>
   <si>
@@ -1093,48 +1093,48 @@
     <t>assa 3</t>
   </si>
   <si>
+    <t>gāthā 1</t>
+  </si>
+  <si>
+    <t>jarā</t>
+  </si>
+  <si>
+    <t>disā 1</t>
+  </si>
+  <si>
+    <t>abhijjhā</t>
+  </si>
+  <si>
+    <t>senā</t>
+  </si>
+  <si>
+    <t>bāhā 1</t>
+  </si>
+  <si>
+    <t>vācā 1</t>
+  </si>
+  <si>
+    <t>taṇhā 1</t>
+  </si>
+  <si>
+    <t>vedanā 1</t>
+  </si>
+  <si>
+    <t>jivhā</t>
+  </si>
+  <si>
+    <t>upāsikā</t>
+  </si>
+  <si>
+    <t>pabbajjā</t>
+  </si>
+  <si>
+    <t>devatā</t>
+  </si>
+  <si>
     <t>sacchikiriyā</t>
   </si>
   <si>
-    <t>pabbajjā</t>
-  </si>
-  <si>
-    <t>gāthā 1</t>
-  </si>
-  <si>
-    <t>jarā</t>
-  </si>
-  <si>
-    <t>disā 1</t>
-  </si>
-  <si>
-    <t>abhijjhā</t>
-  </si>
-  <si>
-    <t>senā</t>
-  </si>
-  <si>
-    <t>bāhā 1</t>
-  </si>
-  <si>
-    <t>vācā 1</t>
-  </si>
-  <si>
-    <t>taṇhā 1</t>
-  </si>
-  <si>
-    <t>vedanā 1</t>
-  </si>
-  <si>
-    <t>jivhā</t>
-  </si>
-  <si>
-    <t>upāsikā</t>
-  </si>
-  <si>
-    <t>devatā</t>
-  </si>
-  <si>
     <t>avijjā</t>
   </si>
   <si>
@@ -1201,24 +1201,249 @@
     <t>fem</t>
   </si>
   <si>
+    <t>discipline; training; lit. leading out</t>
+  </si>
+  <si>
+    <t>teaching; doctrine</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>human; human being; man</t>
+  </si>
+  <si>
+    <t>deity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control; authority; power; mastery</t>
+  </si>
+  <si>
+    <t>an individual; a person</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of)</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; existence; becoming</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>house; dwelling place; residence</t>
+  </si>
+  <si>
+    <t>obstacle; danger; lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>child; son</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>wealth; possession; property</t>
+  </si>
+  <si>
+    <t>cause; reason; supporting condition; precondition; requirement</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. coming together; meeting</t>
+  </si>
+  <si>
+    <t>meaning; significance</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
     <t>man of the ruling caste; high caste man; nobleman</t>
   </si>
   <si>
+    <t>touch; contact; sense impingement</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
     <t>way; means; method; lit. path</t>
   </si>
   <si>
     <t>matter; thing; phenomena</t>
   </si>
   <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman; man</t>
+  </si>
+  <si>
     <t>world; universe; cosmos</t>
   </si>
   <si>
     <t>sense desire (of); sensual pleasure (of)</t>
   </si>
   <si>
+    <t>leg; foot</t>
+  </si>
+  <si>
+    <t>requisite; accessory</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>a living being; creature; sentient beings</t>
+  </si>
+  <si>
+    <t>hell; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; comparison</t>
+  </si>
+  <si>
+    <t>group; host; multitude; lit. collection</t>
+  </si>
+  <si>
+    <t>community; assembly of monks</t>
+  </si>
+  <si>
+    <t>well; lit. water drinking</t>
+  </si>
+  <si>
+    <t>affliction; agitation; trouble; despair</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow</t>
+  </si>
+  <si>
+    <t>anger; hatred; ill-will</t>
+  </si>
+  <si>
+    <t>desire; lust; passion; attachment</t>
+  </si>
+  <si>
+    <t>breaking-up (of); breaking apart (of); death</t>
+  </si>
+  <si>
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
+  </si>
+  <si>
+    <t>obstacle; hindrance; obstruction; barrier</t>
+  </si>
+  <si>
+    <t>trainee; belonging to training; one who is in the course of perfection</t>
+  </si>
+  <si>
+    <t>quality; characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
+  </si>
+  <si>
+    <t>independence; freedom from clinging; non-attachment</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; dropping; abandoning</t>
+  </si>
+  <si>
+    <t>abandoning; giving up; renunciation</t>
+  </si>
+  <si>
+    <t>clarity; light; brightness</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending; termination; cessation; finishing</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>arising; origin; appearance; lit. come up together</t>
+  </si>
+  <si>
+    <t>mass; heap; pile</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness; peace; tranquillity</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death personified; the Evil One; Māra</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
     <t>arrival (at); attainment (of); reaching (of)</t>
   </si>
   <si>
@@ -1228,6 +1453,36 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; saint; holy man; sage</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
+  </si>
+  <si>
+    <t>the sea; ocean</t>
+  </si>
+  <si>
+    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>waning; fading away; lit. discolouring</t>
+  </si>
+  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -1240,261 +1495,6 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out</t>
-  </si>
-  <si>
-    <t>teaching; doctrine</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control; authority; power; mastery</t>
-  </si>
-  <si>
-    <t>an individual; a person</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of)</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; existence; becoming</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>house; dwelling place; residence</t>
-  </si>
-  <si>
-    <t>obstacle; danger; lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>child; son</t>
-  </si>
-  <si>
-    <t>wealth; possession; property</t>
-  </si>
-  <si>
-    <t>cause; reason; supporting condition; precondition; requirement</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>a living being; creature; sentient beings</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; comparison</t>
-  </si>
-  <si>
-    <t>group; host; multitude; lit. collection</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>anger; hatred; ill-will</t>
-  </si>
-  <si>
-    <t>desire; lust; passion; attachment</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>clarity; light; brightness</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>arising; origin; appearance; lit. come up together</t>
-  </si>
-  <si>
-    <t>mass; heap; pile</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>the sea; ocean</t>
-  </si>
-  <si>
-    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
     <t>friend; companion; fellow traveller</t>
   </si>
   <si>
@@ -1612,114 +1612,114 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
+    <t>appearing again; renewed existence; rebirth; further becoming</t>
+  </si>
+  <si>
     <t>(vinaya) 227 precepts for Buddhist monks</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
     <t>analysis; classification; breakdown</t>
   </si>
   <si>
+    <t>gives up; renounces; forsakes; abandons; let go</t>
+  </si>
+  <si>
+    <t>binds; ties up; imprisons</t>
+  </si>
+  <si>
+    <t>see! look! watch!</t>
+  </si>
+  <si>
+    <t>lasts; remains; persists; lit. stands</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>recites</t>
+  </si>
+  <si>
     <t>goes; goes away (from); leaves</t>
   </si>
   <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits</t>
+  </si>
+  <si>
+    <t>says; speaks</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for) requests</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; receives; gets</t>
+  </si>
+  <si>
     <t>speaks; says; proclaims</t>
   </si>
   <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>grows; increases</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
     <t>proceeds; continues; goes forward; practices</t>
   </si>
   <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects</t>
+  </si>
+  <si>
+    <t>sits; sits down</t>
+  </si>
+  <si>
+    <t>is; is being; becomes; exists</t>
+  </si>
+  <si>
+    <t>eats; chews; bites</t>
+  </si>
+  <si>
     <t>asks; enquires; questions</t>
   </si>
   <si>
+    <t>leads (to); is useful (for); is conducive to</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
+  </si>
+  <si>
+    <t>enjoys; finds high pleasure in</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
     <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
   </si>
   <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
-  </si>
-  <si>
-    <t>binds; ties up; imprisons</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits</t>
-  </si>
-  <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for) requests</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; receives; gets</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>grows; increases</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>sits; sits down</t>
-  </si>
-  <si>
-    <t>is; is being; becomes; exists</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
-  </si>
-  <si>
-    <t>leads (to); is useful (for); is conducive to</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
-  </si>
-  <si>
-    <t>enjoys; finds high pleasure in</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
     <t>sees</t>
   </si>
   <si>
@@ -1783,30 +1783,30 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>practices; follows a course of action; follows a method; is intent on</t>
+  </si>
+  <si>
+    <t>thinks; imagines; presumes</t>
+  </si>
+  <si>
+    <t>is reborn in; re-arises; lit. goes towards</t>
+  </si>
+  <si>
+    <t>is disenchanted; is disinterested; is disillusioned</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
     <t>appears; arises; takes place</t>
   </si>
   <si>
-    <t>is reborn in; re-arises; lit. goes towards</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>thinks; imagines; presumes</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -1816,27 +1816,27 @@
     <t>causes; effects</t>
   </si>
   <si>
+    <t>there are; they are</t>
+  </si>
+  <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>you (all) must be; may you (all) be</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>they are; there are</t>
   </si>
   <si>
     <t>there is</t>
   </si>
   <si>
-    <t>there are; they are</t>
-  </si>
-  <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>you (all) must be; may you (all) be</t>
-  </si>
-  <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>addressed; said (to)</t>
   </si>
   <si>
@@ -1882,15 +1882,15 @@
     <t>monk; sage; hermit; holy man</t>
   </si>
   <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
     <t>seer; sage</t>
   </si>
   <si>
@@ -1936,21 +1936,21 @@
     <t>one was; it was</t>
   </si>
   <si>
+    <t>excess; pleasure; intoxication</t>
+  </si>
+  <si>
+    <t>livelihood; way of earning a living</t>
+  </si>
+  <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; against the teaching</t>
+  </si>
+  <si>
     <t>skin</t>
   </si>
   <si>
-    <t>excess; pleasure; intoxication</t>
-  </si>
-  <si>
-    <t>livelihood; way of earning a living</t>
-  </si>
-  <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; against the teaching</t>
-  </si>
-  <si>
     <t>complete comprehension (of); total understanding (of); lit. arriving</t>
   </si>
   <si>
@@ -1990,18 +1990,18 @@
     <t>leads; carries away; takes away</t>
   </si>
   <si>
+    <t>(negative particle); no; not</t>
+  </si>
+  <si>
+    <t>together (with); with</t>
+  </si>
+  <si>
+    <t>with; together (with); accompanied (by)</t>
+  </si>
+  <si>
     <t>then; now; indeed</t>
   </si>
   <si>
-    <t>(negative particle); no; not</t>
-  </si>
-  <si>
-    <t>together (with); with</t>
-  </si>
-  <si>
-    <t>with; together (with); accompanied (by)</t>
-  </si>
-  <si>
     <t>no; not</t>
   </si>
   <si>
@@ -2032,27 +2032,27 @@
     <t>will give (to)</t>
   </si>
   <si>
+    <t>to you all; for you all</t>
+  </si>
+  <si>
+    <t>by you all; with you all</t>
+  </si>
+  <si>
+    <t>of you all; yours</t>
+  </si>
+  <si>
+    <t>you (object)</t>
+  </si>
+  <si>
     <t>to you; for you all</t>
   </si>
   <si>
+    <t>you all; you (respectful plural) (object)</t>
+  </si>
+  <si>
     <t>you all; you (respectful plural)</t>
   </si>
   <si>
-    <t>you (object)</t>
-  </si>
-  <si>
-    <t>to you all; for you all</t>
-  </si>
-  <si>
-    <t>by you all; with you all</t>
-  </si>
-  <si>
-    <t>of you all; yours</t>
-  </si>
-  <si>
-    <t>you all; you (respectful plural) (object)</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
@@ -2098,12 +2098,12 @@
     <t>who returns once; once-returner</t>
   </si>
   <si>
+    <t>happy one; who is at ease; who is happy; who is comfortable</t>
+  </si>
+  <si>
     <t>celibate person; one living the holy life</t>
   </si>
   <si>
-    <t>happy one; who is at ease; who is happy; who is comfortable</t>
-  </si>
-  <si>
     <t>fellow monk; spiritual companion</t>
   </si>
   <si>
@@ -2116,30 +2116,30 @@
     <t>support (of); maintenance (of); looking after; lit. holding together</t>
   </si>
   <si>
+    <t>wise; insightful; percipient</t>
+  </si>
+  <si>
+    <t>powerful; strong</t>
+  </si>
+  <si>
+    <t>mindful; fully present; attentive; lit. having memory quality</t>
+  </si>
+  <si>
     <t>virtuous; observing the moral practices</t>
   </si>
   <si>
-    <t>wise; insightful; percipient</t>
-  </si>
-  <si>
-    <t>powerful; strong</t>
-  </si>
-  <si>
-    <t>mindful; fully present; attentive; lit. having memory quality</t>
-  </si>
-  <si>
     <t>unlearned; untaught; uninitiated; untrained; lit. one who has not heard</t>
   </si>
   <si>
+    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
+  </si>
+  <si>
+    <t>venerable; reverend; lit. elder; respected</t>
+  </si>
+  <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
-    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
-  </si>
-  <si>
-    <t>venerable; reverend; lit. elder; respected</t>
-  </si>
-  <si>
     <t>teacher; master; the Buddha</t>
   </si>
   <si>
@@ -2161,12 +2161,12 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
+    <t>at the right moment; at a suitable time; at the proper time</t>
+  </si>
+  <si>
     <t>or; either or</t>
   </si>
   <si>
-    <t>at the right moment; at a suitable time; at the proper time</t>
-  </si>
-  <si>
     <t>when; whenever; lit. at whichever time</t>
   </si>
   <si>
@@ -2230,18 +2230,18 @@
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
+    <t>could know; would understand; could be aware; would find out</t>
+  </si>
+  <si>
+    <t>could come; would come along; could approach; would arrive</t>
+  </si>
+  <si>
+    <t>could get; would experience; would come across; lit. could arrive at</t>
+  </si>
+  <si>
     <t>could see; would see</t>
   </si>
   <si>
-    <t>could know; would understand; could be aware; would find out</t>
-  </si>
-  <si>
-    <t>could come; would come along; could approach; would arrive</t>
-  </si>
-  <si>
-    <t>could get; would experience; would come across; lit. could arrive at</t>
-  </si>
-  <si>
     <t>kills; executes</t>
   </si>
   <si>
@@ -2254,43 +2254,43 @@
     <t>may be; would be; could be</t>
   </si>
   <si>
+    <t>verse; poem; stanza; lit. in singing way</t>
+  </si>
+  <si>
+    <t>decay; aging</t>
+  </si>
+  <si>
+    <t>direction; point of the compass; cardinal point</t>
+  </si>
+  <si>
+    <t>wishing; wanting; covetousness</t>
+  </si>
+  <si>
+    <t>army; multitude</t>
+  </si>
+  <si>
+    <t>arm; forearm</t>
+  </si>
+  <si>
+    <t>word; speech; statement; talk</t>
+  </si>
+  <si>
+    <t>craving; wanting; desire; lit. thirst</t>
+  </si>
+  <si>
+    <t>sensation; feeling; felt experience</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>female disciple; laywomen; female devotee</t>
+  </si>
+  <si>
+    <t>ordination; renunciation; becoming a monastic; lit. going forth</t>
+  </si>
+  <si>
     <t>personal experience; realization</t>
-  </si>
-  <si>
-    <t>ordination; renunciation; becoming a monastic; lit. going forth</t>
-  </si>
-  <si>
-    <t>verse; poem; stanza; lit. in singing way</t>
-  </si>
-  <si>
-    <t>decay; aging</t>
-  </si>
-  <si>
-    <t>direction; point of the compass; cardinal point</t>
-  </si>
-  <si>
-    <t>wishing; wanting; covetousness</t>
-  </si>
-  <si>
-    <t>army; multitude</t>
-  </si>
-  <si>
-    <t>arm; forearm</t>
-  </si>
-  <si>
-    <t>word; speech; statement; talk</t>
-  </si>
-  <si>
-    <t>craving; wanting; desire; lit. thirst</t>
-  </si>
-  <si>
-    <t>sensation; feeling; felt experience</t>
-  </si>
-  <si>
-    <t>tongue</t>
-  </si>
-  <si>
-    <t>female disciple; laywomen; female devotee</t>
   </si>
   <si>
     <t>ignorance; illusion; not knowing; not understanding; stupidity</t>
@@ -5249,7 +5249,7 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C144" t="s">
         <v>537</v>
@@ -5334,7 +5334,7 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C149" t="s">
         <v>542</v>
@@ -6388,7 +6388,7 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C211" t="s">
         <v>603</v>
@@ -6422,7 +6422,7 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C213" t="s">
         <v>605</v>
@@ -9060,7 +9060,7 @@
         <v>394</v>
       </c>
       <c r="C368" t="s">
-        <v>758</v>
+        <v>399</v>
       </c>
       <c r="D368" t="s">
         <v>805</v>
@@ -9077,7 +9077,7 @@
         <v>394</v>
       </c>
       <c r="C369" t="s">
-        <v>412</v>
+        <v>758</v>
       </c>
       <c r="D369" t="s">
         <v>805</v>

--- a/pali-class/vocab/vocab-class7.xlsx
+++ b/pali-class/vocab/vocab-class7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="813">
   <si>
     <t>Pāli1</t>
   </si>
@@ -34,7 +34,7 @@
     <t>vinaya 1</t>
   </si>
   <si>
-    <t>dhamma 03</t>
+    <t>dhamma 1.03</t>
   </si>
   <si>
     <t>pariyāya 4</t>
@@ -52,7 +52,7 @@
     <t>saṅghādisesa 2</t>
   </si>
   <si>
-    <t>vasa 2</t>
+    <t>vasa 1.2</t>
   </si>
   <si>
     <t>puggala</t>
@@ -85,10 +85,10 @@
     <t>putta 1</t>
   </si>
   <si>
-    <t>māsa 2</t>
-  </si>
-  <si>
-    <t>bhoga 1</t>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
   </si>
   <si>
     <t>paccaya 2</t>
@@ -97,10 +97,10 @@
     <t>purisa 1</t>
   </si>
   <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>attha 01</t>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
   </si>
   <si>
     <t>sāriputta</t>
@@ -109,279 +109,279 @@
     <t>pañha 2</t>
   </si>
   <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
     <t>ābādha</t>
   </si>
   <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1</t>
-  </si>
-  <si>
-    <t>kāya 2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1</t>
-  </si>
-  <si>
-    <t>dhamma 05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>kāya 1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 05</t>
-  </si>
-  <si>
-    <t>patta 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
     <t>upajjhāya</t>
   </si>
   <si>
@@ -403,10 +403,10 @@
     <t>thullaccaya</t>
   </si>
   <si>
-    <t>thera 2</t>
-  </si>
-  <si>
-    <t>dhamma 09</t>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
   </si>
   <si>
     <t>nara</t>
@@ -421,7 +421,7 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>satipaṭṭhāna</t>
+    <t>satipaṭṭhāna 1</t>
   </si>
   <si>
     <t>sīha 1</t>
@@ -457,7 +457,7 @@
     <t>bandhati 1</t>
   </si>
   <si>
-    <t>passa 5</t>
+    <t>passa 2.1</t>
   </si>
   <si>
     <t>tiṭṭhati 3</t>
@@ -481,7 +481,7 @@
     <t>upasaṅkamati</t>
   </si>
   <si>
-    <t>bhāsati 1</t>
+    <t>bhāsati 1.1</t>
   </si>
   <si>
     <t>yācati 1</t>
@@ -508,16 +508,16 @@
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>bhajati 1</t>
+    <t>bhajati 1.1</t>
   </si>
   <si>
     <t>vattati 1</t>
   </si>
   <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
   </si>
   <si>
     <t>nisīdati</t>
@@ -556,7 +556,7 @@
     <t>gaccha 1</t>
   </si>
   <si>
-    <t>carati 1</t>
+    <t>carati 1.1</t>
   </si>
   <si>
     <t>pūjeti 1</t>
@@ -628,18 +628,18 @@
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
     <t>nibbindati 1</t>
   </si>
   <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -652,13 +652,13 @@
     <t>atthi 2</t>
   </si>
   <si>
-    <t>amha 1</t>
-  </si>
-  <si>
-    <t>asi 3</t>
-  </si>
-  <si>
-    <t>attha 12</t>
+    <t>amha 1.1</t>
+  </si>
+  <si>
+    <t>asi 2.1</t>
+  </si>
+  <si>
+    <t>attha 4.2</t>
   </si>
   <si>
     <t>amhi</t>
@@ -697,7 +697,7 @@
     <t>udapādi 1</t>
   </si>
   <si>
-    <t>abhinandi</t>
+    <t>abhinandi 1</t>
   </si>
   <si>
     <t>sammodi</t>
@@ -766,7 +766,7 @@
     <t>āsiṃ</t>
   </si>
   <si>
-    <t>āsi 1</t>
+    <t>āsi 1.1</t>
   </si>
   <si>
     <t>mada 1</t>
@@ -793,10 +793,10 @@
     <t>mayā 1</t>
   </si>
   <si>
-    <t>no 4</t>
-  </si>
-  <si>
-    <t>no 6</t>
+    <t>no 2.1</t>
+  </si>
+  <si>
+    <t>no 2.3</t>
   </si>
   <si>
     <t>mayaṃ</t>
@@ -805,7 +805,7 @@
     <t>me 5</t>
   </si>
   <si>
-    <t>no 7</t>
+    <t>no 2.4</t>
   </si>
   <si>
     <t>amhākaṃ 3</t>
@@ -823,7 +823,7 @@
     <t>sobhati 2</t>
   </si>
   <si>
-    <t>neti 1</t>
+    <t>neti 1.1</t>
   </si>
   <si>
     <t>na 1</t>
@@ -835,10 +835,10 @@
     <t>saha 2</t>
   </si>
   <si>
-    <t>no 3</t>
-  </si>
-  <si>
-    <t>no 1</t>
+    <t>no 1.3</t>
+  </si>
+  <si>
+    <t>no 1.1</t>
   </si>
   <si>
     <t>mā 1</t>
@@ -865,19 +865,19 @@
     <t>dhāressati</t>
   </si>
   <si>
-    <t>dassati 1</t>
-  </si>
-  <si>
-    <t>vo 3</t>
-  </si>
-  <si>
-    <t>vo 2</t>
+    <t>dassati 1.1</t>
+  </si>
+  <si>
+    <t>vo 1.3</t>
+  </si>
+  <si>
+    <t>vo 1.2</t>
   </si>
   <si>
     <t>tumhākaṃ 3</t>
   </si>
   <si>
-    <t>taṃ 3</t>
+    <t>taṃ 2.1</t>
   </si>
   <si>
     <t>tumhākaṃ 2</t>
@@ -892,7 +892,7 @@
     <t>tvaṃ 1</t>
   </si>
   <si>
-    <t>te 6</t>
+    <t>te 2.4</t>
   </si>
   <si>
     <t>tuvaṃ 1</t>
@@ -901,7 +901,7 @@
     <t>tayā 1</t>
   </si>
   <si>
-    <t>vo 4</t>
+    <t>vo 1.4</t>
   </si>
   <si>
     <t>nābhijānāti 1</t>
@@ -922,7 +922,7 @@
     <t>vippaṭisārī</t>
   </si>
   <si>
-    <t>bhogī 1</t>
+    <t>bhogī 1.1</t>
   </si>
   <si>
     <t>anupassī 1</t>
@@ -958,7 +958,7 @@
     <t>paññavant</t>
   </si>
   <si>
-    <t>balavant</t>
+    <t>balavant 1</t>
   </si>
   <si>
     <t>satimant 1</t>
@@ -1060,7 +1060,7 @@
     <t>lokavidū</t>
   </si>
   <si>
-    <t>gāha 4</t>
+    <t>gāha 2.2</t>
   </si>
   <si>
     <t>paṭighāta 1</t>
@@ -1090,7 +1090,7 @@
     <t>siyā 2</t>
   </si>
   <si>
-    <t>assa 3</t>
+    <t>assa 3.1</t>
   </si>
   <si>
     <t>gāthā 1</t>
@@ -1204,394 +1204,391 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
-    <t>teaching; doctrine</t>
+    <t>teaching; discourse; doctrine</t>
   </si>
   <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
   </si>
   <si>
     <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
-    <t>control; authority; power; mastery</t>
-  </si>
-  <si>
-    <t>an individual; a person</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of)</t>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
   </si>
   <si>
     <t>full moon or new moon observance day</t>
   </si>
   <si>
-    <t>being; existence; becoming</t>
+    <t>being; becoming; existence</t>
   </si>
   <si>
     <t>rainy season; monsoon</t>
   </si>
   <si>
-    <t>house; dwelling place; residence</t>
-  </si>
-  <si>
-    <t>obstacle; danger; lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
   </si>
   <si>
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
-    <t>child; son</t>
+    <t>son; child</t>
   </si>
   <si>
     <t>bean</t>
   </si>
   <si>
-    <t>wealth; possession; property</t>
-  </si>
-  <si>
-    <t>cause; reason; supporting condition; precondition; requirement</t>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
   </si>
   <si>
     <t>man; person</t>
   </si>
   <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
   </si>
   <si>
     <t>question; enquiry</t>
   </si>
   <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>well; (comm) pond; pool; lit. water drinking</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
     <t>disease; sickness; illness; affliction</t>
   </si>
   <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>way; means; method; lit. path</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>a living being; creature; sentient beings</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; comparison</t>
-  </si>
-  <si>
-    <t>group; host; multitude; lit. collection</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>anger; hatred; ill-will</t>
-  </si>
-  <si>
-    <t>desire; lust; passion; attachment</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>disciple; pupil; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>clarity; light; brightness</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>arising; origin; appearance; lit. come up together</t>
-  </si>
-  <si>
-    <t>mass; heap; pile</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>arrival (at); attainment (of); reaching (of)</t>
-  </si>
-  <si>
-    <t>method; system; (right) path</t>
-  </si>
-  <si>
-    <t>surpassing; overcoming; going beyond</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>the sea; ocean</t>
-  </si>
-  <si>
-    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
-    <t>distinction; attainment</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>hair of the head</t>
-  </si>
-  <si>
-    <t>friend; companion; fellow traveller</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>the Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising; appearing; coming into being</t>
-  </si>
-  <si>
-    <t>state of mind; mental states</t>
-  </si>
-  <si>
-    <t>stupidity; delusion; illusion; confusion</t>
-  </si>
-  <si>
-    <t>fool; immature person; ignorant person</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process; lit. collection</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief</t>
-  </si>
-  <si>
-    <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; spiritual teacher</t>
-  </si>
-  <si>
-    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
+    <t>preceptor; teacher</t>
   </si>
   <si>
     <t>lay disciple; lay devotee; lit. who sits near</t>
   </si>
   <si>
-    <t>beneficial friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection (of houses)</t>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
   </si>
   <si>
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
-    <t>Such Become; Realised; being in such a state; arrived to the truth; epithet of the Buddha; lit. thus gone; (or) thus came</t>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
   </si>
   <si>
     <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
   </si>
   <si>
-    <t>elder; senior monk; monk with 10 or more vassa; lit. lasting</t>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>law; case; rule</t>
   </si>
   <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance</t>
+    <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
     <t>element of awakening; factor of enlightenment</t>
   </si>
   <si>
-    <t>attention; mental application; lit. making in mind</t>
-  </si>
-  <si>
-    <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
     <t>lion</t>
@@ -1600,10 +1597,10 @@
     <t>thought; reflection; pondering</t>
   </si>
   <si>
-    <t>result; consequence; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement</t>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
   </si>
   <si>
     <t>name of the people of Malla; Mallans; lit. wrestlers</t>
@@ -1612,25 +1609,25 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
-    <t>(vinaya) 227 precepts for Buddhist monks</t>
-  </si>
-  <si>
-    <t>analysis; classification; breakdown</t>
-  </si>
-  <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
-  </si>
-  <si>
-    <t>binds; ties up; imprisons</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
+    <t>appearing again; renewed existence; rebirth; future life</t>
+  </si>
+  <si>
+    <t>(vinaya) precepts for Buddhist monastics</t>
+  </si>
+  <si>
+    <t>analysis; classification; breakdown; lit. division</t>
+  </si>
+  <si>
+    <t>gives up; abandons; lets go (of)</t>
+  </si>
+  <si>
+    <t>binds; ties up; imprisons; confines</t>
+  </si>
+  <si>
+    <t>see!; look (at)!</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
   </si>
   <si>
     <t>increases more and more; surpasses; outgrows</t>
@@ -1639,31 +1636,31 @@
     <t>says (to); speaks (to); tells (to)</t>
   </si>
   <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>goes; goes away (from); leaves</t>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
   </si>
   <si>
     <t>wards off; prevents; guards against</t>
   </si>
   <si>
-    <t>approaches; goes (to); visits</t>
-  </si>
-  <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for) requests</t>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
   </si>
   <si>
     <t>takes; steals; robs</t>
   </si>
   <si>
-    <t>obtains; receives; gets</t>
-  </si>
-  <si>
-    <t>speaks; says; proclaims</t>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
   </si>
   <si>
     <t>understands; gets; lit. sees</t>
@@ -1675,7 +1672,7 @@
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
-    <t>grows; increases</t>
+    <t>increases; develops; grows</t>
   </si>
   <si>
     <t>associates (with); keeps company (with)</t>
@@ -1687,31 +1684,31 @@
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>sits; sits down</t>
-  </si>
-  <si>
-    <t>is; is being; becomes; exists</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
   </si>
   <si>
     <t>asks; enquires; questions</t>
   </si>
   <si>
-    <t>leads (to); is useful (for); is conducive to</t>
+    <t>leads (to); results (in); causes</t>
   </si>
   <si>
     <t>goes; walks; moves; wanders around</t>
   </si>
   <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
-  </si>
-  <si>
-    <t>enjoys; finds high pleasure in</t>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
   </si>
   <si>
     <t>lives (in); dwells (in)</t>
@@ -1723,7 +1720,7 @@
     <t>sees</t>
   </si>
   <si>
-    <t>go! begone!</t>
+    <t>go!; begone!</t>
   </si>
   <si>
     <t>walks; wanders; goes around; travels; fares on</t>
@@ -1732,40 +1729,40 @@
     <t>worships; honours; respects</t>
   </si>
   <si>
-    <t>intends; will (to); lit. thinks</t>
-  </si>
-  <si>
-    <t>undergoes; feels; experiences</t>
-  </si>
-  <si>
-    <t>feels; experiences; senses</t>
-  </si>
-  <si>
-    <t>bears in mind; keeps in mind; remembers</t>
-  </si>
-  <si>
-    <t>gives; offers; hands</t>
-  </si>
-  <si>
-    <t>come; come here!</t>
-  </si>
-  <si>
-    <t>listens; hears</t>
-  </si>
-  <si>
-    <t>he must hear! may he listen!</t>
+    <t>intends; will (to)</t>
+  </si>
+  <si>
+    <t>personally experiences; undergoes; feels</t>
+  </si>
+  <si>
+    <t>feels; experiences; senses; notices</t>
+  </si>
+  <si>
+    <t>bears in mind; keeps in mind; remembers; lit. carries</t>
+  </si>
+  <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
+    <t>come!</t>
+  </si>
+  <si>
+    <t>hears</t>
+  </si>
+  <si>
+    <t>one must listen!; it must hear!</t>
   </si>
   <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to); appears; becomes evident</t>
+    <t>comes to mind; occurs (to)</t>
   </si>
   <si>
     <t>makes the claim (of); claims (to be)</t>
   </si>
   <si>
-    <t>gives; offers; donates</t>
+    <t>gives (to); offers (to); donates (to)</t>
   </si>
   <si>
     <t>knows; understands</t>
@@ -1774,1